--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Grades Updates" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Price Target Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Top Penny Stocks" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Top SP500 Stocks" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Bottom SP500 Stocks" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -998,7 +1001,6 @@
           <t>2025-10-06</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>Seaport Global</t>
@@ -1058,6 +1060,519 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>Raised</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>breakdown</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>last_5_close</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>last_5_volume</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BZAIW</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 0.595', '2025-10-02: 0.6189', '2025-10-03: 0.7101', '2025-10-06: 0.9488', '2025-10-07: 1.0']</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 29,116', '2025-10-02: 96,918', '2025-10-03: 107,773', '2025-10-06: 873,451', '2025-10-07: 172,679']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ALMS</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 4.06', '2025-10-02: 3.96', '2025-10-03: 4.02', '2025-10-06: 4.12', '2025-10-07: 4.51']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 582,700', '2025-10-02: 547,789', '2025-10-03: 387,370', '2025-10-06: 1,018,424', '2025-10-07: 1,711,313']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ABVE</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 2.14', '2025-10-02: 2.57', '2025-10-03: 2.93', '2025-10-06: 3.28', '2025-10-07: 3.49']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 5,513,600', '2025-10-02: 7,986,500', '2025-10-03: 6,442,900', '2025-10-06: 7,073,500', '2025-10-07: 4,050,192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SWIN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 2.5', '2025-10-02: 2.59', '2025-10-03: 2.78', '2025-10-06: 2.93', '2025-10-07: 3.19']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 1,508,987', '2025-10-02: 789,651', '2025-10-03: 985,200', '2025-10-06: 1,021,501', '2025-10-07: 1,840,436']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MGX</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 2.39', '2025-10-02: 2.49', '2025-10-03: 2.65', '2025-10-06: 2.69', '2025-10-07: 2.95']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 940,500', '2025-10-02: 685,400', '2025-10-03: 835,234', '2025-10-06: 602,522', '2025-10-07: 1,662,059']</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>breakdown</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>last_5_close</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>last_5_volume</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 149.68', '2025-10-02: 147.37', '2025-10-03: 140.74', '2025-10-06: 145.76', '2025-10-07: 150.87']</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 13,612,000', '2025-10-02: 7,490,815', '2025-10-03: 6,526,655', '2025-10-06: 10,454,686', '2025-10-07: 17,605,101']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TTD</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 49.32', '2025-10-02: 50.88', '2025-10-03: 51.55', '2025-10-06: 53.14', '2025-10-07: 53.49']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 13,061,036', '2025-10-02: 15,268,100', '2025-10-03: 11,935,934', '2025-10-06: 12,580,026', '2025-10-07: 17,769,564']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 152.7', '2025-10-02: 151.57', '2025-10-03: 151.82', '2025-10-06: 157.36', '2025-10-07: 154.52']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 8,079,500', '2025-10-02: 4,948,348', '2025-10-03: 5,141,646', '2025-10-06: 4,732,285', '2025-10-07: 3,286,134']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DASH</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 267.64', '2025-10-02: 270.09', '2025-10-03: 271.22', '2025-10-06: 281.74', '2025-10-07: 276.78']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 2,500,800', '2025-10-02: 2,168,206', '2025-10-03: 2,418,042', '2025-10-06: 3,905,093', '2025-10-07: 2,836,918']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 184.95', '2025-10-02: 187.05', '2025-10-03: 173.07', '2025-10-06: 179.53', '2025-10-07: 182.17']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 45,717,300', '2025-10-02: 39,849,210', '2025-10-03: 105,533,447', '2025-10-06: 52,504,240', '2025-10-07: 57,079,398']</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>breakdown</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>last_5_close</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>last_5_volume</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DHI</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 172.44', '2025-10-02: 171.47', '2025-10-03: 174.95', '2025-10-06: 171.53', '2025-10-07: 161.16']</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 2,160,142', '2025-10-02: 1,926,108', '2025-10-03: 2,096,300', '2025-10-06: 1,981,304', '2025-10-07: 6,067,123']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 12.27', '2025-10-02: 12.22', '2025-10-03: 12.67', '2025-10-06: 12.7', '2025-10-07: 11.92']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 73,578,427', '2025-10-02: 74,530,532', '2025-10-03: 100,778,558', '2025-10-06: 90,544,937', '2025-10-07: 153,987,491']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 42.66', '2025-10-02: 41.88', '2025-10-03: 41.98', '2025-10-06: 40.31', '2025-10-07: 41.18']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 3,894,124', '2025-10-02: 4,133,947', '2025-10-03: 5,151,717', '2025-10-06: 6,926,975', '2025-10-07: 4,918,145']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CSGP</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 83.48', '2025-10-02: 83.9', '2025-10-03: 84.8', '2025-10-06: 81.15', '2025-10-07: 80.6']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 2,856,338', '2025-10-02: 2,863,325', '2025-10-03: 2,671,918', '2025-10-06: 4,225,129', '2025-10-07: 2,107,837']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NXPI</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 224.91', '2025-10-02: 227.71', '2025-10-03: 228.89', '2025-10-06: 231.42', '2025-10-07: 219.58']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['2025-10-01: 2,079,847', '2025-10-02: 1,831,500', '2025-10-03: 1,537,435', '2025-10-06: 1,949,575', '2025-10-07: 2,438,645']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -850,6 +850,102 @@
       <c r="F13" t="inlineStr">
         <is>
           <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GEHC</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Citigroup</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GEHC</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Citigroup</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GEHC</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>maintain</t>
         </is>
       </c>
     </row>
@@ -864,7 +960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,46 +1114,89 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>GEHC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>74</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Graham Doyle</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>73</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Raised</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>CRL</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>2025-10-03</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Elizabeth Anderson</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Evercore ISI</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>200</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2025-10-02</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Luke Sergott</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barclays</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>195</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Raised</t>
         </is>
@@ -1112,32 +1251,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BZAIW</t>
+          <t>SWIN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-01: 0.595', '2025-10-02: 0.6189', '2025-10-03: 0.7101', '2025-10-06: 0.9488', '2025-10-07: 1.0']</t>
+          <t>['2025-10-01: 2.5', '2025-10-02: 2.59', '2025-10-03: 2.78', '2025-10-06: 2.93', '2025-10-07: 3.19']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-01: 29,116', '2025-10-02: 96,918', '2025-10-03: 107,773', '2025-10-06: 873,451', '2025-10-07: 172,679']</t>
+          <t>['2025-10-01: 1,508,987', '2025-10-02: 789,651', '2025-10-03: 985,200', '2025-10-06: 1,021,501', '2025-10-07: 1,845,724']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ALMS</t>
+          <t>BZAIW</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1145,24 +1284,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-01: 4.06', '2025-10-02: 3.96', '2025-10-03: 4.02', '2025-10-06: 4.12', '2025-10-07: 4.51']</t>
+          <t>['2025-10-01: 0.595', '2025-10-02: 0.6189', '2025-10-03: 0.7101', '2025-10-06: 0.9488', '2025-10-07: 1.0']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-01: 582,700', '2025-10-02: 547,789', '2025-10-03: 387,370', '2025-10-06: 1,018,424', '2025-10-07: 1,711,313']</t>
+          <t>['2025-10-01: 29,116', '2025-10-02: 96,918', '2025-10-03: 107,773', '2025-10-06: 873,451', '2025-10-07: 172,679']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ABVE</t>
+          <t>ALMS</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1170,24 +1309,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-01: 2.14', '2025-10-02: 2.57', '2025-10-03: 2.93', '2025-10-06: 3.28', '2025-10-07: 3.49']</t>
+          <t>['2025-10-01: 4.06', '2025-10-02: 3.96', '2025-10-03: 4.02', '2025-10-06: 4.12', '2025-10-07: 4.51']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-01: 5,513,600', '2025-10-02: 7,986,500', '2025-10-03: 6,442,900', '2025-10-06: 7,073,500', '2025-10-07: 4,050,192']</t>
+          <t>['2025-10-01: 582,700', '2025-10-02: 547,789', '2025-10-03: 387,370', '2025-10-06: 1,018,424', '2025-10-07: 1,732,690']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SWIN</t>
+          <t>ABVE</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1200,12 +1339,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-01: 2.5', '2025-10-02: 2.59', '2025-10-03: 2.78', '2025-10-06: 2.93', '2025-10-07: 3.19']</t>
+          <t>['2025-10-01: 2.14', '2025-10-02: 2.57', '2025-10-03: 2.93', '2025-10-06: 3.28', '2025-10-07: 3.49']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-01: 1,508,987', '2025-10-02: 789,651', '2025-10-03: 985,200', '2025-10-06: 1,021,501', '2025-10-07: 1,840,436']</t>
+          <t>['2025-10-01: 5,513,600', '2025-10-02: 7,986,500', '2025-10-03: 6,442,900', '2025-10-06: 7,110,500', '2025-10-07: 4,076,600']</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1369,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-01: 940,500', '2025-10-02: 685,400', '2025-10-03: 835,234', '2025-10-06: 602,522', '2025-10-07: 1,662,059']</t>
+          <t>['2025-10-01: 940,500', '2025-10-02: 685,400', '2025-10-03: 835,234', '2025-10-06: 602,522', '2025-10-07: 1,686,905']</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1440,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-01: 13,612,000', '2025-10-02: 7,490,815', '2025-10-03: 6,526,655', '2025-10-06: 10,454,686', '2025-10-07: 17,605,101']</t>
+          <t>['2025-10-01: 13,612,000', '2025-10-02: 7,490,815', '2025-10-03: 6,526,700', '2025-10-06: 10,454,700', '2025-10-07: 18,683,188']</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1465,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-01: 13,061,036', '2025-10-02: 15,268,100', '2025-10-03: 11,935,934', '2025-10-06: 12,580,026', '2025-10-07: 17,769,564']</t>
+          <t>['2025-10-01: 13,061,036', '2025-10-02: 15,268,100', '2025-10-03: 11,935,934', '2025-10-06: 12,580,026', '2025-10-07: 17,831,481']</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1490,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-01: 8,079,500', '2025-10-02: 4,948,348', '2025-10-03: 5,141,646', '2025-10-06: 4,732,285', '2025-10-07: 3,286,134']</t>
+          <t>['2025-10-01: 8,079,500', '2025-10-02: 4,948,348', '2025-10-03: 5,141,646', '2025-10-06: 4,732,300', '2025-10-07: 3,375,659']</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1515,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-01: 2,500,800', '2025-10-02: 2,168,206', '2025-10-03: 2,418,042', '2025-10-06: 3,905,093', '2025-10-07: 2,836,918']</t>
+          <t>['2025-10-01: 2,500,800', '2025-10-02: 2,168,206', '2025-10-03: 2,418,042', '2025-10-06: 3,905,100', '2025-10-07: 2,863,354']</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1540,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-01: 45,717,300', '2025-10-02: 39,849,210', '2025-10-03: 105,533,447', '2025-10-06: 52,504,240', '2025-10-07: 57,079,398']</t>
+          <t>['2025-10-01: 45,717,300', '2025-10-02: 39,849,210', '2025-10-03: 105,533,447', '2025-10-06: 52,504,240', '2025-10-07: 58,179,256']</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1593,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>ARE</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1462,49 +1601,49 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-01: 172.44', '2025-10-02: 171.47', '2025-10-03: 174.95', '2025-10-06: 171.53', '2025-10-07: 161.16']</t>
+          <t>['2025-10-01: 83.46', '2025-10-02: 83.7', '2025-10-03: 83.8', '2025-10-06: 79.99', '2025-10-07: 78.09']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-01: 2,160,142', '2025-10-02: 1,926,108', '2025-10-03: 2,096,300', '2025-10-06: 1,981,304', '2025-10-07: 6,067,123']</t>
+          <t>['2025-10-01: 1,307,114', '2025-10-02: 1,119,840', '2025-10-03: 1,999,500', '2025-10-06: 2,214,100', '2025-10-07: 3,016,440']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>WSM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-01: 12.27', '2025-10-02: 12.22', '2025-10-03: 12.67', '2025-10-06: 12.7', '2025-10-07: 11.92']</t>
+          <t>['2025-10-02: 196.14', '2025-10-03: 199.43', '2025-10-06: 196.15', '2025-10-07: 189.06', '2025-10-08: 190.43']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-01: 73,578,427', '2025-10-02: 74,530,532', '2025-10-03: 100,778,558', '2025-10-06: 90,544,937', '2025-10-07: 153,987,491']</t>
+          <t>['2025-10-02: 823,741', '2025-10-03: 987,830', '2025-10-06: 969,521', '2025-10-07: 1,512,633', '2025-10-08: 13,109']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>DECK</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1517,19 +1656,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-01: 42.66', '2025-10-02: 41.88', '2025-10-03: 41.98', '2025-10-06: 40.31', '2025-10-07: 41.18']</t>
+          <t>['2025-10-02: 103.8', '2025-10-03: 103.05', '2025-10-06: 102.04', '2025-10-07: 97.98', '2025-10-08: 99.01']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-01: 3,894,124', '2025-10-02: 4,133,947', '2025-10-03: 5,151,717', '2025-10-06: 6,926,975', '2025-10-07: 4,918,145']</t>
+          <t>['2025-10-02: 3,455,722', '2025-10-03: 2,405,910', '2025-10-06: 2,548,519', '2025-10-07: 3,085,682', '2025-10-08: 43,329']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1542,12 +1681,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-01: 83.48', '2025-10-02: 83.9', '2025-10-03: 84.8', '2025-10-06: 81.15', '2025-10-07: 80.6']</t>
+          <t>['2025-10-02: 48.74', '2025-10-03: 49.27', '2025-10-06: 50.35', '2025-10-07: 48.17', '2025-10-08: 48.375']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-01: 2,856,338', '2025-10-02: 2,863,325', '2025-10-03: 2,671,918', '2025-10-06: 4,225,129', '2025-10-07: 2,107,837']</t>
+          <t>['2025-10-02: 9,707,600', '2025-10-03: 5,297,900', '2025-10-06: 7,677,736', '2025-10-07: 8,626,426', '2025-10-08: 30,431']</t>
         </is>
       </c>
     </row>
@@ -1562,17 +1701,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-01: 224.91', '2025-10-02: 227.71', '2025-10-03: 228.89', '2025-10-06: 231.42', '2025-10-07: 219.58']</t>
+          <t>['2025-10-02: 227.71', '2025-10-03: 228.89', '2025-10-06: 231.42', '2025-10-07: 219.58', '2025-10-08: 219.87']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-01: 2,079,847', '2025-10-02: 1,831,500', '2025-10-03: 1,537,435', '2025-10-06: 1,949,575', '2025-10-07: 2,438,645']</t>
+          <t>['2025-10-02: 1,831,500', '2025-10-03: 1,537,435', '2025-10-06: 1,949,600', '2025-10-07: 2,492,875', '2025-10-08: 17,868']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -1251,7 +1251,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SWIN</t>
+          <t>ABVE</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1264,112 +1264,112 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-01: 2.5', '2025-10-02: 2.59', '2025-10-03: 2.78', '2025-10-06: 2.93', '2025-10-07: 3.19']</t>
+          <t>['2025-10-02: 2.57', '2025-10-03: 2.93', '2025-10-06: 3.28', '2025-10-07: 3.49', '2025-10-08: 4.62']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-01: 1,508,987', '2025-10-02: 789,651', '2025-10-03: 985,200', '2025-10-06: 1,021,501', '2025-10-07: 1,845,724']</t>
+          <t>['2025-10-02: 7,986,500', '2025-10-03: 6,442,900', '2025-10-06: 7,110,500', '2025-10-07: 4,129,600', '2025-10-08: 37,710,441']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BZAIW</t>
+          <t>MGX</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-01: 0.595', '2025-10-02: 0.6189', '2025-10-03: 0.7101', '2025-10-06: 0.9488', '2025-10-07: 1.0']</t>
+          <t>['2025-10-02: 2.49', '2025-10-03: 2.65', '2025-10-06: 2.69', '2025-10-07: 2.95', '2025-10-08: 3.19']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-01: 29,116', '2025-10-02: 96,918', '2025-10-03: 107,773', '2025-10-06: 873,451', '2025-10-07: 172,679']</t>
+          <t>['2025-10-02: 685,400', '2025-10-03: 835,234', '2025-10-06: 602,522', '2025-10-07: 1,686,905', '2025-10-08: 1,827,735']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ALMS</t>
+          <t>CRMLW</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-01: 4.06', '2025-10-02: 3.96', '2025-10-03: 4.02', '2025-10-06: 4.12', '2025-10-07: 4.51']</t>
+          <t>['2025-10-02: 2.76', '2025-10-03: 2.85', '2025-10-06: 4.62', '2025-10-07: 3.38', '2025-10-08: 4.62']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-01: 582,700', '2025-10-02: 547,789', '2025-10-03: 387,370', '2025-10-06: 1,018,424', '2025-10-07: 1,732,690']</t>
+          <t>['2025-10-02: 194,299', '2025-10-03: 236,429', '2025-10-06: 2,706,271', '2025-10-07: 1,030,831', '2025-10-08: 558,394']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ABVE</t>
+          <t>BZAIW</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-01: 2.14', '2025-10-02: 2.57', '2025-10-03: 2.93', '2025-10-06: 3.28', '2025-10-07: 3.49']</t>
+          <t>['2025-10-02: 0.6189', '2025-10-03: 0.7101', '2025-10-06: 0.9488', '2025-10-07: 1.0', '2025-10-08: 1.02']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-01: 5,513,600', '2025-10-02: 7,986,500', '2025-10-03: 6,442,900', '2025-10-06: 7,110,500', '2025-10-07: 4,076,600']</t>
+          <t>['2025-10-02: 96,918', '2025-10-03: 107,773', '2025-10-06: 873,451', '2025-10-07: 172,679', '2025-10-08: 276,325']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MGX</t>
+          <t>ALMS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-01: 2.39', '2025-10-02: 2.49', '2025-10-03: 2.65', '2025-10-06: 2.69', '2025-10-07: 2.95']</t>
+          <t>['2025-10-02: 3.96', '2025-10-03: 4.02', '2025-10-06: 4.12', '2025-10-07: 4.51', '2025-10-08: 4.43']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-01: 940,500', '2025-10-02: 685,400', '2025-10-03: 835,234', '2025-10-06: 602,522', '2025-10-07: 1,686,905']</t>
+          <t>['2025-10-02: 547,789', '2025-10-03: 387,370', '2025-10-06: 1,018,424', '2025-10-07: 1,732,700', '2025-10-08: 1,064,605']</t>
         </is>
       </c>
     </row>
@@ -1426,28 +1426,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-01: 149.68', '2025-10-02: 147.37', '2025-10-03: 140.74', '2025-10-06: 145.76', '2025-10-07: 150.87']</t>
+          <t>['2025-10-02: 147.37', '2025-10-03: 140.74', '2025-10-06: 145.76', '2025-10-07: 150.87', '2025-10-08: 164.53']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-01: 13,612,000', '2025-10-02: 7,490,815', '2025-10-03: 6,526,700', '2025-10-06: 10,454,700', '2025-10-07: 18,683,188']</t>
+          <t>['2025-10-02: 7,490,815', '2025-10-03: 6,526,700', '2025-10-06: 10,454,700', '2025-10-07: 18,683,200', '2025-10-08: 18,877,432']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1455,24 +1455,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-01: 49.32', '2025-10-02: 50.88', '2025-10-03: 51.55', '2025-10-06: 53.14', '2025-10-07: 53.49']</t>
+          <t>['2025-10-02: 151.57', '2025-10-03: 151.82', '2025-10-06: 157.36', '2025-10-07: 154.52', '2025-10-08: 164.12']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-01: 13,061,036', '2025-10-02: 15,268,100', '2025-10-03: 11,935,934', '2025-10-06: 12,580,026', '2025-10-07: 17,831,481']</t>
+          <t>['2025-10-02: 4,948,348', '2025-10-03: 5,141,646', '2025-10-06: 4,732,300', '2025-10-07: 3,375,700', '2025-10-08: 7,456,344']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>CRWD</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1480,24 +1480,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-01: 152.7', '2025-10-02: 151.57', '2025-10-03: 151.82', '2025-10-06: 157.36', '2025-10-07: 154.52']</t>
+          <t>['2025-10-02: 496.8', '2025-10-03: 489.88', '2025-10-06: 495.95', '2025-10-07: 484.62', '2025-10-08: 509.95']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-01: 8,079,500', '2025-10-02: 4,948,348', '2025-10-03: 5,141,646', '2025-10-06: 4,732,300', '2025-10-07: 3,375,659']</t>
+          <t>['2025-10-02: 2,588,818', '2025-10-03: 1,983,500', '2025-10-06: 1,949,400', '2025-10-07: 2,857,539', '2025-10-08: 3,603,397']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>SMCI</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1505,24 +1505,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-01: 267.64', '2025-10-02: 270.09', '2025-10-03: 271.22', '2025-10-06: 281.74', '2025-10-07: 276.78']</t>
+          <t>['2025-10-02: 52.5', '2025-10-03: 51.96', '2025-10-06: 54.62', '2025-10-07: 55.07', '2025-10-08: 58.68']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-01: 2,500,800', '2025-10-02: 2,168,206', '2025-10-03: 2,418,042', '2025-10-06: 3,905,100', '2025-10-07: 2,863,354']</t>
+          <t>['2025-10-02: 32,744,408', '2025-10-03: 32,220,401', '2025-10-06: 40,241,633', '2025-10-07: 37,885,900', '2025-10-08: 44,479,618']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>ACGL</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1535,12 +1535,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-01: 184.95', '2025-10-02: 187.05', '2025-10-03: 173.07', '2025-10-06: 179.53', '2025-10-07: 182.17']</t>
+          <t>['2025-10-02: 89.08', '2025-10-03: 90.79', '2025-10-06: 91.35', '2025-10-07: 94.1', '2025-10-08: 93.1']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-01: 45,717,300', '2025-10-02: 39,849,210', '2025-10-03: 105,533,447', '2025-10-06: 52,504,240', '2025-10-07: 58,179,256']</t>
+          <t>['2025-10-02: 1,460,406', '2025-10-03: 1,801,400', '2025-10-06: 1,474,645', '2025-10-07: 2,144,070', '2025-10-08: 1,632,702']</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>LEN</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1606,19 +1606,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-01: 83.46', '2025-10-02: 83.7', '2025-10-03: 83.8', '2025-10-06: 79.99', '2025-10-07: 78.09']</t>
+          <t>['2025-10-02: 128.33', '2025-10-03: 130.07', '2025-10-06: 126.39', '2025-10-07: 122.14', '2025-10-08: 120.12']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-01: 1,307,114', '2025-10-02: 1,119,840', '2025-10-03: 1,999,500', '2025-10-06: 2,214,100', '2025-10-07: 3,016,440']</t>
+          <t>['2025-10-02: 1,718,719', '2025-10-03: 2,026,728', '2025-10-06: 2,709,700', '2025-10-07: 3,661,700', '2025-10-08: 4,466,530']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WSM</t>
+          <t>DHI</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1631,19 +1631,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-02: 196.14', '2025-10-03: 199.43', '2025-10-06: 196.15', '2025-10-07: 189.06', '2025-10-08: 190.43']</t>
+          <t>['2025-10-02: 171.47', '2025-10-03: 174.95', '2025-10-06: 171.53', '2025-10-07: 161.16', '2025-10-08: 158.66']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-02: 823,741', '2025-10-03: 987,830', '2025-10-06: 969,521', '2025-10-07: 1,512,633', '2025-10-08: 13,109']</t>
+          <t>['2025-10-02: 1,926,108', '2025-10-03: 2,096,300', '2025-10-06: 1,981,304', '2025-10-07: 6,069,214', '2025-10-08: 4,961,084']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DECK</t>
+          <t>MKC</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1656,19 +1656,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-02: 103.8', '2025-10-03: 103.05', '2025-10-06: 102.04', '2025-10-07: 97.98', '2025-10-08: 99.01']</t>
+          <t>['2025-10-02: 68.09', '2025-10-03: 68.91', '2025-10-06: 68.29', '2025-10-07: 65.62', '2025-10-08: 65.81']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-02: 3,455,722', '2025-10-03: 2,405,910', '2025-10-06: 2,548,519', '2025-10-07: 3,085,682', '2025-10-08: 43,329']</t>
+          <t>['2025-10-02: 3,019,528', '2025-10-03: 3,907,620', '2025-10-06: 5,613,949', '2025-10-07: 6,012,833', '2025-10-08: 3,804,064']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>ADI</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1681,19 +1681,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-02: 48.74', '2025-10-03: 49.27', '2025-10-06: 50.35', '2025-10-07: 48.17', '2025-10-08: 48.375']</t>
+          <t>['2025-10-02: 241.67', '2025-10-03: 241.99', '2025-10-06: 242.5', '2025-10-07: 233.75', '2025-10-08: 237.93']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-02: 9,707,600', '2025-10-03: 5,297,900', '2025-10-06: 7,677,736', '2025-10-07: 8,626,426', '2025-10-08: 30,431']</t>
+          <t>['2025-10-02: 2,774,100', '2025-10-03: 2,118,611', '2025-10-06: 4,021,200', '2025-10-07: 3,397,800', '2025-10-08: 3,987,408']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1706,12 +1706,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-02: 227.71', '2025-10-03: 228.89', '2025-10-06: 231.42', '2025-10-07: 219.58', '2025-10-08: 219.87']</t>
+          <t>['2025-10-02: 74.57', '2025-10-03: 71.93', '2025-10-06: 71.17', '2025-10-07: 68.91', '2025-10-08: 69.09']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-02: 1,831,500', '2025-10-03: 1,537,435', '2025-10-06: 1,949,600', '2025-10-07: 2,492,875', '2025-10-08: 17,868']</t>
+          <t>['2025-10-02: 26,254,400', '2025-10-03: 18,794,900', '2025-10-06: 14,039,600', '2025-10-07: 17,368,000', '2025-10-08: 12,866,681']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -944,6 +944,198 @@
         </is>
       </c>
       <c r="F16" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Seaport Global</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Jefferies</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Raymond James</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>OTIS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Wolfe Research</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Peer Perform</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>OTIS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>OTIS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>JP Morgan</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -960,7 +1152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,180 +1215,89 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>CEG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Joseph O'Dea</t>
+          <t>Angie Storozynski</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wells Fargo</t>
+          <t>Seaport Global</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>575</v>
+        <v>407</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Damian Karas</t>
+          <t>Andrew Weisel</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>Scotiabank</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>676</v>
+        <v>401</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Lowered</t>
+          <t>Raised</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>OTIS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Gabe Hajde</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wells Fargo</t>
+          <t>Wolfe Research</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Julian Mitchell</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Seaport Global</t>
+          <t>Barclays</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>Unchanged</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GEHC</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-09-18</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Morgan Stanley</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>74</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-05-05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Graham Doyle</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>UBS</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>73</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Raised</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CRL</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Elizabeth Anderson</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Evercore ISI</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>200</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Luke Sergott</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Barclays</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>195</v>
-      </c>
-      <c r="J5" t="inlineStr">
         <is>
           <t>Raised</t>
         </is>
@@ -1251,57 +1352,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABVE</t>
+          <t>NMRA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-02: 2.57', '2025-10-03: 2.93', '2025-10-06: 3.28', '2025-10-07: 3.49', '2025-10-08: 4.62']</t>
+          <t>['2025-10-03: 1.83', '2025-10-06: 1.89', '2025-10-07: 1.86', '2025-10-08: 1.94', '2025-10-09: 1.95']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-02: 7,986,500', '2025-10-03: 6,442,900', '2025-10-06: 7,110,500', '2025-10-07: 4,129,600', '2025-10-08: 37,710,441']</t>
+          <t>['2025-10-03: 713,200', '2025-10-06: 357,000', '2025-10-07: 494,400', '2025-10-08: 466,000', '2025-10-09: 520,700']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MGX</t>
+          <t>ABVE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-02: 2.49', '2025-10-03: 2.65', '2025-10-06: 2.69', '2025-10-07: 2.95', '2025-10-08: 3.19']</t>
+          <t>['2025-10-03: 2.93', '2025-10-06: 3.28', '2025-10-07: 3.49', '2025-10-08: 4.62', '2025-10-09: 4.76']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-02: 685,400', '2025-10-03: 835,234', '2025-10-06: 602,522', '2025-10-07: 1,686,905', '2025-10-08: 1,827,735']</t>
+          <t>['2025-10-03: 6,442,900', '2025-10-06: 7,110,500', '2025-10-07: 4,129,600', '2025-10-08: 38,026,400', '2025-10-09: 6,614,000']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CRMLW</t>
+          <t>SWIN</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1314,19 +1415,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-02: 2.76', '2025-10-03: 2.85', '2025-10-06: 4.62', '2025-10-07: 3.38', '2025-10-08: 4.62']</t>
+          <t>['2025-10-03: 2.78', '2025-10-06: 2.93', '2025-10-07: 3.19', '2025-10-08: 3.08', '2025-10-09: 3.28']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-02: 194,299', '2025-10-03: 236,429', '2025-10-06: 2,706,271', '2025-10-07: 1,030,831', '2025-10-08: 558,394']</t>
+          <t>['2025-10-03: 985,200', '2025-10-06: 1,021,501', '2025-10-07: 1,845,724', '2025-10-08: 1,542,400', '2025-10-09: 1,026,432']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BZAIW</t>
+          <t>MGX</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1339,37 +1440,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-02: 0.6189', '2025-10-03: 0.7101', '2025-10-06: 0.9488', '2025-10-07: 1.0', '2025-10-08: 1.02']</t>
+          <t>['2025-10-03: 2.65', '2025-10-06: 2.69', '2025-10-07: 2.95', '2025-10-08: 3.19', '2025-10-09: 3.13']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-02: 96,918', '2025-10-03: 107,773', '2025-10-06: 873,451', '2025-10-07: 172,679', '2025-10-08: 276,325']</t>
+          <t>['2025-10-03: 835,234', '2025-10-06: 602,522', '2025-10-07: 1,686,905', '2025-10-08: 1,828,160', '2025-10-09: 818,750']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ALMS</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-02: 3.96', '2025-10-03: 4.02', '2025-10-06: 4.12', '2025-10-07: 4.51', '2025-10-08: 4.43']</t>
+          <t>['2025-10-03: 3.25', '2025-10-06: 3.37', '2025-10-07: 3.44', '2025-10-08: 3.47', '2025-10-09: 3.42']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-02: 547,789', '2025-10-03: 387,370', '2025-10-06: 1,018,424', '2025-10-07: 1,732,700', '2025-10-08: 1,064,605']</t>
+          <t>['2025-10-03: 5,370,435', '2025-10-06: 4,153,900', '2025-10-07: 4,198,739', '2025-10-08: 4,752,600', '2025-10-09: 3,188,729']</t>
         </is>
       </c>
     </row>
@@ -1422,32 +1523,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>ALB</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-02: 147.37', '2025-10-03: 140.74', '2025-10-06: 145.76', '2025-10-07: 150.87', '2025-10-08: 164.53']</t>
+          <t>['2025-10-03: 88.22', '2025-10-06: 92.03', '2025-10-07: 90.53', '2025-10-08: 91.69', '2025-10-09: 96.5']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-02: 7,490,815', '2025-10-03: 6,526,700', '2025-10-06: 10,454,700', '2025-10-07: 18,683,200', '2025-10-08: 18,877,432']</t>
+          <t>['2025-10-03: 2,570,442', '2025-10-06: 3,402,625', '2025-10-07: 2,238,900', '2025-10-08: 2,518,900', '2025-10-09: 5,594,888']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>EME</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1455,24 +1556,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-02: 151.57', '2025-10-03: 151.82', '2025-10-06: 157.36', '2025-10-07: 154.52', '2025-10-08: 164.12']</t>
+          <t>['2025-10-03: 654.41', '2025-10-06: 670.0', '2025-10-07: 673.08', '2025-10-08: 695.03', '2025-10-09: 680.83']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-02: 4,948,348', '2025-10-03: 5,141,646', '2025-10-06: 4,732,300', '2025-10-07: 3,375,700', '2025-10-08: 7,456,344']</t>
+          <t>['2025-10-03: 321,673', '2025-10-06: 592,414', '2025-10-07: 485,366', '2025-10-08: 417,682', '2025-10-09: 415,042']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>HOOD</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1480,24 +1581,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-02: 496.8', '2025-10-03: 489.88', '2025-10-06: 495.95', '2025-10-07: 484.62', '2025-10-08: 509.95']</t>
+          <t>['2025-10-03: 148.67', '2025-10-06: 144.26', '2025-10-07: 145.0', '2025-10-08: 150.87', '2025-10-09: 152.46']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-02: 2,588,818', '2025-10-03: 1,983,500', '2025-10-06: 1,949,400', '2025-10-07: 2,857,539', '2025-10-08: 3,603,397']</t>
+          <t>['2025-10-03: 34,531,713', '2025-10-06: 28,117,000', '2025-10-07: 24,867,400', '2025-10-08: 23,927,612', '2025-10-09: 19,632,970']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>IBKR</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1505,24 +1606,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-02: 52.5', '2025-10-03: 51.96', '2025-10-06: 54.62', '2025-10-07: 55.07', '2025-10-08: 58.68']</t>
+          <t>['2025-10-03: 70.36', '2025-10-06: 69.61', '2025-10-07: 69.35', '2025-10-08: 72.05', '2025-10-09: 72.62']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-02: 32,744,408', '2025-10-03: 32,220,401', '2025-10-06: 40,241,633', '2025-10-07: 37,885,900', '2025-10-08: 44,479,618']</t>
+          <t>['2025-10-03: 3,740,628', '2025-10-06: 3,723,400', '2025-10-07: 3,242,142', '2025-10-08: 4,341,019', '2025-10-09: 3,013,922']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ACGL</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1535,12 +1636,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-02: 89.08', '2025-10-03: 90.79', '2025-10-06: 91.35', '2025-10-07: 94.1', '2025-10-08: 93.1']</t>
+          <t>['2025-10-03: 151.82', '2025-10-06: 157.36', '2025-10-07: 154.52', '2025-10-08: 164.12', '2025-10-09: 164.07']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-02: 1,460,406', '2025-10-03: 1,801,400', '2025-10-06: 1,474,645', '2025-10-07: 2,144,070', '2025-10-08: 1,632,702']</t>
+          <t>['2025-10-03: 5,141,646', '2025-10-06: 4,732,300', '2025-10-07: 3,375,700', '2025-10-08: 7,521,930', '2025-10-09: 3,396,127']</t>
         </is>
       </c>
     </row>
@@ -1593,32 +1694,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-02: 128.33', '2025-10-03: 130.07', '2025-10-06: 126.39', '2025-10-07: 122.14', '2025-10-08: 120.12']</t>
+          <t>['2025-10-03: 18.99', '2025-10-06: 19.08', '2025-10-07: 18.6', '2025-10-08: 17.89', '2025-10-09: 17.67']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-02: 1,718,719', '2025-10-03: 2,026,728', '2025-10-06: 2,709,700', '2025-10-07: 3,661,700', '2025-10-08: 4,466,530']</t>
+          <t>['2025-10-03: 22,570,411', '2025-10-06: 17,522,629', '2025-10-07: 18,875,000', '2025-10-08: 45,894,700', '2025-10-09: 35,429,715']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>LYV</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1631,19 +1732,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-02: 171.47', '2025-10-03: 174.95', '2025-10-06: 171.53', '2025-10-07: 161.16', '2025-10-08: 158.66']</t>
+          <t>['2025-10-03: 156.32', '2025-10-06: 155.94', '2025-10-07: 155.33', '2025-10-08: 149.95', '2025-10-09: 152.75']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-02: 1,926,108', '2025-10-03: 2,096,300', '2025-10-06: 1,981,304', '2025-10-07: 6,069,214', '2025-10-08: 4,961,084']</t>
+          <t>['2025-10-03: 2,436,019', '2025-10-06: 2,000,769', '2025-10-07: 2,298,800', '2025-10-08: 6,429,300', '2025-10-09: 4,681,929']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>CTVA</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1656,19 +1757,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-02: 68.09', '2025-10-03: 68.91', '2025-10-06: 68.29', '2025-10-07: 65.62', '2025-10-08: 65.81']</t>
+          <t>['2025-10-03: 63.37', '2025-10-06: 64.3', '2025-10-07: 65.61', '2025-10-08: 63.11', '2025-10-09: 62.75']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-02: 3,019,528', '2025-10-03: 3,907,620', '2025-10-06: 5,613,949', '2025-10-07: 6,012,833', '2025-10-08: 3,804,064']</t>
+          <t>['2025-10-03: 4,329,057', '2025-10-06: 5,261,021', '2025-10-07: 4,409,839', '2025-10-08: 6,075,943', '2025-10-09: 3,033,253']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ADI</t>
+          <t>ARE</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1681,19 +1782,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-02: 241.67', '2025-10-03: 241.99', '2025-10-06: 242.5', '2025-10-07: 233.75', '2025-10-08: 237.93']</t>
+          <t>['2025-10-03: 83.8', '2025-10-06: 79.99', '2025-10-07: 78.09', '2025-10-08: 75.22', '2025-10-09: 74.43']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-02: 2,774,100', '2025-10-03: 2,118,611', '2025-10-06: 4,021,200', '2025-10-07: 3,397,800', '2025-10-08: 3,987,408']</t>
+          <t>['2025-10-03: 1,999,500', '2025-10-06: 2,214,100', '2025-10-07: 3,016,440', '2025-10-08: 3,464,500', '2025-10-09: 2,504,738']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>REGN</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1706,12 +1807,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-02: 74.57', '2025-10-03: 71.93', '2025-10-06: 71.17', '2025-10-07: 68.91', '2025-10-08: 69.09']</t>
+          <t>['2025-10-03: 600.0', '2025-10-06: 585.48', '2025-10-07: 583.24', '2025-10-08: 563.86', '2025-10-09: 569.9']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-02: 26,254,400', '2025-10-03: 18,794,900', '2025-10-06: 14,039,600', '2025-10-07: 17,368,000', '2025-10-08: 12,866,681']</t>
+          <t>['2025-10-03: 1,154,866', '2025-10-06: 1,072,437', '2025-10-07: 656,400', '2025-10-08: 1,415,840', '2025-10-09: 853,522']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1136,6 +1136,102 @@
         </is>
       </c>
       <c r="F22" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BTIG</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Wedbush</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Needham</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -1152,7 +1248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1215,89 +1311,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>PANW</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Angie Storozynski</t>
+          <t>Gray Powell</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Seaport Global</t>
+          <t>BTIG</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>407</v>
+        <v>248</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Andrew Weisel</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Scotiabank</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>401</v>
+        <v>245</v>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>Raised</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>OTIS</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Wolfe Research</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>109</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-01-08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Julian Mitchell</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Barclays</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>91</v>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t>Raised</t>
         </is>
@@ -1352,7 +1400,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NMRA</t>
+          <t>SWIN</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1360,99 +1408,99 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-03: 1.83', '2025-10-06: 1.89', '2025-10-07: 1.86', '2025-10-08: 1.94', '2025-10-09: 1.95']</t>
+          <t>['2025-10-03: 2.78', '2025-10-06: 2.93', '2025-10-07: 3.19', '2025-10-08: 3.08', '2025-10-09: 3.28']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-03: 713,200', '2025-10-06: 357,000', '2025-10-07: 494,400', '2025-10-08: 466,000', '2025-10-09: 520,700']</t>
+          <t>['2025-10-03: 985,200', '2025-10-06: 1,021,501', '2025-10-07: 1,845,724', '2025-10-08: 1,542,400', '2025-10-09: 1,026,432']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ABVE</t>
+          <t>LDLVX</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-03: 2.93', '2025-10-06: 3.28', '2025-10-07: 3.49', '2025-10-08: 4.62', '2025-10-09: 4.76']</t>
+          <t>['2025-10-07: 3.9', '2025-10-08: 3.9', '2025-10-09: 3.89', '2025-10-10: 3.9', '2025-10-13: 3.9']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-03: 6,442,900', '2025-10-06: 7,110,500', '2025-10-07: 4,129,600', '2025-10-08: 38,026,400', '2025-10-09: 6,614,000']</t>
+          <t>['2025-10-07: 0', '2025-10-08: 0', '2025-10-09: 0', '2025-10-10: 0', '2025-10-13: 0']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SWIN</t>
+          <t>JSHAX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-03: 2.78', '2025-10-06: 2.93', '2025-10-07: 3.19', '2025-10-08: 3.08', '2025-10-09: 3.28']</t>
+          <t>['2025-10-07: 2.9', '2025-10-08: 2.9', '2025-10-09: 2.9', '2025-10-10: 2.9', '2025-10-13: 2.91']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-03: 985,200', '2025-10-06: 1,021,501', '2025-10-07: 1,845,724', '2025-10-08: 1,542,400', '2025-10-09: 1,026,432']</t>
+          <t>['2025-10-07: 0', '2025-10-08: 0', '2025-10-09: 0', '2025-10-10: 0', '2025-10-13: 0']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MGX</t>
+          <t>JSHNX</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-03: 2.65', '2025-10-06: 2.69', '2025-10-07: 2.95', '2025-10-08: 3.19', '2025-10-09: 3.13']</t>
+          <t>['2025-10-07: 2.89', '2025-10-08: 2.89', '2025-10-09: 2.88', '2025-10-10: 2.88', '2025-10-13: 2.89']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-03: 835,234', '2025-10-06: 602,522', '2025-10-07: 1,686,905', '2025-10-08: 1,828,160', '2025-10-09: 818,750']</t>
+          <t>['2025-10-07: 0', '2025-10-08: 0', '2025-10-09: 0', '2025-10-10: 0', '2025-10-13: 0']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>ALMS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1465,12 +1513,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-03: 3.25', '2025-10-06: 3.37', '2025-10-07: 3.44', '2025-10-08: 3.47', '2025-10-09: 3.42']</t>
+          <t>['2025-10-06: 4.12', '2025-10-07: 4.51', '2025-10-08: 4.43', '2025-10-09: 4.53', '2025-10-10: 4.44']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-03: 5,370,435', '2025-10-06: 4,153,900', '2025-10-07: 4,198,739', '2025-10-08: 4,752,600', '2025-10-09: 3,188,729']</t>
+          <t>['2025-10-06: 1,018,424', '2025-10-07: 1,732,700', '2025-10-08: 1,065,746', '2025-10-09: 676,400', '2025-10-10: 770,895']</t>
         </is>
       </c>
     </row>
@@ -1523,32 +1571,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-03: 88.22', '2025-10-06: 92.03', '2025-10-07: 90.53', '2025-10-08: 91.69', '2025-10-09: 96.5']</t>
+          <t>['2025-10-06: 327.62', '2025-10-07: 318.35', '2025-10-08: 327.65', '2025-10-09: 330.45', '2025-10-10: 331.0']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-03: 2,570,442', '2025-10-06: 3,402,625', '2025-10-07: 2,238,900', '2025-10-08: 2,518,900', '2025-10-09: 5,594,888']</t>
+          <t>['2025-10-06: 433,041', '2025-10-07: 491,244', '2025-10-08: 603,923', '2025-10-09: 744,545', '2025-10-10: 1,647,743']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EME</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1556,24 +1604,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-03: 654.41', '2025-10-06: 670.0', '2025-10-07: 673.08', '2025-10-08: 695.03', '2025-10-09: 680.83']</t>
+          <t>['2025-10-07: 185.69', '2025-10-08: 196.54', '2025-10-09: 192.33', '2025-10-10: 181.6', '2025-10-13: 192.0']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-03: 321,673', '2025-10-06: 592,414', '2025-10-07: 485,366', '2025-10-08: 417,682', '2025-10-09: 415,042']</t>
+          <t>['2025-10-07: 27,828,200', '2025-10-08: 26,833,900', '2025-10-09: 19,721,500', '2025-10-10: 26,990,253', '2025-10-13: 1,677,826']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1586,62 +1634,62 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-03: 148.67', '2025-10-06: 144.26', '2025-10-07: 145.0', '2025-10-08: 150.87', '2025-10-09: 152.46']</t>
+          <t>['2025-10-07: 140.79', '2025-10-08: 138.84', '2025-10-09: 144.71', '2025-10-10: 150.08', '2025-10-13: 148.44']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-03: 34,531,713', '2025-10-06: 28,117,000', '2025-10-07: 24,867,400', '2025-10-08: 23,927,612', '2025-10-09: 19,632,970']</t>
+          <t>['2025-10-07: 6,110,309', '2025-10-08: 8,256,741', '2025-10-09: 13,706,629', '2025-10-10: 17,545,164', '2025-10-13: 75,728']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IBKR</t>
+          <t>ERIE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-03: 70.36', '2025-10-06: 69.61', '2025-10-07: 69.35', '2025-10-08: 72.05', '2025-10-09: 72.62']</t>
+          <t>['2025-10-06: 316.19', '2025-10-07: 319.41', '2025-10-08: 327.7', '2025-10-09: 320.45', '2025-10-10: 324.31']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-03: 3,740,628', '2025-10-06: 3,723,400', '2025-10-07: 3,242,142', '2025-10-08: 4,341,019', '2025-10-09: 3,013,922']</t>
+          <t>['2025-10-06: 99,200', '2025-10-07: 86,800', '2025-10-08: 98,900', '2025-10-09: 127,300', '2025-10-10: 117,113']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>KVUE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-03: 151.82', '2025-10-06: 157.36', '2025-10-07: 154.52', '2025-10-08: 164.12', '2025-10-09: 164.07']</t>
+          <t>['2025-10-06: 15.69', '2025-10-07: 16.22', '2025-10-08: 16.08', '2025-10-09: 16.84', '2025-10-10: 16.65']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-03: 5,141,646', '2025-10-06: 4,732,300', '2025-10-07: 3,375,700', '2025-10-08: 7,521,930', '2025-10-09: 3,396,127']</t>
+          <t>['2025-10-06: 25,054,735', '2025-10-07: 31,078,400', '2025-10-08: 18,797,516', '2025-10-09: 39,063,200', '2025-10-10: 21,210,926']</t>
         </is>
       </c>
     </row>
@@ -1694,125 +1742,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>SWKS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-03: 18.99', '2025-10-06: 19.08', '2025-10-07: 18.6', '2025-10-08: 17.89', '2025-10-09: 17.67']</t>
+          <t>['2025-10-06: 76.91', '2025-10-07: 74.34', '2025-10-08: 76.1', '2025-10-09: 73.64', '2025-10-10: 69.16']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-03: 22,570,411', '2025-10-06: 17,522,629', '2025-10-07: 18,875,000', '2025-10-08: 45,894,700', '2025-10-09: 35,429,715']</t>
+          <t>['2025-10-06: 1,925,800', '2025-10-07: 1,585,208', '2025-10-08: 1,611,174', '2025-10-09: 1,958,116', '2025-10-10: 3,062,650']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LYV</t>
+          <t>MOS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-03: 156.32', '2025-10-06: 155.94', '2025-10-07: 155.33', '2025-10-08: 149.95', '2025-10-09: 152.75']</t>
+          <t>['2025-10-06: 35.34', '2025-10-07: 35.41', '2025-10-08: 34.79', '2025-10-09: 33.44', '2025-10-10: 30.35']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-03: 2,436,019', '2025-10-06: 2,000,769', '2025-10-07: 2,298,800', '2025-10-08: 6,429,300', '2025-10-09: 4,681,929']</t>
+          <t>['2025-10-06: 4,669,504', '2025-10-07: 4,018,039', '2025-10-08: 4,484,832', '2025-10-09: 4,730,182', '2025-10-10: 11,969,362']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CTVA</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-03: 63.37', '2025-10-06: 64.3', '2025-10-07: 65.61', '2025-10-08: 63.11', '2025-10-09: 62.75']</t>
+          <t>['2025-10-06: 587.0', '2025-10-07: 631.85', '2025-10-08: 629.7', '2025-10-09: 600.32', '2025-10-10: 569.89']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-03: 4,329,057', '2025-10-06: 5,261,021', '2025-10-07: 4,409,839', '2025-10-08: 6,075,943', '2025-10-09: 3,033,253']</t>
+          <t>['2025-10-06: 14,417,706', '2025-10-07: 11,768,731', '2025-10-08: 5,472,905', '2025-10-09: 6,289,311', '2025-10-10: 6,479,078']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>KKR</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-03: 83.8', '2025-10-06: 79.99', '2025-10-07: 78.09', '2025-10-08: 75.22', '2025-10-09: 74.43']</t>
+          <t>['2025-10-06: 126.87', '2025-10-07: 124.72', '2025-10-08: 124.73', '2025-10-09: 124.06', '2025-10-10: 117.82']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-03: 1,999,500', '2025-10-06: 2,214,100', '2025-10-07: 3,016,440', '2025-10-08: 3,464,500', '2025-10-09: 2,504,738']</t>
+          <t>['2025-10-06: 3,522,046', '2025-10-07: 3,513,906', '2025-10-08: 4,544,335', '2025-10-09: 3,657,100', '2025-10-10: 6,810,608']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>TRGP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-03: 600.0', '2025-10-06: 585.48', '2025-10-07: 583.24', '2025-10-08: 563.86', '2025-10-09: 569.9']</t>
+          <t>['2025-10-06: 162.6', '2025-10-07: 166.44', '2025-10-08: 168.49', '2025-10-09: 161.3', '2025-10-10: 152.41']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-03: 1,154,866', '2025-10-06: 1,072,437', '2025-10-07: 656,400', '2025-10-08: 1,415,840', '2025-10-09: 853,522']</t>
+          <t>['2025-10-06: 1,233,500', '2025-10-07: 1,821,100', '2025-10-08: 2,009,900', '2025-10-09: 1,371,000', '2025-10-10: 1,870,207']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -1400,82 +1400,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SWIN</t>
+          <t>XCH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-03: 2.78', '2025-10-06: 2.93', '2025-10-07: 3.19', '2025-10-08: 3.08', '2025-10-09: 3.28']</t>
+          <t>['2025-10-07: 1.2', '2025-10-08: 1.2', '2025-10-09: 1.2', '2025-10-10: 0.826', '2025-10-13: 1.68']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-03: 985,200', '2025-10-06: 1,021,501', '2025-10-07: 1,845,724', '2025-10-08: 1,542,400', '2025-10-09: 1,026,432']</t>
+          <t>['2025-10-07: 34,745', '2025-10-08: 13,016', '2025-10-09: 48,900', '2025-10-10: 395,400', '2025-10-13: 37,324,200']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LDLVX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-07: 3.9', '2025-10-08: 3.9', '2025-10-09: 3.89', '2025-10-10: 3.9', '2025-10-13: 3.9']</t>
+          <t>['2025-10-07: 3.44', '2025-10-08: 3.47', '2025-10-09: 3.42', '2025-10-10: 3.37', '2025-10-13: 3.66']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-07: 0', '2025-10-08: 0', '2025-10-09: 0', '2025-10-10: 0', '2025-10-13: 0']</t>
+          <t>['2025-10-07: 4,198,739', '2025-10-08: 4,752,600', '2025-10-09: 3,188,729', '2025-10-10: 5,778,100', '2025-10-13: 5,728,645']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JSHAX</t>
+          <t>SWIN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-07: 2.9', '2025-10-08: 2.9', '2025-10-09: 2.9', '2025-10-10: 2.9', '2025-10-13: 2.91']</t>
+          <t>['2025-10-06: 2.93', '2025-10-07: 3.19', '2025-10-08: 3.08', '2025-10-09: 3.28', '2025-10-10: 3.16']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-07: 0', '2025-10-08: 0', '2025-10-09: 0', '2025-10-10: 0', '2025-10-13: 0']</t>
+          <t>['2025-10-06: 1,021,501', '2025-10-07: 1,845,724', '2025-10-08: 1,542,400', '2025-10-09: 1,026,432', '2025-10-10: 1,346,667']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JSHNX</t>
+          <t>LDLVX</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1488,19 +1488,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-07: 2.89', '2025-10-08: 2.89', '2025-10-09: 2.88', '2025-10-10: 2.88', '2025-10-13: 2.89']</t>
+          <t>['2025-10-08: 3.9', '2025-10-09: 3.89', '2025-10-10: 3.9', '2025-10-13: 3.9', '2025-10-14: 3.9']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-07: 0', '2025-10-08: 0', '2025-10-09: 0', '2025-10-10: 0', '2025-10-13: 0']</t>
+          <t>['2025-10-08: 0', '2025-10-09: 0', '2025-10-10: 0', '2025-10-13: 0', '2025-10-14: 0']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ALMS</t>
+          <t>TRBFX</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-06: 4.12', '2025-10-07: 4.51', '2025-10-08: 4.43', '2025-10-09: 4.53', '2025-10-10: 4.44']</t>
+          <t>['2025-10-08: 4.88', '2025-10-09: 4.88', '2025-10-10: 4.89', '2025-10-13: 4.89', '2025-10-14: 4.89']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-06: 1,018,424', '2025-10-07: 1,732,700', '2025-10-08: 1,065,746', '2025-10-09: 676,400', '2025-10-10: 770,895']</t>
+          <t>['2025-10-08: 0', '2025-10-09: 0', '2025-10-10: 0', '2025-10-13: 0', '2025-10-14: 0']</t>
         </is>
       </c>
     </row>
@@ -1571,32 +1571,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-06: 327.62', '2025-10-07: 318.35', '2025-10-08: 327.65', '2025-10-09: 330.45', '2025-10-10: 331.0']</t>
+          <t>['2025-10-07: 336.41', '2025-10-08: 345.5', '2025-10-09: 345.02', '2025-10-10: 324.63', '2025-10-13: 356.7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-06: 433,041', '2025-10-07: 491,244', '2025-10-08: 603,923', '2025-10-09: 744,545', '2025-10-10: 1,647,743']</t>
+          <t>['2025-10-07: 18,086,705', '2025-10-08: 21,478,344', '2025-10-09: 17,643,744', '2025-10-10: 28,941,011', '2025-10-13: 45,984,259']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>VST</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1609,19 +1609,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-07: 185.69', '2025-10-08: 196.54', '2025-10-09: 192.33', '2025-10-10: 181.6', '2025-10-13: 192.0']</t>
+          <t>['2025-10-07: 199.62', '2025-10-08: 206.55', '2025-10-09: 210.0', '2025-10-10: 196.86', '2025-10-13: 209.55']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-07: 27,828,200', '2025-10-08: 26,833,900', '2025-10-09: 19,721,500', '2025-10-10: 26,990,253', '2025-10-13: 1,677,826']</t>
+          <t>['2025-10-07: 2,865,843', '2025-10-08: 3,706,000', '2025-10-09: 3,796,100', '2025-10-10: 4,388,200', '2025-10-13: 3,868,849']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>GEV</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1629,67 +1629,67 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-07: 140.79', '2025-10-08: 138.84', '2025-10-09: 144.71', '2025-10-10: 150.08', '2025-10-13: 148.44']</t>
+          <t>['2025-10-07: 606.12', '2025-10-08: 625.45', '2025-10-09: 634.27', '2025-10-10: 604.56', '2025-10-13: 648.25']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-07: 6,110,309', '2025-10-08: 8,256,741', '2025-10-09: 13,706,629', '2025-10-10: 17,545,164', '2025-10-13: 75,728']</t>
+          <t>['2025-10-07: 2,161,700', '2025-10-08: 2,286,500', '2025-10-09: 2,414,018', '2025-10-10: 3,003,600', '2025-10-13: 3,406,783']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ERIE</t>
+          <t>KDP</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-06: 316.19', '2025-10-07: 319.41', '2025-10-08: 327.7', '2025-10-09: 320.45', '2025-10-10: 324.31']</t>
+          <t>['2025-10-07: 25.33', '2025-10-08: 25.58', '2025-10-09: 25.85', '2025-10-10: 25.82', '2025-10-13: 26.42']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-06: 99,200', '2025-10-07: 86,800', '2025-10-08: 98,900', '2025-10-09: 127,300', '2025-10-10: 117,113']</t>
+          <t>['2025-10-07: 15,276,700', '2025-10-08: 13,028,700', '2025-10-09: 19,416,200', '2025-10-10: 11,763,200', '2025-10-13: 32,613,304']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KVUE</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-06: 15.69', '2025-10-07: 16.22', '2025-10-08: 16.08', '2025-10-09: 16.84', '2025-10-10: 16.65']</t>
+          <t>['2025-10-07: 48.17', '2025-10-08: 50.88', '2025-10-09: 49.97', '2025-10-10: 45.74', '2025-10-13: 50.11']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-06: 25,054,735', '2025-10-07: 31,078,400', '2025-10-08: 18,797,516', '2025-10-09: 39,063,200', '2025-10-10: 21,210,926']</t>
+          <t>['2025-10-07: 8,626,426', '2025-10-08: 8,823,400', '2025-10-09: 5,385,608', '2025-10-10: 13,823,829', '2025-10-13: 11,877,061']</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>LVS</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1755,44 +1755,44 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-06: 76.91', '2025-10-07: 74.34', '2025-10-08: 76.1', '2025-10-09: 73.64', '2025-10-10: 69.16']</t>
+          <t>['2025-10-07: 51.8', '2025-10-08: 53.27', '2025-10-09: 51.86', '2025-10-10: 49.61', '2025-10-13: 46.47']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-06: 1,925,800', '2025-10-07: 1,585,208', '2025-10-08: 1,611,174', '2025-10-09: 1,958,116', '2025-10-10: 3,062,650']</t>
+          <t>['2025-10-07: 3,172,600', '2025-10-08: 5,252,500', '2025-10-09: 5,423,632', '2025-10-10: 6,609,000', '2025-10-13: 11,891,696']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MOS</t>
+          <t>BKR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-06: 35.34', '2025-10-07: 35.41', '2025-10-08: 34.79', '2025-10-09: 33.44', '2025-10-10: 30.35']</t>
+          <t>['2025-10-07: 48.58', '2025-10-08: 47.85', '2025-10-09: 47.89', '2025-10-10: 45.04', '2025-10-13: 45.49']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-06: 4,669,504', '2025-10-07: 4,018,039', '2025-10-08: 4,484,832', '2025-10-09: 4,730,182', '2025-10-10: 11,969,362']</t>
+          <t>['2025-10-07: 4,877,883', '2025-10-08: 6,007,100', '2025-10-09: 5,456,954', '2025-10-10: 7,467,021', '2025-10-13: 11,108,272']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>FAST</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1800,67 +1800,67 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-06: 587.0', '2025-10-07: 631.85', '2025-10-08: 629.7', '2025-10-09: 600.32', '2025-10-10: 569.89']</t>
+          <t>['2025-10-07: 47.45', '2025-10-08: 47.55', '2025-10-09: 46.71', '2025-10-10: 45.78', '2025-10-13: 42.33']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-06: 14,417,706', '2025-10-07: 11,768,731', '2025-10-08: 5,472,905', '2025-10-09: 6,289,311', '2025-10-10: 6,479,078']</t>
+          <t>['2025-10-07: 4,105,859', '2025-10-08: 5,531,900', '2025-10-09: 5,878,607', '2025-10-10: 9,382,638', '2025-10-13: 16,595,825']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-06: 126.87', '2025-10-07: 124.72', '2025-10-08: 124.73', '2025-10-09: 124.06', '2025-10-10: 117.82']</t>
+          <t>['2025-10-07: 631.85', '2025-10-08: 629.7', '2025-10-09: 600.32', '2025-10-10: 569.89', '2025-10-13: 590.11']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-06: 3,522,046', '2025-10-07: 3,513,906', '2025-10-08: 4,544,335', '2025-10-09: 3,657,100', '2025-10-10: 6,810,608']</t>
+          <t>['2025-10-07: 11,768,731', '2025-10-08: 5,472,905', '2025-10-09: 6,289,311', '2025-10-10: 6,479,100', '2025-10-13: 4,062,397']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TRGP</t>
+          <t>XYZ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-06: 162.6', '2025-10-07: 166.44', '2025-10-08: 168.49', '2025-10-09: 161.3', '2025-10-10: 152.41']</t>
+          <t>['2025-10-07: 79.02', '2025-10-08: 81.11', '2025-10-09: 80.85', '2025-10-10: 74.67', '2025-10-13: 75.02']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-06: 1,233,500', '2025-10-07: 1,821,100', '2025-10-08: 2,009,900', '2025-10-09: 1,371,000', '2025-10-10: 1,870,207']</t>
+          <t>['2025-10-07: 5,428,046', '2025-10-08: 6,024,900', '2025-10-09: 4,193,600', '2025-10-10: 8,802,335', '2025-10-13: 5,383,772']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1232,6 +1232,294 @@
         </is>
       </c>
       <c r="F25" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DASH</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>JP Morgan</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DASH</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DASH</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Cantor Fitzgerald</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DECK</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BWG Global</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Mixed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DECK</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DECK</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>B of A Securities</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MPWR</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Wolfe Research</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Peer Perform</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MPWR</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Citigroup</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MPWR</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Keybanc</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -1248,7 +1536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1311,41 +1599,160 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>DASH</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Guggenheim</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>330</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>301</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Raised</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DECK</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>157</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bernstein</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Raised</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>PANW</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>2025-10-13</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Gray Powell</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>BTIG</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E4" t="n">
         <v>248</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2025-09-26</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>UBS</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="I4" t="n">
         <v>245</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Raised</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MPWR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Chris Caso</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Wolfe Research</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>KeyBanc</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1050</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>Raised</t>
         </is>
@@ -1400,7 +1807,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>XCH</t>
+          <t>CCGWW</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1413,12 +1820,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-07: 1.2', '2025-10-08: 1.2', '2025-10-09: 1.2', '2025-10-10: 0.826', '2025-10-13: 1.68']</t>
+          <t>['2025-10-08: 0.0361', '2025-10-09: 0.0398', '2025-10-10: 0.0334', '2025-10-13: 0.033', '2025-10-14: 0.0489']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-07: 34,745', '2025-10-08: 13,016', '2025-10-09: 48,900', '2025-10-10: 395,400', '2025-10-13: 37,324,200']</t>
+          <t>['2025-10-08: 300', '2025-10-09: 6,027', '2025-10-10: 18,600', '2025-10-13: 12,702', '2025-10-14: 80,149']</t>
         </is>
       </c>
     </row>
@@ -1433,24 +1840,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-07: 3.44', '2025-10-08: 3.47', '2025-10-09: 3.42', '2025-10-10: 3.37', '2025-10-13: 3.66']</t>
+          <t>['2025-10-08: 3.47', '2025-10-09: 3.42', '2025-10-10: 3.37', '2025-10-13: 3.66', '2025-10-14: 3.66']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-07: 4,198,739', '2025-10-08: 4,752,600', '2025-10-09: 3,188,729', '2025-10-10: 5,778,100', '2025-10-13: 5,728,645']</t>
+          <t>['2025-10-08: 4,752,600', '2025-10-09: 3,188,729', '2025-10-10: 5,778,100', '2025-10-13: 5,728,645', '2025-10-14: 7,857,314']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SWIN</t>
+          <t>ALMS</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1463,62 +1870,62 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-06: 2.93', '2025-10-07: 3.19', '2025-10-08: 3.08', '2025-10-09: 3.28', '2025-10-10: 3.16']</t>
+          <t>['2025-10-08: 4.43', '2025-10-09: 4.53', '2025-10-10: 4.44', '2025-10-13: 4.61', '2025-10-14: 4.63']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-06: 1,021,501', '2025-10-07: 1,845,724', '2025-10-08: 1,542,400', '2025-10-09: 1,026,432', '2025-10-10: 1,346,667']</t>
+          <t>['2025-10-08: 1,065,746', '2025-10-09: 676,400', '2025-10-10: 770,900', '2025-10-13: 521,478', '2025-10-14: 461,850']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LDLVX</t>
+          <t>ABVE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-08: 3.9', '2025-10-09: 3.89', '2025-10-10: 3.9', '2025-10-13: 3.9', '2025-10-14: 3.9']</t>
+          <t>['2025-10-08: 4.62', '2025-10-09: 4.76', '2025-10-10: 3.77', '2025-10-13: 4.08', '2025-10-14: 4.32']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-08: 0', '2025-10-09: 0', '2025-10-10: 0', '2025-10-13: 0', '2025-10-14: 0']</t>
+          <t>['2025-10-08: 38,026,400', '2025-10-09: 6,653,400', '2025-10-10: 7,479,200', '2025-10-13: 4,295,400', '2025-10-14: 3,324,600']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TRBFX</t>
+          <t>ROMA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-08: 4.88', '2025-10-09: 4.88', '2025-10-10: 4.89', '2025-10-13: 4.89', '2025-10-14: 4.89']</t>
+          <t>['2025-10-08: 2.75', '2025-10-09: 2.64', '2025-10-10: 2.6', '2025-10-13: 2.39', '2025-10-14: 2.79']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-08: 0', '2025-10-09: 0', '2025-10-10: 0', '2025-10-13: 0', '2025-10-14: 0']</t>
+          <t>['2025-10-08: 20,424', '2025-10-09: 15,100', '2025-10-10: 2,734', '2025-10-13: 11,700', '2025-10-14: 34,700']</t>
         </is>
       </c>
     </row>
@@ -1571,32 +1978,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>GEV</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-07: 336.41', '2025-10-08: 345.5', '2025-10-09: 345.02', '2025-10-10: 324.63', '2025-10-13: 356.7']</t>
+          <t>['2025-10-08: 625.45', '2025-10-09: 634.27', '2025-10-10: 604.56', '2025-10-13: 648.25', '2025-10-14: 644.41']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-07: 18,086,705', '2025-10-08: 21,478,344', '2025-10-09: 17,643,744', '2025-10-10: 28,941,011', '2025-10-13: 45,984,259']</t>
+          <t>['2025-10-08: 2,286,500', '2025-10-09: 2,414,018', '2025-10-10: 3,003,600', '2025-10-13: 3,406,800', '2025-10-14: 2,890,472']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1609,19 +2016,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-07: 199.62', '2025-10-08: 206.55', '2025-10-09: 210.0', '2025-10-10: 196.86', '2025-10-13: 209.55']</t>
+          <t>['2025-10-08: 129.54', '2025-10-09: 127.76', '2025-10-10: 122.5', '2025-10-13: 120.71', '2025-10-14: 128.09']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-07: 2,865,843', '2025-10-08: 3,706,000', '2025-10-09: 3,796,100', '2025-10-10: 4,388,200', '2025-10-13: 3,868,849']</t>
+          <t>['2025-10-08: 1,549,674', '2025-10-09: 1,707,100', '2025-10-10: 1,952,221', '2025-10-13: 1,685,100', '2025-10-14: 2,102,788']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GEV</t>
+          <t>STLD</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1629,24 +2036,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-07: 606.12', '2025-10-08: 625.45', '2025-10-09: 634.27', '2025-10-10: 604.56', '2025-10-13: 648.25']</t>
+          <t>['2025-10-08: 146.55', '2025-10-09: 147.78', '2025-10-10: 141.23', '2025-10-13: 145.54', '2025-10-14: 146.98']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-07: 2,161,700', '2025-10-08: 2,286,500', '2025-10-09: 2,414,018', '2025-10-10: 3,003,600', '2025-10-13: 3,406,783']</t>
+          <t>['2025-10-08: 683,742', '2025-10-09: 1,195,900', '2025-10-10: 1,238,928', '2025-10-13: 881,200', '2025-10-14: 935,900']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>CEG</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1654,24 +2061,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-07: 25.33', '2025-10-08: 25.58', '2025-10-09: 25.85', '2025-10-10: 25.82', '2025-10-13: 26.42']</t>
+          <t>['2025-10-08: 371.0', '2025-10-09: 383.23', '2025-10-10: 368.49', '2025-10-13: 380.91', '2025-10-14: 389.56']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-07: 15,276,700', '2025-10-08: 13,028,700', '2025-10-09: 19,416,200', '2025-10-10: 11,763,200', '2025-10-13: 32,613,304']</t>
+          <t>['2025-10-08: 3,342,846', '2025-10-09: 2,888,800', '2025-10-10: 3,084,600', '2025-10-13: 3,270,521', '2025-10-14: 3,110,937']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>GNRC</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1684,12 +2091,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-07: 48.17', '2025-10-08: 50.88', '2025-10-09: 49.97', '2025-10-10: 45.74', '2025-10-13: 50.11']</t>
+          <t>['2025-10-08: 171.33', '2025-10-09: 171.92', '2025-10-10: 170.08', '2025-10-13: 174.12', '2025-10-14: 183.82']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-07: 8,626,426', '2025-10-08: 8,823,400', '2025-10-09: 5,385,608', '2025-10-10: 13,823,829', '2025-10-13: 11,877,061']</t>
+          <t>['2025-10-08: 967,066', '2025-10-09: 887,343', '2025-10-10: 1,866,707', '2025-10-13: 698,309', '2025-10-14: 1,418,853']</t>
         </is>
       </c>
     </row>
@@ -1742,82 +2149,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>ANET</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-07: 51.8', '2025-10-08: 53.27', '2025-10-09: 51.86', '2025-10-10: 49.61', '2025-10-13: 46.47']</t>
+          <t>['2025-10-08: 157.36', '2025-10-09: 158.23', '2025-10-10: 154.1', '2025-10-13: 147.45', '2025-10-14: 138.79']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-07: 3,172,600', '2025-10-08: 5,252,500', '2025-10-09: 5,423,632', '2025-10-10: 6,609,000', '2025-10-13: 11,891,696']</t>
+          <t>['2025-10-08: 11,283,444', '2025-10-09: 8,459,919', '2025-10-10: 10,459,300', '2025-10-13: 14,233,900', '2025-10-14: 13,672,418']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BKR</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-07: 48.58', '2025-10-08: 47.85', '2025-10-09: 47.89', '2025-10-10: 45.04', '2025-10-13: 45.49']</t>
+          <t>['2025-10-09: 221.7', '2025-10-10: 214.38', '2025-10-13: 219.51', '2025-10-14: 211.63', '2025-10-15: 215.66']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-07: 4,877,883', '2025-10-08: 6,007,100', '2025-10-09: 5,456,954', '2025-10-10: 7,467,021', '2025-10-13: 11,108,272']</t>
+          <t>['2025-10-09: 3,427,020', '2025-10-10: 5,191,000', '2025-10-13: 3,348,846', '2025-10-14: 3,646,678', '2025-10-15: 76,299']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FAST</t>
+          <t>CRM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-07: 47.45', '2025-10-08: 47.55', '2025-10-09: 46.71', '2025-10-10: 45.78', '2025-10-13: 42.33']</t>
+          <t>['2025-10-09: 245.33', '2025-10-10: 241.68', '2025-10-13: 248.75', '2025-10-14: 239.77', '2025-10-15: 240.78']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-07: 4,105,859', '2025-10-08: 5,531,900', '2025-10-09: 5,878,607', '2025-10-10: 9,382,638', '2025-10-13: 16,595,825']</t>
+          <t>['2025-10-09: 7,929,100', '2025-10-10: 7,988,316', '2025-10-13: 8,276,527', '2025-10-14: 9,123,850', '2025-10-15: 335,226']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>PGR</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1825,42 +2232,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-07: 631.85', '2025-10-08: 629.7', '2025-10-09: 600.32', '2025-10-10: 569.89', '2025-10-13: 590.11']</t>
+          <t>['2025-10-09: 242.16', '2025-10-10: 240.0', '2025-10-13: 236.28', '2025-10-14: 240.4', '2025-10-15: 227.995']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-07: 11,768,731', '2025-10-08: 5,472,905', '2025-10-09: 6,289,311', '2025-10-10: 6,479,100', '2025-10-13: 4,062,397']</t>
+          <t>['2025-10-09: 2,567,019', '2025-10-10: 2,677,115', '2025-10-13: 3,000,100', '2025-10-14: 2,680,358', '2025-10-15: 122,887']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-07: 79.02', '2025-10-08: 81.11', '2025-10-09: 80.85', '2025-10-10: 74.67', '2025-10-13: 75.02']</t>
+          <t>['2025-10-08: 629.7', '2025-10-09: 600.32', '2025-10-10: 569.89', '2025-10-13: 590.11', '2025-10-14: 590.03']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-07: 5,428,046', '2025-10-08: 6,024,900', '2025-10-09: 4,193,600', '2025-10-10: 8,802,335', '2025-10-13: 5,383,772']</t>
+          <t>['2025-10-08: 5,472,905', '2025-10-09: 6,289,311', '2025-10-10: 6,479,100', '2025-10-13: 4,062,400', '2025-10-14: 3,572,657']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,6 +1520,102 @@
         </is>
       </c>
       <c r="F34" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>RBC Capital</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Sector Perform</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Benchmark</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Scotiabank</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sector Outperform</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Sector Outperform</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -1675,39 +1771,39 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>MPWR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gray Powell</t>
+          <t>Chris Caso</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BTIG</t>
+          <t>Wolfe Research</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>248</v>
+        <v>1200</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>KeyBanc</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>245</v>
+        <v>1050</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -1718,7 +1814,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MPWR</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1726,35 +1822,30 @@
           <t>2025-10-14</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Chris Caso</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wolfe Research</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1200</v>
+        <v>270</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>KeyBanc</t>
+          <t>Scotiabank</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1050</v>
+        <v>278</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Raised</t>
+          <t>Lowered</t>
         </is>
       </c>
     </row>
@@ -1807,82 +1898,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CCGWW</t>
+          <t>BZAIW</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-08: 0.0361', '2025-10-09: 0.0398', '2025-10-10: 0.0334', '2025-10-13: 0.033', '2025-10-14: 0.0489']</t>
+          <t>['2025-10-09: 1.0', '2025-10-10: 0.81', '2025-10-13: 0.8999', '2025-10-14: 0.94', '2025-10-15: 1.41']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-08: 300', '2025-10-09: 6,027', '2025-10-10: 18,600', '2025-10-13: 12,702', '2025-10-14: 80,149']</t>
+          <t>['2025-10-09: 217,810', '2025-10-10: 315,867', '2025-10-13: 128,830', '2025-10-14: 68,831', '2025-10-15: 1,255,229']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>COOTW</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-08: 3.47', '2025-10-09: 3.42', '2025-10-10: 3.37', '2025-10-13: 3.66', '2025-10-14: 3.66']</t>
+          <t>['2025-10-09: 0.0185', '2025-10-10: 0.0192', '2025-10-13: 0.0228', '2025-10-14: 0.031789', '2025-10-15: 0.1339']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-08: 4,752,600', '2025-10-09: 3,188,729', '2025-10-10: 5,778,100', '2025-10-13: 5,728,645', '2025-10-14: 7,857,314']</t>
+          <t>['2025-10-09: 11,838', '2025-10-10: 12,475', '2025-10-13: 46,525', '2025-10-14: 1,102,274', '2025-10-15: 4,552,327']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ALMS</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-08: 4.43', '2025-10-09: 4.53', '2025-10-10: 4.44', '2025-10-13: 4.61', '2025-10-14: 4.63']</t>
+          <t>['2025-10-09: 3.42', '2025-10-10: 3.37', '2025-10-13: 3.66', '2025-10-14: 3.66', '2025-10-15: 4.07']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-08: 1,065,746', '2025-10-09: 676,400', '2025-10-10: 770,900', '2025-10-13: 521,478', '2025-10-14: 461,850']</t>
+          <t>['2025-10-09: 3,188,729', '2025-10-10: 5,778,100', '2025-10-13: 5,728,645', '2025-10-14: 7,857,314', '2025-10-15: 14,374,308']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ABVE</t>
+          <t>XCH</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1890,24 +1981,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-08: 4.62', '2025-10-09: 4.76', '2025-10-10: 3.77', '2025-10-13: 4.08', '2025-10-14: 4.32']</t>
+          <t>['2025-10-09: 1.2', '2025-10-10: 0.826', '2025-10-13: 1.68', '2025-10-14: 1.51', '2025-10-15: 1.91']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-08: 38,026,400', '2025-10-09: 6,653,400', '2025-10-10: 7,479,200', '2025-10-13: 4,295,400', '2025-10-14: 3,324,600']</t>
+          <t>['2025-10-09: 48,900', '2025-10-10: 395,400', '2025-10-13: 37,548,200', '2025-10-14: 2,136,200', '2025-10-15: 2,149,000']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ROMA</t>
+          <t>CCGWW</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1915,17 +2006,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-08: 2.75', '2025-10-09: 2.64', '2025-10-10: 2.6', '2025-10-13: 2.39', '2025-10-14: 2.79']</t>
+          <t>['2025-10-09: 0.0398', '2025-10-10: 0.0334', '2025-10-13: 0.033', '2025-10-14: 0.0489', '2025-10-15: 0.0487']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-08: 20,424', '2025-10-09: 15,100', '2025-10-10: 2,734', '2025-10-13: 11,700', '2025-10-14: 34,700']</t>
+          <t>['2025-10-09: 6,027', '2025-10-10: 18,600', '2025-10-13: 12,702', '2025-10-14: 80,149', '2025-10-15: 200']</t>
         </is>
       </c>
     </row>
@@ -1978,82 +2069,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GEV</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-08: 625.45', '2025-10-09: 634.27', '2025-10-10: 604.56', '2025-10-13: 648.25', '2025-10-14: 644.41']</t>
+          <t>['2025-10-09: 81.27', '2025-10-10: 80.77', '2025-10-13: 80.98', '2025-10-14: 82.41', '2025-10-15: 93.09']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-08: 2,286,500', '2025-10-09: 2,414,018', '2025-10-10: 3,003,600', '2025-10-13: 3,406,800', '2025-10-14: 2,890,472']</t>
+          <t>['2025-10-09: 1,652,571', '2025-10-10: 1,379,999', '2025-10-13: 1,299,826', '2025-10-14: 2,300,600', '2025-10-15: 4,998,185']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-08: 129.54', '2025-10-09: 127.76', '2025-10-10: 122.5', '2025-10-13: 120.71', '2025-10-14: 128.09']</t>
+          <t>['2025-10-09: 234.3', '2025-10-10: 225.91', '2025-10-13: 226.15', '2025-10-14: 224.43', '2025-10-15: 244.4']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-08: 1,549,674', '2025-10-09: 1,707,100', '2025-10-10: 1,952,221', '2025-10-13: 1,685,100', '2025-10-14: 2,102,788']</t>
+          <t>['2025-10-09: 1,517,629', '2025-10-10: 2,180,600', '2025-10-13: 2,278,400', '2025-10-14: 2,191,769', '2025-10-15: 4,617,494']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>STLD</t>
+          <t>EXPE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-08: 146.55', '2025-10-09: 147.78', '2025-10-10: 141.23', '2025-10-13: 145.54', '2025-10-14: 146.98']</t>
+          <t>['2025-10-09: 216.81', '2025-10-10: 210.33', '2025-10-13: 215.64', '2025-10-14: 223.12', '2025-10-15: 218.43']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-08: 683,742', '2025-10-09: 1,195,900', '2025-10-10: 1,238,928', '2025-10-13: 881,200', '2025-10-14: 935,900']</t>
+          <t>['2025-10-09: 1,206,739', '2025-10-10: 1,305,003', '2025-10-13: 1,497,500', '2025-10-14: 1,453,949', '2025-10-15: 2,547,307']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>EME</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2061,24 +2152,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-08: 371.0', '2025-10-09: 383.23', '2025-10-10: 368.49', '2025-10-13: 380.91', '2025-10-14: 389.56']</t>
+          <t>['2025-10-09: 680.83', '2025-10-10: 663.74', '2025-10-13: 677.02', '2025-10-14: 674.14', '2025-10-15: 690.64']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-08: 3,342,846', '2025-10-09: 2,888,800', '2025-10-10: 3,084,600', '2025-10-13: 3,270,521', '2025-10-14: 3,110,937']</t>
+          <t>['2025-10-09: 415,042', '2025-10-10: 423,666', '2025-10-13: 241,700', '2025-10-14: 452,030', '2025-10-15: 662,960']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GNRC</t>
+          <t>ABNB</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2086,17 +2177,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-08: 171.33', '2025-10-09: 171.92', '2025-10-10: 170.08', '2025-10-13: 174.12', '2025-10-14: 183.82']</t>
+          <t>['2025-10-09: 120.15', '2025-10-10: 118.19', '2025-10-13: 118.86', '2025-10-14: 122.89', '2025-10-15: 124.26']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-08: 967,066', '2025-10-09: 887,343', '2025-10-10: 1,866,707', '2025-10-13: 698,309', '2025-10-14: 1,418,853']</t>
+          <t>['2025-10-09: 3,415,243', '2025-10-10: 5,107,100', '2025-10-13: 3,344,832', '2025-10-14: 6,171,640', '2025-10-15: 5,677,933']</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2240,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ANET</t>
+          <t>PGR</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2157,24 +2248,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-08: 157.36', '2025-10-09: 158.23', '2025-10-10: 154.1', '2025-10-13: 147.45', '2025-10-14: 138.79']</t>
+          <t>['2025-10-09: 242.16', '2025-10-10: 240.0', '2025-10-13: 236.28', '2025-10-14: 240.4', '2025-10-15: 226.5']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-08: 11,283,444', '2025-10-09: 8,459,919', '2025-10-10: 10,459,300', '2025-10-13: 14,233,900', '2025-10-14: 13,672,418']</t>
+          <t>['2025-10-09: 2,567,019', '2025-10-10: 2,677,115', '2025-10-13: 3,000,100', '2025-10-14: 2,680,400', '2025-10-15: 11,533,969']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>AXON</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2187,19 +2278,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-09: 221.7', '2025-10-10: 214.38', '2025-10-13: 219.51', '2025-10-14: 211.63', '2025-10-15: 215.66']</t>
+          <t>['2025-10-10: 703.03', '2025-10-13: 710.0', '2025-10-14: 704.67', '2025-10-15: 644.99', '2025-10-16: 648.89']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-09: 3,427,020', '2025-10-10: 5,191,000', '2025-10-13: 3,348,846', '2025-10-14: 3,646,678', '2025-10-15: 76,299']</t>
+          <t>['2025-10-10: 456,200', '2025-10-13: 395,711', '2025-10-14: 363,186', '2025-10-15: 1,360,343', '2025-10-16: 22,275']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2212,19 +2303,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-09: 245.33', '2025-10-10: 241.68', '2025-10-13: 248.75', '2025-10-14: 239.77', '2025-10-15: 240.78']</t>
+          <t>['2025-10-10: 239.45', '2025-10-13: 245.36', '2025-10-14: 246.73', '2025-10-15: 236.79', '2025-10-16: 238.99']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-09: 7,929,100', '2025-10-10: 7,988,316', '2025-10-13: 8,276,527', '2025-10-14: 9,123,850', '2025-10-15: 335,226']</t>
+          <t>['2025-10-10: 874,152', '2025-10-13: 767,336', '2025-10-14: 726,911', '2025-10-15: 899,177', '2025-10-16: 6,443']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>COO</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2232,42 +2323,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-09: 242.16', '2025-10-10: 240.0', '2025-10-13: 236.28', '2025-10-14: 240.4', '2025-10-15: 227.995']</t>
+          <t>['2025-10-10: 68.37', '2025-10-13: 69.3', '2025-10-14: 71.21', '2025-10-15: 68.76', '2025-10-16: 69.25']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-09: 2,567,019', '2025-10-10: 2,677,115', '2025-10-13: 3,000,100', '2025-10-14: 2,680,358', '2025-10-15: 122,887']</t>
+          <t>['2025-10-10: 2,466,097', '2025-10-13: 2,971,300', '2025-10-14: 2,452,400', '2025-10-15: 4,759,467', '2025-10-16: 19,116']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>TDG</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-08: 629.7', '2025-10-09: 600.32', '2025-10-10: 569.89', '2025-10-13: 590.11', '2025-10-14: 590.03']</t>
+          <t>['2025-10-10: 1277.99', '2025-10-13: 1293.08', '2025-10-14: 1312.48', '2025-10-15: 1237.71', '2025-10-16: 1243.16']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-08: 5,472,905', '2025-10-09: 6,289,311', '2025-10-10: 6,479,100', '2025-10-13: 4,062,400', '2025-10-14: 3,572,657']</t>
+          <t>['2025-10-10: 240,018', '2025-10-13: 309,932', '2025-10-14: 240,755', '2025-10-15: 751,002', '2025-10-16: 10,997']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1618,6 +1618,326 @@
       <c r="F37" t="inlineStr">
         <is>
           <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TKO</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Seaport Global</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TKO</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>BTIG</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TKO</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Bernstein</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>POOL</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>William Blair</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Market Perform</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>POOL</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Oppenheimer</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>POOL</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Baird</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>JP Morgan</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>upgrade</t>
         </is>
       </c>
     </row>
@@ -1695,115 +2015,130 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>TKO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Guggenheim</t>
+          <t>Seaport Global</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>330</v>
+        <v>214</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Wells Fargo</t>
+          <t>BTIG</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Raised</t>
+          <t>Lowered</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DECK</t>
+          <t>POOL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Andrew Carter</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>Stifel Nicolaus</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>157</v>
+        <v>300</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Sam Reid</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Bernstein</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Raised</t>
+          <t>Unchanged</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MPWR</t>
+          <t>LVS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chris Caso</t>
+          <t>Robin Farley</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wolfe Research</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1200</v>
+        <v>65</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Ben Chaiken</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>KeyBanc</t>
+          <t>Mizuho Securities</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1050</v>
+        <v>47</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -1898,82 +2233,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BZAIW</t>
+          <t>ABVE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-09: 1.0', '2025-10-10: 0.81', '2025-10-13: 0.8999', '2025-10-14: 0.94', '2025-10-15: 1.41']</t>
+          <t>['2025-10-10: 3.77', '2025-10-13: 4.08', '2025-10-14: 4.32', '2025-10-15: 5.06', '2025-10-16: 4.99']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-09: 217,810', '2025-10-10: 315,867', '2025-10-13: 128,830', '2025-10-14: 68,831', '2025-10-15: 1,255,229']</t>
+          <t>['2025-10-10: 7,479,200', '2025-10-13: 4,295,400', '2025-10-14: 3,350,300', '2025-10-15: 5,357,100', '2025-10-16: 9,733,500']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>COOTW</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-09: 0.0185', '2025-10-10: 0.0192', '2025-10-13: 0.0228', '2025-10-14: 0.031789', '2025-10-15: 0.1339']</t>
+          <t>['2025-10-13: 4.45', '2025-10-14: 4.57', '2025-10-15: 4.74', '2025-10-16: 4.96', '2025-10-17: 4.87']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-09: 11,838', '2025-10-10: 12,475', '2025-10-13: 46,525', '2025-10-14: 1,102,274', '2025-10-15: 4,552,327']</t>
+          <t>['2025-10-13: 144,600', '2025-10-14: 77,200', '2025-10-15: 108,000', '2025-10-16: 115,000', '2025-10-17: 5,624']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CURR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-09: 3.42', '2025-10-10: 3.37', '2025-10-13: 3.66', '2025-10-14: 3.66', '2025-10-15: 4.07']</t>
+          <t>['2025-10-13: 1.72', '2025-10-14: 1.71', '2025-10-15: 1.78', '2025-10-16: 1.92', '2025-10-17: 1.93']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-09: 3,188,729', '2025-10-10: 5,778,100', '2025-10-13: 5,728,645', '2025-10-14: 7,857,314', '2025-10-15: 14,374,308']</t>
+          <t>['2025-10-13: 71,854', '2025-10-14: 60,421', '2025-10-15: 567,323', '2025-10-16: 616,320', '2025-10-17: 3,578']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XCH</t>
+          <t>MGX</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1981,42 +2316,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-09: 1.2', '2025-10-10: 0.826', '2025-10-13: 1.68', '2025-10-14: 1.51', '2025-10-15: 1.91']</t>
+          <t>['2025-10-13: 2.85', '2025-10-14: 2.9', '2025-10-15: 3.13', '2025-10-16: 3.33', '2025-10-17: 3.32']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-09: 48,900', '2025-10-10: 395,400', '2025-10-13: 37,548,200', '2025-10-14: 2,136,200', '2025-10-15: 2,149,000']</t>
+          <t>['2025-10-13: 577,100', '2025-10-14: 461,111', '2025-10-15: 541,600', '2025-10-16: 5,798,973', '2025-10-17: 59,504']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CCGWW</t>
+          <t>FNCFX</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-09: 0.0398', '2025-10-10: 0.0334', '2025-10-13: 0.033', '2025-10-14: 0.0489', '2025-10-15: 0.0487']</t>
+          <t>['2025-10-13: 2.45', '2025-10-14: 2.46', '2025-10-15: 2.46', '2025-10-16: 2.46', '2025-10-17: 2.46']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-09: 6,027', '2025-10-10: 18,600', '2025-10-13: 12,702', '2025-10-14: 80,149', '2025-10-15: 200']</t>
+          <t>['2025-10-13: 0', '2025-10-14: 0', '2025-10-15: 0', '2025-10-16: 0', '2025-10-17: 0']</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2404,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2082,69 +2417,69 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-09: 81.27', '2025-10-10: 80.77', '2025-10-13: 80.98', '2025-10-14: 82.41', '2025-10-15: 93.09']</t>
+          <t>['2025-10-10: 181.6', '2025-10-13: 192.77', '2025-10-14: 187.06', '2025-10-15: 191.94', '2025-10-16: 202.53']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-09: 1,652,571', '2025-10-10: 1,379,999', '2025-10-13: 1,299,826', '2025-10-14: 2,300,600', '2025-10-15: 4,998,185']</t>
+          <t>['2025-10-10: 26,990,300', '2025-10-13: 20,928,400', '2025-10-14: 15,912,423', '2025-10-15: 17,793,126', '2025-10-16: 42,041,348']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-09: 234.3', '2025-10-10: 225.91', '2025-10-13: 226.15', '2025-10-14: 224.43', '2025-10-15: 244.4']</t>
+          <t>['2025-10-13: 50.11', '2025-10-14: 49.54', '2025-10-15: 50.36', '2025-10-16: 52.97', '2025-10-17: 52.89']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-09: 1,517,629', '2025-10-10: 2,180,600', '2025-10-13: 2,278,400', '2025-10-14: 2,191,769', '2025-10-15: 4,617,494']</t>
+          <t>['2025-10-13: 11,877,100', '2025-10-14: 7,921,600', '2025-10-15: 6,547,800', '2025-10-16: 11,164,721', '2025-10-17: 259,331']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>CEG</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-09: 216.81', '2025-10-10: 210.33', '2025-10-13: 215.64', '2025-10-14: 223.12', '2025-10-15: 218.43']</t>
+          <t>['2025-10-10: 368.49', '2025-10-13: 380.91', '2025-10-14: 389.56', '2025-10-15: 403.95', '2025-10-16: 396.53']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-09: 1,206,739', '2025-10-10: 1,305,003', '2025-10-13: 1,497,500', '2025-10-14: 1,453,949', '2025-10-15: 2,547,307']</t>
+          <t>['2025-10-10: 3,084,600', '2025-10-13: 3,270,521', '2025-10-14: 3,110,937', '2025-10-15: 3,537,707', '2025-10-16: 3,062,349']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EME</t>
+          <t>TECH</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2152,24 +2487,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-09: 680.83', '2025-10-10: 663.74', '2025-10-13: 677.02', '2025-10-14: 674.14', '2025-10-15: 690.64']</t>
+          <t>['2025-10-13: 59.65', '2025-10-14: 59.27', '2025-10-15: 59.58', '2025-10-16: 61.6', '2025-10-17: 61.33']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-09: 415,042', '2025-10-10: 423,666', '2025-10-13: 241,700', '2025-10-14: 452,030', '2025-10-15: 662,960']</t>
+          <t>['2025-10-13: 1,565,400', '2025-10-14: 1,691,243', '2025-10-15: 1,351,500', '2025-10-16: 1,797,869', '2025-10-17: 35,378']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>COO</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2182,12 +2517,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-09: 120.15', '2025-10-10: 118.19', '2025-10-13: 118.86', '2025-10-14: 122.89', '2025-10-15: 124.26']</t>
+          <t>['2025-10-13: 69.3', '2025-10-14: 71.21', '2025-10-15: 68.76', '2025-10-16: 71.56', '2025-10-17: 71.2']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-09: 3,415,243', '2025-10-10: 5,107,100', '2025-10-13: 3,344,832', '2025-10-14: 6,171,640', '2025-10-15: 5,677,933']</t>
+          <t>['2025-10-13: 2,971,300', '2025-10-14: 2,452,400', '2025-10-15: 4,759,467', '2025-10-16: 5,394,412', '2025-10-17: 42,336']</t>
         </is>
       </c>
     </row>
@@ -2240,7 +2575,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>HPE</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2253,19 +2588,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-09: 242.16', '2025-10-10: 240.0', '2025-10-13: 236.28', '2025-10-14: 240.4', '2025-10-15: 226.5']</t>
+          <t>['2025-10-10: 24.4', '2025-10-13: 24.8', '2025-10-14: 25.0', '2025-10-15: 25.04', '2025-10-16: 22.5']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-09: 2,567,019', '2025-10-10: 2,677,115', '2025-10-13: 3,000,100', '2025-10-14: 2,680,400', '2025-10-15: 11,533,969']</t>
+          <t>['2025-10-10: 35,814,932', '2025-10-13: 35,267,917', '2025-10-14: 34,533,620', '2025-10-15: 50,347,700', '2025-10-16: 78,791,092']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>EXE</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2278,19 +2613,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-10: 703.03', '2025-10-13: 710.0', '2025-10-14: 704.67', '2025-10-15: 644.99', '2025-10-16: 648.89']</t>
+          <t>['2025-10-13: 102.68', '2025-10-14: 101.36', '2025-10-15: 103.17', '2025-10-16: 98.59', '2025-10-17: 98.37']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-10: 456,200', '2025-10-13: 395,711', '2025-10-14: 363,186', '2025-10-15: 1,360,343', '2025-10-16: 22,275']</t>
+          <t>['2025-10-13: 1,733,100', '2025-10-14: 2,969,727', '2025-10-15: 2,696,050', '2025-10-16: 3,172,220', '2025-10-17: 51,904']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>APO</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2303,19 +2638,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-10: 239.45', '2025-10-13: 245.36', '2025-10-14: 246.73', '2025-10-15: 236.79', '2025-10-16: 238.99']</t>
+          <t>['2025-10-13: 122.44', '2025-10-14: 127.64', '2025-10-15: 127.7', '2025-10-16: 120.84', '2025-10-17: 121.235']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-10: 874,152', '2025-10-13: 767,336', '2025-10-14: 726,911', '2025-10-15: 899,177', '2025-10-16: 6,443']</t>
+          <t>['2025-10-13: 3,705,500', '2025-10-14: 5,283,744', '2025-10-15: 3,777,400', '2025-10-16: 5,290,240', '2025-10-17: 123,737']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>WDAY</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2328,19 +2663,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-10: 68.37', '2025-10-13: 69.3', '2025-10-14: 71.21', '2025-10-15: 68.76', '2025-10-16: 69.25']</t>
+          <t>['2025-10-13: 236.6', '2025-10-14: 237.18', '2025-10-15: 234.76', '2025-10-16: 227.6', '2025-10-17: 229.425']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-10: 2,466,097', '2025-10-13: 2,971,300', '2025-10-14: 2,452,400', '2025-10-15: 4,759,467', '2025-10-16: 19,116']</t>
+          <t>['2025-10-13: 1,374,399', '2025-10-14: 1,792,718', '2025-10-15: 1,788,903', '2025-10-16: 2,241,165', '2025-10-17: 66,061']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>KKR</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2353,12 +2688,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-10: 1277.99', '2025-10-13: 1293.08', '2025-10-14: 1312.48', '2025-10-15: 1237.71', '2025-10-16: 1243.16']</t>
+          <t>['2025-10-13: 120.44', '2025-10-14: 125.98', '2025-10-15: 124.46', '2025-10-16: 117.52', '2025-10-17: 117.8']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-10: 240,018', '2025-10-13: 309,932', '2025-10-14: 240,755', '2025-10-15: 751,002', '2025-10-16: 10,997']</t>
+          <t>['2025-10-13: 4,699,932', '2025-10-14: 6,083,007', '2025-10-15: 4,536,322', '2025-10-16: 7,072,038', '2025-10-17: 185,655']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1938,6 +1938,102 @@
       <c r="F47" t="inlineStr">
         <is>
           <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>INVH</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>JP Morgan</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>INVH</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Evercore ISI Group</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>INVH</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>maintain</t>
         </is>
       </c>
     </row>
@@ -1952,7 +2048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2015,170 +2111,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>INVH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Seaport Global</t>
+          <t>Mizuho Securities</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>214</v>
+        <v>30</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>BTIG</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>Lowered</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>POOL</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-04-25</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Andrew Carter</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Stifel Nicolaus</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>300</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-04-25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Sam Reid</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Wells Fargo</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>300</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Unchanged</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>LVS</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-08-28</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Robin Farley</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>UBS</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>65</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Ben Chaiken</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Mizuho Securities</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>47</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Raised</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TMUS</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-10-14</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UBS</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>270</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Scotiabank</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>278</v>
-      </c>
-      <c r="J5" t="inlineStr">
         <is>
           <t>Lowered</t>
         </is>
@@ -2233,7 +2195,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABVE</t>
+          <t>XCH</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2241,24 +2203,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-10: 3.77', '2025-10-13: 4.08', '2025-10-14: 4.32', '2025-10-15: 5.06', '2025-10-16: 4.99']</t>
+          <t>['2025-10-14: 1.51', '2025-10-15: 1.91', '2025-10-16: 1.52', '2025-10-17: 1.76', '2025-10-20: 1.87']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-10: 7,479,200', '2025-10-13: 4,295,400', '2025-10-14: 3,350,300', '2025-10-15: 5,357,100', '2025-10-16: 9,733,500']</t>
+          <t>['2025-10-14: 2,136,200', '2025-10-15: 2,156,100', '2025-10-16: 429,600', '2025-10-17: 425,200', '2025-10-20: 409,300']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>ALMS</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2266,24 +2228,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-13: 4.45', '2025-10-14: 4.57', '2025-10-15: 4.74', '2025-10-16: 4.96', '2025-10-17: 4.87']</t>
+          <t>['2025-10-14: 4.63', '2025-10-15: 4.85', '2025-10-16: 4.61', '2025-10-17: 4.49', '2025-10-20: 4.76']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-13: 144,600', '2025-10-14: 77,200', '2025-10-15: 108,000', '2025-10-16: 115,000', '2025-10-17: 5,624']</t>
+          <t>['2025-10-14: 461,850', '2025-10-15: 724,249', '2025-10-16: 496,816', '2025-10-17: 1,038,149', '2025-10-20: 604,595']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CURR</t>
+          <t>ROMA</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2296,12 +2258,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-13: 1.72', '2025-10-14: 1.71', '2025-10-15: 1.78', '2025-10-16: 1.92', '2025-10-17: 1.93']</t>
+          <t>['2025-10-14: 2.79', '2025-10-15: 2.82', '2025-10-16: 2.59', '2025-10-17: 2.85', '2025-10-20: 2.95']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-13: 71,854', '2025-10-14: 60,421', '2025-10-15: 567,323', '2025-10-16: 616,320', '2025-10-17: 3,578']</t>
+          <t>['2025-10-14: 34,700', '2025-10-15: 12,343', '2025-10-16: 3,318', '2025-10-17: 21,300', '2025-10-20: 4,707']</t>
         </is>
       </c>
     </row>
@@ -2321,19 +2283,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-13: 2.85', '2025-10-14: 2.9', '2025-10-15: 3.13', '2025-10-16: 3.33', '2025-10-17: 3.32']</t>
+          <t>['2025-10-15: 3.13', '2025-10-16: 3.33', '2025-10-17: 3.05', '2025-10-20: 3.35', '2025-10-21: 3.325']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-13: 577,100', '2025-10-14: 461,111', '2025-10-15: 541,600', '2025-10-16: 5,798,973', '2025-10-17: 59,504']</t>
+          <t>['2025-10-15: 541,600', '2025-10-16: 5,799,000', '2025-10-17: 881,733', '2025-10-20: 734,035', '2025-10-21: 5,358']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FNCFX</t>
+          <t>FKINX</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2346,12 +2308,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-13: 2.45', '2025-10-14: 2.46', '2025-10-15: 2.46', '2025-10-16: 2.46', '2025-10-17: 2.46']</t>
+          <t>['2025-10-15: 2.47', '2025-10-16: 2.47', '2025-10-17: 2.47', '2025-10-20: 2.48', '2025-10-21: 2.48']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-13: 0', '2025-10-14: 0', '2025-10-15: 0', '2025-10-16: 0', '2025-10-17: 0']</t>
+          <t>['2025-10-15: 0', '2025-10-16: 0', '2025-10-17: 0', '2025-10-20: 0', '2025-10-21: 0']</t>
         </is>
       </c>
     </row>
@@ -2404,32 +2366,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>TTD</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-10: 181.6', '2025-10-13: 192.77', '2025-10-14: 187.06', '2025-10-15: 191.94', '2025-10-16: 202.53']</t>
+          <t>['2025-10-15: 51.1', '2025-10-16: 49.9', '2025-10-17: 49.98', '2025-10-20: 52.5', '2025-10-21: 52.715']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-10: 26,990,300', '2025-10-13: 20,928,400', '2025-10-14: 15,912,423', '2025-10-15: 17,793,126', '2025-10-16: 42,041,348']</t>
+          <t>['2025-10-15: 7,470,317', '2025-10-16: 8,541,309', '2025-10-17: 9,224,200', '2025-10-20: 8,558,789', '2025-10-21: 144,281']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>EXE</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2437,24 +2399,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-13: 50.11', '2025-10-14: 49.54', '2025-10-15: 50.36', '2025-10-16: 52.97', '2025-10-17: 52.89']</t>
+          <t>['2025-10-14: 101.36', '2025-10-15: 103.17', '2025-10-16: 98.59', '2025-10-17: 100.78', '2025-10-20: 106.9']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-13: 11,877,100', '2025-10-14: 7,921,600', '2025-10-15: 6,547,800', '2025-10-16: 11,164,721', '2025-10-17: 259,331']</t>
+          <t>['2025-10-14: 2,969,727', '2025-10-15: 2,696,050', '2025-10-16: 3,172,220', '2025-10-17: 2,306,622', '2025-10-20: 3,659,056']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2467,19 +2429,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-10: 368.49', '2025-10-13: 380.91', '2025-10-14: 389.56', '2025-10-15: 403.95', '2025-10-16: 396.53']</t>
+          <t>['2025-10-15: 50.36', '2025-10-16: 52.97', '2025-10-17: 52.53', '2025-10-20: 54.89', '2025-10-21: 54.34']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-10: 3,084,600', '2025-10-13: 3,270,521', '2025-10-14: 3,110,937', '2025-10-15: 3,537,707', '2025-10-16: 3,062,349']</t>
+          <t>['2025-10-15: 6,547,800', '2025-10-16: 11,164,721', '2025-10-17: 8,037,839', '2025-10-20: 9,630,956', '2025-10-21: 114,505']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>FDS</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2492,19 +2454,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-13: 59.65', '2025-10-14: 59.27', '2025-10-15: 59.58', '2025-10-16: 61.6', '2025-10-17: 61.33']</t>
+          <t>['2025-10-14: 285.75', '2025-10-15: 283.95', '2025-10-16: 278.01', '2025-10-17: 286.67', '2025-10-20: 290.41']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-13: 1,565,400', '2025-10-14: 1,691,243', '2025-10-15: 1,351,500', '2025-10-16: 1,797,869', '2025-10-17: 35,378']</t>
+          <t>['2025-10-14: 946,371', '2025-10-15: 481,899', '2025-10-16: 543,274', '2025-10-17: 796,006', '2025-10-20: 821,625']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>MRNA</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2517,12 +2479,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-13: 69.3', '2025-10-14: 71.21', '2025-10-15: 68.76', '2025-10-16: 71.56', '2025-10-17: 71.2']</t>
+          <t>['2025-10-15: 27.72', '2025-10-16: 27.14', '2025-10-17: 26.01', '2025-10-20: 27.24', '2025-10-21: 27.3']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-13: 2,971,300', '2025-10-14: 2,452,400', '2025-10-15: 4,759,467', '2025-10-16: 5,394,412', '2025-10-17: 42,336']</t>
+          <t>['2025-10-15: 8,529,300', '2025-10-16: 7,884,700', '2025-10-17: 10,115,900', '2025-10-20: 11,497,839', '2025-10-21: 48,916']</t>
         </is>
       </c>
     </row>
@@ -2575,32 +2537,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-10: 24.4', '2025-10-13: 24.8', '2025-10-14: 25.0', '2025-10-15: 25.04', '2025-10-16: 22.5']</t>
+          <t>['2025-10-15: 602.3', '2025-10-16: 605.68', '2025-10-17: 599.31', '2025-10-20: 565.94', '2025-10-21: 565.2']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-10: 35,814,932', '2025-10-13: 35,267,917', '2025-10-14: 34,533,620', '2025-10-15: 50,347,700', '2025-10-16: 78,791,092']</t>
+          <t>['2025-10-15: 3,535,600', '2025-10-16: 3,541,934', '2025-10-17: 3,298,200', '2025-10-20: 6,529,825', '2025-10-21: 36,051']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EXE</t>
+          <t>IBKR</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2613,19 +2575,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-13: 102.68', '2025-10-14: 101.36', '2025-10-15: 103.17', '2025-10-16: 98.59', '2025-10-17: 98.37']</t>
+          <t>['2025-10-14: 69.36', '2025-10-15: 69.77', '2025-10-16: 68.52', '2025-10-17: 66.23', '2025-10-20: 66.94']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-13: 1,733,100', '2025-10-14: 2,969,727', '2025-10-15: 2,696,050', '2025-10-16: 3,172,220', '2025-10-17: 51,904']</t>
+          <t>['2025-10-14: 4,746,700', '2025-10-15: 4,912,500', '2025-10-16: 10,050,100', '2025-10-17: 9,231,441', '2025-10-20: 5,249,739']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>VST</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2638,19 +2600,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-13: 122.44', '2025-10-14: 127.64', '2025-10-15: 127.7', '2025-10-16: 120.84', '2025-10-17: 121.235']</t>
+          <t>['2025-10-14: 205.51', '2025-10-15: 210.85', '2025-10-16: 210.4', '2025-10-17: 201.35', '2025-10-20: 194.24']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-13: 3,705,500', '2025-10-14: 5,283,744', '2025-10-15: 3,777,400', '2025-10-16: 5,290,240', '2025-10-17: 123,737']</t>
+          <t>['2025-10-14: 3,088,200', '2025-10-15: 5,412,000', '2025-10-16: 3,562,200', '2025-10-17: 4,004,732', '2025-10-20: 4,058,350']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2663,19 +2625,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-13: 236.6', '2025-10-14: 237.18', '2025-10-15: 234.76', '2025-10-16: 227.6', '2025-10-17: 229.425']</t>
+          <t>['2025-10-15: 219.38', '2025-10-16: 226.03', '2025-10-17: 225.4', '2025-10-20: 214.4', '2025-10-21: 212.93']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-13: 1,374,399', '2025-10-14: 1,792,718', '2025-10-15: 1,788,903', '2025-10-16: 2,241,165', '2025-10-17: 66,061']</t>
+          <t>['2025-10-15: 6,236,838', '2025-10-16: 5,196,500', '2025-10-17: 3,258,800', '2025-10-20: 4,601,975', '2025-10-21: 26,502']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2688,12 +2650,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-13: 120.44', '2025-10-14: 125.98', '2025-10-15: 124.46', '2025-10-16: 117.52', '2025-10-17: 117.8']</t>
+          <t>['2025-10-14: 299.0', '2025-10-15: 303.62', '2025-10-16: 313.0', '2025-10-17: 291.31', '2025-10-20: 277.18']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-13: 4,699,932', '2025-10-14: 6,083,007', '2025-10-15: 4,536,322', '2025-10-16: 7,072,038', '2025-10-17: 185,655']</t>
+          <t>['2025-10-14: 17,346,200', '2025-10-15: 13,698,938', '2025-10-16: 32,500,900', '2025-10-17: 37,653,000', '2025-10-20: 32,205,537']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2032,6 +2032,102 @@
         </is>
       </c>
       <c r="F50" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>WRB</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BMO Capital</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Market Perform</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Underperform</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>WRB</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Jefferies</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>WRB</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Truist Securities</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -2111,34 +2207,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>WRB</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BMO Capital</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2025-10-21</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mizuho Securities</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>30</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-10-13</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Wells Fargo</t>
+          <t>Truist Financial</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -2199,28 +2295,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-14: 1.51', '2025-10-15: 1.91', '2025-10-16: 1.52', '2025-10-17: 1.76', '2025-10-20: 1.87']</t>
+          <t>['2025-10-16: 1.52', '2025-10-17: 1.76', '2025-10-20: 1.87', '2025-10-21: 1.96', '2025-10-22: 1.91']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-14: 2,136,200', '2025-10-15: 2,156,100', '2025-10-16: 429,600', '2025-10-17: 425,200', '2025-10-20: 409,300']</t>
+          <t>['2025-10-16: 429,600', '2025-10-17: 425,200', '2025-10-20: 411,800', '2025-10-21: 192,300', '2025-10-22: 4,043']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ALMS</t>
+          <t>MRNO</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2233,19 +2329,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-14: 4.63', '2025-10-15: 4.85', '2025-10-16: 4.61', '2025-10-17: 4.49', '2025-10-20: 4.76']</t>
+          <t>['2025-10-16: 2.47', '2025-10-17: 2.53', '2025-10-20: 2.55', '2025-10-21: 2.6', '2025-10-22: 2.73']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-14: 461,850', '2025-10-15: 724,249', '2025-10-16: 496,816', '2025-10-17: 1,038,149', '2025-10-20: 604,595']</t>
+          <t>['2025-10-16: 10,500', '2025-10-17: 6,720', '2025-10-20: 15,843', '2025-10-21: 63,995', '2025-10-22: 2,528']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ROMA</t>
+          <t>FSHPR</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2253,49 +2349,49 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-14: 2.79', '2025-10-15: 2.82', '2025-10-16: 2.59', '2025-10-17: 2.85', '2025-10-20: 2.95']</t>
+          <t>['2025-10-06: 0.1201', '2025-10-08: 0.136', '2025-10-13: 0.1601', '2025-10-20: 0.1341', '2025-10-21: 0.19']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-14: 34,700', '2025-10-15: 12,343', '2025-10-16: 3,318', '2025-10-17: 21,300', '2025-10-20: 4,707']</t>
+          <t>['2025-10-06: 26', '2025-10-08: 123', '2025-10-13: 112', '2025-10-20: 8', '2025-10-21: 1,999']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MGX</t>
+          <t>FKINX</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-15: 3.13', '2025-10-16: 3.33', '2025-10-17: 3.05', '2025-10-20: 3.35', '2025-10-21: 3.325']</t>
+          <t>['2025-10-16: 2.47', '2025-10-17: 2.47', '2025-10-20: 2.48', '2025-10-21: 2.49', '2025-10-22: 2.49']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-15: 541,600', '2025-10-16: 5,799,000', '2025-10-17: 881,733', '2025-10-20: 734,035', '2025-10-21: 5,358']</t>
+          <t>['2025-10-16: 0', '2025-10-17: 0', '2025-10-20: 0', '2025-10-21: 0', '2025-10-22: 0']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FKINX</t>
+          <t>FNCFX</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2308,12 +2404,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-15: 2.47', '2025-10-16: 2.47', '2025-10-17: 2.47', '2025-10-20: 2.48', '2025-10-21: 2.48']</t>
+          <t>['2025-10-16: 2.46', '2025-10-17: 2.46', '2025-10-20: 2.47', '2025-10-21: 2.48', '2025-10-22: 2.48']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-15: 0', '2025-10-16: 0', '2025-10-17: 0', '2025-10-20: 0', '2025-10-21: 0']</t>
+          <t>['2025-10-16: 0', '2025-10-17: 0', '2025-10-20: 0', '2025-10-21: 0', '2025-10-22: 0']</t>
         </is>
       </c>
     </row>
@@ -2366,82 +2462,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-15: 51.1', '2025-10-16: 49.9', '2025-10-17: 49.98', '2025-10-20: 52.5', '2025-10-21: 52.715']</t>
+          <t>['2025-10-15: 57.8', '2025-10-16: 57.34', '2025-10-17: 58.38', '2025-10-20: 58.0', '2025-10-21: 66.62']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-15: 7,470,317', '2025-10-16: 8,541,309', '2025-10-17: 9,224,200', '2025-10-20: 8,558,789', '2025-10-21: 144,281']</t>
+          <t>['2025-10-15: 7,976,919', '2025-10-16: 6,061,300', '2025-10-17: 7,956,200', '2025-10-20: 10,184,608', '2025-10-21: 43,706,533']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EXE</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-14: 101.36', '2025-10-15: 103.17', '2025-10-16: 98.59', '2025-10-17: 100.78', '2025-10-20: 106.9']</t>
+          <t>['2025-10-15: 1203.29', '2025-10-16: 1183.59', '2025-10-17: 1199.36', '2025-10-20: 1238.56', '2025-10-21: 1241.35']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-14: 2,969,727', '2025-10-15: 2,696,050', '2025-10-16: 3,172,220', '2025-10-17: 2,306,622', '2025-10-20: 3,659,056']</t>
+          <t>['2025-10-15: 2,025,200', '2025-10-16: 2,832,619', '2025-10-17: 2,957,101', '2025-10-20: 3,986,235', '2025-10-21: 6,508,234']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>HAL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-15: 50.36', '2025-10-16: 52.97', '2025-10-17: 52.53', '2025-10-20: 54.89', '2025-10-21: 54.34']</t>
+          <t>['2025-10-15: 22.39', '2025-10-16: 21.82', '2025-10-17: 22.27', '2025-10-20: 22.62', '2025-10-21: 25.24']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-15: 6,547,800', '2025-10-16: 11,164,721', '2025-10-17: 8,037,839', '2025-10-20: 9,630,956', '2025-10-21: 114,505']</t>
+          <t>['2025-10-15: 18,225,911', '2025-10-16: 22,870,530', '2025-10-17: 19,104,320', '2025-10-20: 18,902,621', '2025-10-21: 39,857,092']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>CRWD</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2454,19 +2550,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-14: 285.75', '2025-10-15: 283.95', '2025-10-16: 278.01', '2025-10-17: 286.67', '2025-10-20: 290.41']</t>
+          <t>['2025-10-15: 489.02', '2025-10-16: 482.23', '2025-10-17: 484.65', '2025-10-20: 503.61', '2025-10-21: 503.95']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-14: 946,371', '2025-10-15: 481,899', '2025-10-16: 543,274', '2025-10-17: 796,006', '2025-10-20: 821,625']</t>
+          <t>['2025-10-15: 1,730,819', '2025-10-16: 2,174,003', '2025-10-17: 1,926,820', '2025-10-20: 2,820,100', '2025-10-21: 1,440,884']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MRNA</t>
+          <t>LULU</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2474,17 +2570,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-15: 27.72', '2025-10-16: 27.14', '2025-10-17: 26.01', '2025-10-20: 27.24', '2025-10-21: 27.3']</t>
+          <t>['2025-10-15: 167.1', '2025-10-16: 164.62', '2025-10-17: 167.41', '2025-10-20: 172.43', '2025-10-21: 181.39']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-15: 8,529,300', '2025-10-16: 7,884,700', '2025-10-17: 10,115,900', '2025-10-20: 11,497,839', '2025-10-21: 48,916']</t>
+          <t>['2025-10-15: 2,510,000', '2025-10-16: 4,092,600', '2025-10-17: 4,111,300', '2025-10-20: 5,105,300', '2025-10-21: 6,689,717']</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2633,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>VST</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2550,19 +2646,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-15: 602.3', '2025-10-16: 605.68', '2025-10-17: 599.31', '2025-10-20: 565.94', '2025-10-21: 565.2']</t>
+          <t>['2025-10-16: 210.4', '2025-10-17: 201.35', '2025-10-20: 194.24', '2025-10-21: 186.52', '2025-10-22: 188.79']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-15: 3,535,600', '2025-10-16: 3,541,934', '2025-10-17: 3,298,200', '2025-10-20: 6,529,825', '2025-10-21: 36,051']</t>
+          <t>['2025-10-16: 3,562,200', '2025-10-17: 4,004,732', '2025-10-20: 4,058,400', '2025-10-21: 5,781,710', '2025-10-22: 127,459']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IBKR</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2570,24 +2666,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-14: 69.36', '2025-10-15: 69.77', '2025-10-16: 68.52', '2025-10-17: 66.23', '2025-10-20: 66.94']</t>
+          <t>['2025-10-15: 110.31', '2025-10-16: 108.7', '2025-10-17: 108.79', '2025-10-20: 109.3', '2025-10-21: 109.02']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-14: 4,746,700', '2025-10-15: 4,912,500', '2025-10-16: 10,050,100', '2025-10-17: 9,231,441', '2025-10-20: 5,249,739']</t>
+          <t>['2025-10-15: 994,400', '2025-10-16: 1,196,904', '2025-10-17: 1,260,609', '2025-10-20: 1,479,802', '2025-10-21: 2,260,135']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2595,24 +2691,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-14: 205.51', '2025-10-15: 210.85', '2025-10-16: 210.4', '2025-10-17: 201.35', '2025-10-20: 194.24']</t>
+          <t>['2025-10-16: 1183.59', '2025-10-17: 1199.36', '2025-10-20: 1238.56', '2025-10-21: 1241.35', '2025-10-22: 1143.36']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-14: 3,088,200', '2025-10-15: 5,412,000', '2025-10-16: 3,562,200', '2025-10-17: 4,004,732', '2025-10-20: 4,058,350']</t>
+          <t>['2025-10-16: 2,832,619', '2025-10-17: 2,957,101', '2025-10-20: 3,986,235', '2025-10-21: 6,508,234', '2025-10-22: 643,877']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2625,19 +2721,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-15: 219.38', '2025-10-16: 226.03', '2025-10-17: 225.4', '2025-10-20: 214.4', '2025-10-21: 212.93']</t>
+          <t>['2025-10-16: 155.98', '2025-10-17: 158.06', '2025-10-20: 158.06', '2025-10-21: 152.0', '2025-10-22: 151.85']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-15: 6,236,838', '2025-10-16: 5,196,500', '2025-10-17: 3,258,800', '2025-10-20: 4,601,975', '2025-10-21: 26,502']</t>
+          <t>['2025-10-16: 5,110,016', '2025-10-17: 5,371,900', '2025-10-20: 7,779,225', '2025-10-21: 28,418,144', '2025-10-22: 88,002']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>DGX</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2650,12 +2746,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-14: 299.0', '2025-10-15: 303.62', '2025-10-16: 313.0', '2025-10-17: 291.31', '2025-10-20: 277.18']</t>
+          <t>['2025-10-16: 186.82', '2025-10-17: 189.51', '2025-10-20: 190.41', '2025-10-21: 184.64', '2025-10-22: 184.88']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-14: 17,346,200', '2025-10-15: 13,698,938', '2025-10-16: 32,500,900', '2025-10-17: 37,653,000', '2025-10-20: 32,205,537']</t>
+          <t>['2025-10-16: 1,056,600', '2025-10-17: 983,924', '2025-10-20: 1,491,100', '2025-10-21: 2,889,878', '2025-10-22: 8,202']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -2304,69 +2304,69 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-16: 1.52', '2025-10-17: 1.76', '2025-10-20: 1.87', '2025-10-21: 1.96', '2025-10-22: 1.91']</t>
+          <t>['2025-10-16: 1.52', '2025-10-17: 1.76', '2025-10-20: 1.87', '2025-10-21: 1.96', '2025-10-22: 1.97']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-16: 429,600', '2025-10-17: 425,200', '2025-10-20: 411,800', '2025-10-21: 192,300', '2025-10-22: 4,043']</t>
+          <t>['2025-10-16: 429,600', '2025-10-17: 425,200', '2025-10-20: 411,800', '2025-10-21: 197,200', '2025-10-22: 110,500']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MRNO</t>
+          <t>FRIAX</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-16: 2.47', '2025-10-17: 2.53', '2025-10-20: 2.55', '2025-10-21: 2.6', '2025-10-22: 2.73']</t>
+          <t>['2025-10-17: 2.45', '2025-10-20: 2.46', '2025-10-21: 2.46', '2025-10-22: 2.46', '2025-10-23: 2.46']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-16: 10,500', '2025-10-17: 6,720', '2025-10-20: 15,843', '2025-10-21: 63,995', '2025-10-22: 2,528']</t>
+          <t>['2025-10-17: 0', '2025-10-20: 0', '2025-10-21: 0', '2025-10-22: 0', '2025-10-23: 0']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FSHPR</t>
+          <t>PHYQX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-06: 0.1201', '2025-10-08: 0.136', '2025-10-13: 0.1601', '2025-10-20: 0.1341', '2025-10-21: 0.19']</t>
+          <t>['2025-10-17: 4.86', '2025-10-20: 4.87', '2025-10-21: 4.87', '2025-10-22: 4.87', '2025-10-23: 4.87']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-06: 26', '2025-10-08: 123', '2025-10-13: 112', '2025-10-20: 8', '2025-10-21: 1,999']</t>
+          <t>['2025-10-17: 0', '2025-10-20: 0', '2025-10-21: 0', '2025-10-22: 0', '2025-10-23: 0']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FKINX</t>
+          <t>PHYZX</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2379,19 +2379,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-16: 2.47', '2025-10-17: 2.47', '2025-10-20: 2.48', '2025-10-21: 2.49', '2025-10-22: 2.49']</t>
+          <t>['2025-10-17: 4.87', '2025-10-20: 4.88', '2025-10-21: 4.88', '2025-10-22: 4.88', '2025-10-23: 4.88']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-16: 0', '2025-10-17: 0', '2025-10-20: 0', '2025-10-21: 0', '2025-10-22: 0']</t>
+          <t>['2025-10-17: 0', '2025-10-20: 0', '2025-10-21: 0', '2025-10-22: 0', '2025-10-23: 0']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FNCFX</t>
+          <t>TRBFX</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2404,12 +2404,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-16: 2.46', '2025-10-17: 2.46', '2025-10-20: 2.47', '2025-10-21: 2.48', '2025-10-22: 2.48']</t>
+          <t>['2025-10-17: 4.89', '2025-10-20: 4.89', '2025-10-21: 4.89', '2025-10-22: 4.9', '2025-10-23: 4.9']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-16: 0', '2025-10-17: 0', '2025-10-20: 0', '2025-10-21: 0', '2025-10-22: 0']</t>
+          <t>['2025-10-17: 0', '2025-10-20: 0', '2025-10-21: 0', '2025-10-22: 0', '2025-10-23: 0']</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>AVY</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2475,69 +2475,69 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-15: 57.8', '2025-10-16: 57.34', '2025-10-17: 58.38', '2025-10-20: 58.0', '2025-10-21: 66.62']</t>
+          <t>['2025-10-16: 159.34', '2025-10-17: 159.44', '2025-10-20: 160.25', '2025-10-21: 163.53', '2025-10-22: 179.04']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-15: 7,976,919', '2025-10-16: 6,061,300', '2025-10-17: 7,956,200', '2025-10-20: 10,184,608', '2025-10-21: 43,706,533']</t>
+          <t>['2025-10-16: 801,027', '2025-10-17: 621,900', '2025-10-20: 752,800', '2025-10-21: 1,112,508', '2025-10-22: 1,848,701']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>LULU</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-15: 1203.29', '2025-10-16: 1183.59', '2025-10-17: 1199.36', '2025-10-20: 1238.56', '2025-10-21: 1241.35']</t>
+          <t>['2025-10-16: 164.62', '2025-10-17: 167.41', '2025-10-20: 172.43', '2025-10-21: 181.39', '2025-10-22: 178.29']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-15: 2,025,200', '2025-10-16: 2,832,619', '2025-10-17: 2,957,101', '2025-10-20: 3,986,235', '2025-10-21: 6,508,234']</t>
+          <t>['2025-10-16: 4,092,600', '2025-10-17: 4,111,300', '2025-10-20: 5,105,300', '2025-10-21: 6,689,717', '2025-10-22: 3,626,559']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>AXON</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-15: 22.39', '2025-10-16: 21.82', '2025-10-17: 22.27', '2025-10-20: 22.62', '2025-10-21: 25.24']</t>
+          <t>['2025-10-16: 652.17', '2025-10-17: 670.68', '2025-10-20: 683.13', '2025-10-21: 707.04', '2025-10-22: 701.09']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-15: 18,225,911', '2025-10-16: 22,870,530', '2025-10-17: 19,104,320', '2025-10-20: 18,902,621', '2025-10-21: 39,857,092']</t>
+          <t>['2025-10-16: 800,500', '2025-10-17: 675,311', '2025-10-20: 453,755', '2025-10-21: 498,723', '2025-10-22: 576,000']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>STLD</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-15: 489.02', '2025-10-16: 482.23', '2025-10-17: 484.65', '2025-10-20: 503.61', '2025-10-21: 503.95']</t>
+          <t>['2025-10-16: 142.65', '2025-10-17: 142.75', '2025-10-20: 146.28', '2025-10-21: 153.82', '2025-10-22: 148.56']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-15: 1,730,819', '2025-10-16: 2,174,003', '2025-10-17: 1,926,820', '2025-10-20: 2,820,100', '2025-10-21: 1,440,884']</t>
+          <t>['2025-10-16: 1,126,533', '2025-10-17: 1,062,993', '2025-10-20: 1,628,100', '2025-10-21: 2,894,345', '2025-10-22: 1,471,234']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2570,17 +2570,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-15: 167.1', '2025-10-16: 164.62', '2025-10-17: 167.41', '2025-10-20: 172.43', '2025-10-21: 181.39']</t>
+          <t>['2025-10-16: 18.29', '2025-10-17: 18.19', '2025-10-20: 18.32', '2025-10-21: 20.33', '2025-10-22: 20.53']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-15: 2,510,000', '2025-10-16: 4,092,600', '2025-10-17: 4,111,300', '2025-10-20: 5,105,300', '2025-10-21: 6,689,717']</t>
+          <t>['2025-10-16: 15,391,042', '2025-10-17: 21,258,800', '2025-10-20: 23,995,300', '2025-10-21: 71,364,500', '2025-10-22: 52,225,314']</t>
         </is>
       </c>
     </row>
@@ -2633,57 +2633,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>LII</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-16: 210.4', '2025-10-17: 201.35', '2025-10-20: 194.24', '2025-10-21: 186.52', '2025-10-22: 188.79']</t>
+          <t>['2025-10-16: 523.94', '2025-10-17: 522.95', '2025-10-20: 534.75', '2025-10-21: 548.99', '2025-10-22: 493.07']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-16: 3,562,200', '2025-10-17: 4,004,732', '2025-10-20: 4,058,400', '2025-10-21: 5,781,710', '2025-10-22: 127,459']</t>
+          <t>['2025-10-16: 418,139', '2025-10-17: 374,929', '2025-10-20: 430,000', '2025-10-21: 784,859', '2025-10-22: 1,944,340']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>TDY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-15: 110.31', '2025-10-16: 108.7', '2025-10-17: 108.79', '2025-10-20: 109.3', '2025-10-21: 109.02']</t>
+          <t>['2025-10-16: 561.49', '2025-10-17: 562.26', '2025-10-20: 571.83', '2025-10-21: 573.75', '2025-10-22: 543.73']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-15: 994,400', '2025-10-16: 1,196,904', '2025-10-17: 1,260,609', '2025-10-20: 1,479,802', '2025-10-21: 2,260,135']</t>
+          <t>['2025-10-16: 334,200', '2025-10-17: 288,780', '2025-10-20: 222,000', '2025-10-21: 339,940', '2025-10-22: 793,947']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>COIN</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2696,19 +2696,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-16: 1183.59', '2025-10-17: 1199.36', '2025-10-20: 1238.56', '2025-10-21: 1241.35', '2025-10-22: 1143.36']</t>
+          <t>['2025-10-16: 330.25', '2025-10-17: 336.02', '2025-10-20: 343.78', '2025-10-21: 338.62', '2025-10-22: 320.33']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-16: 2,832,619', '2025-10-17: 2,957,101', '2025-10-20: 3,986,235', '2025-10-21: 6,508,234', '2025-10-22: 643,877']</t>
+          <t>['2025-10-16: 7,611,900', '2025-10-17: 9,571,100', '2025-10-20: 7,544,100', '2025-10-21: 6,030,900', '2025-10-22: 12,737,834']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>VST</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2721,19 +2721,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-16: 155.98', '2025-10-17: 158.06', '2025-10-20: 158.06', '2025-10-21: 152.0', '2025-10-22: 151.85']</t>
+          <t>['2025-10-16: 210.4', '2025-10-17: 201.35', '2025-10-20: 194.24', '2025-10-21: 186.52', '2025-10-22: 185.83']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-16: 5,110,016', '2025-10-17: 5,371,900', '2025-10-20: 7,779,225', '2025-10-21: 28,418,144', '2025-10-22: 88,002']</t>
+          <t>['2025-10-16: 3,562,200', '2025-10-17: 4,004,732', '2025-10-20: 4,058,400', '2025-10-21: 5,781,710', '2025-10-22: 5,344,396']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DGX</t>
+          <t>GEV</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2741,17 +2741,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-16: 186.82', '2025-10-17: 189.51', '2025-10-20: 190.41', '2025-10-21: 184.64', '2025-10-22: 184.88']</t>
+          <t>['2025-10-16: 602.0', '2025-10-17: 600.0', '2025-10-20: 594.07', '2025-10-21: 585.33', '2025-10-22: 576.0']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-16: 1,056,600', '2025-10-17: 983,924', '2025-10-20: 1,491,100', '2025-10-21: 2,889,878', '2025-10-22: 8,202']</t>
+          <t>['2025-10-16: 3,500,605', '2025-10-17: 2,747,710', '2025-10-20: 2,634,422', '2025-10-21: 3,956,400', '2025-10-22: 10,333,096']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2128,6 +2128,198 @@
         </is>
       </c>
       <c r="F53" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>JP Morgan</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Compass Point</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Barclays</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Freedom Capital Markets</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>RBC Capital</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Needham</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -2144,7 +2336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2207,36 +2399,74 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>COIN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BMO Capital</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>64</v>
+        <v>404</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Truist Financial</t>
+          <t>Compass Point</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>84</v>
+        <v>277</v>
       </c>
       <c r="J2" t="inlineStr">
+        <is>
+          <t>Raised</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>RBC Capital</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>500</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Roth Capital</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>505</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>Lowered</t>
         </is>
@@ -2291,125 +2521,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>XCH</t>
+          <t>PROP</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-16: 1.52', '2025-10-17: 1.76', '2025-10-20: 1.87', '2025-10-21: 1.96', '2025-10-22: 1.97']</t>
+          <t>['2025-10-20: 1.81', '2025-10-21: 1.85', '2025-10-22: 1.75', '2025-10-23: 1.95', '2025-10-24: 2.11']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-16: 429,600', '2025-10-17: 425,200', '2025-10-20: 411,800', '2025-10-21: 197,200', '2025-10-22: 110,500']</t>
+          <t>['2025-10-20: 1,711,740', '2025-10-21: 1,163,800', '2025-10-22: 1,680,600', '2025-10-23: 1,974,400', '2025-10-24: 4,488,477']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FRIAX</t>
+          <t>NMRA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-17: 2.45', '2025-10-20: 2.46', '2025-10-21: 2.46', '2025-10-22: 2.46', '2025-10-23: 2.46']</t>
+          <t>['2025-10-20: 1.81', '2025-10-21: 1.8', '2025-10-22: 1.71', '2025-10-23: 2.31', '2025-10-24: 2.63']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-17: 0', '2025-10-20: 0', '2025-10-21: 0', '2025-10-22: 0', '2025-10-23: 0']</t>
+          <t>['2025-10-20: 296,500', '2025-10-21: 427,400', '2025-10-22: 386,200', '2025-10-23: 19,887,400', '2025-10-24: 5,438,700']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PHYQX</t>
+          <t>NAKA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-17: 4.86', '2025-10-20: 4.87', '2025-10-21: 4.87', '2025-10-22: 4.87', '2025-10-23: 4.87']</t>
+          <t>['2025-10-20: 0.7904', '2025-10-21: 0.752', '2025-10-22: 0.72', '2025-10-23: 0.795', '2025-10-24: 0.84']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-17: 0', '2025-10-20: 0', '2025-10-21: 0', '2025-10-22: 0', '2025-10-23: 0']</t>
+          <t>['2025-10-20: 10,123,734', '2025-10-21: 9,719,300', '2025-10-22: 15,777,600', '2025-10-23: 22,427,400', '2025-10-24: 29,985,304']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PHYZX</t>
+          <t>MRNO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-17: 4.87', '2025-10-20: 4.88', '2025-10-21: 4.88', '2025-10-22: 4.88', '2025-10-23: 4.88']</t>
+          <t>['2025-10-20: 2.55', '2025-10-21: 2.6', '2025-10-22: 2.6', '2025-10-23: 2.68', '2025-10-24: 2.82']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-17: 0', '2025-10-20: 0', '2025-10-21: 0', '2025-10-22: 0', '2025-10-23: 0']</t>
+          <t>['2025-10-20: 15,843', '2025-10-21: 64,000', '2025-10-22: 15,549', '2025-10-23: 13,100', '2025-10-24: 20,310']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TRBFX</t>
+          <t>BZAIW</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-17: 4.89', '2025-10-20: 4.89', '2025-10-21: 4.89', '2025-10-22: 4.9', '2025-10-23: 4.9']</t>
+          <t>['2025-10-20: 1.2', '2025-10-21: 1.12', '2025-10-22: 0.92', '2025-10-23: 1.01', '2025-10-24: 1.16']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-17: 0', '2025-10-20: 0', '2025-10-21: 0', '2025-10-22: 0', '2025-10-23: 0']</t>
+          <t>['2025-10-20: 124,492', '2025-10-21: 104,378', '2025-10-22: 202,276', '2025-10-23: 66,026', '2025-10-24: 112,850']</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2692,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>EME</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2470,49 +2700,49 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-16: 159.34', '2025-10-17: 159.44', '2025-10-20: 160.25', '2025-10-21: 163.53', '2025-10-22: 179.04']</t>
+          <t>['2025-10-20: 700.18', '2025-10-21: 689.95', '2025-10-22: 662.93', '2025-10-23: 696.28', '2025-10-24: 748.24']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-16: 801,027', '2025-10-17: 621,900', '2025-10-20: 752,800', '2025-10-21: 1,112,508', '2025-10-22: 1,848,701']</t>
+          <t>['2025-10-20: 289,555', '2025-10-21: 384,592', '2025-10-22: 569,201', '2025-10-23: 470,720', '2025-10-24: 690,122']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>CEG</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-16: 164.62', '2025-10-17: 167.41', '2025-10-20: 172.43', '2025-10-21: 181.39', '2025-10-22: 178.29']</t>
+          <t>['2025-10-20: 370.0', '2025-10-21: 358.79', '2025-10-22: 350.06', '2025-10-23: 365.8', '2025-10-24: 389.19']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-16: 4,092,600', '2025-10-17: 4,111,300', '2025-10-20: 5,105,300', '2025-10-21: 6,689,717', '2025-10-22: 3,626,559']</t>
+          <t>['2025-10-20: 3,072,907', '2025-10-21: 2,753,700', '2025-10-22: 3,571,800', '2025-10-23: 2,317,537', '2025-10-24: 2,999,903']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>VST</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2520,24 +2750,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-16: 652.17', '2025-10-17: 670.68', '2025-10-20: 683.13', '2025-10-21: 707.04', '2025-10-22: 701.09']</t>
+          <t>['2025-10-20: 194.24', '2025-10-21: 186.52', '2025-10-22: 185.83', '2025-10-23: 191.37', '2025-10-24: 201.47']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-16: 800,500', '2025-10-17: 675,311', '2025-10-20: 453,755', '2025-10-21: 498,723', '2025-10-22: 576,000']</t>
+          <t>['2025-10-20: 4,058,400', '2025-10-21: 5,781,710', '2025-10-22: 5,344,400', '2025-10-23: 3,033,744', '2025-10-24: 4,787,532']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>STLD</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2550,19 +2780,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-16: 142.65', '2025-10-17: 142.75', '2025-10-20: 146.28', '2025-10-21: 153.82', '2025-10-22: 148.56']</t>
+          <t>['2025-10-20: 204.02', '2025-10-21: 201.12', '2025-10-22: 198.75', '2025-10-23: 206.57', '2025-10-24: 212.44']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-16: 1,126,533', '2025-10-17: 1,062,993', '2025-10-20: 1,628,100', '2025-10-21: 2,894,345', '2025-10-22: 1,471,234']</t>
+          <t>['2025-10-20: 1,181,917', '2025-10-21: 1,134,701', '2025-10-22: 1,764,053', '2025-10-23: 1,161,138', '2025-10-24: 1,472,966']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2575,12 +2805,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-16: 18.29', '2025-10-17: 18.19', '2025-10-20: 18.32', '2025-10-21: 20.33', '2025-10-22: 20.53']</t>
+          <t>['2025-10-21: 226.85', '2025-10-22: 223.36', '2025-10-23: 229.0', '2025-10-24: 241.41', '2025-10-27: 243.36']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-16: 15,391,042', '2025-10-17: 21,258,800', '2025-10-20: 23,995,300', '2025-10-21: 71,364,500', '2025-10-22: 52,225,314']</t>
+          <t>['2025-10-21: 1,304,900', '2025-10-22: 2,379,900', '2025-10-23: 1,681,141', '2025-10-24: 2,595,487', '2025-10-27: 24,664']</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2863,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>WMB</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2641,49 +2871,49 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-16: 523.94', '2025-10-17: 522.95', '2025-10-20: 534.75', '2025-10-21: 548.99', '2025-10-22: 493.07']</t>
+          <t>['2025-10-20: 63.06', '2025-10-21: 62.34', '2025-10-22: 62.16', '2025-10-23: 58.93', '2025-10-24: 57.48']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-16: 418,139', '2025-10-17: 374,929', '2025-10-20: 430,000', '2025-10-21: 784,859', '2025-10-22: 1,944,340']</t>
+          <t>['2025-10-20: 5,013,167', '2025-10-21: 3,797,623', '2025-10-22: 6,244,071', '2025-10-23: 12,947,500', '2025-10-24: 12,395,135']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TDY</t>
+          <t>DECK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-16: 561.49', '2025-10-17: 562.26', '2025-10-20: 571.83', '2025-10-21: 573.75', '2025-10-22: 543.73']</t>
+          <t>['2025-10-21: 102.96', '2025-10-22: 100.89', '2025-10-23: 102.54', '2025-10-24: 86.94', '2025-10-27: 88.83']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-16: 334,200', '2025-10-17: 288,780', '2025-10-20: 222,000', '2025-10-21: 339,940', '2025-10-22: 793,947']</t>
+          <t>['2025-10-21: 2,924,700', '2025-10-22: 2,702,300', '2025-10-23: 9,160,748', '2025-10-24: 21,265,382', '2025-10-27: 320,840']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2691,24 +2921,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-16: 330.25', '2025-10-17: 336.02', '2025-10-20: 343.78', '2025-10-21: 338.62', '2025-10-22: 320.33']</t>
+          <t>['2025-10-20: 160.44', '2025-10-21: 161.43', '2025-10-22: 161.72', '2025-10-23: 154.98', '2025-10-24: 154.6']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-16: 7,611,900', '2025-10-17: 9,571,100', '2025-10-20: 7,544,100', '2025-10-21: 6,030,900', '2025-10-22: 12,737,834']</t>
+          <t>['2025-10-20: 3,081,300', '2025-10-21: 2,440,600', '2025-10-22: 4,352,204', '2025-10-23: 7,391,400', '2025-10-24: 4,451,667']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>PKG</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2721,19 +2951,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-16: 210.4', '2025-10-17: 201.35', '2025-10-20: 194.24', '2025-10-21: 186.52', '2025-10-22: 185.83']</t>
+          <t>['2025-10-21: 208.13', '2025-10-22: 208.74', '2025-10-23: 213.26', '2025-10-24: 204.83', '2025-10-27: 205.48']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-16: 3,562,200', '2025-10-17: 4,004,732', '2025-10-20: 4,058,400', '2025-10-21: 5,781,710', '2025-10-22: 5,344,396']</t>
+          <t>['2025-10-21: 692,817', '2025-10-22: 1,446,300', '2025-10-23: 1,904,342', '2025-10-24: 1,351,400', '2025-10-27: 4,292']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GEV</t>
+          <t>MHK</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2741,17 +2971,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-16: 602.0', '2025-10-17: 600.0', '2025-10-20: 594.07', '2025-10-21: 585.33', '2025-10-22: 576.0']</t>
+          <t>['2025-10-21: 131.48', '2025-10-22: 128.3', '2025-10-23: 128.9', '2025-10-24: 119.9', '2025-10-27: 120.0']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-16: 3,500,605', '2025-10-17: 2,747,710', '2025-10-20: 2,634,422', '2025-10-21: 3,956,400', '2025-10-22: 10,333,096']</t>
+          <t>['2025-10-21: 601,500', '2025-10-22: 687,800', '2025-10-23: 1,353,133', '2025-10-24: 2,576,967', '2025-10-27: 9,995']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -2336,7 +2336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2431,44 +2431,6 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>Raised</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TSLA</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-10-23</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>RBC Capital</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>500</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-10-23</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Roth Capital</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>505</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Lowered</t>
         </is>
       </c>
     </row>
@@ -2521,107 +2483,107 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PROP</t>
+          <t>NAKA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-20: 1.81', '2025-10-21: 1.85', '2025-10-22: 1.75', '2025-10-23: 1.95', '2025-10-24: 2.11']</t>
+          <t>['2025-10-21: 0.752', '2025-10-22: 0.72', '2025-10-23: 0.795', '2025-10-24: 0.84', '2025-10-27: 1.01']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-20: 1,711,740', '2025-10-21: 1,163,800', '2025-10-22: 1,680,600', '2025-10-23: 1,974,400', '2025-10-24: 4,488,477']</t>
+          <t>['2025-10-21: 9,719,300', '2025-10-22: 15,777,600', '2025-10-23: 22,427,400', '2025-10-24: 29,985,304', '2025-10-27: 99,193,403']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NMRA</t>
+          <t>RZLVW</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-20: 1.81', '2025-10-21: 1.8', '2025-10-22: 1.71', '2025-10-23: 2.31', '2025-10-24: 2.63']</t>
+          <t>['2025-10-21: 1.3', '2025-10-22: 1.09', '2025-10-23: 1.1', '2025-10-24: 1.28', '2025-10-27: 1.37']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-20: 296,500', '2025-10-21: 427,400', '2025-10-22: 386,200', '2025-10-23: 19,887,400', '2025-10-24: 5,438,700']</t>
+          <t>['2025-10-21: 39,702', '2025-10-22: 253,733', '2025-10-23: 89,572', '2025-10-24: 186,006', '2025-10-27: 92,273']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NAKA</t>
+          <t>ALMS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-20: 0.7904', '2025-10-21: 0.752', '2025-10-22: 0.72', '2025-10-23: 0.795', '2025-10-24: 0.84']</t>
+          <t>['2025-10-21: 4.64', '2025-10-22: 4.49', '2025-10-23: 4.61', '2025-10-24: 4.51', '2025-10-27: 4.81']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-20: 10,123,734', '2025-10-21: 9,719,300', '2025-10-22: 15,777,600', '2025-10-23: 22,427,400', '2025-10-24: 29,985,304']</t>
+          <t>['2025-10-21: 301,200', '2025-10-22: 499,889', '2025-10-23: 369,500', '2025-10-24: 352,914', '2025-10-27: 448,009']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MRNO</t>
+          <t>NMRA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-20: 2.55', '2025-10-21: 2.6', '2025-10-22: 2.6', '2025-10-23: 2.68', '2025-10-24: 2.82']</t>
+          <t>['2025-10-21: 1.8', '2025-10-22: 1.71', '2025-10-23: 2.31', '2025-10-24: 2.63', '2025-10-27: 2.69']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-20: 15,843', '2025-10-21: 64,000', '2025-10-22: 15,549', '2025-10-23: 13,100', '2025-10-24: 20,310']</t>
+          <t>['2025-10-21: 427,400', '2025-10-22: 386,200', '2025-10-23: 19,887,400', '2025-10-24: 5,458,100', '2025-10-27: 10,817,100']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BZAIW</t>
+          <t>MRNO</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2629,17 +2591,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-20: 1.2', '2025-10-21: 1.12', '2025-10-22: 0.92', '2025-10-23: 1.01', '2025-10-24: 1.16']</t>
+          <t>['2025-10-21: 2.6', '2025-10-22: 2.6', '2025-10-23: 2.68', '2025-10-24: 2.82', '2025-10-27: 2.84']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-20: 124,492', '2025-10-21: 104,378', '2025-10-22: 202,276', '2025-10-23: 66,026', '2025-10-24: 112,850']</t>
+          <t>['2025-10-21: 64,000', '2025-10-22: 15,549', '2025-10-23: 13,100', '2025-10-24: 20,310', '2025-10-27: 2,104']</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2654,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EME</t>
+          <t>KDP</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2700,24 +2662,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-20: 700.18', '2025-10-21: 689.95', '2025-10-22: 662.93', '2025-10-23: 696.28', '2025-10-24: 748.24']</t>
+          <t>['2025-10-21: 27.67', '2025-10-22: 27.39', '2025-10-23: 27.55', '2025-10-24: 27.16', '2025-10-27: 29.23']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-20: 289,555', '2025-10-21: 384,592', '2025-10-22: 569,201', '2025-10-23: 470,720', '2025-10-24: 690,122']</t>
+          <t>['2025-10-21: 10,676,918', '2025-10-22: 15,831,046', '2025-10-23: 12,124,800', '2025-10-24: 10,217,640', '2025-10-27: 53,680,816']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>EW</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2725,49 +2687,49 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-20: 370.0', '2025-10-21: 358.79', '2025-10-22: 350.06', '2025-10-23: 365.8', '2025-10-24: 389.19']</t>
+          <t>['2025-10-21: 76.02', '2025-10-22: 76.84', '2025-10-23: 76.53', '2025-10-24: 76.1', '2025-10-27: 80.82']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-20: 3,072,907', '2025-10-21: 2,753,700', '2025-10-22: 3,571,800', '2025-10-23: 2,317,537', '2025-10-24: 2,999,903']</t>
+          <t>['2025-10-21: 3,792,200', '2025-10-22: 6,028,204', '2025-10-23: 3,145,839', '2025-10-24: 3,165,700', '2025-10-27: 13,100,215']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-20: 194.24', '2025-10-21: 186.52', '2025-10-22: 185.83', '2025-10-23: 191.37', '2025-10-24: 201.47']</t>
+          <t>['2025-10-21: 168.83', '2025-10-22: 169.27', '2025-10-23: 170.03', '2025-10-24: 168.94', '2025-10-27: 187.68']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-20: 4,058,400', '2025-10-21: 5,781,710', '2025-10-22: 5,344,400', '2025-10-23: 3,033,744', '2025-10-24: 4,787,532']</t>
+          <t>['2025-10-21: 6,176,100', '2025-10-22: 10,083,801', '2025-10-23: 6,546,403', '2025-10-24: 6,256,000', '2025-10-27: 81,799,263']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>EME</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2780,19 +2742,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-20: 204.02', '2025-10-21: 201.12', '2025-10-22: 198.75', '2025-10-23: 206.57', '2025-10-24: 212.44']</t>
+          <t>['2025-10-21: 689.95', '2025-10-22: 662.93', '2025-10-23: 696.28', '2025-10-24: 748.24', '2025-10-27: 754.85']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-20: 1,181,917', '2025-10-21: 1,134,701', '2025-10-22: 1,764,053', '2025-10-23: 1,161,138', '2025-10-24: 1,472,966']</t>
+          <t>['2025-10-21: 384,592', '2025-10-22: 569,201', '2025-10-23: 470,720', '2025-10-24: 690,122', '2025-10-27: 477,640']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>HOOD</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2805,12 +2767,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-21: 226.85', '2025-10-22: 223.36', '2025-10-23: 229.0', '2025-10-24: 241.41', '2025-10-27: 243.36']</t>
+          <t>['2025-10-21: 131.84', '2025-10-22: 127.22', '2025-10-23: 134.33', '2025-10-24: 139.79', '2025-10-27: 145.86']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-21: 1,304,900', '2025-10-22: 2,379,900', '2025-10-23: 1,681,141', '2025-10-24: 2,595,487', '2025-10-27: 24,664']</t>
+          <t>['2025-10-21: 19,498,346', '2025-10-22: 37,786,938', '2025-10-23: 24,591,140', '2025-10-24: 24,330,400', '2025-10-27: 25,833,297']</t>
         </is>
       </c>
     </row>
@@ -2863,32 +2825,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WMB</t>
+          <t>DECK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-20: 63.06', '2025-10-21: 62.34', '2025-10-22: 62.16', '2025-10-23: 58.93', '2025-10-24: 57.48']</t>
+          <t>['2025-10-21: 102.96', '2025-10-22: 100.89', '2025-10-23: 102.54', '2025-10-24: 86.94', '2025-10-27: 90.47']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-20: 5,013,167', '2025-10-21: 3,797,623', '2025-10-22: 6,244,071', '2025-10-23: 12,947,500', '2025-10-24: 12,395,135']</t>
+          <t>['2025-10-21: 2,924,700', '2025-10-22: 2,702,300', '2025-10-23: 9,160,748', '2025-10-24: 21,265,400', '2025-10-27: 9,525,711']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DECK</t>
+          <t>NVR</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2901,19 +2863,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-21: 102.96', '2025-10-22: 100.89', '2025-10-23: 102.54', '2025-10-24: 86.94', '2025-10-27: 88.83']</t>
+          <t>['2025-10-21: 7792.13', '2025-10-22: 7697.16', '2025-10-23: 7679.41', '2025-10-24: 7430.92', '2025-10-27: 7438.33']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-21: 2,924,700', '2025-10-22: 2,702,300', '2025-10-23: 9,160,748', '2025-10-24: 21,265,382', '2025-10-27: 320,840']</t>
+          <t>['2025-10-21: 24,000', '2025-10-22: 15,314', '2025-10-23: 17,500', '2025-10-24: 22,002', '2025-10-27: 18,234']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>PKG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2926,19 +2888,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-20: 160.44', '2025-10-21: 161.43', '2025-10-22: 161.72', '2025-10-23: 154.98', '2025-10-24: 154.6']</t>
+          <t>['2025-10-21: 208.13', '2025-10-22: 208.74', '2025-10-23: 213.26', '2025-10-24: 204.83', '2025-10-27: 206.61']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-20: 3,081,300', '2025-10-21: 2,440,600', '2025-10-22: 4,352,204', '2025-10-23: 7,391,400', '2025-10-24: 4,451,667']</t>
+          <t>['2025-10-21: 692,817', '2025-10-22: 1,446,300', '2025-10-23: 1,904,342', '2025-10-24: 1,351,400', '2025-10-27: 733,700']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PKG</t>
+          <t>AWK</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2946,17 +2908,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-21: 208.13', '2025-10-22: 208.74', '2025-10-23: 213.26', '2025-10-24: 204.83', '2025-10-27: 205.48']</t>
+          <t>['2025-10-21: 144.16', '2025-10-22: 143.73', '2025-10-23: 142.58', '2025-10-24: 141.59', '2025-10-27: 137.99']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-21: 692,817', '2025-10-22: 1,446,300', '2025-10-23: 1,904,342', '2025-10-24: 1,351,400', '2025-10-27: 4,292']</t>
+          <t>['2025-10-21: 1,096,221', '2025-10-22: 828,400', '2025-10-23: 746,416', '2025-10-24: 966,500', '2025-10-27: 3,438,853']</t>
         </is>
       </c>
     </row>
@@ -2976,12 +2938,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-21: 131.48', '2025-10-22: 128.3', '2025-10-23: 128.9', '2025-10-24: 119.9', '2025-10-27: 120.0']</t>
+          <t>['2025-10-21: 131.48', '2025-10-22: 128.3', '2025-10-23: 128.9', '2025-10-24: 119.9', '2025-10-27: 119.19']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-21: 601,500', '2025-10-22: 687,800', '2025-10-23: 1,353,133', '2025-10-24: 2,576,967', '2025-10-27: 9,995']</t>
+          <t>['2025-10-21: 601,500', '2025-10-22: 687,800', '2025-10-23: 1,353,133', '2025-10-24: 2,576,967', '2025-10-27: 1,372,535']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,6 +2320,198 @@
         </is>
       </c>
       <c r="F59" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>KVUE</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Canaccord Genuity</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>KVUE</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Jefferies</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>KVUE</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>JP Morgan</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Argus Research</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Barrington Research</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Benchmark</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -2336,7 +2528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2399,36 +2591,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>KVUE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>Canaccord Genuity</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>404</v>
+        <v>15</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Javier Escalante</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Compass Point</t>
+          <t>Evercore ISI</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="J2" t="inlineStr">
+        <is>
+          <t>Lowered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Redburn Partners</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>28</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Argus Research</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>27</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>Raised</t>
         </is>
@@ -2483,7 +2718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NAKA</t>
+          <t>CURR</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2491,24 +2726,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-21: 0.752', '2025-10-22: 0.72', '2025-10-23: 0.795', '2025-10-24: 0.84', '2025-10-27: 1.01']</t>
+          <t>['2025-10-23: 1.69', '2025-10-24: 1.65', '2025-10-27: 1.9', '2025-10-28: 2.19', '2025-10-29: 2.51']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-21: 9,719,300', '2025-10-22: 15,777,600', '2025-10-23: 22,427,400', '2025-10-24: 29,985,304', '2025-10-27: 99,193,403']</t>
+          <t>['2025-10-23: 174,825', '2025-10-24: 139,109', '2025-10-27: 338,200', '2025-10-28: 1,582,900', '2025-10-29: 884,578']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RZLVW</t>
+          <t>SWIN</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2516,92 +2751,92 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-21: 1.3', '2025-10-22: 1.09', '2025-10-23: 1.1', '2025-10-24: 1.28', '2025-10-27: 1.37']</t>
+          <t>['2025-10-21: 3.73', '2025-10-22: 3.63', '2025-10-23: 3.45', '2025-10-24: 3.78', '2025-10-27: 3.92']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-21: 39,702', '2025-10-22: 253,733', '2025-10-23: 89,572', '2025-10-24: 186,006', '2025-10-27: 92,273']</t>
+          <t>['2025-10-21: 968,092', '2025-10-22: 1,143,490', '2025-10-23: 1,109,474', '2025-10-24: 1,477,161', '2025-10-27: 1,012,676']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ALMS</t>
+          <t>EEIIX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-21: 4.64', '2025-10-22: 4.49', '2025-10-23: 4.61', '2025-10-24: 4.51', '2025-10-27: 4.81']</t>
+          <t>['2025-10-24: 3.5', '2025-10-27: 3.51', '2025-10-28: 3.52', '2025-10-29: 3.52', '2025-10-30: 3.52']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-21: 301,200', '2025-10-22: 499,889', '2025-10-23: 369,500', '2025-10-24: 352,914', '2025-10-27: 448,009']</t>
+          <t>['2025-10-24: 0', '2025-10-27: 0', '2025-10-28: 0', '2025-10-29: 0', '2025-10-30: 0']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NMRA</t>
+          <t>DCMSX</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-21: 1.8', '2025-10-22: 1.71', '2025-10-23: 2.31', '2025-10-24: 2.63', '2025-10-27: 2.69']</t>
+          <t>['2025-10-24: 4.96', '2025-10-27: 4.93', '2025-10-28: 4.9', '2025-10-29: 4.94', '2025-10-30: 4.94']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-21: 427,400', '2025-10-22: 386,200', '2025-10-23: 19,887,400', '2025-10-24: 5,458,100', '2025-10-27: 10,817,100']</t>
+          <t>['2025-10-24: 0', '2025-10-27: 0', '2025-10-28: 0', '2025-10-29: 0', '2025-10-30: 0']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MRNO</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-21: 2.6', '2025-10-22: 2.6', '2025-10-23: 2.68', '2025-10-24: 2.82', '2025-10-27: 2.84']</t>
+          <t>['2025-10-23: 2.95', '2025-10-24: 3.01', '2025-10-27: 2.91', '2025-10-28: 3.17', '2025-10-29: 3.11']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-21: 64,000', '2025-10-22: 15,549', '2025-10-23: 13,100', '2025-10-24: 20,310', '2025-10-27: 2,104']</t>
+          <t>['2025-10-23: 4,973,519', '2025-10-24: 3,547,800', '2025-10-27: 3,241,142', '2025-10-28: 6,571,529', '2025-10-29: 3,634,112']</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2889,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2667,19 +2902,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-21: 27.67', '2025-10-22: 27.39', '2025-10-23: 27.55', '2025-10-24: 27.16', '2025-10-27: 29.23']</t>
+          <t>['2025-10-23: 145.04', '2025-10-24: 144.28', '2025-10-27: 147.5', '2025-10-28: 144.38', '2025-10-29: 173.94']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-21: 10,676,918', '2025-10-22: 15,831,046', '2025-10-23: 12,124,800', '2025-10-24: 10,217,640', '2025-10-27: 53,680,816']</t>
+          <t>['2025-10-23: 2,813,802', '2025-10-24: 2,079,994', '2025-10-27: 3,940,935', '2025-10-28: 5,016,831', '2025-10-29: 12,201,300']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>CNC</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2692,19 +2927,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-21: 76.02', '2025-10-22: 76.84', '2025-10-23: 76.53', '2025-10-24: 76.1', '2025-10-27: 80.82']</t>
+          <t>['2025-10-23: 34.36', '2025-10-24: 34.07', '2025-10-27: 33.15', '2025-10-28: 33.19', '2025-10-29: 37.34']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-21: 3,792,200', '2025-10-22: 6,028,204', '2025-10-23: 3,145,839', '2025-10-24: 3,165,700', '2025-10-27: 13,100,215']</t>
+          <t>['2025-10-23: 16,684,609', '2025-10-24: 8,180,533', '2025-10-27: 15,465,430', '2025-10-28: 13,992,200', '2025-10-29: 27,250,029']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>SWKS</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2712,67 +2947,67 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-21: 168.83', '2025-10-22: 169.27', '2025-10-23: 170.03', '2025-10-24: 168.94', '2025-10-27: 187.68']</t>
+          <t>['2025-10-23: 75.78', '2025-10-24: 74.04', '2025-10-27: 75.84', '2025-10-28: 80.26', '2025-10-29: 78.74']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-21: 6,176,100', '2025-10-22: 10,083,801', '2025-10-23: 6,546,403', '2025-10-24: 6,256,000', '2025-10-27: 81,799,263']</t>
+          <t>['2025-10-23: 2,130,752', '2025-10-24: 2,067,410', '2025-10-27: 1,853,343', '2025-10-28: 11,143,942', '2025-10-29: 7,443,149']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EME</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-21: 689.95', '2025-10-22: 662.93', '2025-10-23: 696.28', '2025-10-24: 748.24', '2025-10-27: 754.85']</t>
+          <t>['2025-10-23: 226.41', '2025-10-24: 234.12', '2025-10-27: 230.32', '2025-10-28: 223.0', '2025-10-29: 265.62']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-21: 384,592', '2025-10-22: 569,201', '2025-10-23: 470,720', '2025-10-24: 690,122', '2025-10-27: 477,640']</t>
+          <t>['2025-10-23: 2,569,600', '2025-10-24: 3,664,000', '2025-10-27: 4,942,400', '2025-10-28: 6,501,000', '2025-10-29: 9,890,500']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>WDC</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-21: 131.84', '2025-10-22: 127.22', '2025-10-23: 134.33', '2025-10-24: 139.79', '2025-10-27: 145.86']</t>
+          <t>['2025-10-23: 125.72', '2025-10-24: 129.43', '2025-10-27: 126.67', '2025-10-28: 124.92', '2025-10-29: 141.38']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-21: 19,498,346', '2025-10-22: 37,786,938', '2025-10-23: 24,591,140', '2025-10-24: 24,330,400', '2025-10-27: 25,833,297']</t>
+          <t>['2025-10-23: 7,263,500', '2025-10-24: 6,546,406', '2025-10-27: 7,249,300', '2025-10-28: 7,031,914', '2025-10-29: 18,211,700']</t>
         </is>
       </c>
     </row>
@@ -2825,125 +3060,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DECK</t>
+          <t>ARE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-21: 102.96', '2025-10-22: 100.89', '2025-10-23: 102.54', '2025-10-24: 86.94', '2025-10-27: 90.47']</t>
+          <t>['2025-10-23: 76.91', '2025-10-24: 77.41', '2025-10-27: 77.87', '2025-10-28: 62.94', '2025-10-29: 58.76']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-21: 2,924,700', '2025-10-22: 2,702,300', '2025-10-23: 9,160,748', '2025-10-24: 21,265,400', '2025-10-27: 9,525,711']</t>
+          <t>['2025-10-23: 1,191,800', '2025-10-24: 1,314,800', '2025-10-27: 1,404,034', '2025-10-28: 12,272,900', '2025-10-29: 7,089,062']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NVR</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-21: 7792.13', '2025-10-22: 7697.16', '2025-10-23: 7679.41', '2025-10-24: 7430.92', '2025-10-27: 7438.33']</t>
+          <t>['2025-10-23: 43.02', '2025-10-24: 43.07', '2025-10-27: 43.4', '2025-10-28: 43.09', '2025-10-29: 37.84']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-21: 24,000', '2025-10-22: 15,314', '2025-10-23: 17,500', '2025-10-24: 22,002', '2025-10-27: 18,234']</t>
+          <t>['2025-10-23: 3,026,241', '2025-10-24: 2,200,001', '2025-10-27: 2,431,377', '2025-10-28: 3,127,409', '2025-10-29: 19,642,925']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PKG</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-21: 208.13', '2025-10-22: 208.74', '2025-10-23: 213.26', '2025-10-24: 204.83', '2025-10-27: 206.61']</t>
+          <t>['2025-10-23: 124.2', '2025-10-24: 124.06', '2025-10-27: 123.19', '2025-10-28: 119.35', '2025-10-29: 115.29']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-21: 692,817', '2025-10-22: 1,446,300', '2025-10-23: 1,904,342', '2025-10-24: 1,351,400', '2025-10-27: 733,700']</t>
+          <t>['2025-10-23: 1,201,169', '2025-10-24: 907,706', '2025-10-27: 1,229,610', '2025-10-28: 1,690,844', '2025-10-29: 2,977,286']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>KVUE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-21: 144.16', '2025-10-22: 143.73', '2025-10-23: 142.58', '2025-10-24: 141.59', '2025-10-27: 137.99']</t>
+          <t>['2025-10-23: 15.09', '2025-10-24: 15.0', '2025-10-27: 15.08', '2025-10-28: 14.51', '2025-10-29: 14.31']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-21: 1,096,221', '2025-10-22: 828,400', '2025-10-23: 746,416', '2025-10-24: 966,500', '2025-10-27: 3,438,853']</t>
+          <t>['2025-10-23: 20,422,408', '2025-10-24: 20,455,000', '2025-10-27: 18,913,813', '2025-10-28: 29,928,100', '2025-10-29: 64,351,165']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MHK</t>
+          <t>CSGP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-21: 131.48', '2025-10-22: 128.3', '2025-10-23: 128.9', '2025-10-24: 119.9', '2025-10-27: 119.19']</t>
+          <t>['2025-10-23: 77.66', '2025-10-24: 77.89', '2025-10-27: 78.12', '2025-10-28: 78.23', '2025-10-29: 70.51']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-21: 601,500', '2025-10-22: 687,800', '2025-10-23: 1,353,133', '2025-10-24: 2,576,967', '2025-10-27: 1,372,535']</t>
+          <t>['2025-10-23: 1,823,387', '2025-10-24: 2,142,508', '2025-10-27: 2,804,500', '2025-10-28: 3,543,923', '2025-10-29: 15,475,608']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2514,6 +2514,38 @@
       <c r="F65" t="inlineStr">
         <is>
           <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Rothschild &amp; Co</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>upgrade</t>
         </is>
       </c>
     </row>
@@ -2731,19 +2763,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-23: 1.69', '2025-10-24: 1.65', '2025-10-27: 1.9', '2025-10-28: 2.19', '2025-10-29: 2.51']</t>
+          <t>['2025-10-24: 1.65', '2025-10-27: 1.9', '2025-10-28: 2.19', '2025-10-29: 2.51', '2025-10-30: 2.89']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-23: 174,825', '2025-10-24: 139,109', '2025-10-27: 338,200', '2025-10-28: 1,582,900', '2025-10-29: 884,578']</t>
+          <t>['2025-10-24: 139,109', '2025-10-27: 338,200', '2025-10-28: 1,582,900', '2025-10-29: 884,600', '2025-10-30: 511,900']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SWIN</t>
+          <t>NMRA</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2751,42 +2783,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-21: 3.73', '2025-10-22: 3.63', '2025-10-23: 3.45', '2025-10-24: 3.78', '2025-10-27: 3.92']</t>
+          <t>['2025-10-24: 2.63', '2025-10-27: 2.69', '2025-10-28: 2.59', '2025-10-29: 2.5', '2025-10-30: 2.93']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-21: 968,092', '2025-10-22: 1,143,490', '2025-10-23: 1,109,474', '2025-10-24: 1,477,161', '2025-10-27: 1,012,676']</t>
+          <t>['2025-10-24: 5,458,100', '2025-10-27: 10,849,000', '2025-10-28: 1,397,300', '2025-10-29: 4,153,100', '2025-10-30: 7,468,900']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EEIIX</t>
+          <t>SWIN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-24: 3.5', '2025-10-27: 3.51', '2025-10-28: 3.52', '2025-10-29: 3.52', '2025-10-30: 3.52']</t>
+          <t>['2025-10-21: 3.73', '2025-10-22: 3.63', '2025-10-23: 3.45', '2025-10-24: 3.78', '2025-10-27: 3.92']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-24: 0', '2025-10-27: 0', '2025-10-28: 0', '2025-10-29: 0', '2025-10-30: 0']</t>
+          <t>['2025-10-21: 968,092', '2025-10-22: 1,143,490', '2025-10-23: 1,109,474', '2025-10-24: 1,477,161', '2025-10-27: 1,012,676']</t>
         </is>
       </c>
     </row>
@@ -2806,19 +2838,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-24: 4.96', '2025-10-27: 4.93', '2025-10-28: 4.9', '2025-10-29: 4.94', '2025-10-30: 4.94']</t>
+          <t>['2025-10-27: 4.93', '2025-10-28: 4.9', '2025-10-29: 4.94', '2025-10-30: 4.94', '2025-10-31: 4.94']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-24: 0', '2025-10-27: 0', '2025-10-28: 0', '2025-10-29: 0', '2025-10-30: 0']</t>
+          <t>['2025-10-27: 0', '2025-10-28: 0', '2025-10-29: 0', '2025-10-30: 0', '2025-10-31: 0']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>ROMA</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2826,17 +2858,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-23: 2.95', '2025-10-24: 3.01', '2025-10-27: 2.91', '2025-10-28: 3.17', '2025-10-29: 3.11']</t>
+          <t>['2025-10-24: 2.81', '2025-10-27: 2.8', '2025-10-28: 2.86', '2025-10-29: 2.65', '2025-10-30: 2.8']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-23: 4,973,519', '2025-10-24: 3,547,800', '2025-10-27: 3,241,142', '2025-10-28: 6,571,529', '2025-10-29: 3,634,112']</t>
+          <t>['2025-10-24: 22,600', '2025-10-27: 55,529', '2025-10-28: 28,019', '2025-10-29: 2,749', '2025-10-30: 3,800']</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2921,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>MRNA</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2902,19 +2934,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-23: 145.04', '2025-10-24: 144.28', '2025-10-27: 147.5', '2025-10-28: 144.38', '2025-10-29: 173.94']</t>
+          <t>['2025-10-24: 26.74', '2025-10-27: 26.66', '2025-10-28: 25.35', '2025-10-29: 24.7', '2025-10-30: 28.14']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-23: 2,813,802', '2025-10-24: 2,079,994', '2025-10-27: 3,940,935', '2025-10-28: 5,016,831', '2025-10-29: 12,201,300']</t>
+          <t>['2025-10-24: 6,494,118', '2025-10-27: 6,710,142', '2025-10-28: 8,832,439', '2025-10-29: 8,752,831', '2025-10-30: 48,698,737']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2927,19 +2959,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-23: 34.36', '2025-10-24: 34.07', '2025-10-27: 33.15', '2025-10-28: 33.19', '2025-10-29: 37.34']</t>
+          <t>['2025-10-24: 52.9', '2025-10-27: 54.81', '2025-10-28: 54.53', '2025-10-29: 54.35', '2025-10-30: 58.83']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-23: 16,684,609', '2025-10-24: 8,180,533', '2025-10-27: 15,465,430', '2025-10-28: 13,992,200', '2025-10-29: 27,250,029']</t>
+          <t>['2025-10-24: 1,185,011', '2025-10-27: 1,098,566', '2025-10-28: 768,000', '2025-10-29: 862,136', '2025-10-30: 2,436,905']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>FOXA</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2947,24 +2979,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-23: 75.78', '2025-10-24: 74.04', '2025-10-27: 75.84', '2025-10-28: 80.26', '2025-10-29: 78.74']</t>
+          <t>['2025-10-24: 59.38', '2025-10-27: 61.27', '2025-10-28: 61.11', '2025-10-29: 60.81', '2025-10-30: 65.51']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-23: 2,130,752', '2025-10-24: 2,067,410', '2025-10-27: 1,853,343', '2025-10-28: 11,143,942', '2025-10-29: 7,443,149']</t>
+          <t>['2025-10-24: 2,943,905', '2025-10-27: 3,495,931', '2025-10-28: 3,150,045', '2025-10-29: 2,938,051', '2025-10-30: 6,256,141']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>ROL</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2977,19 +3009,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-23: 226.41', '2025-10-24: 234.12', '2025-10-27: 230.32', '2025-10-28: 223.0', '2025-10-29: 265.62']</t>
+          <t>['2025-10-24: 56.6', '2025-10-27: 56.23', '2025-10-28: 56.05', '2025-10-29: 53.87', '2025-10-30: 57.79']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-23: 2,569,600', '2025-10-24: 3,664,000', '2025-10-27: 4,942,400', '2025-10-28: 6,501,000', '2025-10-29: 9,890,500']</t>
+          <t>['2025-10-24: 1,139,178', '2025-10-27: 1,722,600', '2025-10-28: 1,822,635', '2025-10-29: 3,630,316', '2025-10-30: 3,843,427']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WDC</t>
+          <t>HII</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3002,12 +3034,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-23: 125.72', '2025-10-24: 129.43', '2025-10-27: 126.67', '2025-10-28: 124.92', '2025-10-29: 141.38']</t>
+          <t>['2025-10-24: 299.91', '2025-10-27: 301.69', '2025-10-28: 299.14', '2025-10-29: 298.42', '2025-10-30: 319.07']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-23: 7,263,500', '2025-10-24: 6,546,406', '2025-10-27: 7,249,300', '2025-10-28: 7,031,914', '2025-10-29: 18,211,700']</t>
+          <t>['2025-10-24: 525,246', '2025-10-27: 562,900', '2025-10-28: 402,790', '2025-10-29: 549,709', '2025-10-30: 981,618']</t>
         </is>
       </c>
     </row>
@@ -3060,7 +3092,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3073,44 +3105,44 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-23: 76.91', '2025-10-24: 77.41', '2025-10-27: 77.87', '2025-10-28: 62.94', '2025-10-29: 58.76']</t>
+          <t>['2025-10-24: 125.17', '2025-10-27: 126.54', '2025-10-28: 126.17', '2025-10-29: 70.6', '2025-10-30: 65.19']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-23: 1,191,800', '2025-10-24: 1,314,800', '2025-10-27: 1,404,034', '2025-10-28: 12,272,900', '2025-10-29: 7,089,062']</t>
+          <t>['2025-10-24: 2,840,906', '2025-10-27: 3,809,938', '2025-10-28: 5,802,800', '2025-10-29: 103,454,200', '2025-10-30: 63,794,834']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-23: 43.02', '2025-10-24: 43.07', '2025-10-27: 43.4', '2025-10-28: 43.09', '2025-10-29: 37.84']</t>
+          <t>['2025-10-24: 301.78', '2025-10-27: 309.18', '2025-10-28: 308.41', '2025-10-29: 299.12', '2025-10-30: 247.1']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-23: 3,026,241', '2025-10-24: 2,200,001', '2025-10-27: 2,431,377', '2025-10-28: 3,127,409', '2025-10-29: 19,642,925']</t>
+          <t>['2025-10-24: 1,318,300', '2025-10-27: 1,375,000', '2025-10-28: 1,173,600', '2025-10-29: 1,992,400', '2025-10-30: 9,349,022']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>EME</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3118,24 +3150,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-23: 124.2', '2025-10-24: 124.06', '2025-10-27: 123.19', '2025-10-28: 119.35', '2025-10-29: 115.29']</t>
+          <t>['2025-10-24: 748.24', '2025-10-27: 754.85', '2025-10-28: 751.44', '2025-10-29: 777.0', '2025-10-30: 648.0']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-23: 1,201,169', '2025-10-24: 907,706', '2025-10-27: 1,229,610', '2025-10-28: 1,690,844', '2025-10-29: 2,977,286']</t>
+          <t>['2025-10-24: 690,122', '2025-10-27: 477,640', '2025-10-28: 399,113', '2025-10-29: 684,700', '2025-10-30: 1,422,798']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KVUE</t>
+          <t>GDDY</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3148,19 +3180,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-23: 15.09', '2025-10-24: 15.0', '2025-10-27: 15.08', '2025-10-28: 14.51', '2025-10-29: 14.31']</t>
+          <t>['2025-10-24: 130.94', '2025-10-27: 131.88', '2025-10-28: 130.85', '2025-10-29: 126.57', '2025-10-30: 126.74']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-23: 20,422,408', '2025-10-24: 20,455,000', '2025-10-27: 18,913,813', '2025-10-28: 29,928,100', '2025-10-29: 64,351,165']</t>
+          <t>['2025-10-24: 1,006,300', '2025-10-27: 1,105,600', '2025-10-28: 1,003,419', '2025-10-29: 2,213,249', '2025-10-30: 2,474,505']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3168,17 +3200,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-23: 77.66', '2025-10-24: 77.89', '2025-10-27: 78.12', '2025-10-28: 78.23', '2025-10-29: 70.51']</t>
+          <t>['2025-10-24: 124.06', '2025-10-27: 123.19', '2025-10-28: 119.35', '2025-10-29: 115.29', '2025-10-30: 111.69']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-23: 1,823,387', '2025-10-24: 2,142,508', '2025-10-27: 2,804,500', '2025-10-28: 3,543,923', '2025-10-29: 15,475,608']</t>
+          <t>['2025-10-24: 907,706', '2025-10-27: 1,229,610', '2025-10-28: 1,690,844', '2025-10-29: 2,977,300', '2025-10-30: 3,714,518']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2546,6 +2546,102 @@
       <c r="F66" t="inlineStr">
         <is>
           <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>BLDR</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Zelman &amp; Assoc</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Underperform</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>BLDR</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Benchmark</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BLDR</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>maintain</t>
         </is>
       </c>
     </row>
@@ -2623,43 +2719,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KVUE</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Canaccord Genuity</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Javier Escalante</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Evercore ISI</t>
+          <t>Robert W. Baird</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Lowered</t>
+          <t>Raised</t>
         </is>
       </c>
     </row>
@@ -2763,12 +2854,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-24: 1.65', '2025-10-27: 1.9', '2025-10-28: 2.19', '2025-10-29: 2.51', '2025-10-30: 2.89']</t>
+          <t>['2025-10-27: 1.9', '2025-10-28: 2.19', '2025-10-29: 2.51', '2025-10-30: 2.89', '2025-10-31: 3.78']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-24: 139,109', '2025-10-27: 338,200', '2025-10-28: 1,582,900', '2025-10-29: 884,600', '2025-10-30: 511,900']</t>
+          <t>['2025-10-27: 338,200', '2025-10-28: 1,582,900', '2025-10-29: 884,600', '2025-10-30: 515,039', '2025-10-31: 1,223,699']</t>
         </is>
       </c>
     </row>
@@ -2783,49 +2874,49 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-24: 2.63', '2025-10-27: 2.69', '2025-10-28: 2.59', '2025-10-29: 2.5', '2025-10-30: 2.93']</t>
+          <t>['2025-10-27: 2.69', '2025-10-28: 2.59', '2025-10-29: 2.5', '2025-10-30: 2.93', '2025-10-31: 3.02']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-24: 5,458,100', '2025-10-27: 10,849,000', '2025-10-28: 1,397,300', '2025-10-29: 4,153,100', '2025-10-30: 7,468,900']</t>
+          <t>['2025-10-27: 10,849,000', '2025-10-28: 1,397,300', '2025-10-29: 4,153,100', '2025-10-30: 7,494,400', '2025-10-31: 4,569,000']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SWIN</t>
+          <t>DCMSX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-21: 3.73', '2025-10-22: 3.63', '2025-10-23: 3.45', '2025-10-24: 3.78', '2025-10-27: 3.92']</t>
+          <t>['2025-10-27: 4.93', '2025-10-28: 4.9', '2025-10-29: 4.94', '2025-10-30: 4.94', '2025-10-31: 4.96']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-21: 968,092', '2025-10-22: 1,143,490', '2025-10-23: 1,109,474', '2025-10-24: 1,477,161', '2025-10-27: 1,012,676']</t>
+          <t>['2025-10-27: 0', '2025-10-28: 0', '2025-10-29: 0', '2025-10-30: 0', '2025-10-31: 0']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DCMSX</t>
+          <t>ALMS</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2838,19 +2929,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-27: 4.93', '2025-10-28: 4.9', '2025-10-29: 4.94', '2025-10-30: 4.94', '2025-10-31: 4.94']</t>
+          <t>['2025-10-27: 4.81', '2025-10-28: 4.81', '2025-10-29: 4.71', '2025-10-30: 4.66', '2025-10-31: 4.75']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-27: 0', '2025-10-28: 0', '2025-10-29: 0', '2025-10-30: 0', '2025-10-31: 0']</t>
+          <t>['2025-10-27: 448,009', '2025-10-28: 409,121', '2025-10-29: 586,723', '2025-10-30: 309,200', '2025-10-31: 330,005']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ROMA</t>
+          <t>FSHPR</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2858,17 +2949,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-24: 2.81', '2025-10-27: 2.8', '2025-10-28: 2.86', '2025-10-29: 2.65', '2025-10-30: 2.8']</t>
+          <t>['2025-10-20: 0.1341', '2025-10-21: 0.19', '2025-10-22: 0.177', '2025-10-30: 0.19', '2025-10-31: 0.1899']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-24: 22,600', '2025-10-27: 55,529', '2025-10-28: 28,019', '2025-10-29: 2,749', '2025-10-30: 3,800']</t>
+          <t>['2025-10-20: 8', '2025-10-21: 1,999', '2025-10-22: 215', '2025-10-30: 200', '2025-10-31: 20']</t>
         </is>
       </c>
     </row>
@@ -2921,7 +3012,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MRNA</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2934,19 +3025,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-24: 26.74', '2025-10-27: 26.66', '2025-10-28: 25.35', '2025-10-29: 24.7', '2025-10-30: 28.14']</t>
+          <t>['2025-10-27: 247.69', '2025-10-28: 239.6', '2025-10-29: 241.71', '2025-10-30: 233.58', '2025-10-31: 266.94']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-24: 6,494,118', '2025-10-27: 6,710,142', '2025-10-28: 8,832,439', '2025-10-29: 8,752,831', '2025-10-30: 48,698,737']</t>
+          <t>['2025-10-27: 2,068,947', '2025-10-28: 2,552,517', '2025-10-29: 2,331,300', '2025-10-30: 2,529,300', '2025-10-31: 6,158,718']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>CHD</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2959,19 +3050,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-24: 52.9', '2025-10-27: 54.81', '2025-10-28: 54.53', '2025-10-29: 54.35', '2025-10-30: 58.83']</t>
+          <t>['2025-10-27: 85.64', '2025-10-28: 84.26', '2025-10-29: 81.84', '2025-10-30: 81.8', '2025-10-31: 87.69']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-24: 1,185,011', '2025-10-27: 1,098,566', '2025-10-28: 768,000', '2025-10-29: 862,136', '2025-10-30: 2,436,905']</t>
+          <t>['2025-10-27: 2,139,753', '2025-10-28: 1,898,186', '2025-10-29: 2,518,901', '2025-10-30: 4,244,002', '2025-10-31: 6,139,083']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>WDC</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2984,19 +3075,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-24: 59.38', '2025-10-27: 61.27', '2025-10-28: 61.11', '2025-10-29: 60.81', '2025-10-30: 65.51']</t>
+          <t>['2025-10-27: 126.67', '2025-10-28: 124.92', '2025-10-29: 141.38', '2025-10-30: 138.13', '2025-10-31: 150.21']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-24: 2,943,905', '2025-10-27: 3,495,931', '2025-10-28: 3,150,045', '2025-10-29: 2,938,051', '2025-10-30: 6,256,141']</t>
+          <t>['2025-10-27: 7,249,300', '2025-10-28: 7,031,914', '2025-10-29: 18,267,300', '2025-10-30: 13,870,700', '2025-10-31: 20,124,100']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3009,37 +3100,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-24: 56.6', '2025-10-27: 56.23', '2025-10-28: 56.05', '2025-10-29: 53.87', '2025-10-30: 57.79']</t>
+          <t>['2025-10-27: 226.97', '2025-10-28: 229.25', '2025-10-29: 230.3', '2025-10-30: 222.86', '2025-10-31: 244.22']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-24: 1,139,178', '2025-10-27: 1,722,600', '2025-10-28: 1,822,635', '2025-10-29: 3,630,316', '2025-10-30: 3,843,427']</t>
+          <t>['2025-10-27: 38,267,000', '2025-10-28: 47,100,026', '2025-10-29: 52,036,200', '2025-10-30: 102,252,937', '2025-10-31: 166,340,808']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HII</t>
+          <t>HOOD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-24: 299.91', '2025-10-27: 301.69', '2025-10-28: 299.14', '2025-10-29: 298.42', '2025-10-30: 319.07']</t>
+          <t>['2025-10-27: 145.86', '2025-10-28: 146.25', '2025-10-29: 144.8', '2025-10-30: 138.07', '2025-10-31: 146.78']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-24: 525,246', '2025-10-27: 562,900', '2025-10-28: 402,790', '2025-10-29: 549,709', '2025-10-30: 981,618']</t>
+          <t>['2025-10-27: 25,833,300', '2025-10-28: 13,446,700', '2025-10-29: 19,792,600', '2025-10-30: 19,706,949', '2025-10-31: 26,028,101']</t>
         </is>
       </c>
     </row>
@@ -3092,57 +3183,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>ERIE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-24: 125.17', '2025-10-27: 126.54', '2025-10-28: 126.17', '2025-10-29: 70.6', '2025-10-30: 65.19']</t>
+          <t>['2025-10-27: 329.97', '2025-10-28: 320.34', '2025-10-29: 301.87', '2025-10-30: 309.64', '2025-10-31: 292.64']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-24: 2,840,906', '2025-10-27: 3,809,938', '2025-10-28: 5,802,800', '2025-10-29: 103,454,200', '2025-10-30: 63,794,834']</t>
+          <t>['2025-10-27: 194,225', '2025-10-28: 220,238', '2025-10-29: 212,515', '2025-10-30: 183,066', '2025-10-31: 368,420']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>DXCM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-24: 301.78', '2025-10-27: 309.18', '2025-10-28: 308.41', '2025-10-29: 299.12', '2025-10-30: 247.1']</t>
+          <t>['2025-10-27: 70.63', '2025-10-28: 69.23', '2025-10-29: 68.18', '2025-10-30: 68.2', '2025-10-31: 58.22']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-24: 1,318,300', '2025-10-27: 1,375,000', '2025-10-28: 1,173,600', '2025-10-29: 1,992,400', '2025-10-30: 9,349,022']</t>
+          <t>['2025-10-27: 2,909,309', '2025-10-28: 8,687,500', '2025-10-29: 4,434,808', '2025-10-30: 7,250,700', '2025-10-31: 26,557,734']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EME</t>
+          <t>EXR</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3150,24 +3241,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-24: 748.24', '2025-10-27: 754.85', '2025-10-28: 751.44', '2025-10-29: 777.0', '2025-10-30: 648.0']</t>
+          <t>['2025-10-27: 149.51', '2025-10-28: 146.92', '2025-10-29: 141.76', '2025-10-30: 134.8', '2025-10-31: 133.54']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-24: 690,122', '2025-10-27: 477,640', '2025-10-28: 399,113', '2025-10-29: 684,700', '2025-10-30: 1,422,798']</t>
+          <t>['2025-10-27: 889,800', '2025-10-28: 685,700', '2025-10-29: 1,228,473', '2025-10-30: 3,030,767', '2025-10-31: 2,550,805']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>MOS</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3180,19 +3271,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-24: 130.94', '2025-10-27: 131.88', '2025-10-28: 130.85', '2025-10-29: 126.57', '2025-10-30: 126.74']</t>
+          <t>['2025-10-27: 29.56', '2025-10-28: 29.38', '2025-10-29: 28.65', '2025-10-30: 27.71', '2025-10-31: 27.45']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-24: 1,006,300', '2025-10-27: 1,105,600', '2025-10-28: 1,003,419', '2025-10-29: 2,213,249', '2025-10-30: 2,474,505']</t>
+          <t>['2025-10-27: 3,654,100', '2025-10-28: 3,012,978', '2025-10-29: 4,070,459', '2025-10-30: 6,039,024', '2025-10-31: 7,273,754']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3200,17 +3291,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-24: 124.06', '2025-10-27: 123.19', '2025-10-28: 119.35', '2025-10-29: 115.29', '2025-10-30: 111.69']</t>
+          <t>['2025-10-27: 443.99', '2025-10-28: 440.21', '2025-10-29: 432.18', '2025-10-30: 431.98', '2025-10-31: 406.71']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-24: 907,706', '2025-10-27: 1,229,610', '2025-10-28: 1,690,844', '2025-10-29: 2,977,300', '2025-10-30: 3,714,518']</t>
+          <t>['2025-10-27: 584,994', '2025-10-28: 520,212', '2025-10-29: 710,127', '2025-10-30: 1,306,600', '2025-10-31: 1,961,099']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2640,6 +2640,102 @@
         </is>
       </c>
       <c r="F69" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>BRO</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>B of A Securities</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>BRO</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Citigroup</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BRO</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -2724,67 +2820,77 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>D.A. Davidson</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>115</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2025-10-31</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>UBS</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
         <v>166</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Robert W. Baird</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>135</v>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Raised</t>
+          <t>Lowered</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>BRO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mark Hughes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Redburn Partners</t>
+          <t>Truist Financial</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Robert Cox</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Argus Research</t>
+          <t>Goldman Sachs</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -2841,32 +2947,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CURR</t>
+          <t>NMRA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-27: 1.9', '2025-10-28: 2.19', '2025-10-29: 2.51', '2025-10-30: 2.89', '2025-10-31: 3.78']</t>
+          <t>['2025-10-28: 2.59', '2025-10-29: 2.5', '2025-10-30: 2.93', '2025-10-31: 3.02', '2025-11-03: 3.01']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-27: 338,200', '2025-10-28: 1,582,900', '2025-10-29: 884,600', '2025-10-30: 515,039', '2025-10-31: 1,223,699']</t>
+          <t>['2025-10-28: 1,397,300', '2025-10-29: 4,153,100', '2025-10-30: 7,494,400', '2025-10-31: 4,581,800', '2025-11-03: 1,820,800']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NMRA</t>
+          <t>MRNO</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2879,12 +2985,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-27: 2.69', '2025-10-28: 2.59', '2025-10-29: 2.5', '2025-10-30: 2.93', '2025-10-31: 3.02']</t>
+          <t>['2025-10-28: 2.77', '2025-10-29: 2.62', '2025-10-30: 2.62', '2025-10-31: 2.7', '2025-11-03: 2.7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-27: 10,849,000', '2025-10-28: 1,397,300', '2025-10-29: 4,153,100', '2025-10-30: 7,494,400', '2025-10-31: 4,569,000']</t>
+          <t>['2025-10-28: 7,600', '2025-10-29: 2,542', '2025-10-30: 4,042', '2025-10-31: 2,944', '2025-11-03: 6,100']</t>
         </is>
       </c>
     </row>
@@ -2904,19 +3010,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-27: 4.93', '2025-10-28: 4.9', '2025-10-29: 4.94', '2025-10-30: 4.94', '2025-10-31: 4.96']</t>
+          <t>['2025-10-28: 4.9', '2025-10-29: 4.94', '2025-10-30: 4.94', '2025-10-31: 4.96', '2025-11-03: 5.0']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-27: 0', '2025-10-28: 0', '2025-10-29: 0', '2025-10-30: 0', '2025-10-31: 0']</t>
+          <t>['2025-10-28: 0', '2025-10-29: 0', '2025-10-30: 0', '2025-10-31: 0', '2025-11-03: 0']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ALMS</t>
+          <t>WAEMX</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2929,19 +3035,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-27: 4.81', '2025-10-28: 4.81', '2025-10-29: 4.71', '2025-10-30: 4.66', '2025-10-31: 4.75']</t>
+          <t>['2025-10-29: 2.91', '2025-10-30: 2.9', '2025-10-31: 2.89', '2025-11-03: 2.91', '2025-11-04: 2.91']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-27: 448,009', '2025-10-28: 409,121', '2025-10-29: 586,723', '2025-10-30: 309,200', '2025-10-31: 330,005']</t>
+          <t>['2025-10-29: 0', '2025-10-30: 0', '2025-10-31: 0', '2025-11-03: 0', '2025-11-04: 0']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FSHPR</t>
+          <t>CURR</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2949,17 +3055,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%</t>
+          <t>Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-20: 0.1341', '2025-10-21: 0.19', '2025-10-22: 0.177', '2025-10-30: 0.19', '2025-10-31: 0.1899']</t>
+          <t>['2025-10-28: 2.19', '2025-10-29: 2.51', '2025-10-30: 2.89', '2025-10-31: 3.78', '2025-11-03: 2.37']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-20: 8', '2025-10-21: 1,999', '2025-10-22: 215', '2025-10-30: 200', '2025-10-31: 20']</t>
+          <t>['2025-10-28: 1,582,900', '2025-10-29: 884,600', '2025-10-30: 515,039', '2025-10-31: 1,223,700', '2025-11-03: 31,646,600']</t>
         </is>
       </c>
     </row>
@@ -3012,7 +3118,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>KVUE</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3025,19 +3131,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-27: 247.69', '2025-10-28: 239.6', '2025-10-29: 241.71', '2025-10-30: 233.58', '2025-10-31: 266.94']</t>
+          <t>['2025-10-28: 14.51', '2025-10-29: 14.31', '2025-10-30: 14.24', '2025-10-31: 14.37', '2025-11-03: 16.14']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-27: 2,068,947', '2025-10-28: 2,552,517', '2025-10-29: 2,331,300', '2025-10-30: 2,529,300', '2025-10-31: 6,158,718']</t>
+          <t>['2025-10-28: 29,928,100', '2025-10-29: 64,351,200', '2025-10-30: 34,414,137', '2025-10-31: 46,602,300', '2025-11-03: 203,525,996']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHD</t>
+          <t>IDXX</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3050,12 +3156,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-27: 85.64', '2025-10-28: 84.26', '2025-10-29: 81.84', '2025-10-30: 81.8', '2025-10-31: 87.69']</t>
+          <t>['2025-10-28: 634.36', '2025-10-29: 627.66', '2025-10-30: 628.54', '2025-10-31: 629.51', '2025-11-03: 722.94']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-27: 2,139,753', '2025-10-28: 1,898,186', '2025-10-29: 2,518,901', '2025-10-30: 4,244,002', '2025-10-31: 6,139,083']</t>
+          <t>['2025-10-28: 397,172', '2025-10-29: 489,964', '2025-10-30: 373,200', '2025-10-31: 974,400', '2025-11-03: 1,652,764']</t>
         </is>
       </c>
     </row>
@@ -3070,49 +3176,49 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-27: 126.67', '2025-10-28: 124.92', '2025-10-29: 141.38', '2025-10-30: 138.13', '2025-10-31: 150.21']</t>
+          <t>['2025-10-28: 124.92', '2025-10-29: 141.38', '2025-10-30: 138.13', '2025-10-31: 150.21', '2025-11-03: 158.02']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-27: 7,249,300', '2025-10-28: 7,031,914', '2025-10-29: 18,267,300', '2025-10-30: 13,870,700', '2025-10-31: 20,124,100']</t>
+          <t>['2025-10-28: 7,031,914', '2025-10-29: 18,267,300', '2025-10-30: 13,870,700', '2025-10-31: 20,139,900', '2025-11-03: 13,275,428']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>HOOD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-27: 226.97', '2025-10-28: 229.25', '2025-10-29: 230.3', '2025-10-30: 222.86', '2025-10-31: 244.22']</t>
+          <t>['2025-10-28: 146.25', '2025-10-29: 144.8', '2025-10-30: 138.07', '2025-10-31: 146.78', '2025-11-03: 147.08']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-27: 38,267,000', '2025-10-28: 47,100,026', '2025-10-29: 52,036,200', '2025-10-30: 102,252,937', '2025-10-31: 166,340,808']</t>
+          <t>['2025-10-28: 13,446,700', '2025-10-29: 19,792,600', '2025-10-30: 19,706,949', '2025-10-31: 26,028,101', '2025-11-03: 17,187,616']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>IBKR</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3120,17 +3226,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-27: 145.86', '2025-10-28: 146.25', '2025-10-29: 144.8', '2025-10-30: 138.07', '2025-10-31: 146.78']</t>
+          <t>['2025-10-28: 68.65', '2025-10-29: 69.19', '2025-10-30: 68.51', '2025-10-31: 70.36', '2025-11-03: 73.08']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-27: 25,833,300', '2025-10-28: 13,446,700', '2025-10-29: 19,792,600', '2025-10-30: 19,706,949', '2025-10-31: 26,028,101']</t>
+          <t>['2025-10-28: 2,595,300', '2025-10-29: 2,903,432', '2025-10-30: 3,071,242', '2025-10-31: 3,834,500', '2025-11-03: 6,430,480']</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3289,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ERIE</t>
+          <t>MRNA</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3191,24 +3297,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-27: 329.97', '2025-10-28: 320.34', '2025-10-29: 301.87', '2025-10-30: 309.64', '2025-10-31: 292.64']</t>
+          <t>['2025-10-28: 25.35', '2025-10-29: 24.7', '2025-10-30: 28.14', '2025-10-31: 27.16', '2025-11-03: 24.91']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-27: 194,225', '2025-10-28: 220,238', '2025-10-29: 212,515', '2025-10-30: 183,066', '2025-10-31: 368,420']</t>
+          <t>['2025-10-28: 8,832,439', '2025-10-29: 8,752,831', '2025-10-30: 48,698,737', '2025-10-31: 15,696,522', '2025-11-03: 14,704,032']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DXCM</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3221,19 +3327,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-27: 70.63', '2025-10-28: 69.23', '2025-10-29: 68.18', '2025-10-30: 68.2', '2025-10-31: 58.22']</t>
+          <t>['2025-10-28: 120.66', '2025-10-29: 116.72', '2025-10-30: 120.21', '2025-10-31: 119.71', '2025-11-03: 102.27']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-27: 2,909,309', '2025-10-28: 8,687,500', '2025-10-29: 4,434,808', '2025-10-30: 7,250,700', '2025-10-31: 26,557,734']</t>
+          <t>['2025-10-28: 3,297,222', '2025-10-29: 4,365,249', '2025-10-30: 4,660,126', '2025-10-31: 4,396,700', '2025-11-03: 36,684,400']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3246,62 +3352,62 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-27: 149.51', '2025-10-28: 146.92', '2025-10-29: 141.76', '2025-10-30: 134.8', '2025-10-31: 133.54']</t>
+          <t>['2025-10-28: 440.21', '2025-10-29: 432.18', '2025-10-30: 431.98', '2025-10-31: 406.71', '2025-11-03: 391.5']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-27: 889,800', '2025-10-28: 685,700', '2025-10-29: 1,228,473', '2025-10-30: 3,030,767', '2025-10-31: 2,550,805']</t>
+          <t>['2025-10-28: 520,212', '2025-10-29: 710,127', '2025-10-30: 1,306,600', '2025-10-31: 1,961,099', '2025-11-03: 2,287,560']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MOS</t>
+          <t>ERIE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-27: 29.56', '2025-10-28: 29.38', '2025-10-29: 28.65', '2025-10-30: 27.71', '2025-10-31: 27.45']</t>
+          <t>['2025-10-28: 320.34', '2025-10-29: 301.87', '2025-10-30: 309.64', '2025-10-31: 292.64', '2025-11-03: 285.35']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-27: 3,654,100', '2025-10-28: 3,012,978', '2025-10-29: 4,070,459', '2025-10-30: 6,039,024', '2025-10-31: 7,273,754']</t>
+          <t>['2025-10-28: 220,238', '2025-10-29: 212,515', '2025-10-30: 183,066', '2025-10-31: 368,420', '2025-11-03: 195,950']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>SOLV</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-27: 443.99', '2025-10-28: 440.21', '2025-10-29: 432.18', '2025-10-30: 431.98', '2025-10-31: 406.71']</t>
+          <t>['2025-10-28: 70.92', '2025-10-29: 69.78', '2025-10-30: 69.28', '2025-10-31: 69.04', '2025-11-03: 68.12']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-27: 584,994', '2025-10-28: 520,212', '2025-10-29: 710,127', '2025-10-30: 1,306,600', '2025-10-31: 1,961,099']</t>
+          <t>['2025-10-28: 447,030', '2025-10-29: 815,800', '2025-10-30: 569,207', '2025-10-31: 836,700', '2025-11-03: 1,290,126']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2736,6 +2736,102 @@
         </is>
       </c>
       <c r="F72" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Citigroup</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Keybanc</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -2752,7 +2848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2815,21 +2911,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>STLD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Andrew Jones</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>D.A. Davidson</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -2838,63 +2939,15 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>Goldman Sachs</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Lowered</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BRO</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-07-30</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Mark Hughes</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Truist Financial</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>120</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024-10-29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Robert Cox</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Goldman Sachs</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>115</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Raised</t>
         </is>
       </c>
     </row>
@@ -2947,32 +3000,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NMRA</t>
+          <t>EGHT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-28: 2.59', '2025-10-29: 2.5', '2025-10-30: 2.93', '2025-10-31: 3.02', '2025-11-03: 3.01']</t>
+          <t>['2025-10-30: 1.83', '2025-10-31: 1.84', '2025-11-03: 1.86', '2025-11-04: 1.77', '2025-11-05: 2.2']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-28: 1,397,300', '2025-10-29: 4,153,100', '2025-10-30: 7,494,400', '2025-10-31: 4,581,800', '2025-11-03: 1,820,800']</t>
+          <t>['2025-10-30: 325,365', '2025-10-31: 1,044,300', '2025-11-03: 749,124', '2025-11-04: 734,744', '2025-11-05: 2,709,584']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MRNO</t>
+          <t>CURR</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2980,49 +3033,49 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-28: 2.77', '2025-10-29: 2.62', '2025-10-30: 2.62', '2025-10-31: 2.7', '2025-11-03: 2.7']</t>
+          <t>['2025-10-30: 2.89', '2025-10-31: 3.78', '2025-11-03: 2.37', '2025-11-04: 2.46', '2025-11-05: 2.95']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-28: 7,600', '2025-10-29: 2,542', '2025-10-30: 4,042', '2025-10-31: 2,944', '2025-11-03: 6,100']</t>
+          <t>['2025-10-30: 515,039', '2025-10-31: 1,223,700', '2025-11-03: 31,669,228', '2025-11-04: 1,920,000', '2025-11-05: 1,461,179']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DCMSX</t>
+          <t>ROMA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-28: 4.9', '2025-10-29: 4.94', '2025-10-30: 4.94', '2025-10-31: 4.96', '2025-11-03: 5.0']</t>
+          <t>['2025-10-30: 2.8', '2025-10-31: 2.74', '2025-11-03: 2.69', '2025-11-04: 2.85', '2025-11-05: 2.84']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-28: 0', '2025-10-29: 0', '2025-10-30: 0', '2025-10-31: 0', '2025-11-03: 0']</t>
+          <t>['2025-10-30: 3,800', '2025-10-31: 27,623', '2025-11-03: 2,200', '2025-11-04: 49,733', '2025-11-05: 16,302']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WAEMX</t>
+          <t>RZLVW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3030,24 +3083,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-29: 2.91', '2025-10-30: 2.9', '2025-10-31: 2.89', '2025-11-03: 2.91', '2025-11-04: 2.91']</t>
+          <t>['2025-10-30: 1.18', '2025-10-31: 1.2', '2025-11-03: 1.24', '2025-11-04: 1.12', '2025-11-05: 1.27']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-29: 0', '2025-10-30: 0', '2025-10-31: 0', '2025-11-03: 0', '2025-11-04: 0']</t>
+          <t>['2025-10-30: 46,008', '2025-10-31: 13,936', '2025-11-03: 38,715', '2025-11-04: 48,980', '2025-11-05: 38,587']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CURR</t>
+          <t>DCMSX</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3055,17 +3108,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-28: 2.19', '2025-10-29: 2.51', '2025-10-30: 2.89', '2025-10-31: 3.78', '2025-11-03: 2.37']</t>
+          <t>['2025-10-30: 4.94', '2025-10-31: 4.96', '2025-11-03: 5.0', '2025-11-04: 4.97', '2025-11-05: 4.97']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-28: 1,582,900', '2025-10-29: 884,600', '2025-10-30: 515,039', '2025-10-31: 1,223,700', '2025-11-03: 31,646,600']</t>
+          <t>['2025-10-30: 0', '2025-10-31: 0', '2025-11-03: 0', '2025-11-04: 0', '2025-11-05: 0']</t>
         </is>
       </c>
     </row>
@@ -3118,7 +3171,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KVUE</t>
+          <t>AMGN</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3131,69 +3184,69 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-28: 14.51', '2025-10-29: 14.31', '2025-10-30: 14.24', '2025-10-31: 14.37', '2025-11-03: 16.14']</t>
+          <t>['2025-10-30: 292.0', '2025-10-31: 298.43', '2025-11-03: 296.3', '2025-11-04: 296.7', '2025-11-05: 319.86']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-28: 29,928,100', '2025-10-29: 64,351,200', '2025-10-30: 34,414,137', '2025-10-31: 46,602,300', '2025-11-03: 203,525,996']</t>
+          <t>['2025-10-30: 2,058,200', '2025-10-31: 2,687,516', '2025-11-03: 2,753,331', '2025-11-04: 3,412,532', '2025-11-05: 5,486,162']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>APO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-28: 634.36', '2025-10-29: 627.66', '2025-10-30: 628.54', '2025-10-31: 629.51', '2025-11-03: 722.94']</t>
+          <t>['2025-10-30: 123.45', '2025-10-31: 124.31', '2025-11-03: 123.95', '2025-11-04: 130.51', '2025-11-05: 133.75']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-28: 397,172', '2025-10-29: 489,964', '2025-10-30: 373,200', '2025-10-31: 974,400', '2025-11-03: 1,652,764']</t>
+          <t>['2025-10-30: 4,091,503', '2025-10-31: 3,055,736', '2025-11-03: 4,761,000', '2025-11-04: 6,684,436', '2025-11-05: 5,483,890']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WDC</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-28: 124.92', '2025-10-29: 141.38', '2025-10-30: 138.13', '2025-10-31: 150.21', '2025-11-03: 158.02']</t>
+          <t>['2025-10-30: 233.58', '2025-10-31: 266.94', '2025-11-03: 265.71', '2025-11-04: 262.7', '2025-11-05: 277.39']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-28: 7,031,914', '2025-10-29: 18,267,300', '2025-10-30: 13,870,700', '2025-10-31: 20,139,900', '2025-11-03: 13,275,428']</t>
+          <t>['2025-10-30: 2,529,300', '2025-10-31: 6,158,718', '2025-11-03: 2,707,600', '2025-11-04: 2,575,518', '2025-11-05: 3,644,340']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>TRGP</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3201,24 +3254,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-28: 146.25', '2025-10-29: 144.8', '2025-10-30: 138.07', '2025-10-31: 146.78', '2025-11-03: 147.08']</t>
+          <t>['2025-10-30: 151.52', '2025-10-31: 154.04', '2025-11-03: 156.09', '2025-11-04: 154.57', '2025-11-05: 162.69']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-28: 13,446,700', '2025-10-29: 19,792,600', '2025-10-30: 19,706,949', '2025-10-31: 26,028,101', '2025-11-03: 17,187,616']</t>
+          <t>['2025-10-30: 1,269,253', '2025-10-31: 1,988,888', '2025-11-03: 2,327,411', '2025-11-04: 2,508,710', '2025-11-05: 2,817,600']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IBKR</t>
+          <t>MTCH</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3226,17 +3279,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-28: 68.65', '2025-10-29: 69.19', '2025-10-30: 68.51', '2025-10-31: 70.36', '2025-11-03: 73.08']</t>
+          <t>['2025-10-30: 32.3', '2025-10-31: 32.34', '2025-11-03: 32.5', '2025-11-04: 31.55', '2025-11-05: 33.19']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-28: 2,595,300', '2025-10-29: 2,903,432', '2025-10-30: 3,071,242', '2025-10-31: 3,834,500', '2025-11-03: 6,430,480']</t>
+          <t>['2025-10-30: 2,979,644', '2025-10-31: 4,784,922', '2025-11-03: 6,973,699', '2025-11-04: 9,010,723', '2025-11-05: 7,876,800']</t>
         </is>
       </c>
     </row>
@@ -3289,32 +3342,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MRNA</t>
+          <t>SMCI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-28: 25.35', '2025-10-29: 24.7', '2025-10-30: 28.14', '2025-10-31: 27.16', '2025-11-03: 24.91']</t>
+          <t>['2025-10-30: 50.37', '2025-10-31: 51.96', '2025-11-03: 50.75', '2025-11-04: 47.4', '2025-11-05: 42.03']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-28: 8,832,439', '2025-10-29: 8,752,831', '2025-10-30: 48,698,737', '2025-10-31: 15,696,522', '2025-11-03: 14,704,032']</t>
+          <t>['2025-10-30: 17,736,600', '2025-10-31: 19,822,800', '2025-11-03: 23,811,300', '2025-11-04: 37,973,500', '2025-11-05: 61,413,576']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>ZBH</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3327,19 +3380,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-28: 120.66', '2025-10-29: 116.72', '2025-10-30: 120.21', '2025-10-31: 119.71', '2025-11-03: 102.27']</t>
+          <t>['2025-10-30: 99.56', '2025-10-31: 100.56', '2025-11-03: 99.88', '2025-11-04: 103.18', '2025-11-05: 87.55']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-28: 3,297,222', '2025-10-29: 4,365,249', '2025-10-30: 4,660,126', '2025-10-31: 4,396,700', '2025-11-03: 36,684,400']</t>
+          <t>['2025-10-30: 1,416,318', '2025-10-31: 2,124,800', '2025-11-03: 1,724,900', '2025-11-04: 3,781,405', '2025-11-05: 9,198,240']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>AIG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3347,24 +3400,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-28: 440.21', '2025-10-29: 432.18', '2025-10-30: 431.98', '2025-10-31: 406.71', '2025-11-03: 391.5']</t>
+          <t>['2025-10-30: 78.19', '2025-10-31: 78.96', '2025-11-03: 78.96', '2025-11-04: 80.71', '2025-11-05: 76.32']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-28: 520,212', '2025-10-29: 710,127', '2025-10-30: 1,306,600', '2025-10-31: 1,961,099', '2025-11-03: 2,287,560']</t>
+          <t>['2025-10-30: 2,770,000', '2025-10-31: 3,250,131', '2025-11-03: 4,197,239', '2025-11-04: 5,270,900', '2025-11-05: 7,972,187']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ERIE</t>
+          <t>TTD</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3377,19 +3430,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-28: 320.34', '2025-10-29: 301.87', '2025-10-30: 309.64', '2025-10-31: 292.64', '2025-11-03: 285.35']</t>
+          <t>['2025-10-30: 48.97', '2025-10-31: 50.28', '2025-11-03: 49.12', '2025-11-04: 47.24', '2025-11-05: 47.7']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-28: 220,238', '2025-10-29: 212,515', '2025-10-30: 183,066', '2025-10-31: 368,420', '2025-11-03: 195,950']</t>
+          <t>['2025-10-30: 7,389,735', '2025-10-31: 10,012,715', '2025-11-03: 9,623,239', '2025-11-04: 8,540,900', '2025-11-05: 9,982,253']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>COIN</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3397,17 +3450,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-28: 70.92', '2025-10-29: 69.78', '2025-10-30: 69.28', '2025-10-31: 69.04', '2025-11-03: 68.12']</t>
+          <t>['2025-10-30: 328.51', '2025-10-31: 343.78', '2025-11-03: 330.42', '2025-11-04: 307.32', '2025-11-05: 319.3']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-28: 447,030', '2025-10-29: 815,800', '2025-10-30: 569,207', '2025-10-31: 836,700', '2025-11-03: 1,290,126']</t>
+          <t>['2025-10-30: 8,947,700', '2025-10-31: 13,757,301', '2025-11-03: 9,341,726', '2025-11-04: 12,420,300', '2025-11-05: 8,215,486']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2832,6 +2832,102 @@
         </is>
       </c>
       <c r="F75" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Barclays</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Barclays</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Stephens &amp; Co.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -2911,39 +3007,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STLD</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Andrew Jones</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>Morgan Stanley</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Benjamin Theurer</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Goldman Sachs</t>
+          <t>Barclays</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -3000,82 +3096,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EGHT</t>
+          <t>RITR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-30: 1.83', '2025-10-31: 1.84', '2025-11-03: 1.86', '2025-11-04: 1.77', '2025-11-05: 2.2']</t>
+          <t>['2025-10-31: 1.8', '2025-11-03: 1.81', '2025-11-04: 1.76', '2025-11-05: 1.83', '2025-11-06: 1.84']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-30: 325,365', '2025-10-31: 1,044,300', '2025-11-03: 749,124', '2025-11-04: 734,744', '2025-11-05: 2,709,584']</t>
+          <t>['2025-10-31: 405,500', '2025-11-03: 2,813,800', '2025-11-04: 909,400', '2025-11-05: 67,848', '2025-11-06: 110,242']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CURR</t>
+          <t>XCH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
+          <t>Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-30: 2.89', '2025-10-31: 3.78', '2025-11-03: 2.37', '2025-11-04: 2.46', '2025-11-05: 2.95']</t>
+          <t>['2025-10-31: 1.53', '2025-11-03: 1.4', '2025-11-04: 1.37', '2025-11-05: 1.49', '2025-11-06: 1.43']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-30: 515,039', '2025-10-31: 1,223,700', '2025-11-03: 31,669,228', '2025-11-04: 1,920,000', '2025-11-05: 1,461,179']</t>
+          <t>['2025-10-31: 14,300', '2025-11-03: 19,500', '2025-11-04: 12,900', '2025-11-05: 13,100', '2025-11-06: 27,600']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ROMA</t>
+          <t>JASBX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-30: 2.8', '2025-10-31: 2.74', '2025-11-03: 2.69', '2025-11-04: 2.85', '2025-11-05: 2.84']</t>
+          <t>['2025-10-31: 2.91', '2025-11-03: 2.9', '2025-11-04: 2.91', '2025-11-05: 2.9', '2025-11-06: 2.91']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-30: 3,800', '2025-10-31: 27,623', '2025-11-03: 2,200', '2025-11-04: 49,733', '2025-11-05: 16,302']</t>
+          <t>['2025-10-31: 0', '2025-11-03: 0', '2025-11-04: 0', '2025-11-05: 0', '2025-11-06: 0']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RZLVW</t>
+          <t>ALMS</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3083,24 +3179,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-30: 1.18', '2025-10-31: 1.2', '2025-11-03: 1.24', '2025-11-04: 1.12', '2025-11-05: 1.27']</t>
+          <t>['2025-10-31: 4.75', '2025-11-03: 4.56', '2025-11-04: 4.55', '2025-11-05: 4.57', '2025-11-06: 4.72']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-30: 46,008', '2025-10-31: 13,936', '2025-11-03: 38,715', '2025-11-04: 48,980', '2025-11-05: 38,587']</t>
+          <t>['2025-10-31: 330,005', '2025-11-03: 843,730', '2025-11-04: 788,600', '2025-11-05: 222,100', '2025-11-06: 872,544']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DCMSX</t>
+          <t>EGHT</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3108,17 +3204,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-30: 4.94', '2025-10-31: 4.96', '2025-11-03: 5.0', '2025-11-04: 4.97', '2025-11-05: 4.97']</t>
+          <t>['2025-10-31: 1.84', '2025-11-03: 1.86', '2025-11-04: 1.77', '2025-11-05: 2.2', '2025-11-06: 1.97']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-30: 0', '2025-10-31: 0', '2025-11-03: 0', '2025-11-04: 0', '2025-11-05: 0']</t>
+          <t>['2025-10-31: 1,044,300', '2025-11-03: 749,124', '2025-11-04: 734,744', '2025-11-05: 2,709,584', '2025-11-06: 1,516,241']</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3267,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMGN</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3184,112 +3280,112 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-30: 292.0', '2025-10-31: 298.43', '2025-11-03: 296.3', '2025-11-04: 296.7', '2025-11-05: 319.86']</t>
+          <t>['2025-10-31: 162.81', '2025-11-03: 162.08', '2025-11-04: 157.51', '2025-11-05: 154.98', '2025-11-06: 190.82']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-30: 2,058,200', '2025-10-31: 2,687,516', '2025-11-03: 2,753,331', '2025-11-04: 3,412,532', '2025-11-05: 5,486,162']</t>
+          <t>['2025-10-31: 4,038,328', '2025-11-03: 4,311,400', '2025-11-04: 3,815,035', '2025-11-05: 5,345,400', '2025-11-06: 21,307,233']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>TPL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-30: 123.45', '2025-10-31: 124.31', '2025-11-03: 123.95', '2025-11-04: 130.51', '2025-11-05: 133.75']</t>
+          <t>['2025-10-31: 943.38', '2025-11-03: 924.66', '2025-11-04: 914.43', '2025-11-05: 919.05', '2025-11-06: 1011.13']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-30: 4,091,503', '2025-10-31: 3,055,736', '2025-11-03: 4,761,000', '2025-11-04: 6,684,436', '2025-11-05: 5,483,890']</t>
+          <t>['2025-10-31: 167,101', '2025-11-03: 104,945', '2025-11-04: 88,800', '2025-11-05: 94,006', '2025-11-06: 325,000']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>STE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-30: 233.58', '2025-10-31: 266.94', '2025-11-03: 265.71', '2025-11-04: 262.7', '2025-11-05: 277.39']</t>
+          <t>['2025-10-31: 235.7', '2025-11-03: 237.32', '2025-11-04: 241.85', '2025-11-05: 243.18', '2025-11-06: 260.06']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-30: 2,529,300', '2025-10-31: 6,158,718', '2025-11-03: 2,707,600', '2025-11-04: 2,575,518', '2025-11-05: 3,644,340']</t>
+          <t>['2025-10-31: 604,345', '2025-11-03: 746,028', '2025-11-04: 727,265', '2025-11-05: 1,086,100', '2025-11-06: 1,610,702']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TRGP</t>
+          <t>HST</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-30: 151.52', '2025-10-31: 154.04', '2025-11-03: 156.09', '2025-11-04: 154.57', '2025-11-05: 162.69']</t>
+          <t>['2025-10-31: 16.02', '2025-11-03: 16.13', '2025-11-04: 16.05', '2025-11-05: 16.21', '2025-11-06: 17.32']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-30: 1,269,253', '2025-10-31: 1,988,888', '2025-11-03: 2,327,411', '2025-11-04: 2,508,710', '2025-11-05: 2,817,600']</t>
+          <t>['2025-10-31: 10,793,320', '2025-11-03: 8,161,712', '2025-11-04: 12,376,102', '2025-11-05: 15,014,944', '2025-11-06: 25,709,871']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MTCH</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-30: 32.3', '2025-10-31: 32.34', '2025-11-03: 32.5', '2025-11-04: 31.55', '2025-11-05: 33.19']</t>
+          <t>['2025-10-31: 22.65', '2025-11-03: 22.49', '2025-11-04: 22.09', '2025-11-05: 21.66', '2025-11-06: 23.64']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-30: 2,979,644', '2025-10-31: 4,784,922', '2025-11-03: 6,973,699', '2025-11-04: 9,010,723', '2025-11-05: 7,876,800']</t>
+          <t>['2025-10-31: 9,866,800', '2025-11-03: 5,804,000', '2025-11-04: 6,114,800', '2025-11-05: 8,854,431', '2025-11-06: 16,429,749']</t>
         </is>
       </c>
     </row>
@@ -3342,32 +3438,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>HOOD</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-30: 50.37', '2025-10-31: 51.96', '2025-11-03: 50.75', '2025-11-04: 47.4', '2025-11-05: 42.03']</t>
+          <t>['2025-10-31: 146.78', '2025-11-03: 147.08', '2025-11-04: 136.8', '2025-11-05: 142.48', '2025-11-06: 127.08']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-30: 17,736,600', '2025-10-31: 19,822,800', '2025-11-03: 23,811,300', '2025-11-04: 37,973,500', '2025-11-05: 61,413,576']</t>
+          <t>['2025-10-31: 26,028,101', '2025-11-03: 17,187,616', '2025-11-04: 26,617,700', '2025-11-05: 32,318,500', '2025-11-06: 50,477,785']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>DASH</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3380,19 +3476,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-30: 99.56', '2025-10-31: 100.56', '2025-11-03: 99.88', '2025-11-04: 103.18', '2025-11-05: 87.55']</t>
+          <t>['2025-10-31: 254.37', '2025-11-03: 242.05', '2025-11-04: 239.93', '2025-11-05: 238.0', '2025-11-06: 196.46']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-30: 1,416,318', '2025-10-31: 2,124,800', '2025-11-03: 1,724,900', '2025-11-04: 3,781,405', '2025-11-05: 9,198,240']</t>
+          <t>['2025-10-31: 2,704,321', '2025-11-03: 5,147,045', '2025-11-04: 4,975,900', '2025-11-05: 8,126,701', '2025-11-06: 18,356,903']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>AXON</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3400,67 +3496,67 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-30: 78.19', '2025-10-31: 78.96', '2025-11-03: 78.96', '2025-11-04: 80.71', '2025-11-05: 76.32']</t>
+          <t>['2025-10-31: 732.23', '2025-11-03: 724.1', '2025-11-04: 706.13', '2025-11-05: 639.53', '2025-11-06: 587.14']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-30: 2,770,000', '2025-10-31: 3,250,131', '2025-11-03: 4,197,239', '2025-11-04: 5,270,900', '2025-11-05: 7,972,187']</t>
+          <t>['2025-10-31: 533,371', '2025-11-03: 603,800', '2025-11-04: 1,132,911', '2025-11-05: 4,863,000', '2025-11-06: 1,891,456']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>PTC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-30: 48.97', '2025-10-31: 50.28', '2025-11-03: 49.12', '2025-11-04: 47.24', '2025-11-05: 47.7']</t>
+          <t>['2025-10-31: 198.54', '2025-11-03: 196.36', '2025-11-04: 192.03', '2025-11-05: 189.97', '2025-11-06: 173.93']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-30: 7,389,735', '2025-10-31: 10,012,715', '2025-11-03: 9,623,239', '2025-11-04: 8,540,900', '2025-11-05: 9,982,253']</t>
+          <t>['2025-10-31: 882,825', '2025-11-03: 1,251,300', '2025-11-04: 1,117,200', '2025-11-05: 1,390,404', '2025-11-06: 2,327,600']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>PAYC</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-30: 328.51', '2025-10-31: 343.78', '2025-11-03: 330.42', '2025-11-04: 307.32', '2025-11-05: 319.3']</t>
+          <t>['2025-10-31: 187.09', '2025-11-03: 184.85', '2025-11-04: 181.91', '2025-11-05: 183.71', '2025-11-06: 164.01']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-30: 8,947,700', '2025-10-31: 13,757,301', '2025-11-03: 9,341,726', '2025-11-04: 12,420,300', '2025-11-05: 8,215,486']</t>
+          <t>['2025-10-31: 610,135', '2025-11-03: 890,719', '2025-11-04: 593,231', '2025-11-05: 1,306,212', '2025-11-06: 2,048,020']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -3096,57 +3096,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RITR</t>
+          <t>ALMS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-31: 1.8', '2025-11-03: 1.81', '2025-11-04: 1.76', '2025-11-05: 1.83', '2025-11-06: 1.84']</t>
+          <t>['2025-11-03: 4.56', '2025-11-04: 4.55', '2025-11-05: 4.57', '2025-11-06: 4.72', '2025-11-07: 4.72']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-31: 405,500', '2025-11-03: 2,813,800', '2025-11-04: 909,400', '2025-11-05: 67,848', '2025-11-06: 110,242']</t>
+          <t>['2025-11-03: 843,730', '2025-11-04: 788,600', '2025-11-05: 222,100', '2025-11-06: 872,544', '2025-11-07: 1,394,300']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>XCH</t>
+          <t>RZLVW</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-31: 1.53', '2025-11-03: 1.4', '2025-11-04: 1.37', '2025-11-05: 1.49', '2025-11-06: 1.43']</t>
+          <t>['2025-11-03: 1.24', '2025-11-04: 1.12', '2025-11-05: 1.27', '2025-11-06: 1.21', '2025-11-07: 1.28']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-31: 14,300', '2025-11-03: 19,500', '2025-11-04: 12,900', '2025-11-05: 13,100', '2025-11-06: 27,600']</t>
+          <t>['2025-11-03: 38,715', '2025-11-04: 48,980', '2025-11-05: 38,587', '2025-11-06: 16,927', '2025-11-07: 264,792']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JASBX</t>
+          <t>IVFAX</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3159,19 +3159,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-31: 2.91', '2025-11-03: 2.9', '2025-11-04: 2.91', '2025-11-05: 2.9', '2025-11-06: 2.91']</t>
+          <t>['2025-11-03: 4.35', '2025-11-04: 4.35', '2025-11-05: 4.38', '2025-11-06: 4.39', '2025-11-07: 4.43']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-31: 0', '2025-11-03: 0', '2025-11-04: 0', '2025-11-05: 0', '2025-11-06: 0']</t>
+          <t>['2025-11-03: 0', '2025-11-04: 0', '2025-11-05: 0', '2025-11-06: 0', '2025-11-07: 0']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ALMS</t>
+          <t>IVFIX</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3184,19 +3184,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-31: 4.75', '2025-11-03: 4.56', '2025-11-04: 4.55', '2025-11-05: 4.57', '2025-11-06: 4.72']</t>
+          <t>['2025-11-03: 4.36', '2025-11-04: 4.36', '2025-11-05: 4.39', '2025-11-06: 4.4', '2025-11-07: 4.44']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-31: 330,005', '2025-11-03: 843,730', '2025-11-04: 788,600', '2025-11-05: 222,100', '2025-11-06: 872,544']</t>
+          <t>['2025-11-03: 0', '2025-11-04: 0', '2025-11-05: 0', '2025-11-06: 0', '2025-11-07: 0']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EGHT</t>
+          <t>JASBX</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3204,17 +3204,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-31: 1.84', '2025-11-03: 1.86', '2025-11-04: 1.77', '2025-11-05: 2.2', '2025-11-06: 1.97']</t>
+          <t>['2025-11-03: 2.9', '2025-11-04: 2.91', '2025-11-05: 2.9', '2025-11-06: 2.91', '2025-11-07: 2.91']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-31: 1,044,300', '2025-11-03: 749,124', '2025-11-04: 734,744', '2025-11-05: 2,709,584', '2025-11-06: 1,516,241']</t>
+          <t>['2025-11-03: 0', '2025-11-04: 0', '2025-11-05: 0', '2025-11-06: 0', '2025-11-07: 0']</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3280,112 +3280,112 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-31: 162.81', '2025-11-03: 162.08', '2025-11-04: 157.51', '2025-11-05: 154.98', '2025-11-06: 190.82']</t>
+          <t>['2025-11-03: 66.51', '2025-11-04: 66.87', '2025-11-05: 67.87', '2025-11-06: 66.31', '2025-11-07: 69.73']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-31: 4,038,328', '2025-11-03: 4,311,400', '2025-11-04: 3,815,035', '2025-11-05: 5,345,400', '2025-11-06: 21,307,233']</t>
+          <t>['2025-11-03: 4,330,100', '2025-11-04: 5,424,510', '2025-11-05: 5,329,640', '2025-11-06: 10,132,940', '2025-11-07: 14,111,643']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TPL</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-31: 943.38', '2025-11-03: 924.66', '2025-11-04: 914.43', '2025-11-05: 919.05', '2025-11-06: 1011.13']</t>
+          <t>['2025-11-03: 162.08', '2025-11-04: 157.51', '2025-11-05: 154.98', '2025-11-06: 190.82', '2025-11-07: 191.24']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-31: 167,101', '2025-11-03: 104,945', '2025-11-04: 88,800', '2025-11-05: 94,006', '2025-11-06: 325,000']</t>
+          <t>['2025-11-03: 4,311,400', '2025-11-04: 3,815,035', '2025-11-05: 5,345,400', '2025-11-06: 21,307,233', '2025-11-07: 9,288,212']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>STE</t>
+          <t>TPL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-31: 235.7', '2025-11-03: 237.32', '2025-11-04: 241.85', '2025-11-05: 243.18', '2025-11-06: 260.06']</t>
+          <t>['2025-11-03: 924.66', '2025-11-04: 914.43', '2025-11-05: 919.05', '2025-11-06: 1011.13', '2025-11-07: 981.69']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-31: 604,345', '2025-11-03: 746,028', '2025-11-04: 727,265', '2025-11-05: 1,086,100', '2025-11-06: 1,610,702']</t>
+          <t>['2025-11-03: 104,945', '2025-11-04: 88,800', '2025-11-05: 94,006', '2025-11-06: 325,000', '2025-11-07: 173,800']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HST</t>
+          <t>KKR</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-31: 16.02', '2025-11-03: 16.13', '2025-11-04: 16.05', '2025-11-05: 16.21', '2025-11-06: 17.32']</t>
+          <t>['2025-11-03: 117.63', '2025-11-04: 118.29', '2025-11-05: 118.89', '2025-11-06: 119.31', '2025-11-07: 121.32']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-31: 10,793,320', '2025-11-03: 8,161,712', '2025-11-04: 12,376,102', '2025-11-05: 15,014,944', '2025-11-06: 25,709,871']</t>
+          <t>['2025-11-03: 4,340,699', '2025-11-04: 4,296,700', '2025-11-05: 3,791,861', '2025-11-06: 6,348,430', '2025-11-07: 9,118,303']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>APA</t>
+          <t>SOLV</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-31: 22.65', '2025-11-03: 22.49', '2025-11-04: 22.09', '2025-11-05: 21.66', '2025-11-06: 23.64']</t>
+          <t>['2025-11-03: 68.12', '2025-11-04: 68.59', '2025-11-05: 67.69', '2025-11-06: 66.28', '2025-11-07: 71.52']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-31: 9,866,800', '2025-11-03: 5,804,000', '2025-11-04: 6,114,800', '2025-11-05: 8,854,431', '2025-11-06: 16,429,749']</t>
+          <t>['2025-11-03: 1,290,126', '2025-11-04: 1,348,821', '2025-11-05: 1,204,900', '2025-11-06: 1,792,153', '2025-11-07: 1,739,349']</t>
         </is>
       </c>
     </row>
@@ -3438,57 +3438,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>XYZ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-31: 146.78', '2025-11-03: 147.08', '2025-11-04: 136.8', '2025-11-05: 142.48', '2025-11-06: 127.08']</t>
+          <t>['2025-11-03: 74.3', '2025-11-04: 72.58', '2025-11-05: 73.65', '2025-11-06: 70.93', '2025-11-07: 65.45']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-31: 26,028,101', '2025-11-03: 17,187,616', '2025-11-04: 26,617,700', '2025-11-05: 32,318,500', '2025-11-06: 50,477,785']</t>
+          <t>['2025-11-03: 5,317,834', '2025-11-04: 4,983,615', '2025-11-05: 5,310,800', '2025-11-06: 11,236,400', '2025-11-07: 21,402,416']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>TTD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-10-31: 254.37', '2025-11-03: 242.05', '2025-11-04: 239.93', '2025-11-05: 238.0', '2025-11-06: 196.46']</t>
+          <t>['2025-11-03: 49.12', '2025-11-04: 47.24', '2025-11-05: 47.7', '2025-11-06: 45.9', '2025-11-07: 43.0']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-10-31: 2,704,321', '2025-11-03: 5,147,045', '2025-11-04: 4,975,900', '2025-11-05: 8,126,701', '2025-11-06: 18,356,903']</t>
+          <t>['2025-11-03: 9,623,239', '2025-11-04: 8,540,900', '2025-11-05: 9,982,300', '2025-11-06: 24,102,100', '2025-11-07: 34,336,157']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>CEG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3496,24 +3496,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-10-31: 732.23', '2025-11-03: 724.1', '2025-11-04: 706.13', '2025-11-05: 639.53', '2025-11-06: 587.14']</t>
+          <t>['2025-11-03: 377.71', '2025-11-04: 362.82', '2025-11-05: 363.25', '2025-11-06: 351.3', '2025-11-07: 358.39']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-10-31: 533,371', '2025-11-03: 603,800', '2025-11-04: 1,132,911', '2025-11-05: 4,863,000', '2025-11-06: 1,891,456']</t>
+          <t>['2025-11-03: 2,506,700', '2025-11-04: 3,192,200', '2025-11-05: 3,228,316', '2025-11-06: 3,909,800', '2025-11-07: 5,775,306']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>TTWO</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3526,19 +3526,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-10-31: 198.54', '2025-11-03: 196.36', '2025-11-04: 192.03', '2025-11-05: 189.97', '2025-11-06: 173.93']</t>
+          <t>['2025-11-03: 255.65', '2025-11-04: 252.43', '2025-11-05: 254.76', '2025-11-06: 252.4', '2025-11-07: 232.0']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-10-31: 882,825', '2025-11-03: 1,251,300', '2025-11-04: 1,117,200', '2025-11-05: 1,390,404', '2025-11-06: 2,327,600']</t>
+          <t>['2025-11-03: 1,513,578', '2025-11-04: 1,818,500', '2025-11-05: 2,309,400', '2025-11-06: 3,324,737', '2025-11-07: 5,792,514']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PAYC</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3551,12 +3551,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-10-31: 187.09', '2025-11-03: 184.85', '2025-11-04: 181.91', '2025-11-05: 183.71', '2025-11-06: 164.01']</t>
+          <t>['2025-11-03: 62.41', '2025-11-04: 59.5', '2025-11-05: 60.8', '2025-11-06: 59.35', '2025-11-07: 56.28']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-10-31: 610,135', '2025-11-03: 890,719', '2025-11-04: 593,231', '2025-11-05: 1,306,212', '2025-11-06: 2,048,020']</t>
+          <t>['2025-11-03: 5,769,400', '2025-11-04: 8,075,600', '2025-11-05: 8,254,300', '2025-11-06: 10,993,546', '2025-11-07: 19,099,539']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,6 +2930,38 @@
       <c r="F78" t="inlineStr">
         <is>
           <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>WRB</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>downgrade</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3039,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>WRB</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3017,33 +3049,28 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Morgan Stanley</t>
+          <t>Cantor Fitzgerald</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Benjamin Theurer</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Barclays</t>
+          <t>BMO Capital</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Lowered</t>
+          <t>Raised</t>
         </is>
       </c>
     </row>
@@ -3096,50 +3123,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ALMS</t>
+          <t>FSHPR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-03: 4.56', '2025-11-04: 4.55', '2025-11-05: 4.57', '2025-11-06: 4.72', '2025-11-07: 4.72']</t>
+          <t>['2025-10-31: 0.19', '2025-11-03: 0.19', '2025-11-04: 0.19', '2025-11-06: 0.166', '2025-11-10: 0.195']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-03: 843,730', '2025-11-04: 788,600', '2025-11-05: 222,100', '2025-11-06: 872,544', '2025-11-07: 1,394,300']</t>
+          <t>['2025-10-31: 220', '2025-11-03: 20', '2025-11-04: 110', '2025-11-06: 2', '2025-11-10: 20']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RZLVW</t>
+          <t>EEIIX</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-03: 1.24', '2025-11-04: 1.12', '2025-11-05: 1.27', '2025-11-06: 1.21', '2025-11-07: 1.28']</t>
+          <t>['2025-11-04: 3.47', '2025-11-05: 3.48', '2025-11-06: 3.49', '2025-11-07: 3.49', '2025-11-10: 3.51']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-03: 38,715', '2025-11-04: 48,980', '2025-11-05: 38,587', '2025-11-06: 16,927', '2025-11-07: 264,792']</t>
+          <t>['2025-11-04: 0', '2025-11-05: 0', '2025-11-06: 0', '2025-11-07: 0', '2025-11-10: 0']</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3186,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-03: 4.35', '2025-11-04: 4.35', '2025-11-05: 4.38', '2025-11-06: 4.39', '2025-11-07: 4.43']</t>
+          <t>['2025-11-04: 4.35', '2025-11-05: 4.38', '2025-11-06: 4.39', '2025-11-07: 4.43', '2025-11-10: 4.46']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-03: 0', '2025-11-04: 0', '2025-11-05: 0', '2025-11-06: 0', '2025-11-07: 0']</t>
+          <t>['2025-11-04: 0', '2025-11-05: 0', '2025-11-06: 0', '2025-11-07: 0', '2025-11-10: 0']</t>
         </is>
       </c>
     </row>
@@ -3184,12 +3211,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-03: 4.36', '2025-11-04: 4.36', '2025-11-05: 4.39', '2025-11-06: 4.4', '2025-11-07: 4.44']</t>
+          <t>['2025-11-04: 4.36', '2025-11-05: 4.39', '2025-11-06: 4.4', '2025-11-07: 4.44', '2025-11-10: 4.47']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-03: 0', '2025-11-04: 0', '2025-11-05: 0', '2025-11-06: 0', '2025-11-07: 0']</t>
+          <t>['2025-11-04: 0', '2025-11-05: 0', '2025-11-06: 0', '2025-11-07: 0', '2025-11-10: 0']</t>
         </is>
       </c>
     </row>
@@ -3209,12 +3236,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-03: 2.9', '2025-11-04: 2.91', '2025-11-05: 2.9', '2025-11-06: 2.91', '2025-11-07: 2.91']</t>
+          <t>['2025-11-04: 2.91', '2025-11-05: 2.9', '2025-11-06: 2.91', '2025-11-07: 2.91', '2025-11-10: 2.91']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-03: 0', '2025-11-04: 0', '2025-11-05: 0', '2025-11-06: 0', '2025-11-07: 0']</t>
+          <t>['2025-11-04: 0', '2025-11-05: 0', '2025-11-06: 0', '2025-11-07: 0', '2025-11-10: 0']</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3294,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>ALB</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3275,24 +3302,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-03: 66.51', '2025-11-04: 66.87', '2025-11-05: 67.87', '2025-11-06: 66.31', '2025-11-07: 69.73']</t>
+          <t>['2025-11-04: 88.45', '2025-11-05: 91.96', '2025-11-06: 91.26', '2025-11-07: 97.18', '2025-11-10: 103.58']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-03: 4,330,100', '2025-11-04: 5,424,510', '2025-11-05: 5,329,640', '2025-11-06: 10,132,940', '2025-11-07: 14,111,643']</t>
+          <t>['2025-11-04: 5,264,300', '2025-11-05: 3,369,800', '2025-11-06: 3,772,800', '2025-11-07: 4,482,800', '2025-11-10: 3,386,100']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3300,24 +3327,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-03: 162.08', '2025-11-04: 157.51', '2025-11-05: 154.98', '2025-11-06: 190.82', '2025-11-07: 191.24']</t>
+          <t>['2025-11-04: 608.68', '2025-11-05: 617.05', '2025-11-06: 621.36', '2025-11-07: 619.93', '2025-11-10: 651.32']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-03: 4,311,400', '2025-11-04: 3,815,035', '2025-11-05: 5,345,400', '2025-11-06: 21,307,233', '2025-11-07: 9,288,212']</t>
+          <t>['2025-11-04: 3,704,300', '2025-11-05: 6,042,802', '2025-11-06: 8,418,446', '2025-11-07: 6,656,200', '2025-11-10: 4,662,100']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TPL</t>
+          <t>SOLV</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3330,19 +3357,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-03: 924.66', '2025-11-04: 914.43', '2025-11-05: 919.05', '2025-11-06: 1011.13', '2025-11-07: 981.69']</t>
+          <t>['2025-11-04: 68.59', '2025-11-05: 67.69', '2025-11-06: 66.28', '2025-11-07: 71.52', '2025-11-10: 71.79']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-03: 104,945', '2025-11-04: 88,800', '2025-11-05: 94,006', '2025-11-06: 325,000', '2025-11-07: 173,800']</t>
+          <t>['2025-11-04: 1,348,821', '2025-11-05: 1,204,900', '2025-11-06: 1,792,153', '2025-11-07: 1,739,349', '2025-11-10: 1,203,600']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>FICO</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3350,24 +3377,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-03: 117.63', '2025-11-04: 118.29', '2025-11-05: 118.89', '2025-11-06: 119.31', '2025-11-07: 121.32']</t>
+          <t>['2025-11-04: 1606.1', '2025-11-05: 1629.2', '2025-11-06: 1674.8', '2025-11-07: 1740.0', '2025-11-10: 1756.34']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-03: 4,340,699', '2025-11-04: 4,296,700', '2025-11-05: 3,791,861', '2025-11-06: 6,348,430', '2025-11-07: 9,118,303']</t>
+          <t>['2025-11-04: 266,125', '2025-11-05: 248,226', '2025-11-06: 408,354', '2025-11-07: 252,200', '2025-11-10: 278,000']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3375,17 +3402,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-03: 68.12', '2025-11-04: 68.59', '2025-11-05: 67.69', '2025-11-06: 66.28', '2025-11-07: 71.52']</t>
+          <t>['2025-11-04: 55.85', '2025-11-05: 55.99', '2025-11-06: 56.28', '2025-11-07: 57.97', '2025-11-10: 58.94']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-03: 1,290,126', '2025-11-04: 1,348,821', '2025-11-05: 1,204,900', '2025-11-06: 1,792,153', '2025-11-07: 1,739,349']</t>
+          <t>['2025-11-04: 6,999,500', '2025-11-05: 5,957,319', '2025-11-06: 7,328,200', '2025-11-07: 5,783,726', '2025-11-10: 7,437,500']</t>
         </is>
       </c>
     </row>
@@ -3442,21 +3469,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-03: 74.3', '2025-11-04: 72.58', '2025-11-05: 73.65', '2025-11-06: 70.93', '2025-11-07: 65.45']</t>
+          <t>['2025-11-04: 72.58', '2025-11-05: 73.65', '2025-11-06: 70.93', '2025-11-07: 65.45', '2025-11-10: 66.8']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-03: 5,317,834', '2025-11-04: 4,983,615', '2025-11-05: 5,310,800', '2025-11-06: 11,236,400', '2025-11-07: 21,402,416']</t>
+          <t>['2025-11-04: 4,983,615', '2025-11-05: 5,310,800', '2025-11-06: 11,236,400', '2025-11-07: 21,402,416', '2025-11-10: 7,954,235']</t>
         </is>
       </c>
     </row>
@@ -3467,96 +3494,96 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-03: 49.12', '2025-11-04: 47.24', '2025-11-05: 47.7', '2025-11-06: 45.9', '2025-11-07: 43.0']</t>
+          <t>['2025-11-04: 47.24', '2025-11-05: 47.7', '2025-11-06: 45.9', '2025-11-07: 43.0', '2025-11-10: 43.26']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-03: 9,623,239', '2025-11-04: 8,540,900', '2025-11-05: 9,982,300', '2025-11-06: 24,102,100', '2025-11-07: 34,336,157']</t>
+          <t>['2025-11-04: 8,540,900', '2025-11-05: 9,982,300', '2025-11-06: 24,102,100', '2025-11-07: 34,336,200', '2025-11-10: 23,444,557']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>MOH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-03: 377.71', '2025-11-04: 362.82', '2025-11-05: 363.25', '2025-11-06: 351.3', '2025-11-07: 358.39']</t>
+          <t>['2025-11-04: 151.69', '2025-11-05: 149.75', '2025-11-06: 147.12', '2025-11-07: 152.06', '2025-11-10: 140.9']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-03: 2,506,700', '2025-11-04: 3,192,200', '2025-11-05: 3,228,316', '2025-11-06: 3,909,800', '2025-11-07: 5,775,306']</t>
+          <t>['2025-11-04: 1,753,000', '2025-11-05: 1,546,000', '2025-11-06: 1,333,446', '2025-11-07: 1,707,518', '2025-11-10: 2,266,027']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-03: 255.65', '2025-11-04: 252.43', '2025-11-05: 254.76', '2025-11-06: 252.4', '2025-11-07: 232.0']</t>
+          <t>['2025-11-04: 444.26', '2025-11-05: 462.07', '2025-11-06: 445.91', '2025-11-07: 429.52', '2025-11-10: 445.23']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-03: 1,513,578', '2025-11-04: 1,818,500', '2025-11-05: 2,309,400', '2025-11-06: 3,324,737', '2025-11-07: 5,792,514']</t>
+          <t>['2025-11-04: 87,756,644', '2025-11-05: 85,573,015', '2025-11-06: 109,622,907', '2025-11-07: 103,471,500', '2025-11-10: 76,515,907']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MCHP</t>
+          <t>DXCM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-03: 62.41', '2025-11-04: 59.5', '2025-11-05: 60.8', '2025-11-06: 59.35', '2025-11-07: 56.28']</t>
+          <t>['2025-11-04: 61.18', '2025-11-05: 59.28', '2025-11-06: 58.02', '2025-11-07: 55.0', '2025-11-10: 54.84']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-03: 5,769,400', '2025-11-04: 8,075,600', '2025-11-05: 8,254,300', '2025-11-06: 10,993,546', '2025-11-07: 19,099,539']</t>
+          <t>['2025-11-04: 11,623,128', '2025-11-05: 8,967,400', '2025-11-06: 8,984,545', '2025-11-07: 10,943,925', '2025-11-10: 8,877,587']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2962,6 +2962,102 @@
       <c r="F79" t="inlineStr">
         <is>
           <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Monness, Crespi, Hardt</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Mizuho</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Cantor Fitzgerald</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>maintain</t>
         </is>
       </c>
     </row>
@@ -3039,34 +3135,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>COIN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Gus Galá</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cantor Fitzgerald</t>
+          <t>Monness</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Dan Dolev</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>BMO Capital</t>
+          <t>Mizuho Securities</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>64</v>
+        <v>320</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -3148,7 +3254,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EEIIX</t>
+          <t>FKINX</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3161,19 +3267,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-04: 3.47', '2025-11-05: 3.48', '2025-11-06: 3.49', '2025-11-07: 3.49', '2025-11-10: 3.51']</t>
+          <t>['2025-11-05: 2.45', '2025-11-06: 2.45', '2025-11-07: 2.46', '2025-11-10: 2.46', '2025-11-11: 2.48']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-04: 0', '2025-11-05: 0', '2025-11-06: 0', '2025-11-07: 0', '2025-11-10: 0']</t>
+          <t>['2025-11-05: 0', '2025-11-06: 0', '2025-11-07: 0', '2025-11-10: 0', '2025-11-11: 0']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IVFAX</t>
+          <t>FNCFX</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3186,19 +3292,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-04: 4.35', '2025-11-05: 4.38', '2025-11-06: 4.39', '2025-11-07: 4.43', '2025-11-10: 4.46']</t>
+          <t>['2025-11-05: 2.44', '2025-11-06: 2.44', '2025-11-07: 2.45', '2025-11-10: 2.45', '2025-11-11: 2.47']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-04: 0', '2025-11-05: 0', '2025-11-06: 0', '2025-11-07: 0', '2025-11-10: 0']</t>
+          <t>['2025-11-05: 0', '2025-11-06: 0', '2025-11-07: 0', '2025-11-10: 0', '2025-11-11: 0']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IVFIX</t>
+          <t>FRIAX</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3211,19 +3317,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-04: 4.36', '2025-11-05: 4.39', '2025-11-06: 4.4', '2025-11-07: 4.44', '2025-11-10: 4.47']</t>
+          <t>['2025-11-06: 2.43', '2025-11-07: 2.44', '2025-11-10: 2.44', '2025-11-11: 2.45', '2025-11-12: 2.45']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-04: 0', '2025-11-05: 0', '2025-11-06: 0', '2025-11-07: 0', '2025-11-10: 0']</t>
+          <t>['2025-11-06: 0', '2025-11-07: 0', '2025-11-10: 0', '2025-11-11: 0', '2025-11-12: 0']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JASBX</t>
+          <t>PHYQX</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3236,12 +3342,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-04: 2.91', '2025-11-05: 2.9', '2025-11-06: 2.91', '2025-11-07: 2.91', '2025-11-10: 2.91']</t>
+          <t>['2025-11-06: 4.85', '2025-11-07: 4.84', '2025-11-10: 4.85', '2025-11-11: 4.86', '2025-11-12: 4.86']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-04: 0', '2025-11-05: 0', '2025-11-06: 0', '2025-11-07: 0', '2025-11-10: 0']</t>
+          <t>['2025-11-06: 0', '2025-11-07: 0', '2025-11-10: 0', '2025-11-11: 0', '2025-11-12: 0']</t>
         </is>
       </c>
     </row>
@@ -3294,7 +3400,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>PSKY</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3302,49 +3408,49 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-04: 88.45', '2025-11-05: 91.96', '2025-11-06: 91.26', '2025-11-07: 97.18', '2025-11-10: 103.58']</t>
+          <t>['2025-11-05: 15.09', '2025-11-06: 14.8', '2025-11-07: 15.1', '2025-11-10: 15.25', '2025-11-11: 16.74']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-04: 5,264,300', '2025-11-05: 3,369,800', '2025-11-06: 3,772,800', '2025-11-07: 4,482,800', '2025-11-10: 3,386,100']</t>
+          <t>['2025-11-05: 6,114,600', '2025-11-06: 6,506,044', '2025-11-07: 9,772,900', '2025-11-10: 13,006,310', '2025-11-11: 15,853,600']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>FDX</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-04: 608.68', '2025-11-05: 617.05', '2025-11-06: 621.36', '2025-11-07: 619.93', '2025-11-10: 651.32']</t>
+          <t>['2025-11-05: 256.1', '2025-11-06: 258.86', '2025-11-07: 262.09', '2025-11-10: 253.89', '2025-11-11: 267.72']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-04: 3,704,300', '2025-11-05: 6,042,802', '2025-11-06: 8,418,446', '2025-11-07: 6,656,200', '2025-11-10: 4,662,100']</t>
+          <t>['2025-11-05: 1,682,238', '2025-11-06: 2,224,504', '2025-11-07: 1,648,833', '2025-11-10: 2,020,976', '2025-11-11: 3,519,000']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3357,19 +3463,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-04: 68.59', '2025-11-05: 67.69', '2025-11-06: 66.28', '2025-11-07: 71.52', '2025-11-10: 71.79']</t>
+          <t>['2025-11-05: 154.98', '2025-11-06: 190.82', '2025-11-07: 191.24', '2025-11-10: 199.72', '2025-11-11: 197.86']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-04: 1,348,821', '2025-11-05: 1,204,900', '2025-11-06: 1,792,153', '2025-11-07: 1,739,349', '2025-11-10: 1,203,600']</t>
+          <t>['2025-11-05: 5,345,400', '2025-11-06: 21,307,233', '2025-11-07: 9,288,212', '2025-11-10: 6,580,000', '2025-11-11: 5,243,000']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>CRWD</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3382,19 +3488,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-04: 1606.1', '2025-11-05: 1629.2', '2025-11-06: 1674.8', '2025-11-07: 1740.0', '2025-11-10: 1756.34']</t>
+          <t>['2025-11-05: 534.14', '2025-11-06: 532.52', '2025-11-07: 539.81', '2025-11-10: 557.53', '2025-11-11: 556.73']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-04: 266,125', '2025-11-05: 248,226', '2025-11-06: 408,354', '2025-11-07: 252,200', '2025-11-10: 278,000']</t>
+          <t>['2025-11-05: 1,646,200', '2025-11-06: 3,099,904', '2025-11-07: 2,427,139', '2025-11-10: 2,164,548', '2025-11-11: 1,353,100']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>EPAM</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3407,12 +3513,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-04: 55.85', '2025-11-05: 55.99', '2025-11-06: 56.28', '2025-11-07: 57.97', '2025-11-10: 58.94']</t>
+          <t>['2025-11-05: 160.91', '2025-11-06: 168.0', '2025-11-07: 175.3', '2025-11-10: 182.4', '2025-11-11: 180.16']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-04: 6,999,500', '2025-11-05: 5,957,319', '2025-11-06: 7,328,200', '2025-11-07: 5,783,726', '2025-11-10: 7,437,500']</t>
+          <t>['2025-11-05: 1,064,402', '2025-11-06: 1,997,559', '2025-11-07: 1,539,863', '2025-11-10: 1,809,345', '2025-11-11: 1,013,200']</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3571,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>MOH</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3478,19 +3584,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-04: 72.58', '2025-11-05: 73.65', '2025-11-06: 70.93', '2025-11-07: 65.45', '2025-11-10: 66.8']</t>
+          <t>['2025-11-05: 149.75', '2025-11-06: 147.12', '2025-11-07: 152.06', '2025-11-10: 140.9', '2025-11-11: 143.52']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-04: 4,983,615', '2025-11-05: 5,310,800', '2025-11-06: 11,236,400', '2025-11-07: 21,402,416', '2025-11-10: 7,954,235']</t>
+          <t>['2025-11-05: 1,546,000', '2025-11-06: 1,333,446', '2025-11-07: 1,707,518', '2025-11-10: 2,275,300', '2025-11-11: 1,615,700']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>LW</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3503,87 +3609,87 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-04: 47.24', '2025-11-05: 47.7', '2025-11-06: 45.9', '2025-11-07: 43.0', '2025-11-10: 43.26']</t>
+          <t>['2025-11-05: 62.76', '2025-11-06: 61.89', '2025-11-07: 62.42', '2025-11-10: 60.36', '2025-11-11: 60.1']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-04: 8,540,900', '2025-11-05: 9,982,300', '2025-11-06: 24,102,100', '2025-11-07: 34,336,200', '2025-11-10: 23,444,557']</t>
+          <t>['2025-11-05: 1,348,538', '2025-11-06: 1,382,613', '2025-11-07: 1,407,700', '2025-11-10: 2,154,800', '2025-11-11: 2,545,400']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-04: 151.69', '2025-11-05: 149.75', '2025-11-06: 147.12', '2025-11-07: 152.06', '2025-11-10: 140.9']</t>
+          <t>['2025-11-05: 617.05', '2025-11-06: 621.36', '2025-11-07: 619.93', '2025-11-10: 651.32', '2025-11-11: 594.91']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-04: 1,753,000', '2025-11-05: 1,546,000', '2025-11-06: 1,333,446', '2025-11-07: 1,707,518', '2025-11-10: 2,266,027']</t>
+          <t>['2025-11-05: 6,042,802', '2025-11-06: 8,418,446', '2025-11-07: 6,656,200', '2025-11-10: 4,666,700', '2025-11-11: 7,436,900']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>EME</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-04: 444.26', '2025-11-05: 462.07', '2025-11-06: 445.91', '2025-11-07: 429.52', '2025-11-10: 445.23']</t>
+          <t>['2025-11-05: 675.42', '2025-11-06: 653.75', '2025-11-07: 649.34', '2025-11-10: 656.33', '2025-11-11: 640.85']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-04: 87,756,644', '2025-11-05: 85,573,015', '2025-11-06: 109,622,907', '2025-11-07: 103,471,500', '2025-11-10: 76,515,907']</t>
+          <t>['2025-11-05: 314,614', '2025-11-06: 337,540', '2025-11-07: 578,178', '2025-11-10: 290,535', '2025-11-11: 299,200']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DXCM</t>
+          <t>HOOD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-04: 61.18', '2025-11-05: 59.28', '2025-11-06: 58.02', '2025-11-07: 55.0', '2025-11-10: 54.84']</t>
+          <t>['2025-11-05: 142.48', '2025-11-06: 127.08', '2025-11-07: 130.36', '2025-11-10: 135.88', '2025-11-11: 131.93']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-04: 11,623,128', '2025-11-05: 8,967,400', '2025-11-06: 8,984,545', '2025-11-07: 10,943,925', '2025-11-10: 8,877,587']</t>
+          <t>['2025-11-05: 32,318,500', '2025-11-06: 50,477,800', '2025-11-07: 44,897,800', '2025-11-10: 30,980,500', '2025-11-11: 17,155,900']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3056,6 +3056,102 @@
         </is>
       </c>
       <c r="F82" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>DASH</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Wedbush</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>DASH</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Mizuho</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>DASH</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Goldman Sachs</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -3135,44 +3231,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>DASH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gus Galá</t>
+          <t>Jason Helfstein</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Monness</t>
+          <t>Oppenheimer</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>375</v>
+        <v>280</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dan Dolev</t>
+          <t>Deepak Mathivanan</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Mizuho Securities</t>
+          <t>Cantor Fitzgerald</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -3229,32 +3325,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FSHPR</t>
+          <t>FKINX</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-10-31: 0.19', '2025-11-03: 0.19', '2025-11-04: 0.19', '2025-11-06: 0.166', '2025-11-10: 0.195']</t>
+          <t>['2025-11-07: 2.46', '2025-11-10: 2.46', '2025-11-11: 2.48', '2025-11-12: 2.48', '2025-11-13: 2.47']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-10-31: 220', '2025-11-03: 20', '2025-11-04: 110', '2025-11-06: 2', '2025-11-10: 20']</t>
+          <t>['2025-11-07: 0', '2025-11-10: 0', '2025-11-11: 0', '2025-11-12: 0', '2025-11-13: 0']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FKINX</t>
+          <t>FRIAX</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3267,19 +3363,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-05: 2.45', '2025-11-06: 2.45', '2025-11-07: 2.46', '2025-11-10: 2.46', '2025-11-11: 2.48']</t>
+          <t>['2025-11-07: 2.44', '2025-11-10: 2.44', '2025-11-11: 2.45', '2025-11-12: 2.45', '2025-11-13: 2.45']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-05: 0', '2025-11-06: 0', '2025-11-07: 0', '2025-11-10: 0', '2025-11-11: 0']</t>
+          <t>['2025-11-07: 0', '2025-11-10: 0', '2025-11-11: 0', '2025-11-12: 0', '2025-11-13: 0']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FNCFX</t>
+          <t>XCH</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3287,24 +3383,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-05: 2.44', '2025-11-06: 2.44', '2025-11-07: 2.45', '2025-11-10: 2.45', '2025-11-11: 2.47']</t>
+          <t>['2025-11-07: 1.47', '2025-11-10: 1.45', '2025-11-11: 1.33', '2025-11-12: 1.45', '2025-11-13: 1.47']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-05: 0', '2025-11-06: 0', '2025-11-07: 0', '2025-11-10: 0', '2025-11-11: 0']</t>
+          <t>['2025-11-07: 5,400', '2025-11-10: 18,000', '2025-11-11: 23,800', '2025-11-12: 22,505', '2025-11-13: 10,600']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FRIAX</t>
+          <t>EEIIX</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3317,19 +3413,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-06: 2.43', '2025-11-07: 2.44', '2025-11-10: 2.44', '2025-11-11: 2.45', '2025-11-12: 2.45']</t>
+          <t>['2025-11-07: 3.49', '2025-11-10: 3.51', '2025-11-11: 3.52', '2025-11-12: 3.52', '2025-11-13: 3.53']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-06: 0', '2025-11-07: 0', '2025-11-10: 0', '2025-11-11: 0', '2025-11-12: 0']</t>
+          <t>['2025-11-07: 0', '2025-11-10: 0', '2025-11-11: 0', '2025-11-12: 0', '2025-11-13: 0']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PHYQX</t>
+          <t>IVFIX</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3342,12 +3438,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-06: 4.85', '2025-11-07: 4.84', '2025-11-10: 4.85', '2025-11-11: 4.86', '2025-11-12: 4.86']</t>
+          <t>['2025-11-07: 4.44', '2025-11-10: 4.47', '2025-11-11: 4.53', '2025-11-12: 4.54', '2025-11-13: 4.54']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-06: 0', '2025-11-07: 0', '2025-11-10: 0', '2025-11-11: 0', '2025-11-12: 0']</t>
+          <t>['2025-11-07: 0', '2025-11-10: 0', '2025-11-11: 0', '2025-11-12: 0', '2025-11-13: 0']</t>
         </is>
       </c>
     </row>
@@ -3400,7 +3496,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>ALB</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3408,24 +3504,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-05: 15.09', '2025-11-06: 14.8', '2025-11-07: 15.1', '2025-11-10: 15.25', '2025-11-11: 16.74']</t>
+          <t>['2025-11-07: 97.18', '2025-11-10: 103.58', '2025-11-11: 103.88', '2025-11-12: 110.32', '2025-11-13: 114.57']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-05: 6,114,600', '2025-11-06: 6,506,044', '2025-11-07: 9,772,900', '2025-11-10: 13,006,310', '2025-11-11: 15,853,600']</t>
+          <t>['2025-11-07: 4,482,800', '2025-11-10: 3,390,200', '2025-11-11: 2,655,400', '2025-11-12: 4,399,100', '2025-11-13: 7,189,600']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FDX</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3433,24 +3529,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-05: 256.1', '2025-11-06: 258.86', '2025-11-07: 262.09', '2025-11-10: 253.89', '2025-11-11: 267.72']</t>
+          <t>['2025-11-07: 71.07', '2025-11-10: 72.09', '2025-11-11: 71.71', '2025-11-12: 73.96', '2025-11-13: 77.38']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-05: 1,682,238', '2025-11-06: 2,224,504', '2025-11-07: 1,648,833', '2025-11-10: 2,020,976', '2025-11-11: 3,519,000']</t>
+          <t>['2025-11-07: 16,913,726', '2025-11-10: 22,201,248', '2025-11-11: 21,412,900', '2025-11-12: 57,591,600', '2025-11-13: 57,609,900']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>PODD</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3463,19 +3559,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-05: 154.98', '2025-11-06: 190.82', '2025-11-07: 191.24', '2025-11-10: 199.72', '2025-11-11: 197.86']</t>
+          <t>['2025-11-07: 319.82', '2025-11-10: 320.35', '2025-11-11: 326.28', '2025-11-12: 336.84', '2025-11-13: 332.67']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-05: 5,345,400', '2025-11-06: 21,307,233', '2025-11-07: 9,288,212', '2025-11-10: 6,580,000', '2025-11-11: 5,243,000']</t>
+          <t>['2025-11-07: 677,200', '2025-11-10: 545,020', '2025-11-11: 476,617', '2025-11-12: 606,200', '2025-11-13: 550,500']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>IQV</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3483,24 +3579,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-05: 534.14', '2025-11-06: 532.52', '2025-11-07: 539.81', '2025-11-10: 557.53', '2025-11-11: 556.73']</t>
+          <t>['2025-11-07: 210.46', '2025-11-10: 213.05', '2025-11-11: 218.53', '2025-11-12: 220.88', '2025-11-13: 223.55']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-05: 1,646,200', '2025-11-06: 3,099,904', '2025-11-07: 2,427,139', '2025-11-10: 2,164,548', '2025-11-11: 1,353,100']</t>
+          <t>['2025-11-07: 1,160,632', '2025-11-10: 1,061,285', '2025-11-11: 1,445,700', '2025-11-12: 1,421,100', '2025-11-13: 2,405,900']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>COO</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3508,17 +3604,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-05: 160.91', '2025-11-06: 168.0', '2025-11-07: 175.3', '2025-11-10: 182.4', '2025-11-11: 180.16']</t>
+          <t>['2025-11-07: 70.1', '2025-11-10: 70.72', '2025-11-11: 71.74', '2025-11-12: 72.49', '2025-11-13: 71.75']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-05: 1,064,402', '2025-11-06: 1,997,559', '2025-11-07: 1,539,863', '2025-11-10: 1,809,345', '2025-11-11: 1,013,200']</t>
+          <t>['2025-11-07: 1,354,100', '2025-11-10: 1,640,700', '2025-11-11: 1,122,100', '2025-11-12: 1,960,800', '2025-11-13: 2,754,600']</t>
         </is>
       </c>
     </row>
@@ -3571,125 +3667,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>IRM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-05: 149.75', '2025-11-06: 147.12', '2025-11-07: 152.06', '2025-11-10: 140.9', '2025-11-11: 143.52']</t>
+          <t>['2025-11-07: 104.12', '2025-11-10: 102.33', '2025-11-11: 101.15', '2025-11-12: 98.09', '2025-11-13: 91.37']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-05: 1,546,000', '2025-11-06: 1,333,446', '2025-11-07: 1,707,518', '2025-11-10: 2,275,300', '2025-11-11: 1,615,700']</t>
+          <t>['2025-11-07: 2,261,960', '2025-11-10: 1,776,546', '2025-11-11: 1,807,600', '2025-11-12: 1,705,200', '2025-11-13: 4,390,400']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LW</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-05: 62.76', '2025-11-06: 61.89', '2025-11-07: 62.42', '2025-11-10: 60.36', '2025-11-11: 60.1']</t>
+          <t>['2025-11-07: 177.93', '2025-11-10: 193.61', '2025-11-11: 190.96', '2025-11-12: 184.17', '2025-11-13: 172.14']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-05: 1,348,538', '2025-11-06: 1,382,613', '2025-11-07: 1,407,700', '2025-11-10: 2,154,800', '2025-11-11: 2,545,400']</t>
+          <t>['2025-11-07: 73,989,700', '2025-11-10: 87,764,245', '2025-11-11: 49,819,700', '2025-11-12: 55,347,100', '2025-11-13: 62,921,700']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>PWR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-05: 617.05', '2025-11-06: 621.36', '2025-11-07: 619.93', '2025-11-10: 651.32', '2025-11-11: 594.91']</t>
+          <t>['2025-11-07: 445.01', '2025-11-10: 450.38', '2025-11-11: 448.91', '2025-11-12: 449.42', '2025-11-13: 426.93']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-05: 6,042,802', '2025-11-06: 8,418,446', '2025-11-07: 6,656,200', '2025-11-10: 4,666,700', '2025-11-11: 7,436,900']</t>
+          <t>['2025-11-07: 818,603', '2025-11-10: 700,575', '2025-11-11: 728,100', '2025-11-12: 706,200', '2025-11-13: 1,276,600']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EME</t>
+          <t>GLW</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-05: 675.42', '2025-11-06: 653.75', '2025-11-07: 649.34', '2025-11-10: 656.33', '2025-11-11: 640.85']</t>
+          <t>['2025-11-07: 85.48', '2025-11-10: 88.56', '2025-11-11: 87.93', '2025-11-12: 89.01', '2025-11-13: 82.36']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-05: 314,614', '2025-11-06: 337,540', '2025-11-07: 578,178', '2025-11-10: 290,535', '2025-11-11: 299,200']</t>
+          <t>['2025-11-07: 7,430,009', '2025-11-10: 6,733,800', '2025-11-11: 4,083,900', '2025-11-12: 6,927,800', '2025-11-13: 11,369,500']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-05: 142.48', '2025-11-06: 127.08', '2025-11-07: 130.36', '2025-11-10: 135.88', '2025-11-11: 131.93']</t>
+          <t>['2025-11-07: 110.74', '2025-11-10: 112.24', '2025-11-11: 114.85', '2025-11-12: 116.65', '2025-11-13: 107.61']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-05: 32,318,500', '2025-11-06: 50,477,800', '2025-11-07: 44,897,800', '2025-11-10: 30,980,500', '2025-11-11: 17,155,900']</t>
+          <t>['2025-11-07: 8,782,100', '2025-11-10: 9,158,700', '2025-11-11: 9,713,300', '2025-11-12: 15,248,700', '2025-11-13: 44,000,751']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3152,6 +3152,102 @@
         </is>
       </c>
       <c r="F85" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>LII</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Wolfe Research</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Underperform</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Peer Perform</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>LII</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>LII</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -3231,44 +3327,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>LII</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jason Helfstein</t>
+          <t>Damian Karas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Oppenheimer</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Deepak Mathivanan</t>
+          <t>Aaron Reed</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cantor Fitzgerald</t>
+          <t>Northcoast Research</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>270</v>
+        <v>525</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -3287,7 +3383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3325,32 +3421,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FKINX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-07: 2.46', '2025-11-10: 2.46', '2025-11-11: 2.48', '2025-11-12: 2.48', '2025-11-13: 2.47']</t>
+          <t>['2025-11-10: 2.75', '2025-11-11: 2.66', '2025-11-12: 2.69', '2025-11-13: 2.56', '2025-11-14: 2.73']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-07: 0', '2025-11-10: 0', '2025-11-11: 0', '2025-11-12: 0', '2025-11-13: 0']</t>
+          <t>['2025-11-10: 2,999,800', '2025-11-11: 2,220,400', '2025-11-12: 1,982,600', '2025-11-13: 1,820,000', '2025-11-14: 4,076,300']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FRIAX</t>
+          <t>IVFIX</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3363,19 +3459,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-07: 2.44', '2025-11-10: 2.44', '2025-11-11: 2.45', '2025-11-12: 2.45', '2025-11-13: 2.45']</t>
+          <t>['2025-11-10: 4.47', '2025-11-11: 4.53', '2025-11-12: 4.54', '2025-11-13: 4.54', '2025-11-14: 4.53']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-07: 0', '2025-11-10: 0', '2025-11-11: 0', '2025-11-12: 0', '2025-11-13: 0']</t>
+          <t>['2025-11-10: 0', '2025-11-11: 0', '2025-11-12: 0', '2025-11-13: 0', '2025-11-14: 0']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>XCH</t>
+          <t>IVFAX</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3383,24 +3479,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-07: 1.47', '2025-11-10: 1.45', '2025-11-11: 1.33', '2025-11-12: 1.45', '2025-11-13: 1.47']</t>
+          <t>['2025-11-10: 4.46', '2025-11-11: 4.52', '2025-11-12: 4.53', '2025-11-13: 4.53', '2025-11-14: 4.52']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-07: 5,400', '2025-11-10: 18,000', '2025-11-11: 23,800', '2025-11-12: 22,505', '2025-11-13: 10,600']</t>
+          <t>['2025-11-10: 0', '2025-11-11: 0', '2025-11-12: 0', '2025-11-13: 0', '2025-11-14: 0']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EEIIX</t>
+          <t>WAEMX</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3413,37 +3509,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-07: 3.49', '2025-11-10: 3.51', '2025-11-11: 3.52', '2025-11-12: 3.52', '2025-11-13: 3.53']</t>
+          <t>['2025-11-10: 2.87', '2025-11-11: 2.86', '2025-11-12: 2.86', '2025-11-13: 2.87', '2025-11-14: 2.88']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-07: 0', '2025-11-10: 0', '2025-11-11: 0', '2025-11-12: 0', '2025-11-13: 0']</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>IVFIX</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>['2025-11-07: 4.44', '2025-11-10: 4.47', '2025-11-11: 4.53', '2025-11-12: 4.54', '2025-11-13: 4.54']</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>['2025-11-07: 0', '2025-11-10: 0', '2025-11-11: 0', '2025-11-12: 0', '2025-11-13: 0']</t>
+          <t>['2025-11-10: 0', '2025-11-11: 0', '2025-11-12: 0', '2025-11-13: 0', '2025-11-14: 0']</t>
         </is>
       </c>
     </row>
@@ -3496,57 +3567,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-07: 97.18', '2025-11-10: 103.58', '2025-11-11: 103.88', '2025-11-12: 110.32', '2025-11-13: 114.57']</t>
+          <t>['2025-11-10: 22.98', '2025-11-11: 23.05', '2025-11-12: 22.19', '2025-11-13: 22.14', '2025-11-14: 23.03']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-07: 4,482,800', '2025-11-10: 3,390,200', '2025-11-11: 2,655,400', '2025-11-12: 4,399,100', '2025-11-13: 7,189,600']</t>
+          <t>['2025-11-10: 30,461,700', '2025-11-11: 18,926,700', '2025-11-12: 25,310,100', '2025-11-13: 31,904,200', '2025-11-14: 54,166,300']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>ALB</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-07: 71.07', '2025-11-10: 72.09', '2025-11-11: 71.71', '2025-11-12: 73.96', '2025-11-13: 77.38']</t>
+          <t>['2025-11-10: 103.58', '2025-11-11: 103.88', '2025-11-12: 110.32', '2025-11-13: 114.57', '2025-11-14: 115.14']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-07: 16,913,726', '2025-11-10: 22,201,248', '2025-11-11: 21,412,900', '2025-11-12: 57,591,600', '2025-11-13: 57,609,900']</t>
+          <t>['2025-11-10: 3,390,200', '2025-11-11: 2,655,400', '2025-11-12: 4,399,100', '2025-11-13: 7,195,900', '2025-11-14: 4,690,600']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3554,24 +3625,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-07: 319.82', '2025-11-10: 320.35', '2025-11-11: 326.28', '2025-11-12: 336.84', '2025-11-13: 332.67']</t>
+          <t>['2025-11-10: 277.28', '2025-11-11: 278.84', '2025-11-12: 279.58', '2025-11-13: 283.54', '2025-11-14: 285.04']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-07: 677,200', '2025-11-10: 545,020', '2025-11-11: 476,617', '2025-11-12: 606,200', '2025-11-13: 550,500']</t>
+          <t>['2025-11-10: 1,429,100', '2025-11-11: 1,235,700', '2025-11-12: 1,100,200', '2025-11-13: 2,777,700', '2025-11-14: 3,339,700']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>WM</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3584,19 +3655,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-07: 210.46', '2025-11-10: 213.05', '2025-11-11: 218.53', '2025-11-12: 220.88', '2025-11-13: 223.55']</t>
+          <t>['2025-11-10: 200.47', '2025-11-11: 203.27', '2025-11-12: 203.8', '2025-11-13: 204.51', '2025-11-14: 209.17']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-07: 1,160,632', '2025-11-10: 1,061,285', '2025-11-11: 1,445,700', '2025-11-12: 1,421,100', '2025-11-13: 2,405,900']</t>
+          <t>['2025-11-10: 2,175,300', '2025-11-11: 1,510,300', '2025-11-12: 1,666,400', '2025-11-13: 2,631,600', '2025-11-14: 3,446,100']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3604,17 +3675,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-07: 70.1', '2025-11-10: 70.72', '2025-11-11: 71.74', '2025-11-12: 72.49', '2025-11-13: 71.75']</t>
+          <t>['2025-11-10: 24.35', '2025-11-11: 24.59', '2025-11-12: 23.89', '2025-11-13: 24.69', '2025-11-14: 24.79']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-07: 1,354,100', '2025-11-10: 1,640,700', '2025-11-11: 1,122,100', '2025-11-12: 1,960,800', '2025-11-13: 2,754,600']</t>
+          <t>['2025-11-10: 6,500,800', '2025-11-11: 7,741,400', '2025-11-12: 6,634,100', '2025-11-13: 20,362,600', '2025-11-14: 6,330,100']</t>
         </is>
       </c>
     </row>
@@ -3667,125 +3738,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IRM</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-07: 104.12', '2025-11-10: 102.33', '2025-11-11: 101.15', '2025-11-12: 98.09', '2025-11-13: 91.37']</t>
+          <t>['2025-11-10: 235.08', '2025-11-11: 228.67', '2025-11-12: 230.73', '2025-11-13: 223.23', '2025-11-14: 226.01']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-07: 2,261,960', '2025-11-10: 1,776,546', '2025-11-11: 1,807,600', '2025-11-12: 1,705,200', '2025-11-13: 4,390,400']</t>
+          <t>['2025-11-10: 7,673,700', '2025-11-11: 6,237,600', '2025-11-12: 5,955,400', '2025-11-13: 13,465,900', '2025-11-14: 15,243,700']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-07: 177.93', '2025-11-10: 193.61', '2025-11-11: 190.96', '2025-11-12: 184.17', '2025-11-13: 172.14']</t>
+          <t>['2025-11-10: 651.32', '2025-11-11: 594.91', '2025-11-12: 584.86', '2025-11-13: 556.15', '2025-11-14: 557.7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-07: 73,989,700', '2025-11-10: 87,764,245', '2025-11-11: 49,819,700', '2025-11-12: 55,347,100', '2025-11-13: 62,921,700']</t>
+          <t>['2025-11-10: 4,666,700', '2025-11-11: 7,447,000', '2025-11-12: 4,444,700', '2025-11-13: 5,190,900', '2025-11-14: 4,170,900']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PWR</t>
+          <t>EME</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-07: 445.01', '2025-11-10: 450.38', '2025-11-11: 448.91', '2025-11-12: 449.42', '2025-11-13: 426.93']</t>
+          <t>['2025-11-10: 656.33', '2025-11-11: 640.85', '2025-11-12: 643.38', '2025-11-13: 618.96', '2025-11-14: 619.86']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-07: 818,603', '2025-11-10: 700,575', '2025-11-11: 728,100', '2025-11-12: 706,200', '2025-11-13: 1,276,600']</t>
+          <t>['2025-11-10: 290,535', '2025-11-11: 299,200', '2025-11-12: 328,900', '2025-11-13: 497,200', '2025-11-14: 489,000']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GLW</t>
+          <t>HOOD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-07: 85.48', '2025-11-10: 88.56', '2025-11-11: 87.93', '2025-11-12: 89.01', '2025-11-13: 82.36']</t>
+          <t>['2025-11-10: 135.88', '2025-11-11: 131.93', '2025-11-12: 132.98', '2025-11-13: 121.53', '2025-11-14: 122.5']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-07: 7,430,009', '2025-11-10: 6,733,800', '2025-11-11: 4,083,900', '2025-11-12: 6,927,800', '2025-11-13: 11,369,500']</t>
+          <t>['2025-11-10: 30,980,500', '2025-11-11: 17,218,400', '2025-11-12: 22,044,600', '2025-11-13: 36,727,300', '2025-11-14: 31,984,600']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>IBKR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-07: 110.74', '2025-11-10: 112.24', '2025-11-11: 114.85', '2025-11-12: 116.65', '2025-11-13: 107.61']</t>
+          <t>['2025-11-10: 71.13', '2025-11-11: 70.87', '2025-11-12: 72.7', '2025-11-13: 67.04', '2025-11-14: 66.03']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-07: 8,782,100', '2025-11-10: 9,158,700', '2025-11-11: 9,713,300', '2025-11-12: 15,248,700', '2025-11-13: 44,000,751']</t>
+          <t>['2025-11-10: 3,255,200', '2025-11-11: 2,780,400', '2025-11-12: 4,300,200', '2025-11-13: 6,274,100', '2025-11-14: 5,331,100']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3248,6 +3248,102 @@
         </is>
       </c>
       <c r="F88" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Underweight</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Raymond James</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Argus Research</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -3327,44 +3423,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Damian Karas</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>Evercore ISI</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>560</v>
+        <v>180</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Aaron Reed</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Northcoast Research</t>
+          <t>Piper Sandler</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>525</v>
+        <v>172</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -3383,7 +3469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3421,100 +3507,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>GUTS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-10: 2.75', '2025-11-11: 2.66', '2025-11-12: 2.69', '2025-11-13: 2.56', '2025-11-14: 2.73']</t>
+          <t>['2025-11-11: 1.1', '2025-11-12: 1.13', '2025-11-13: 1.12', '2025-11-14: 1.26', '2025-11-17: 1.43']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-10: 2,999,800', '2025-11-11: 2,220,400', '2025-11-12: 1,982,600', '2025-11-13: 1,820,000', '2025-11-14: 4,076,300']</t>
+          <t>['2025-11-11: 1,406,583', '2025-11-12: 2,068,800', '2025-11-13: 4,095,939', '2025-11-14: 3,333,004', '2025-11-17: 5,712,537']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IVFIX</t>
+          <t>FSHPR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-10: 4.47', '2025-11-11: 4.53', '2025-11-12: 4.54', '2025-11-13: 4.54', '2025-11-14: 4.53']</t>
+          <t>['2025-11-06: 0.166', '2025-11-10: 0.195', '2025-11-12: 0.16', '2025-11-13: 0.1202', '2025-11-17: 0.19']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-10: 0', '2025-11-11: 0', '2025-11-12: 0', '2025-11-13: 0', '2025-11-14: 0']</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>IVFAX</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>['2025-11-10: 4.46', '2025-11-11: 4.52', '2025-11-12: 4.53', '2025-11-13: 4.53', '2025-11-14: 4.52']</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>['2025-11-10: 0', '2025-11-11: 0', '2025-11-12: 0', '2025-11-13: 0', '2025-11-14: 0']</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>WAEMX</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>['2025-11-10: 2.87', '2025-11-11: 2.86', '2025-11-12: 2.86', '2025-11-13: 2.87', '2025-11-14: 2.88']</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>['2025-11-10: 0', '2025-11-11: 0', '2025-11-12: 0', '2025-11-13: 0', '2025-11-14: 0']</t>
+          <t>['2025-11-06: 2', '2025-11-10: 20', '2025-11-12: 42', '2025-11-13: 3,179', '2025-11-17: 377']</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3603,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>TKO</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3580,19 +3616,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-10: 22.98', '2025-11-11: 23.05', '2025-11-12: 22.19', '2025-11-13: 22.14', '2025-11-14: 23.03']</t>
+          <t>['2025-11-11: 179.68', '2025-11-12: 181.68', '2025-11-13: 182.64', '2025-11-14: 184.09', '2025-11-17: 184.75']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-10: 30,461,700', '2025-11-11: 18,926,700', '2025-11-12: 25,310,100', '2025-11-13: 31,904,200', '2025-11-14: 54,166,300']</t>
+          <t>['2025-11-11: 972,600', '2025-11-12: 741,347', '2025-11-13: 1,126,500', '2025-11-14: 1,159,700', '2025-11-17: 2,254,901']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>GEV</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3605,19 +3641,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-10: 103.58', '2025-11-11: 103.88', '2025-11-12: 110.32', '2025-11-13: 114.57', '2025-11-14: 115.14']</t>
+          <t>['2025-11-11: 576.08', '2025-11-12: 575.4', '2025-11-13: 558.17', '2025-11-14: 578.31', '2025-11-17: 577.02']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-10: 3,390,200', '2025-11-11: 2,655,400', '2025-11-12: 4,399,100', '2025-11-13: 7,195,900', '2025-11-14: 4,690,600']</t>
+          <t>['2025-11-11: 1,748,507', '2025-11-12: 2,026,343', '2025-11-13: 5,166,900', '2025-11-14: 4,037,300', '2025-11-17: 2,998,024']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3625,24 +3661,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-10: 277.28', '2025-11-11: 278.84', '2025-11-12: 279.58', '2025-11-13: 283.54', '2025-11-14: 285.04']</t>
+          <t>['2025-11-11: 23.05', '2025-11-12: 22.19', '2025-11-13: 22.14', '2025-11-14: 23.03', '2025-11-17: 22.74']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-10: 1,429,100', '2025-11-11: 1,235,700', '2025-11-12: 1,100,200', '2025-11-13: 2,777,700', '2025-11-14: 3,339,700']</t>
+          <t>['2025-11-11: 18,926,718', '2025-11-12: 25,310,100', '2025-11-13: 31,904,200', '2025-11-14: 54,192,839', '2025-11-17: 36,814,258']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3655,19 +3691,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-10: 200.47', '2025-11-11: 203.27', '2025-11-12: 203.8', '2025-11-13: 204.51', '2025-11-14: 209.17']</t>
+          <t>['2025-11-11: 291.31', '2025-11-12: 286.71', '2025-11-13: 278.57', '2025-11-14: 276.41', '2025-11-17: 285.02']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-10: 2,175,300', '2025-11-11: 1,510,300', '2025-11-12: 1,666,400', '2025-11-13: 2,631,600', '2025-11-14: 3,446,100']</t>
+          <t>['2025-11-11: 19,842,136', '2025-11-12: 24,829,923', '2025-11-13: 29,494,040', '2025-11-14: 31,647,227', '2025-11-17: 52,670,192']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>APA</t>
+          <t>WELL</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3675,17 +3711,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-10: 24.35', '2025-11-11: 24.59', '2025-11-12: 23.89', '2025-11-13: 24.69', '2025-11-14: 24.79']</t>
+          <t>['2025-11-11: 192.31', '2025-11-12: 191.64', '2025-11-13: 191.07', '2025-11-14: 193.82', '2025-11-17: 197.27']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-10: 6,500,800', '2025-11-11: 7,741,400', '2025-11-12: 6,634,100', '2025-11-13: 20,362,600', '2025-11-14: 6,330,100']</t>
+          <t>['2025-11-11: 2,139,465', '2025-11-12: 3,879,457', '2025-11-13: 3,181,933', '2025-11-14: 2,794,341', '2025-11-17: 5,517,149']</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3774,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3746,74 +3782,74 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-10: 235.08', '2025-11-11: 228.67', '2025-11-12: 230.73', '2025-11-13: 223.23', '2025-11-14: 226.01']</t>
+          <t>['2025-11-11: 138.76', '2025-11-12: 140.71', '2025-11-13: 133.94', '2025-11-14: 133.76', '2025-11-17: 122.48']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-10: 7,673,700', '2025-11-11: 6,237,600', '2025-11-12: 5,955,400', '2025-11-13: 13,465,900', '2025-11-14: 15,243,700']</t>
+          <t>['2025-11-11: 7,116,100', '2025-11-12: 5,503,000', '2025-11-13: 6,912,000', '2025-11-14: 5,573,300', '2025-11-17: 15,291,144']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>UAL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-10: 651.32', '2025-11-11: 594.91', '2025-11-12: 584.86', '2025-11-13: 556.15', '2025-11-14: 557.7']</t>
+          <t>['2025-11-11: 94.95', '2025-11-12: 99.97', '2025-11-13: 97.17', '2025-11-14: 95.03', '2025-11-17: 89.95']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-10: 4,666,700', '2025-11-11: 7,447,000', '2025-11-12: 4,444,700', '2025-11-13: 5,190,900', '2025-11-14: 4,170,900']</t>
+          <t>['2025-11-11: 5,037,040', '2025-11-12: 5,967,000', '2025-11-13: 4,367,236', '2025-11-14: 3,314,419', '2025-11-17: 8,068,360']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EME</t>
+          <t>LEN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-10: 656.33', '2025-11-11: 640.85', '2025-11-12: 643.38', '2025-11-13: 618.96', '2025-11-14: 619.86']</t>
+          <t>['2025-11-11: 125.44', '2025-11-12: 124.13', '2025-11-13: 121.24', '2025-11-14: 121.11', '2025-11-17: 114.1']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-10: 290,535', '2025-11-11: 299,200', '2025-11-12: 328,900', '2025-11-13: 497,200', '2025-11-14: 489,000']</t>
+          <t>['2025-11-11: 2,999,153', '2025-11-12: 4,404,369', '2025-11-13: 5,256,185', '2025-11-14: 4,641,301', '2025-11-17: 8,987,439']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>SOLS</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3826,19 +3862,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-10: 135.88', '2025-11-11: 131.93', '2025-11-12: 132.98', '2025-11-13: 121.53', '2025-11-14: 122.5']</t>
+          <t>['2025-11-11: 46.12', '2025-11-12: 46.93', '2025-11-13: 45.73', '2025-11-14: 43.56', '2025-11-17: 41.58']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-10: 30,980,500', '2025-11-11: 17,218,400', '2025-11-12: 22,044,600', '2025-11-13: 36,727,300', '2025-11-14: 31,984,600']</t>
+          <t>['2025-11-11: 3,259,400', '2025-11-12: 3,171,200', '2025-11-13: 2,813,400', '2025-11-14: 3,378,800', '2025-11-17: 4,172,900']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IBKR</t>
+          <t>HOOD</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3846,17 +3882,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-10: 71.13', '2025-11-11: 70.87', '2025-11-12: 72.7', '2025-11-13: 67.04', '2025-11-14: 66.03']</t>
+          <t>['2025-11-11: 131.93', '2025-11-12: 132.98', '2025-11-13: 121.53', '2025-11-14: 122.5', '2025-11-17: 115.97']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-10: 3,255,200', '2025-11-11: 2,780,400', '2025-11-12: 4,300,200', '2025-11-13: 6,274,100', '2025-11-14: 5,331,100']</t>
+          <t>['2025-11-11: 17,218,426', '2025-11-12: 22,044,600', '2025-11-13: 36,727,300', '2025-11-14: 32,063,800', '2025-11-17: 40,078,567']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3344,6 +3344,102 @@
         </is>
       </c>
       <c r="F91" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>VICI</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>VICI</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Cantor Fitzgerald</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>VICI</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Evercore ISI Group</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -3423,38 +3519,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>VICI</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Evercore ISI</t>
+          <t>Cantor Fitzgerald</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Piper Sandler</t>
+          <t>Barclays</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Raised</t>
+          <t>Lowered</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3507,7 +3603,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GUTS</t>
+          <t>HPAI</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3520,19 +3616,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-11: 1.1', '2025-11-12: 1.13', '2025-11-13: 1.12', '2025-11-14: 1.26', '2025-11-17: 1.43']</t>
+          <t>['2025-11-12: 2.65', '2025-11-13: 2.68', '2025-11-14: 2.56', '2025-11-17: 2.65', '2025-11-18: 2.97']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-11: 1,406,583', '2025-11-12: 2,068,800', '2025-11-13: 4,095,939', '2025-11-14: 3,333,004', '2025-11-17: 5,712,537']</t>
+          <t>['2025-11-12: 3,500', '2025-11-13: 2,000', '2025-11-14: 17,816', '2025-11-17: 18,800', '2025-11-18: 34,500']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FSHPR</t>
+          <t>GUTS</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3540,17 +3636,92 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-06: 0.166', '2025-11-10: 0.195', '2025-11-12: 0.16', '2025-11-13: 0.1202', '2025-11-17: 0.19']</t>
+          <t>['2025-11-12: 1.13', '2025-11-13: 1.12', '2025-11-14: 1.26', '2025-11-17: 1.43', '2025-11-18: 1.4']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-06: 2', '2025-11-10: 20', '2025-11-12: 42', '2025-11-13: 3,179', '2025-11-17: 377']</t>
+          <t>['2025-11-12: 2,068,800', '2025-11-13: 4,095,939', '2025-11-14: 3,333,004', '2025-11-17: 5,712,537', '2025-11-18: 1,773,457']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LDLVX</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['2025-11-13: 3.89', '2025-11-14: 3.89', '2025-11-17: 3.88', '2025-11-18: 3.89', '2025-11-19: 3.89']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['2025-11-13: 0', '2025-11-14: 0', '2025-11-17: 0', '2025-11-18: 0', '2025-11-19: 0']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PRWBX</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['2025-11-13: 4.65', '2025-11-14: 4.64', '2025-11-17: 4.64', '2025-11-18: 4.65', '2025-11-19: 4.65']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['2025-11-13: 0', '2025-11-14: 0', '2025-11-17: 0', '2025-11-18: 0', '2025-11-19: 0']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ATLN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['2025-11-12: 2.7', '2025-11-13: 2.61', '2025-11-14: 2.49', '2025-11-17: 2.5', '2025-11-18: 2.66']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['2025-11-12: 14,700', '2025-11-13: 11,702', '2025-11-14: 13,100', '2025-11-17: 8,337', '2025-11-18: 6,309']</t>
         </is>
       </c>
     </row>
@@ -3603,7 +3774,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3616,19 +3787,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-11: 179.68', '2025-11-12: 181.68', '2025-11-13: 182.64', '2025-11-14: 184.09', '2025-11-17: 184.75']</t>
+          <t>['2025-11-12: 61.37', '2025-11-13: 60.87', '2025-11-14: 60.56', '2025-11-17: 61.5', '2025-11-18: 61.45']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-11: 972,600', '2025-11-12: 741,347', '2025-11-13: 1,126,500', '2025-11-14: 1,159,700', '2025-11-17: 2,254,901']</t>
+          <t>['2025-11-12: 2,945,500', '2025-11-13: 4,875,604', '2025-11-14: 4,342,623', '2025-11-17: 4,433,103', '2025-11-18: 7,127,536']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GEV</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3641,19 +3812,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-11: 576.08', '2025-11-12: 575.4', '2025-11-13: 558.17', '2025-11-14: 578.31', '2025-11-17: 577.02']</t>
+          <t>['2025-11-12: 286.71', '2025-11-13: 278.57', '2025-11-14: 276.41', '2025-11-17: 285.02', '2025-11-18: 284.28']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-11: 1,748,507', '2025-11-12: 2,026,343', '2025-11-13: 5,166,900', '2025-11-14: 4,037,300', '2025-11-17: 2,998,024']</t>
+          <t>['2025-11-12: 24,829,923', '2025-11-13: 29,494,040', '2025-11-14: 31,647,227', '2025-11-17: 52,670,200', '2025-11-18: 49,158,743']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>ICE</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3661,24 +3832,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-11: 23.05', '2025-11-12: 22.19', '2025-11-13: 22.14', '2025-11-14: 23.03', '2025-11-17: 22.74']</t>
+          <t>['2025-11-12: 154.05', '2025-11-13: 152.7', '2025-11-14: 152.07', '2025-11-17: 150.33', '2025-11-18: 152.78']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-11: 18,926,718', '2025-11-12: 25,310,100', '2025-11-13: 31,904,200', '2025-11-14: 54,192,839', '2025-11-17: 36,814,258']</t>
+          <t>['2025-11-12: 3,032,100', '2025-11-13: 3,484,938', '2025-11-14: 2,554,300', '2025-11-17: 2,737,300', '2025-11-18: 5,191,000']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3686,24 +3857,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-11: 291.31', '2025-11-12: 286.71', '2025-11-13: 278.57', '2025-11-14: 276.41', '2025-11-17: 285.02']</t>
+          <t>['2025-11-12: 287.43', '2025-11-13: 279.12', '2025-11-14: 276.98', '2025-11-17: 285.6', '2025-11-18: 284.96']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-11: 19,842,136', '2025-11-12: 24,829,923', '2025-11-13: 29,494,040', '2025-11-14: 31,647,227', '2025-11-17: 52,670,192']</t>
+          <t>['2025-11-12: 16,998,821', '2025-11-13: 18,060,224', '2025-11-14: 18,330,500', '2025-11-17: 34,286,100', '2025-11-18: 29,702,228']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3716,12 +3887,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-11: 192.31', '2025-11-12: 191.64', '2025-11-13: 191.07', '2025-11-14: 193.82', '2025-11-17: 197.27']</t>
+          <t>['2025-11-12: 46.33', '2025-11-13: 45.71', '2025-11-14: 45.94', '2025-11-17: 46.56', '2025-11-18: 46.61']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-11: 2,139,465', '2025-11-12: 3,879,457', '2025-11-13: 3,181,933', '2025-11-14: 2,794,341', '2025-11-17: 5,517,149']</t>
+          <t>['2025-11-12: 4,895,000', '2025-11-13: 2,805,072', '2025-11-14: 3,077,428', '2025-11-17: 4,024,929', '2025-11-18: 6,391,513']</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3945,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3787,69 +3958,69 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-11: 138.76', '2025-11-12: 140.71', '2025-11-13: 133.94', '2025-11-14: 133.76', '2025-11-17: 122.48']</t>
+          <t>['2025-11-12: 371.13', '2025-11-13: 368.07', '2025-11-14: 362.36', '2025-11-17: 358.03', '2025-11-18: 336.48']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-11: 7,116,100', '2025-11-12: 5,503,000', '2025-11-13: 6,912,000', '2025-11-14: 5,573,300', '2025-11-17: 15,291,144']</t>
+          <t>['2025-11-12: 3,376,097', '2025-11-13: 3,035,094', '2025-11-14: 3,413,300', '2025-11-17: 5,127,200', '2025-11-18: 10,168,537']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>SOLS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-11: 94.95', '2025-11-12: 99.97', '2025-11-13: 97.17', '2025-11-14: 95.03', '2025-11-17: 89.95']</t>
+          <t>['2025-11-12: 46.93', '2025-11-13: 45.73', '2025-11-14: 43.56', '2025-11-17: 41.58', '2025-11-18: 41.43']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-11: 5,037,040', '2025-11-12: 5,967,000', '2025-11-13: 4,367,236', '2025-11-14: 3,314,419', '2025-11-17: 8,068,360']</t>
+          <t>['2025-11-12: 3,171,200', '2025-11-13: 2,813,400', '2025-11-14: 3,378,800', '2025-11-17: 4,173,600', '2025-11-18: 3,535,600']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-11: 125.44', '2025-11-12: 124.13', '2025-11-13: 121.24', '2025-11-14: 121.11', '2025-11-17: 114.1']</t>
+          <t>['2025-11-12: 584.86', '2025-11-13: 556.15', '2025-11-14: 557.7', '2025-11-17: 539.27', '2025-11-18: 526.01']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-11: 2,999,153', '2025-11-12: 4,404,369', '2025-11-13: 5,256,185', '2025-11-14: 4,641,301', '2025-11-17: 8,987,439']</t>
+          <t>['2025-11-12: 4,444,700', '2025-11-13: 5,190,940', '2025-11-14: 4,173,200', '2025-11-17: 3,908,600', '2025-11-18: 3,927,282']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>HOOD</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3862,19 +4033,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-11: 46.12', '2025-11-12: 46.93', '2025-11-13: 45.73', '2025-11-14: 43.56', '2025-11-17: 41.58']</t>
+          <t>['2025-11-12: 132.98', '2025-11-13: 121.53', '2025-11-14: 122.5', '2025-11-17: 115.97', '2025-11-18: 114.3']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-11: 3,259,400', '2025-11-12: 3,171,200', '2025-11-13: 2,813,400', '2025-11-14: 3,378,800', '2025-11-17: 4,172,900']</t>
+          <t>['2025-11-12: 22,044,600', '2025-11-13: 36,727,300', '2025-11-14: 32,063,800', '2025-11-17: 40,078,600', '2025-11-18: 28,581,139']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>IBKR</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3882,17 +4053,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-11: 131.93', '2025-11-12: 132.98', '2025-11-13: 121.53', '2025-11-14: 122.5', '2025-11-17: 115.97']</t>
+          <t>['2025-11-12: 72.7', '2025-11-13: 67.04', '2025-11-14: 66.03', '2025-11-17: 63.41', '2025-11-18: 63.27']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-11: 17,218,426', '2025-11-12: 22,044,600', '2025-11-13: 36,727,300', '2025-11-14: 32,063,800', '2025-11-17: 40,078,567']</t>
+          <t>['2025-11-12: 4,300,200', '2025-11-13: 6,274,122', '2025-11-14: 5,337,100', '2025-11-17: 4,918,000', '2025-11-18: 4,146,723']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3440,6 +3440,198 @@
         </is>
       </c>
       <c r="F94" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>DECK</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Stifel</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>DECK</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Barclays</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>DECK</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Truist Securities</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>PODD</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>PODD</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>BTIG</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>PODD</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -3456,7 +3648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3519,36 +3711,122 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>DECK</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Barclays</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>113</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Dana Telsey</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Telsey Advisory</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>105</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Raised</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PODD</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>400</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Matthew Taylor</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jefferies</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>400</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Unchanged</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>VICI</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>2025-11-06</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Cantor Fitzgerald</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E4" t="n">
         <v>35</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2025-10-20</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Barclays</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="I4" t="n">
         <v>37</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Lowered</t>
         </is>
@@ -3565,7 +3843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3603,32 +3881,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HPAI</t>
+          <t>ABAT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-12: 2.65', '2025-11-13: 2.68', '2025-11-14: 2.56', '2025-11-17: 2.65', '2025-11-18: 2.97']</t>
+          <t>['2025-11-13: 3.66', '2025-11-14: 3.6', '2025-11-17: 3.37', '2025-11-18: 3.69', '2025-11-19: 4.02']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-12: 3,500', '2025-11-13: 2,000', '2025-11-14: 17,816', '2025-11-17: 18,800', '2025-11-18: 34,500']</t>
+          <t>['2025-11-13: 9,031,400', '2025-11-14: 7,242,700', '2025-11-17: 5,235,700', '2025-11-18: 7,360,500', '2025-11-19: 12,125,900']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GUTS</t>
+          <t>HPAI</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3641,19 +3919,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-12: 1.13', '2025-11-13: 1.12', '2025-11-14: 1.26', '2025-11-17: 1.43', '2025-11-18: 1.4']</t>
+          <t>['2025-11-13: 2.68', '2025-11-14: 2.56', '2025-11-17: 2.65', '2025-11-18: 2.97', '2025-11-19: 3.0']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-12: 2,068,800', '2025-11-13: 4,095,939', '2025-11-14: 3,333,004', '2025-11-17: 5,712,537', '2025-11-18: 1,773,457']</t>
+          <t>['2025-11-13: 2,000', '2025-11-14: 17,816', '2025-11-17: 18,800', '2025-11-18: 34,500', '2025-11-19: 12,600']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LDLVX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3661,24 +3939,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-13: 3.89', '2025-11-14: 3.89', '2025-11-17: 3.88', '2025-11-18: 3.89', '2025-11-19: 3.89']</t>
+          <t>['2025-11-13: 2.56', '2025-11-14: 2.73', '2025-11-17: 2.47', '2025-11-18: 2.49', '2025-11-19: 2.63']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-13: 0', '2025-11-14: 0', '2025-11-17: 0', '2025-11-18: 0', '2025-11-19: 0']</t>
+          <t>['2025-11-13: 1,820,000', '2025-11-14: 4,079,000', '2025-11-17: 2,337,900', '2025-11-18: 2,346,723', '2025-11-19: 2,782,480']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PRWBX</t>
+          <t>ATLN</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3686,42 +3964,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-13: 4.65', '2025-11-14: 4.64', '2025-11-17: 4.64', '2025-11-18: 4.65', '2025-11-19: 4.65']</t>
+          <t>['2025-11-13: 2.61', '2025-11-14: 2.49', '2025-11-17: 2.5', '2025-11-18: 2.66', '2025-11-19: 2.53']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-13: 0', '2025-11-14: 0', '2025-11-17: 0', '2025-11-18: 0', '2025-11-19: 0']</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ATLN</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>['2025-11-12: 2.7', '2025-11-13: 2.61', '2025-11-14: 2.49', '2025-11-17: 2.5', '2025-11-18: 2.66']</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>['2025-11-12: 14,700', '2025-11-13: 11,702', '2025-11-14: 13,100', '2025-11-17: 8,337', '2025-11-18: 6,309']</t>
+          <t>['2025-11-13: 11,702', '2025-11-14: 13,100', '2025-11-17: 8,337', '2025-11-18: 6,309', '2025-11-19: 36,500']</t>
         </is>
       </c>
     </row>
@@ -3774,7 +4027,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>GEV</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3782,24 +4035,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-12: 61.37', '2025-11-13: 60.87', '2025-11-14: 60.56', '2025-11-17: 61.5', '2025-11-18: 61.45']</t>
+          <t>['2025-11-13: 558.17', '2025-11-14: 578.31', '2025-11-17: 577.02', '2025-11-18: 554.93', '2025-11-19: 595.37']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-12: 2,945,500', '2025-11-13: 4,875,604', '2025-11-14: 4,342,623', '2025-11-17: 4,433,103', '2025-11-18: 7,127,536']</t>
+          <t>['2025-11-13: 5,166,900', '2025-11-14: 4,037,300', '2025-11-17: 2,998,024', '2025-11-18: 2,986,001', '2025-11-19: 4,212,143']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>PODD</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3807,24 +4060,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-12: 286.71', '2025-11-13: 278.57', '2025-11-14: 276.41', '2025-11-17: 285.02', '2025-11-18: 284.28']</t>
+          <t>['2025-11-13: 332.67', '2025-11-14: 332.7', '2025-11-17: 328.02', '2025-11-18: 333.47', '2025-11-19: 346.36']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-12: 24,829,923', '2025-11-13: 29,494,040', '2025-11-14: 31,647,227', '2025-11-17: 52,670,200', '2025-11-18: 49,158,743']</t>
+          <t>['2025-11-13: 550,512', '2025-11-14: 405,841', '2025-11-17: 512,237', '2025-11-18: 654,926', '2025-11-19: 978,058']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ICE</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3832,24 +4085,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-12: 154.05', '2025-11-13: 152.7', '2025-11-14: 152.07', '2025-11-17: 150.33', '2025-11-18: 152.78']</t>
+          <t>['2025-11-13: 22.14', '2025-11-14: 23.03', '2025-11-17: 22.74', '2025-11-18: 23.69', '2025-11-19: 23.09']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-12: 3,032,100', '2025-11-13: 3,484,938', '2025-11-14: 2,554,300', '2025-11-17: 2,737,300', '2025-11-18: 5,191,000']</t>
+          <t>['2025-11-13: 31,904,200', '2025-11-14: 54,192,839', '2025-11-17: 36,814,300', '2025-11-18: 60,510,126', '2025-11-19: 47,882,187']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>ALB</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3862,19 +4115,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-12: 287.43', '2025-11-13: 279.12', '2025-11-14: 276.98', '2025-11-17: 285.6', '2025-11-18: 284.96']</t>
+          <t>['2025-11-13: 114.57', '2025-11-14: 115.14', '2025-11-17: 117.7', '2025-11-18: 121.39', '2025-11-19: 125.68']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-12: 16,998,821', '2025-11-13: 18,060,224', '2025-11-14: 18,330,500', '2025-11-17: 34,286,100', '2025-11-18: 29,702,228']</t>
+          <t>['2025-11-13: 7,195,900', '2025-11-14: 4,691,600', '2025-11-17: 7,466,634', '2025-11-18: 4,524,125', '2025-11-19: 3,631,732']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3887,12 +4140,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-12: 46.33', '2025-11-13: 45.71', '2025-11-14: 45.94', '2025-11-17: 46.56', '2025-11-18: 46.61']</t>
+          <t>['2025-11-13: 279.12', '2025-11-14: 276.98', '2025-11-17: 285.6', '2025-11-18: 284.96', '2025-11-19: 292.99']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-12: 4,895,000', '2025-11-13: 2,805,072', '2025-11-14: 3,077,428', '2025-11-17: 4,024,929', '2025-11-18: 6,391,513']</t>
+          <t>['2025-11-13: 18,060,224', '2025-11-14: 18,330,500', '2025-11-17: 34,286,100', '2025-11-18: 29,702,228', '2025-11-19: 43,123,599']</t>
         </is>
       </c>
     </row>
@@ -3945,7 +4198,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3958,19 +4211,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-12: 371.13', '2025-11-13: 368.07', '2025-11-14: 362.36', '2025-11-17: 358.03', '2025-11-18: 336.48']</t>
+          <t>['2025-11-13: 73.69', '2025-11-14: 73.3', '2025-11-17: 74.03', '2025-11-18: 74.54', '2025-11-19: 65.26']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-12: 3,376,097', '2025-11-13: 3,035,094', '2025-11-14: 3,413,300', '2025-11-17: 5,127,200', '2025-11-18: 10,168,537']</t>
+          <t>['2025-11-13: 2,142,199', '2025-11-14: 2,526,800', '2025-11-17: 1,805,039', '2025-11-18: 2,710,230', '2025-11-19: 10,405,059']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>WSM</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3978,24 +4231,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-12: 46.93', '2025-11-13: 45.73', '2025-11-14: 43.56', '2025-11-17: 41.58', '2025-11-18: 41.43']</t>
+          <t>['2025-11-13: 186.47', '2025-11-14: 182.24', '2025-11-17: 181.32', '2025-11-18: 180.75', '2025-11-19: 174.62']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-12: 3,171,200', '2025-11-13: 2,813,400', '2025-11-14: 3,378,800', '2025-11-17: 4,173,600', '2025-11-18: 3,535,600']</t>
+          <t>['2025-11-13: 777,537', '2025-11-14: 1,476,371', '2025-11-17: 1,403,600', '2025-11-18: 1,853,800', '2025-11-19: 3,348,484']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>TPL</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4008,19 +4261,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-12: 584.86', '2025-11-13: 556.15', '2025-11-14: 557.7', '2025-11-17: 539.27', '2025-11-18: 526.01']</t>
+          <t>['2025-11-13: 988.97', '2025-11-14: 1022.65', '2025-11-17: 957.47', '2025-11-18: 920.12', '2025-11-19: 905.76']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-12: 4,444,700', '2025-11-13: 5,190,940', '2025-11-14: 4,173,200', '2025-11-17: 3,908,600', '2025-11-18: 3,927,282']</t>
+          <t>['2025-11-13: 126,800', '2025-11-14: 144,924', '2025-11-17: 171,300', '2025-11-18: 135,988', '2025-11-19: 87,408']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>CRWD</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4033,19 +4286,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-12: 132.98', '2025-11-13: 121.53', '2025-11-14: 122.5', '2025-11-17: 115.97', '2025-11-18: 114.3']</t>
+          <t>['2025-11-13: 529.78', '2025-11-14: 537.55', '2025-11-17: 529.78', '2025-11-18: 513.67', '2025-11-19: 520.59']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-12: 22,044,600', '2025-11-13: 36,727,300', '2025-11-14: 32,063,800', '2025-11-17: 40,078,600', '2025-11-18: 28,581,139']</t>
+          <t>['2025-11-13: 2,406,019', '2025-11-14: 1,942,300', '2025-11-17: 1,395,300', '2025-11-18: 2,573,000', '2025-11-19: 1,521,925']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IBKR</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4053,17 +4306,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-12: 72.7', '2025-11-13: 67.04', '2025-11-14: 66.03', '2025-11-17: 63.41', '2025-11-18: 63.27']</t>
+          <t>['2025-11-13: 96.9', '2025-11-14: 96.01', '2025-11-17: 93.97', '2025-11-18: 96.14', '2025-11-19: 93.15']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-12: 4,300,200', '2025-11-13: 6,274,122', '2025-11-14: 5,337,100', '2025-11-17: 4,918,000', '2025-11-18: 4,146,723']</t>
+          <t>['2025-11-13: 1,610,500', '2025-11-14: 1,113,936', '2025-11-17: 1,436,717', '2025-11-18: 1,370,400', '2025-11-19: 2,610,602']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3632,6 +3632,102 @@
         </is>
       </c>
       <c r="F100" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>APO</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>APO</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Evercore ISI Group</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>APO</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Keefe, Bruyette &amp; Woods</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -3648,7 +3744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3711,39 +3807,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DECK</t>
+          <t>APO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>John Barnidge</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Barclays</t>
+          <t>Piper Sandler</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dana Telsey</t>
+          <t>Etinenne Ricard</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Telsey Advisory</t>
+          <t>BMO Capital</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -3759,74 +3860,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BTIG</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>380</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>2025-11-19</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>UBS</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>400</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-11-06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Matthew Taylor</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Jefferies</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>400</v>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>Unchanged</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>VICI</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-11-06</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Cantor Fitzgerald</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>35</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-10-20</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Barclays</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>37</v>
-      </c>
-      <c r="J4" t="inlineStr">
         <is>
           <t>Lowered</t>
         </is>
@@ -3843,7 +3901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3881,57 +3939,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABAT</t>
+          <t>HPAI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-13: 3.66', '2025-11-14: 3.6', '2025-11-17: 3.37', '2025-11-18: 3.69', '2025-11-19: 4.02']</t>
+          <t>['2025-11-14: 2.56', '2025-11-17: 2.65', '2025-11-18: 2.97', '2025-11-19: 3.0', '2025-11-20: 3.17']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-13: 9,031,400', '2025-11-14: 7,242,700', '2025-11-17: 5,235,700', '2025-11-18: 7,360,500', '2025-11-19: 12,125,900']</t>
+          <t>['2025-11-14: 17,816', '2025-11-17: 18,800', '2025-11-18: 34,500', '2025-11-19: 12,600', '2025-11-20: 37,500']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HPAI</t>
+          <t>LDLVX</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-13: 2.68', '2025-11-14: 2.56', '2025-11-17: 2.65', '2025-11-18: 2.97', '2025-11-19: 3.0']</t>
+          <t>['2025-11-14: 3.89', '2025-11-17: 3.88', '2025-11-18: 3.89', '2025-11-19: 3.88', '2025-11-20: 3.89']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-13: 2,000', '2025-11-14: 17,816', '2025-11-17: 18,800', '2025-11-18: 34,500', '2025-11-19: 12,600']</t>
+          <t>['2025-11-14: 0', '2025-11-17: 0', '2025-11-18: 0', '2025-11-19: 0', '2025-11-20: 0']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>PRWBX</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3939,24 +3997,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-13: 2.56', '2025-11-14: 2.73', '2025-11-17: 2.47', '2025-11-18: 2.49', '2025-11-19: 2.63']</t>
+          <t>['2025-11-14: 4.64', '2025-11-17: 4.64', '2025-11-18: 4.65', '2025-11-19: 4.64', '2025-11-20: 4.65']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-13: 1,820,000', '2025-11-14: 4,079,000', '2025-11-17: 2,337,900', '2025-11-18: 2,346,723', '2025-11-19: 2,782,480']</t>
+          <t>['2025-11-14: 0', '2025-11-17: 0', '2025-11-18: 0', '2025-11-19: 0', '2025-11-20: 0']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ATLN</t>
+          <t>RZLV</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3969,12 +4027,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-13: 2.61', '2025-11-14: 2.49', '2025-11-17: 2.5', '2025-11-18: 2.66', '2025-11-19: 2.53']</t>
+          <t>['2025-11-14: 2.95', '2025-11-17: 2.75', '2025-11-18: 2.88', '2025-11-19: 3.01', '2025-11-20: 2.99']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-13: 11,702', '2025-11-14: 13,100', '2025-11-17: 8,337', '2025-11-18: 6,309', '2025-11-19: 36,500']</t>
+          <t>['2025-11-14: 13,583,439', '2025-11-17: 13,165,400', '2025-11-18: 10,780,623', '2025-11-19: 13,168,607', '2025-11-20: 31,383,979']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>JASBX</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['2025-11-14: 2.9', '2025-11-17: 2.9', '2025-11-18: 2.9', '2025-11-19: 2.9', '2025-11-20: 2.91']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['2025-11-14: 0', '2025-11-17: 0', '2025-11-18: 0', '2025-11-19: 0', '2025-11-20: 0']</t>
         </is>
       </c>
     </row>
@@ -4027,32 +4110,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GEV</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-13: 558.17', '2025-11-14: 578.31', '2025-11-17: 577.02', '2025-11-18: 554.93', '2025-11-19: 595.37']</t>
+          <t>['2025-11-14: 102.48', '2025-11-17: 102.95', '2025-11-18: 101.39', '2025-11-19: 100.61', '2025-11-20: 107.11']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-13: 5,166,900', '2025-11-14: 4,037,300', '2025-11-17: 2,998,024', '2025-11-18: 2,986,001', '2025-11-19: 4,212,143']</t>
+          <t>['2025-11-14: 23,424,211', '2025-11-17: 15,289,400', '2025-11-18: 17,604,500', '2025-11-19: 22,157,029', '2025-11-20: 50,375,920']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>MAA</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4065,19 +4148,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-13: 332.67', '2025-11-14: 332.7', '2025-11-17: 328.02', '2025-11-18: 333.47', '2025-11-19: 346.36']</t>
+          <t>['2025-11-14: 130.94', '2025-11-17: 130.27', '2025-11-18: 130.43', '2025-11-19: 129.83', '2025-11-20: 130.87']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-13: 550,512', '2025-11-14: 405,841', '2025-11-17: 512,237', '2025-11-18: 654,926', '2025-11-19: 978,058']</t>
+          <t>['2025-11-14: 649,100', '2025-11-17: 653,000', '2025-11-18: 717,700', '2025-11-19: 818,700', '2025-11-20: 1,368,500']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4090,19 +4173,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-13: 22.14', '2025-11-14: 23.03', '2025-11-17: 22.74', '2025-11-18: 23.69', '2025-11-19: 23.09']</t>
+          <t>['2025-11-14: 276.41', '2025-11-17: 285.02', '2025-11-18: 284.28', '2025-11-19: 292.81', '2025-11-20: 289.45']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-13: 31,904,200', '2025-11-14: 54,192,839', '2025-11-17: 36,814,300', '2025-11-18: 60,510,126', '2025-11-19: 47,882,187']</t>
+          <t>['2025-11-14: 31,647,227', '2025-11-17: 52,670,200', '2025-11-18: 49,158,743', '2025-11-19: 68,198,944', '2025-11-20: 62,025,218']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>REGN</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4110,42 +4193,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-13: 114.57', '2025-11-14: 115.14', '2025-11-17: 117.7', '2025-11-18: 121.39', '2025-11-19: 125.68']</t>
+          <t>['2025-11-14: 693.5', '2025-11-17: 704.31', '2025-11-18: 725.34', '2025-11-19: 702.75', '2025-11-20: 737.0']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-13: 7,195,900', '2025-11-14: 4,691,600', '2025-11-17: 7,466,634', '2025-11-18: 4,524,125', '2025-11-19: 3,631,732']</t>
+          <t>['2025-11-14: 907,089', '2025-11-17: 1,133,105', '2025-11-18: 1,368,882', '2025-11-19: 1,383,600', '2025-11-20: 2,297,145']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>SOLV</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-13: 279.12', '2025-11-14: 276.98', '2025-11-17: 285.6', '2025-11-18: 284.96', '2025-11-19: 292.99']</t>
+          <t>['2025-11-14: 75.66', '2025-11-17: 76.19', '2025-11-18: 76.89', '2025-11-19: 77.31', '2025-11-20: 79.51']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-13: 18,060,224', '2025-11-14: 18,330,500', '2025-11-17: 34,286,100', '2025-11-18: 29,702,228', '2025-11-19: 43,123,599']</t>
+          <t>['2025-11-14: 1,053,840', '2025-11-17: 1,248,535', '2025-11-18: 1,355,933', '2025-11-19: 888,900', '2025-11-20: 1,879,679']</t>
         </is>
       </c>
     </row>
@@ -4198,125 +4281,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-13: 73.69', '2025-11-14: 73.3', '2025-11-17: 74.03', '2025-11-18: 74.54', '2025-11-19: 65.26']</t>
+          <t>['2025-11-14: 154.41', '2025-11-17: 150.59', '2025-11-18: 150.76', '2025-11-19: 145.05', '2025-11-20: 129.17']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-13: 2,142,199', '2025-11-14: 2,526,800', '2025-11-17: 1,805,039', '2025-11-18: 2,710,230', '2025-11-19: 10,405,059']</t>
+          <t>['2025-11-14: 1,439,537', '2025-11-17: 870,646', '2025-11-18: 601,827', '2025-11-19: 1,982,000', '2025-11-20: 3,783,474']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WSM</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-13: 186.47', '2025-11-14: 182.24', '2025-11-17: 181.32', '2025-11-18: 180.75', '2025-11-19: 174.62']</t>
+          <t>['2025-11-14: 185.01', '2025-11-17: 180.26', '2025-11-18: 176.46', '2025-11-19: 176.31', '2025-11-20: 159.57']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-13: 777,537', '2025-11-14: 1,476,371', '2025-11-17: 1,403,600', '2025-11-18: 1,853,800', '2025-11-19: 3,348,484']</t>
+          <t>['2025-11-14: 3,850,364', '2025-11-17: 3,974,800', '2025-11-18: 3,600,200', '2025-11-19: 3,564,817', '2025-11-20: 8,715,517']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TPL</t>
+          <t>DASH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-13: 988.97', '2025-11-14: 1022.65', '2025-11-17: 957.47', '2025-11-18: 920.12', '2025-11-19: 905.76']</t>
+          <t>['2025-11-14: 206.96', '2025-11-17: 210.65', '2025-11-18: 212.08', '2025-11-19: 202.32', '2025-11-20: 187.73']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-13: 126,800', '2025-11-14: 144,924', '2025-11-17: 171,300', '2025-11-18: 135,988', '2025-11-19: 87,408']</t>
+          <t>['2025-11-14: 11,454,424', '2025-11-17: 10,819,618', '2025-11-18: 7,355,000', '2025-11-19: 9,410,100', '2025-11-20: 14,574,543']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>SMCI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-13: 529.78', '2025-11-14: 537.55', '2025-11-17: 529.78', '2025-11-18: 513.67', '2025-11-19: 520.59']</t>
+          <t>['2025-11-14: 36.42', '2025-11-17: 34.1', '2025-11-18: 34.9', '2025-11-19: 33.73', '2025-11-20: 31.56']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-13: 2,406,019', '2025-11-14: 1,942,300', '2025-11-17: 1,395,300', '2025-11-18: 2,573,000', '2025-11-19: 1,521,925']</t>
+          <t>['2025-11-14: 37,325,200', '2025-11-17: 32,689,527', '2025-11-18: 28,024,905', '2025-11-19: 28,892,800', '2025-11-20: 37,801,477']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>UBER</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-13: 96.9', '2025-11-14: 96.01', '2025-11-17: 93.97', '2025-11-18: 96.14', '2025-11-19: 93.15']</t>
+          <t>['2025-11-14: 91.62', '2025-11-17: 92.11', '2025-11-18: 90.86', '2025-11-19: 89.53', '2025-11-20: 83.36']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-13: 1,610,500', '2025-11-14: 1,113,936', '2025-11-17: 1,436,717', '2025-11-18: 1,370,400', '2025-11-19: 2,610,602']</t>
+          <t>['2025-11-14: 12,475,614', '2025-11-17: 16,922,538', '2025-11-18: 17,439,409', '2025-11-19: 18,256,220', '2025-11-20: 41,734,033']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3728,6 +3728,262 @@
         </is>
       </c>
       <c r="F103" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Argus Research</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Goldman Sachs</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>CPT</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Barclays</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>CPT</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>CPT</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Mizuho</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>CDW</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Raymond James</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Strong Buy</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>CDW</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Barclays</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>CDW</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -3744,7 +4000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3807,84 +4063,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>COIN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>John Barnidge</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Piper Sandler</t>
+          <t>Goldman Sachs</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>188</v>
+        <v>314</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Etinenne Ricard</t>
+          <t>Gus Galá</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>BMO Capital</t>
+          <t>Monness</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>157</v>
+        <v>375</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Raised</t>
+          <t>Lowered</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>CPT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BTIG</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Richard Hightower</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>Barclays</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>118</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Lowered</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CDW</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Adam Tindle</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Raymond James</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>185</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>UBS</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>400</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I4" t="n">
+        <v>190</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>Lowered</t>
         </is>
@@ -3943,121 +4242,121 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-14: 2.56', '2025-11-17: 2.65', '2025-11-18: 2.97', '2025-11-19: 3.0', '2025-11-20: 3.17']</t>
+          <t>['2025-11-19: 3.0', '2025-11-20: 3.17', '2025-11-21: 3.17', '2025-11-24: 3.36', '2025-11-25: 3.66']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-14: 17,816', '2025-11-17: 18,800', '2025-11-18: 34,500', '2025-11-19: 12,600', '2025-11-20: 37,500']</t>
+          <t>['2025-11-19: 12,600', '2025-11-20: 37,500', '2025-11-21: 10,000', '2025-11-24: 17,100', '2025-11-25: 55,910']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LDLVX</t>
+          <t>SHIM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-14: 3.89', '2025-11-17: 3.88', '2025-11-18: 3.89', '2025-11-19: 3.88', '2025-11-20: 3.89']</t>
+          <t>['2025-11-19: 2.1', '2025-11-20: 2.07', '2025-11-21: 2.14', '2025-11-24: 2.26', '2025-11-25: 2.6']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-14: 0', '2025-11-17: 0', '2025-11-18: 0', '2025-11-19: 0', '2025-11-20: 0']</t>
+          <t>['2025-11-19: 9,209', '2025-11-20: 2,818', '2025-11-21: 9,900', '2025-11-24: 16,300', '2025-11-25: 82,200']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PRWBX</t>
+          <t>RR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-14: 4.64', '2025-11-17: 4.64', '2025-11-18: 4.65', '2025-11-19: 4.64', '2025-11-20: 4.65']</t>
+          <t>['2025-11-19: 3.21', '2025-11-20: 3.04', '2025-11-21: 3.0', '2025-11-24: 3.27', '2025-11-25: 3.58']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-14: 0', '2025-11-17: 0', '2025-11-18: 0', '2025-11-19: 0', '2025-11-20: 0']</t>
+          <t>['2025-11-19: 21,561,100', '2025-11-20: 22,069,500', '2025-11-21: 20,334,400', '2025-11-24: 17,644,000', '2025-11-25: 21,816,153']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RZLV</t>
+          <t>ROMA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-14: 2.95', '2025-11-17: 2.75', '2025-11-18: 2.88', '2025-11-19: 3.01', '2025-11-20: 2.99']</t>
+          <t>['2025-11-19: 2.65', '2025-11-20: 2.6', '2025-11-21: 2.61', '2025-11-24: 2.52', '2025-11-25: 2.74']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-14: 13,583,439', '2025-11-17: 13,165,400', '2025-11-18: 10,780,623', '2025-11-19: 13,168,607', '2025-11-20: 31,383,979']</t>
+          <t>['2025-11-19: 1,400', '2025-11-20: 1,000', '2025-11-21: 702', '2025-11-24: 300', '2025-11-25: 500']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JASBX</t>
+          <t>ZYBT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-14: 2.9', '2025-11-17: 2.9', '2025-11-18: 2.9', '2025-11-19: 2.9', '2025-11-20: 2.91']</t>
+          <t>['2025-11-19: 2.15', '2025-11-20: 2.06', '2025-11-21: 2.14', '2025-11-24: 2.18', '2025-11-25: 2.35']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-14: 0', '2025-11-17: 0', '2025-11-18: 0', '2025-11-19: 0', '2025-11-20: 0']</t>
+          <t>['2025-11-19: 12,919', '2025-11-20: 42,800', '2025-11-21: 8,500', '2025-11-24: 46,900', '2025-11-25: 21,300']</t>
         </is>
       </c>
     </row>
@@ -4110,7 +4409,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>KEYS</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4123,112 +4422,112 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-14: 102.48', '2025-11-17: 102.95', '2025-11-18: 101.39', '2025-11-19: 100.61', '2025-11-20: 107.11']</t>
+          <t>['2025-11-19: 174.61', '2025-11-20: 169.67', '2025-11-21: 172.71', '2025-11-24: 177.67', '2025-11-25: 195.46']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-14: 23,424,211', '2025-11-17: 15,289,400', '2025-11-18: 17,604,500', '2025-11-19: 22,157,029', '2025-11-20: 50,375,920']</t>
+          <t>['2025-11-19: 822,000', '2025-11-20: 1,199,642', '2025-11-21: 2,184,041', '2025-11-24: 2,828,000', '2025-11-25: 3,898,493']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>WYNN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-14: 130.94', '2025-11-17: 130.27', '2025-11-18: 130.43', '2025-11-19: 129.83', '2025-11-20: 130.87']</t>
+          <t>['2025-11-19: 118.32', '2025-11-20: 117.14', '2025-11-21: 119.6', '2025-11-24: 123.24', '2025-11-25: 127.47']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-14: 649,100', '2025-11-17: 653,000', '2025-11-18: 717,700', '2025-11-19: 818,700', '2025-11-20: 1,368,500']</t>
+          <t>['2025-11-19: 939,339', '2025-11-20: 1,099,400', '2025-11-21: 1,757,100', '2025-11-24: 2,024,600', '2025-11-25: 3,599,378']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>ADI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-14: 276.41', '2025-11-17: 285.02', '2025-11-18: 284.28', '2025-11-19: 292.81', '2025-11-20: 289.45']</t>
+          <t>['2025-11-19: 232.2', '2025-11-20: 225.2', '2025-11-21: 232.32', '2025-11-24: 239.4', '2025-11-25: 252.02']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-14: 31,647,227', '2025-11-17: 52,670,200', '2025-11-18: 49,158,743', '2025-11-19: 68,198,944', '2025-11-20: 62,025,218']</t>
+          <t>['2025-11-19: 2,790,492', '2025-11-20: 4,316,600', '2025-11-21: 4,467,337', '2025-11-24: 8,219,900', '2025-11-25: 7,515,103']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-14: 693.5', '2025-11-17: 704.31', '2025-11-18: 725.34', '2025-11-19: 702.75', '2025-11-20: 737.0']</t>
+          <t>['2025-11-19: 235.13', '2025-11-20: 220.23', '2025-11-21: 224.01', '2025-11-24: 230.91', '2025-11-25: 242.46']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-14: 907,089', '2025-11-17: 1,133,105', '2025-11-18: 1,368,882', '2025-11-19: 1,383,600', '2025-11-20: 2,297,145']</t>
+          <t>['2025-11-19: 8,870,502', '2025-11-20: 9,264,000', '2025-11-21: 8,596,800', '2025-11-24: 8,806,600', '2025-11-25: 8,330,341']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>GEV</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-14: 75.66', '2025-11-17: 76.19', '2025-11-18: 76.89', '2025-11-19: 77.31', '2025-11-20: 79.51']</t>
+          <t>['2025-11-19: 595.37', '2025-11-20: 558.03', '2025-11-21: 555.84', '2025-11-24: 580.49', '2025-11-25: 572.56']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-14: 1,053,840', '2025-11-17: 1,248,535', '2025-11-18: 1,355,933', '2025-11-19: 888,900', '2025-11-20: 1,879,679']</t>
+          <t>['2025-11-19: 4,212,143', '2025-11-20: 4,874,636', '2025-11-21: 4,872,810', '2025-11-24: 2,748,900', '2025-11-25: 2,356,480']</t>
         </is>
       </c>
     </row>
@@ -4281,125 +4580,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>CPRT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-14: 154.41', '2025-11-17: 150.59', '2025-11-18: 150.76', '2025-11-19: 145.05', '2025-11-20: 129.17']</t>
+          <t>['2025-11-19: 41.37', '2025-11-20: 41.02', '2025-11-21: 40.73', '2025-11-24: 38.91', '2025-11-25: 39.06']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-14: 1,439,537', '2025-11-17: 870,646', '2025-11-18: 601,827', '2025-11-19: 1,982,000', '2025-11-20: 3,783,474']</t>
+          <t>['2025-11-19: 9,634,709', '2025-11-20: 10,861,200', '2025-11-21: 16,643,000', '2025-11-24: 16,942,004', '2025-11-25: 11,838,827']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>SJM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-14: 185.01', '2025-11-17: 180.26', '2025-11-18: 176.46', '2025-11-19: 176.31', '2025-11-20: 159.57']</t>
+          <t>['2025-11-19: 104.69', '2025-11-20: 103.75', '2025-11-21: 105.54', '2025-11-24: 104.27', '2025-11-25: 100.38']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-14: 3,850,364', '2025-11-17: 3,974,800', '2025-11-18: 3,600,200', '2025-11-19: 3,564,817', '2025-11-20: 8,715,517']</t>
+          <t>['2025-11-19: 1,574,038', '2025-11-20: 1,843,497', '2025-11-21: 2,139,610', '2025-11-24: 3,306,412', '2025-11-25: 4,114,188']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>CMCSA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-14: 206.96', '2025-11-17: 210.65', '2025-11-18: 212.08', '2025-11-19: 202.32', '2025-11-20: 187.73']</t>
+          <t>['2025-11-19: 26.87', '2025-11-20: 26.63', '2025-11-21: 27.35', '2025-11-24: 26.46', '2025-11-25: 26.68']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-14: 11,454,424', '2025-11-17: 10,819,618', '2025-11-18: 7,355,000', '2025-11-19: 9,410,100', '2025-11-20: 14,574,543']</t>
+          <t>['2025-11-19: 27,469,301', '2025-11-20: 24,690,800', '2025-11-21: 31,572,800', '2025-11-24: 51,662,500', '2025-11-25: 30,445,621']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>OMC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-14: 36.42', '2025-11-17: 34.1', '2025-11-18: 34.9', '2025-11-19: 33.73', '2025-11-20: 31.56']</t>
+          <t>['2025-11-19: 72.0', '2025-11-20: 71.51', '2025-11-21: 74.87', '2025-11-24: 74.83', '2025-11-25: 72.85']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-14: 37,325,200', '2025-11-17: 32,689,527', '2025-11-18: 28,024,905', '2025-11-19: 28,892,800', '2025-11-20: 37,801,477']</t>
+          <t>['2025-11-19: 2,535,700', '2025-11-20: 2,844,700', '2025-11-21: 3,434,515', '2025-11-24: 6,485,300', '2025-11-25: 7,564,067']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>IPG</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-14: 91.62', '2025-11-17: 92.11', '2025-11-18: 90.86', '2025-11-19: 89.53', '2025-11-20: 83.36']</t>
+          <t>['2025-11-19: 24.69', '2025-11-20: 24.55', '2025-11-21: 25.72', '2025-11-24: 25.71', '2025-11-25: 25.06']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-14: 12,475,614', '2025-11-17: 16,922,538', '2025-11-18: 17,439,409', '2025-11-19: 18,256,220', '2025-11-20: 41,734,033']</t>
+          <t>['2025-11-19: 6,631,000', '2025-11-20: 5,750,500', '2025-11-21: 5,027,426', '2025-11-24: 10,319,000', '2025-11-25: 22,284,536']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3984,6 +3984,166 @@
         </is>
       </c>
       <c r="F111" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>VICI</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Evercore ISI Group</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>In Line</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>VICI</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Goldman Sachs</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>BMO Capital</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Market Perform</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Raymond James</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Citigroup</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -4000,7 +4160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4063,39 +4223,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>VICI</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Goldman Sachs</t>
+          <t>Evercore ISI</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>314</v>
+        <v>32</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Gus Galá</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Monness</t>
+          <t>Cantor Fitzgerald</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>375</v>
+        <v>35</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -4106,86 +4261,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CPT</t>
+          <t>ODFL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fadi Chamoun</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wells Fargo</t>
+          <t>BMO Capital</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Richard Hightower</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Barclays</t>
+          <t>Stephens</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Lowered</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CDW</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Adam Tindle</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Raymond James</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>185</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>UBS</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>190</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Lowered</t>
+          <t>Raised</t>
         </is>
       </c>
     </row>
@@ -4238,57 +4350,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HPAI</t>
+          <t>NMRA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-19: 3.0', '2025-11-20: 3.17', '2025-11-21: 3.17', '2025-11-24: 3.36', '2025-11-25: 3.66']</t>
+          <t>['2025-11-24: 2.16', '2025-11-25: 2.25', '2025-11-26: 2.29', '2025-11-28: 2.24', '2025-12-01: 2.42']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-19: 12,600', '2025-11-20: 37,500', '2025-11-21: 10,000', '2025-11-24: 17,100', '2025-11-25: 55,910']</t>
+          <t>['2025-11-24: 1,634,800', '2025-11-25: 1,650,000', '2025-11-26: 732,928', '2025-11-28: 420,700', '2025-12-01: 2,312,141']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SHIM</t>
+          <t>ROMA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-19: 2.1', '2025-11-20: 2.07', '2025-11-21: 2.14', '2025-11-24: 2.26', '2025-11-25: 2.6']</t>
+          <t>['2025-11-24: 2.52', '2025-11-25: 2.74', '2025-11-26: 2.72', '2025-11-28: 2.73', '2025-12-01: 2.75']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-19: 9,209', '2025-11-20: 2,818', '2025-11-21: 9,900', '2025-11-24: 16,300', '2025-11-25: 82,200']</t>
+          <t>['2025-11-24: 300', '2025-11-25: 500', '2025-11-26: 1,200', '2025-11-28: 1,037', '2025-12-01: 2,418']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>HPAI</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4296,24 +4408,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-19: 3.21', '2025-11-20: 3.04', '2025-11-21: 3.0', '2025-11-24: 3.27', '2025-11-25: 3.58']</t>
+          <t>['2025-11-24: 3.36', '2025-11-25: 3.66', '2025-11-26: 3.67', '2025-11-28: 3.85', '2025-12-01: 3.85']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-19: 21,561,100', '2025-11-20: 22,069,500', '2025-11-21: 20,334,400', '2025-11-24: 17,644,000', '2025-11-25: 21,816,153']</t>
+          <t>['2025-11-24: 17,100', '2025-11-25: 55,910', '2025-11-26: 5,300', '2025-11-28: 7,500', '2025-12-01: 7,124']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ROMA</t>
+          <t>GUTS</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4321,42 +4433,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-19: 2.65', '2025-11-20: 2.6', '2025-11-21: 2.61', '2025-11-24: 2.52', '2025-11-25: 2.74']</t>
+          <t>['2025-11-24: 1.46', '2025-11-25: 1.46', '2025-11-26: 1.48', '2025-11-28: 1.57', '2025-12-01: 1.56']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-19: 1,400', '2025-11-20: 1,000', '2025-11-21: 702', '2025-11-24: 300', '2025-11-25: 500']</t>
+          <t>['2025-11-24: 3,199,400', '2025-11-25: 1,778,733', '2025-11-26: 1,779,913', '2025-11-28: 1,893,000', '2025-12-01: 2,939,338']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ZYBT</t>
+          <t>IVFIX</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-19: 2.15', '2025-11-20: 2.06', '2025-11-21: 2.14', '2025-11-24: 2.18', '2025-11-25: 2.35']</t>
+          <t>['2025-11-24: 4.44', '2025-11-25: 4.49', '2025-11-26: 4.51', '2025-11-28: 4.53', '2025-12-01: 4.53']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-19: 12,919', '2025-11-20: 42,800', '2025-11-21: 8,500', '2025-11-24: 46,900', '2025-11-25: 21,300']</t>
+          <t>['2025-11-24: 0', '2025-11-25: 0', '2025-11-26: 0', '2025-11-28: 0', '2025-12-01: 0']</t>
         </is>
       </c>
     </row>
@@ -4409,107 +4521,107 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KEYS</t>
+          <t>SOLS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-19: 174.61', '2025-11-20: 169.67', '2025-11-21: 172.71', '2025-11-24: 177.67', '2025-11-25: 195.46']</t>
+          <t>['2025-11-24: 45.47', '2025-11-25: 46.89', '2025-11-26: 46.23', '2025-11-28: 47.68', '2025-12-01: 47.72']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-19: 822,000', '2025-11-20: 1,199,642', '2025-11-21: 2,184,041', '2025-11-24: 2,828,000', '2025-11-25: 3,898,493']</t>
+          <t>['2025-11-24: 3,193,800', '2025-11-25: 3,060,200', '2025-11-26: 2,534,400', '2025-11-28: 1,110,900', '2025-12-01: 2,586,200']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>DECK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-19: 118.32', '2025-11-20: 117.14', '2025-11-21: 119.6', '2025-11-24: 123.24', '2025-11-25: 127.47']</t>
+          <t>['2025-11-24: 83.13', '2025-11-25: 85.47', '2025-11-26: 87.19', '2025-11-28: 88.03', '2025-12-01: 92.02']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-19: 939,339', '2025-11-20: 1,099,400', '2025-11-21: 1,757,100', '2025-11-24: 2,024,600', '2025-11-25: 3,599,378']</t>
+          <t>['2025-11-24: 4,384,037', '2025-11-25: 3,582,535', '2025-11-26: 3,074,405', '2025-11-28: 1,892,410', '2025-12-01: 5,560,330']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ADI</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-19: 232.2', '2025-11-20: 225.2', '2025-11-21: 232.32', '2025-11-24: 239.4', '2025-11-25: 252.02']</t>
+          <t>['2025-11-24: 57.54', '2025-11-25: 56.76', '2025-11-26: 59.0', '2025-11-28: 60.86', '2025-12-01: 60.52']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-19: 2,790,492', '2025-11-20: 4,316,600', '2025-11-21: 4,467,337', '2025-11-24: 8,219,900', '2025-11-25: 7,515,103']</t>
+          <t>['2025-11-24: 11,711,130', '2025-11-25: 8,376,947', '2025-11-26: 5,671,300', '2025-11-28: 4,653,300', '2025-12-01: 8,318,694']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>BRO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-19: 235.13', '2025-11-20: 220.23', '2025-11-21: 224.01', '2025-11-24: 230.91', '2025-11-25: 242.46']</t>
+          <t>['2025-11-24: 79.25', '2025-11-25: 80.51', '2025-11-26: 80.45', '2025-11-28: 80.43', '2025-12-01: 81.18']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-19: 8,870,502', '2025-11-20: 9,264,000', '2025-11-21: 8,596,800', '2025-11-24: 8,806,600', '2025-11-25: 8,330,341']</t>
+          <t>['2025-11-24: 2,783,825', '2025-11-25: 1,744,400', '2025-11-26: 1,365,300', '2025-11-28: 1,051,100', '2025-12-01: 3,066,333']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GEV</t>
+          <t>FANG</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4517,17 +4629,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-19: 595.37', '2025-11-20: 558.03', '2025-11-21: 555.84', '2025-11-24: 580.49', '2025-11-25: 572.56']</t>
+          <t>['2025-11-24: 147.64', '2025-11-25: 147.02', '2025-11-26: 149.31', '2025-11-28: 152.59', '2025-12-01: 156.16']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-19: 4,212,143', '2025-11-20: 4,874,636', '2025-11-21: 4,872,810', '2025-11-24: 2,748,900', '2025-11-25: 2,356,480']</t>
+          <t>['2025-11-24: 1,776,600', '2025-11-25: 1,341,800', '2025-11-26: 1,379,616', '2025-11-28: 749,300', '2025-12-01: 2,404,202']</t>
         </is>
       </c>
     </row>
@@ -4580,32 +4692,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>WRB</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-19: 41.37', '2025-11-20: 41.02', '2025-11-21: 40.73', '2025-11-24: 38.91', '2025-11-25: 39.06']</t>
+          <t>['2025-11-24: 77.53', '2025-11-25: 77.92', '2025-11-26: 77.64', '2025-11-28: 77.69', '2025-12-01: 72.98']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-19: 9,634,709', '2025-11-20: 10,861,200', '2025-11-21: 16,643,000', '2025-11-24: 16,942,004', '2025-11-25: 11,838,827']</t>
+          <t>['2025-11-24: 2,704,000', '2025-11-25: 1,745,814', '2025-11-26: 1,191,800', '2025-11-28: 629,906', '2025-12-01: 4,340,526']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SJM</t>
+          <t>PODD</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4613,24 +4725,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-19: 104.69', '2025-11-20: 103.75', '2025-11-21: 105.54', '2025-11-24: 104.27', '2025-11-25: 100.38']</t>
+          <t>['2025-11-24: 337.53', '2025-11-25: 328.85', '2025-11-26: 326.8', '2025-11-28: 327.19', '2025-12-01: 310.83']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-19: 1,574,038', '2025-11-20: 1,843,497', '2025-11-21: 2,139,610', '2025-11-24: 3,306,412', '2025-11-25: 4,114,188']</t>
+          <t>['2025-11-24: 1,129,400', '2025-11-25: 884,613', '2025-11-26: 662,100', '2025-11-28: 224,700', '2025-12-01: 878,766']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CMCSA</t>
+          <t>RMD</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4638,24 +4750,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-19: 26.87', '2025-11-20: 26.63', '2025-11-21: 27.35', '2025-11-24: 26.46', '2025-11-25: 26.68']</t>
+          <t>['2025-11-24: 250.52', '2025-11-25: 255.8', '2025-11-26: 255.04', '2025-11-28: 255.83', '2025-12-01: 248.38']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-19: 27,469,301', '2025-11-20: 24,690,800', '2025-11-21: 31,572,800', '2025-11-24: 51,662,500', '2025-11-25: 30,445,621']</t>
+          <t>['2025-11-24: 1,217,600', '2025-11-25: 812,400', '2025-11-26: 606,170', '2025-11-28: 335,100', '2025-12-01: 1,296,102']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>PAYX</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4668,19 +4780,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-19: 72.0', '2025-11-20: 71.51', '2025-11-21: 74.87', '2025-11-24: 74.83', '2025-11-25: 72.85']</t>
+          <t>['2025-11-24: 109.91', '2025-11-25: 112.11', '2025-11-26: 111.41', '2025-11-28: 111.69', '2025-12-01: 110.54']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-19: 2,535,700', '2025-11-20: 2,844,700', '2025-11-21: 3,434,515', '2025-11-24: 6,485,300', '2025-11-25: 7,564,067']</t>
+          <t>['2025-11-24: 5,405,029', '2025-11-25: 2,832,405', '2025-11-26: 2,203,541', '2025-11-28: 1,244,903', '2025-12-01: 5,147,500']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IPG</t>
+          <t>DRI</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4693,12 +4805,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-19: 24.69', '2025-11-20: 24.55', '2025-11-21: 25.72', '2025-11-24: 25.71', '2025-11-25: 25.06']</t>
+          <t>['2025-11-24: 173.32', '2025-11-25: 179.28', '2025-11-26: 180.0', '2025-11-28: 179.58', '2025-12-01: 173.94']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-19: 6,631,000', '2025-11-20: 5,750,500', '2025-11-21: 5,027,426', '2025-11-24: 10,319,000', '2025-11-25: 22,284,536']</t>
+          <t>['2025-11-24: 1,598,915', '2025-11-25: 1,563,224', '2025-11-26: 1,311,600', '2025-11-28: 387,000', '2025-12-01: 2,204,663']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4144,6 +4144,198 @@
         </is>
       </c>
       <c r="F116" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>SOLV</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>BTIG</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SOLV</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>SOLV</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Piper Sandler</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Keybanc</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Underweight</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Sector Weight</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Oppenheimer</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Perform</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Tigress Financial</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -4160,7 +4352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4223,81 +4415,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>SOLV</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ryan Zimmerman</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Evercore ISI</t>
+          <t>BTIG</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Kevin Caliendo</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cantor Fitzgerald</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Lowered</t>
+          <t>Raised</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>VICI</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Barclays</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Evercore ISI</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>32</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Raised</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>ODFL</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>2025-12-01</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Fadi Chamoun</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>BMO Capital</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E4" t="n">
         <v>170</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Stephens</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>156</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Raised</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>300</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tigress Financial</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>310</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Lowered</t>
         </is>
       </c>
     </row>
@@ -4350,32 +4628,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NMRA</t>
+          <t>GUTS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-24: 2.16', '2025-11-25: 2.25', '2025-11-26: 2.29', '2025-11-28: 2.24', '2025-12-01: 2.42']</t>
+          <t>['2025-11-25: 1.46', '2025-11-26: 1.48', '2025-11-28: 1.57', '2025-12-01: 1.56', '2025-12-02: 1.84']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-24: 1,634,800', '2025-11-25: 1,650,000', '2025-11-26: 732,928', '2025-11-28: 420,700', '2025-12-01: 2,312,141']</t>
+          <t>['2025-11-25: 1,778,733', '2025-11-26: 1,779,913', '2025-11-28: 1,893,000', '2025-12-01: 2,939,338', '2025-12-02: 11,878,962']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ROMA</t>
+          <t>LOT</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4383,74 +4661,74 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-24: 2.52', '2025-11-25: 2.74', '2025-11-26: 2.72', '2025-11-28: 2.73', '2025-12-01: 2.75']</t>
+          <t>['2025-11-25: 1.29', '2025-11-26: 1.34', '2025-11-28: 1.35', '2025-12-01: 1.28', '2025-12-02: 1.5']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-24: 300', '2025-11-25: 500', '2025-11-26: 1,200', '2025-11-28: 1,037', '2025-12-01: 2,418']</t>
+          <t>['2025-11-25: 74,900', '2025-11-26: 20,207', '2025-11-28: 48,400', '2025-12-01: 112,731', '2025-12-02: 248,883']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HPAI</t>
+          <t>LOLDX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-24: 3.36', '2025-11-25: 3.66', '2025-11-26: 3.67', '2025-11-28: 3.85', '2025-12-01: 3.85']</t>
+          <t>['2025-11-25: 3.9', '2025-11-26: 3.9', '2025-11-28: 3.9', '2025-12-01: 3.89', '2025-12-02: 3.9']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-24: 17,100', '2025-11-25: 55,910', '2025-11-26: 5,300', '2025-11-28: 7,500', '2025-12-01: 7,124']</t>
+          <t>['2025-11-25: 0', '2025-11-26: 0', '2025-11-28: 0', '2025-12-01: 0', '2025-12-02: 0']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GUTS</t>
+          <t>XCH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-24: 1.46', '2025-11-25: 1.46', '2025-11-26: 1.48', '2025-11-28: 1.57', '2025-12-01: 1.56']</t>
+          <t>['2025-11-25: 0.98', '2025-11-26: 1.02', '2025-11-28: 1.07', '2025-12-01: 1.02', '2025-12-02: 1.09']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-24: 3,199,400', '2025-11-25: 1,778,733', '2025-11-26: 1,779,913', '2025-11-28: 1,893,000', '2025-12-01: 2,939,338']</t>
+          <t>['2025-11-25: 34,802', '2025-11-26: 19,311', '2025-11-28: 10,800', '2025-12-01: 20,500', '2025-12-02: 25,500']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IVFIX</t>
+          <t>EEIIX</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4463,12 +4741,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-24: 4.44', '2025-11-25: 4.49', '2025-11-26: 4.51', '2025-11-28: 4.53', '2025-12-01: 4.53']</t>
+          <t>['2025-11-25: 3.53', '2025-11-26: 3.52', '2025-11-28: 3.52', '2025-12-01: 3.52', '2025-12-02: 3.53']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-24: 0', '2025-11-25: 0', '2025-11-26: 0', '2025-11-28: 0', '2025-12-01: 0']</t>
+          <t>['2025-11-25: 0', '2025-11-26: 0', '2025-11-28: 0', '2025-12-01: 0', '2025-12-02: 0']</t>
         </is>
       </c>
     </row>
@@ -4521,125 +4799,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLS</t>
+          <t>DASH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-24: 45.47', '2025-11-25: 46.89', '2025-11-26: 46.23', '2025-11-28: 47.68', '2025-12-01: 47.72']</t>
+          <t>['2025-11-25: 195.49', '2025-11-26: 195.98', '2025-11-28: 198.37', '2025-12-01: 205.58', '2025-12-02: 216.98']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-24: 3,193,800', '2025-11-25: 3,060,200', '2025-11-26: 2,534,400', '2025-11-28: 1,110,900', '2025-12-01: 2,586,200']</t>
+          <t>['2025-11-25: 5,652,633', '2025-11-26: 3,646,200', '2025-11-28: 1,383,923', '2025-12-01: 6,384,400', '2025-12-02: 10,330,209']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DECK</t>
+          <t>NXPI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-24: 83.13', '2025-11-25: 85.47', '2025-11-26: 87.19', '2025-11-28: 88.03', '2025-12-01: 92.02']</t>
+          <t>['2025-11-25: 191.02', '2025-11-26: 193.76', '2025-11-28: 194.94', '2025-12-01: 199.49', '2025-12-02: 215.35']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-24: 4,384,037', '2025-11-25: 3,582,535', '2025-11-26: 3,074,405', '2025-11-28: 1,892,410', '2025-12-01: 5,560,330']</t>
+          <t>['2025-11-25: 3,214,026', '2025-11-26: 2,836,051', '2025-11-28: 1,654,132', '2025-12-01: 3,394,003', '2025-12-02: 6,159,746']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>JBHT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-24: 57.54', '2025-11-25: 56.76', '2025-11-26: 59.0', '2025-11-28: 60.86', '2025-12-01: 60.52']</t>
+          <t>['2025-11-25: 172.03', '2025-11-26: 173.4', '2025-11-28: 173.96', '2025-12-01: 179.73', '2025-12-02: 185.73']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-24: 11,711,130', '2025-11-25: 8,376,947', '2025-11-26: 5,671,300', '2025-11-28: 4,653,300', '2025-12-01: 8,318,694']</t>
+          <t>['2025-11-25: 1,103,909', '2025-11-26: 852,100', '2025-11-28: 339,700', '2025-12-01: 1,739,854', '2025-12-02: 2,614,800']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-24: 79.25', '2025-11-25: 80.51', '2025-11-26: 80.45', '2025-11-28: 80.43', '2025-12-01: 81.18']</t>
+          <t>['2025-11-25: 91.94', '2025-11-26: 93.7', '2025-11-28: 94.07', '2025-12-01: 94.71', '2025-12-02: 99.64']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-24: 2,783,825', '2025-11-25: 1,744,400', '2025-11-26: 1,365,300', '2025-11-28: 1,051,100', '2025-12-01: 3,066,333']</t>
+          <t>['2025-11-25: 2,920,600', '2025-11-26: 2,640,651', '2025-11-28: 1,012,720', '2025-12-01: 3,096,172', '2025-12-02: 4,870,773']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FANG</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-24: 147.64', '2025-11-25: 147.02', '2025-11-26: 149.31', '2025-11-28: 152.59', '2025-12-01: 156.16']</t>
+          <t>['2025-11-25: 35.83', '2025-11-26: 36.81', '2025-11-28: 40.56', '2025-12-01: 40.01', '2025-12-02: 43.47']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-24: 1,776,600', '2025-11-25: 1,341,800', '2025-11-26: 1,379,616', '2025-11-28: 749,300', '2025-12-01: 2,404,202']</t>
+          <t>['2025-11-25: 62,203,300', '2025-11-26: 54,563,435', '2025-11-28: 95,799,500', '2025-12-01: 74,534,900', '2025-12-02: 167,118,334']</t>
         </is>
       </c>
     </row>
@@ -4692,82 +4970,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>XYZ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-24: 77.53', '2025-11-25: 77.92', '2025-11-26: 77.64', '2025-11-28: 77.69', '2025-12-01: 72.98']</t>
+          <t>['2025-11-25: 63.69', '2025-11-26: 65.03', '2025-11-28: 66.8', '2025-12-01: 64.35', '2025-12-02: 60.11']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-24: 2,704,000', '2025-11-25: 1,745,814', '2025-11-26: 1,191,800', '2025-11-28: 629,906', '2025-12-01: 4,340,526']</t>
+          <t>['2025-11-25: 7,223,800', '2025-11-26: 6,770,500', '2025-11-28: 3,459,937', '2025-12-01: 8,119,926', '2025-12-02: 20,730,796']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>WRB</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-24: 337.53', '2025-11-25: 328.85', '2025-11-26: 326.8', '2025-11-28: 327.19', '2025-12-01: 310.83']</t>
+          <t>['2025-11-25: 77.92', '2025-11-26: 77.64', '2025-11-28: 77.69', '2025-12-01: 72.98', '2025-12-02: 72.8']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-24: 1,129,400', '2025-11-25: 884,613', '2025-11-26: 662,100', '2025-11-28: 224,700', '2025-12-01: 878,766']</t>
+          <t>['2025-11-25: 1,745,814', '2025-11-26: 1,191,800', '2025-11-28: 629,906', '2025-12-01: 4,340,526', '2025-12-02: 4,044,507']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>PKG</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-24: 250.52', '2025-11-25: 255.8', '2025-11-26: 255.04', '2025-11-28: 255.83', '2025-12-01: 248.38']</t>
+          <t>['2025-11-25: 201.26', '2025-11-26: 203.49', '2025-11-28: 204.07', '2025-12-01: 203.24', '2025-12-02: 192.55']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-24: 1,217,600', '2025-11-25: 812,400', '2025-11-26: 606,170', '2025-11-28: 335,100', '2025-12-01: 1,296,102']</t>
+          <t>['2025-11-25: 545,631', '2025-11-26: 498,934', '2025-11-28: 292,410', '2025-12-01: 590,010', '2025-12-02: 1,313,521']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4780,19 +5058,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-24: 109.91', '2025-11-25: 112.11', '2025-11-26: 111.41', '2025-11-28: 111.69', '2025-12-01: 110.54']</t>
+          <t>['2025-11-25: 158.99', '2025-11-26: 158.4', '2025-11-28: 160.01', '2025-12-01: 157.9', '2025-12-02: 156.48']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-24: 5,405,029', '2025-11-25: 2,832,405', '2025-11-26: 2,203,541', '2025-11-28: 1,244,903', '2025-12-01: 5,147,500']</t>
+          <t>['2025-11-25: 3,318,951', '2025-11-26: 3,458,716', '2025-11-28: 2,471,901', '2025-12-01: 3,577,203', '2025-12-02: 5,757,449']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>PODD</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4800,17 +5078,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-24: 173.32', '2025-11-25: 179.28', '2025-11-26: 180.0', '2025-11-28: 179.58', '2025-12-01: 173.94']</t>
+          <t>['2025-11-25: 328.85', '2025-11-26: 326.8', '2025-11-28: 327.19', '2025-12-01: 310.83', '2025-12-02: 309.0']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-24: 1,598,915', '2025-11-25: 1,563,224', '2025-11-26: 1,311,600', '2025-11-28: 387,000', '2025-12-01: 2,204,663']</t>
+          <t>['2025-11-25: 884,613', '2025-11-26: 662,100', '2025-11-28: 224,700', '2025-12-01: 878,766', '2025-12-02: 759,500']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4336,6 +4336,294 @@
         </is>
       </c>
       <c r="F122" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>UBER</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Arete Research</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>UBER</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Cantor Fitzgerald</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>UBER</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>TD Cowen</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Stifel</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Citigroup</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Evercore ISI Group</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Argus Research</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -4352,7 +4640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4463,7 +4751,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>UBER</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4473,24 +4761,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Barclays</t>
+          <t>Arete Research</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Evercore ISI</t>
+          <t>RBC Capital</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -4501,39 +4789,39 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ODFL</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Fadi Chamoun</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BMO Capital</t>
+          <t>Stifel Nicolaus</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Richard Eastman</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Stephens</t>
+          <t>Robert W. Baird</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -4544,36 +4832,79 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Patrick Wood</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>63</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Raised</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>TMUS</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>2025-11-21</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>UBS</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" t="n">
         <v>300</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2025-11-11</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tigress Financial</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>310</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Lowered</t>
         </is>
@@ -4628,125 +4959,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GUTS</t>
+          <t>RR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-25: 1.46', '2025-11-26: 1.48', '2025-11-28: 1.57', '2025-12-01: 1.56', '2025-12-02: 1.84']</t>
+          <t>['2025-11-26: 3.46', '2025-11-28: 3.55', '2025-12-01: 3.35', '2025-12-02: 3.56', '2025-12-03: 4.22']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-25: 1,778,733', '2025-11-26: 1,779,913', '2025-11-28: 1,893,000', '2025-12-01: 2,939,338', '2025-12-02: 11,878,962']</t>
+          <t>['2025-11-26: 18,423,947', '2025-11-28: 8,907,710', '2025-12-01: 10,671,000', '2025-12-02: 16,501,100', '2025-12-03: 87,248,200']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LOT</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-25: 1.29', '2025-11-26: 1.34', '2025-11-28: 1.35', '2025-12-01: 1.28', '2025-12-02: 1.5']</t>
+          <t>['2025-11-26: 4.17', '2025-11-28: 4.1', '2025-12-01: 4.04', '2025-12-02: 4.18', '2025-12-03: 4.46']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-25: 74,900', '2025-11-26: 20,207', '2025-11-28: 48,400', '2025-12-01: 112,731', '2025-12-02: 248,883']</t>
+          <t>['2025-11-26: 157,402', '2025-11-28: 112,500', '2025-12-01: 99,000', '2025-12-02: 81,501', '2025-12-03: 104,417']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LOLDX</t>
+          <t>CRMLW</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-25: 3.9', '2025-11-26: 3.9', '2025-11-28: 3.9', '2025-12-01: 3.89', '2025-12-02: 3.9']</t>
+          <t>['2025-11-26: 3.06', '2025-11-28: 3.45', '2025-12-01: 3.14', '2025-12-02: 3.64', '2025-12-03: 3.9']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-25: 0', '2025-11-26: 0', '2025-11-28: 0', '2025-12-01: 0', '2025-12-02: 0']</t>
+          <t>['2025-11-26: 111,967', '2025-11-28: 42,664', '2025-12-01: 44,289', '2025-12-02: 84,089', '2025-12-03: 89,020']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XCH</t>
+          <t>SVCO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-25: 0.98', '2025-11-26: 1.02', '2025-11-28: 1.07', '2025-12-01: 1.02', '2025-12-02: 1.09']</t>
+          <t>['2025-11-26: 4.41', '2025-11-28: 4.55', '2025-12-01: 4.46', '2025-12-02: 4.39', '2025-12-03: 4.61']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-25: 34,802', '2025-11-26: 19,311', '2025-11-28: 10,800', '2025-12-01: 20,500', '2025-12-02: 25,500']</t>
+          <t>['2025-11-26: 201,020', '2025-11-28: 32,200', '2025-12-01: 152,918', '2025-12-02: 103,600', '2025-12-03: 214,433']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EEIIX</t>
+          <t>GUTS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-25: 3.53', '2025-11-26: 3.52', '2025-11-28: 3.52', '2025-12-01: 3.52', '2025-12-02: 3.53']</t>
+          <t>['2025-11-26: 1.48', '2025-11-28: 1.57', '2025-12-01: 1.56', '2025-12-02: 1.84', '2025-12-03: 1.92']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-25: 0', '2025-11-26: 0', '2025-11-28: 0', '2025-12-01: 0', '2025-12-02: 0']</t>
+          <t>['2025-11-26: 1,779,913', '2025-11-28: 1,893,000', '2025-12-01: 2,939,338', '2025-12-02: 11,879,113', '2025-12-03: 7,783,700']</t>
         </is>
       </c>
     </row>
@@ -4799,32 +5130,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-25: 195.49', '2025-11-26: 195.98', '2025-11-28: 198.37', '2025-12-01: 205.58', '2025-12-02: 216.98']</t>
+          <t>['2025-11-26: 52.57', '2025-11-28: 53.58', '2025-12-01: 53.43', '2025-12-02: 56.71', '2025-12-03: 63.61']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-25: 5,652,633', '2025-11-26: 3,646,200', '2025-11-28: 1,383,923', '2025-12-01: 6,384,400', '2025-12-02: 10,330,209']</t>
+          <t>['2025-11-26: 6,266,100', '2025-11-28: 3,755,000', '2025-12-01: 5,580,993', '2025-12-02: 11,954,031', '2025-12-03: 22,898,400']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4837,19 +5168,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-25: 191.02', '2025-11-26: 193.76', '2025-11-28: 194.94', '2025-12-01: 199.49', '2025-12-02: 215.35']</t>
+          <t>['2025-11-26: 49.64', '2025-11-28: 50.24', '2025-12-01: 50.43', '2025-12-02: 51.48', '2025-12-03: 57.15']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-25: 3,214,026', '2025-11-26: 2,836,051', '2025-11-28: 1,654,132', '2025-12-01: 3,394,003', '2025-12-02: 6,159,746']</t>
+          <t>['2025-11-26: 8,294,569', '2025-11-28: 3,635,812', '2025-12-01: 6,458,900', '2025-12-02: 11,945,000', '2025-12-03: 13,559,200']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JBHT</t>
+          <t>NXPI</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4857,24 +5188,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-25: 172.03', '2025-11-26: 173.4', '2025-11-28: 173.96', '2025-12-01: 179.73', '2025-12-02: 185.73']</t>
+          <t>['2025-11-26: 193.76', '2025-11-28: 194.94', '2025-12-01: 199.49', '2025-12-02: 215.35', '2025-12-03: 227.56']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-25: 1,103,909', '2025-11-26: 852,100', '2025-11-28: 339,700', '2025-12-01: 1,739,854', '2025-12-02: 2,614,800']</t>
+          <t>['2025-11-26: 2,836,051', '2025-11-28: 1,654,132', '2025-12-01: 3,394,003', '2025-12-02: 6,160,000', '2025-12-03: 4,593,800']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>ODFL</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4887,19 +5218,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-25: 91.94', '2025-11-26: 93.7', '2025-11-28: 94.07', '2025-12-01: 94.71', '2025-12-02: 99.64']</t>
+          <t>['2025-11-26: 134.91', '2025-11-28: 135.29', '2025-12-01: 139.67', '2025-12-02: 141.46', '2025-12-03: 150.95']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-25: 2,920,600', '2025-11-26: 2,640,651', '2025-11-28: 1,012,720', '2025-12-01: 3,096,172', '2025-12-02: 4,870,773']</t>
+          <t>['2025-11-26: 1,460,200', '2025-11-28: 587,600', '2025-12-01: 2,628,400', '2025-12-02: 2,293,965', '2025-12-03: 4,491,200']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>CDNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4912,12 +5243,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-25: 35.83', '2025-11-26: 36.81', '2025-11-28: 40.56', '2025-12-01: 40.01', '2025-12-02: 43.47']</t>
+          <t>['2025-11-26: 306.35', '2025-11-28: 311.84', '2025-12-01: 309.62', '2025-12-02: 317.94', '2025-12-03: 336.11']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-25: 62,203,300', '2025-11-26: 54,563,435', '2025-11-28: 95,799,500', '2025-12-01: 74,534,900', '2025-12-02: 167,118,334']</t>
+          <t>['2025-11-26: 1,396,721', '2025-11-28: 875,049', '2025-12-01: 1,741,191', '2025-12-02: 1,928,613', '2025-12-03: 2,677,068']</t>
         </is>
       </c>
     </row>
@@ -4970,32 +5301,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>ARE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-25: 63.69', '2025-11-26: 65.03', '2025-11-28: 66.8', '2025-12-01: 64.35', '2025-12-02: 60.11']</t>
+          <t>['2025-11-26: 53.57', '2025-11-28: 53.67', '2025-12-01: 53.1', '2025-12-02: 53.83', '2025-12-03: 48.42']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-25: 7,223,800', '2025-11-26: 6,770,500', '2025-11-28: 3,459,937', '2025-12-01: 8,119,926', '2025-12-02: 20,730,796']</t>
+          <t>['2025-11-26: 2,264,298', '2025-11-28: 1,046,532', '2025-12-01: 2,822,587', '2025-12-02: 2,103,528', '2025-12-03: 7,324,700']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>MCK</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5008,19 +5339,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-25: 77.92', '2025-11-26: 77.64', '2025-11-28: 77.69', '2025-12-01: 72.98', '2025-12-02: 72.8']</t>
+          <t>['2025-11-26: 883.71', '2025-11-28: 881.12', '2025-12-01: 856.89', '2025-12-02: 829.7', '2025-12-03: 805.37']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-25: 1,745,814', '2025-11-26: 1,191,800', '2025-11-28: 629,906', '2025-12-01: 4,340,526', '2025-12-02: 4,044,507']</t>
+          <t>['2025-11-26: 617,072', '2025-11-28: 410,520', '2025-12-01: 832,087', '2025-12-02: 1,331,201', '2025-12-03: 1,477,300']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PKG</t>
+          <t>PSKY</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5033,19 +5364,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-25: 201.26', '2025-11-26: 203.49', '2025-11-28: 204.07', '2025-12-01: 203.24', '2025-12-02: 192.55']</t>
+          <t>['2025-11-26: 15.79', '2025-11-28: 16.02', '2025-12-01: 15.71', '2025-12-02: 15.82', '2025-12-03: 14.67']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-25: 545,631', '2025-11-26: 498,934', '2025-11-28: 292,410', '2025-12-01: 590,010', '2025-12-02: 1,313,521']</t>
+          <t>['2025-11-26: 6,666,200', '2025-11-28: 2,774,900', '2025-12-01: 4,571,600', '2025-12-02: 6,446,530', '2025-12-03: 9,593,100']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>SNDK</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5053,24 +5384,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-25: 158.99', '2025-11-26: 158.4', '2025-11-28: 160.01', '2025-12-01: 157.9', '2025-12-02: 156.48']</t>
+          <t>['2025-11-26: 215.04', '2025-11-28: 223.28', '2025-12-01: 210.17', '2025-12-02: 205.35', '2025-12-03: 194.38']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-25: 3,318,951', '2025-11-26: 3,458,716', '2025-11-28: 2,471,901', '2025-12-01: 3,577,203', '2025-12-02: 5,757,449']</t>
+          <t>['2025-11-26: 43,000,900', '2025-11-28: 13,367,516', '2025-12-01: 10,280,917', '2025-12-02: 11,095,800', '2025-12-03: 9,830,800']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>PCG</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5083,12 +5414,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-25: 328.85', '2025-11-26: 326.8', '2025-11-28: 327.19', '2025-12-01: 310.83', '2025-12-02: 309.0']</t>
+          <t>['2025-11-26: 16.01', '2025-11-28: 16.12', '2025-12-01: 15.84', '2025-12-02: 15.32', '2025-12-03: 15.23']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-25: 884,613', '2025-11-26: 662,100', '2025-11-28: 224,700', '2025-12-01: 878,766', '2025-12-02: 759,500']</t>
+          <t>['2025-11-26: 24,983,254', '2025-11-28: 6,710,700', '2025-12-01: 18,811,929', '2025-12-02: 25,697,300', '2025-12-03: 32,248,710']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -4640,7 +4640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4703,210 +4703,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>UBER</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Ryan Zimmerman</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BTIG</t>
+          <t>Arete Research</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Kevin Caliendo</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>RBC Capital</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Raised</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>UBER</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Arete Research</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>125</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>RBC Capital</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>110</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Raised</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TER</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Stifel Nicolaus</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>225</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Richard Eastman</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Robert W. Baird</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>195</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Raised</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DXCM</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Patrick Wood</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Morgan Stanley</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>75</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-11-10</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Morgan Stanley</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>63</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Raised</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TMUS</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UBS</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>300</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-11-11</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Tigress Financial</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>310</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Lowered</t>
         </is>
       </c>
     </row>
@@ -4972,94 +4800,94 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-26: 3.46', '2025-11-28: 3.55', '2025-12-01: 3.35', '2025-12-02: 3.56', '2025-12-03: 4.22']</t>
+          <t>['2025-11-28: 3.55', '2025-12-01: 3.35', '2025-12-02: 3.56', '2025-12-03: 4.22', '2025-12-04: 4.59']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-26: 18,423,947', '2025-11-28: 8,907,710', '2025-12-01: 10,671,000', '2025-12-02: 16,501,100', '2025-12-03: 87,248,200']</t>
+          <t>['2025-11-28: 8,907,710', '2025-12-01: 10,671,000', '2025-12-02: 16,501,100', '2025-12-03: 87,911,300', '2025-12-04: 79,755,010']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-26: 4.17', '2025-11-28: 4.1', '2025-12-01: 4.04', '2025-12-02: 4.18', '2025-12-03: 4.46']</t>
+          <t>['2025-11-28: 2.73', '2025-12-01: 2.65', '2025-12-02: 2.7', '2025-12-03: 2.83', '2025-12-04: 3.04']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-26: 157,402', '2025-11-28: 112,500', '2025-12-01: 99,000', '2025-12-02: 81,501', '2025-12-03: 104,417']</t>
+          <t>['2025-11-28: 1,455,223', '2025-12-01: 1,530,000', '2025-12-02: 1,824,700', '2025-12-03: 2,266,900', '2025-12-04: 3,260,671']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CRMLW</t>
+          <t>XCH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-26: 3.06', '2025-11-28: 3.45', '2025-12-01: 3.14', '2025-12-02: 3.64', '2025-12-03: 3.9']</t>
+          <t>['2025-11-28: 1.07', '2025-12-01: 1.02', '2025-12-02: 1.09', '2025-12-03: 1.13', '2025-12-04: 1.38']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-26: 111,967', '2025-11-28: 42,664', '2025-12-01: 44,289', '2025-12-02: 84,089', '2025-12-03: 89,020']</t>
+          <t>['2025-11-28: 10,800', '2025-12-01: 20,500', '2025-12-02: 25,500', '2025-12-03: 19,200', '2025-12-04: 585,374']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SVCO</t>
+          <t>CRMLW</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-26: 4.41', '2025-11-28: 4.55', '2025-12-01: 4.46', '2025-12-02: 4.39', '2025-12-03: 4.61']</t>
+          <t>['2025-11-28: 3.45', '2025-12-01: 3.14', '2025-12-02: 3.64', '2025-12-03: 3.9', '2025-12-04: 4.76']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-26: 201,020', '2025-11-28: 32,200', '2025-12-01: 152,918', '2025-12-02: 103,600', '2025-12-03: 214,433']</t>
+          <t>['2025-11-28: 42,664', '2025-12-01: 44,289', '2025-12-02: 84,089', '2025-12-03: 89,020', '2025-12-04: 246,598']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GUTS</t>
+          <t>BGIN</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5067,17 +4895,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-26: 1.48', '2025-11-28: 1.57', '2025-12-01: 1.56', '2025-12-02: 1.84', '2025-12-03: 1.92']</t>
+          <t>['2025-11-28: 2.9', '2025-12-01: 2.78', '2025-12-02: 2.76', '2025-12-03: 2.69', '2025-12-04: 3.05']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-26: 1,779,913', '2025-11-28: 1,893,000', '2025-12-01: 2,939,338', '2025-12-02: 11,879,113', '2025-12-03: 7,783,700']</t>
+          <t>['2025-11-28: 14,300', '2025-12-01: 34,548', '2025-12-02: 15,110', '2025-12-03: 22,100', '2025-12-04: 47,126']</t>
         </is>
       </c>
     </row>
@@ -5130,32 +4958,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MCHP</t>
+          <t>ODFL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-26: 52.57', '2025-11-28: 53.58', '2025-12-01: 53.43', '2025-12-02: 56.71', '2025-12-03: 63.61']</t>
+          <t>['2025-11-28: 135.29', '2025-12-01: 139.67', '2025-12-02: 141.46', '2025-12-03: 150.95', '2025-12-04: 153.51']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-26: 6,266,100', '2025-11-28: 3,755,000', '2025-12-01: 5,580,993', '2025-12-02: 11,954,031', '2025-12-03: 22,898,400']</t>
+          <t>['2025-11-28: 587,600', '2025-12-01: 2,628,400', '2025-12-02: 2,293,968', '2025-12-03: 4,491,272', '2025-12-04: 4,582,750']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>DG</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5168,87 +4996,87 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-26: 49.64', '2025-11-28: 50.24', '2025-12-01: 50.43', '2025-12-02: 51.48', '2025-12-03: 57.15']</t>
+          <t>['2025-11-28: 109.49', '2025-12-01: 109.34', '2025-12-02: 110.03', '2025-12-03: 109.89', '2025-12-04: 125.29']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-26: 8,294,569', '2025-11-28: 3,635,812', '2025-12-01: 6,458,900', '2025-12-02: 11,945,000', '2025-12-03: 13,559,200']</t>
+          <t>['2025-11-28: 1,380,407', '2025-12-01: 3,321,326', '2025-12-02: 3,563,100', '2025-12-03: 5,472,736', '2025-12-04: 14,137,619']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>EME</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-26: 193.76', '2025-11-28: 194.94', '2025-12-01: 199.49', '2025-12-02: 215.35', '2025-12-03: 227.56']</t>
+          <t>['2025-11-28: 615.07', '2025-12-01: 607.78', '2025-12-02: 606.37', '2025-12-03: 612.0', '2025-12-04: 635.36']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-26: 2,836,051', '2025-11-28: 1,654,132', '2025-12-01: 3,394,003', '2025-12-02: 6,160,000', '2025-12-03: 4,593,800']</t>
+          <t>['2025-11-28: 146,000', '2025-12-01: 273,811', '2025-12-02: 341,231', '2025-12-03: 355,175', '2025-12-04: 508,581']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ODFL</t>
+          <t>HOOD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-26: 134.91', '2025-11-28: 135.29', '2025-12-01: 139.67', '2025-12-02: 141.46', '2025-12-03: 150.95']</t>
+          <t>['2025-11-28: 128.49', '2025-12-01: 123.24', '2025-12-02: 125.95', '2025-12-03: 133.64', '2025-12-04: 137.08']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-26: 1,460,200', '2025-11-28: 587,600', '2025-12-01: 2,628,400', '2025-12-02: 2,293,965', '2025-12-03: 4,491,200']</t>
+          <t>['2025-11-28: 12,783,443', '2025-12-01: 31,467,300', '2025-12-02: 25,394,800', '2025-12-03: 25,004,525', '2025-12-04: 20,572,086']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>EXE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-26: 306.35', '2025-11-28: 311.84', '2025-12-01: 309.62', '2025-12-02: 317.94', '2025-12-03: 336.11']</t>
+          <t>['2025-11-28: 121.93', '2025-12-01: 121.58', '2025-12-02: 117.72', '2025-12-03: 122.89', '2025-12-04: 122.09']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-26: 1,396,721', '2025-11-28: 875,049', '2025-12-01: 1,741,191', '2025-12-02: 1,928,613', '2025-12-03: 2,677,068']</t>
+          <t>['2025-11-28: 1,378,700', '2025-12-01: 4,056,029', '2025-12-02: 3,405,900', '2025-12-03: 2,291,908', '2025-12-04: 3,180,778']</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5129,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>LYB</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5309,24 +5137,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-26: 53.57', '2025-11-28: 53.67', '2025-12-01: 53.1', '2025-12-02: 53.83', '2025-12-03: 48.42']</t>
+          <t>['2025-11-28: 48.99', '2025-12-01: 47.92', '2025-12-02: 47.78', '2025-12-03: 46.03', '2025-12-04: 43.16']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-26: 2,264,298', '2025-11-28: 1,046,532', '2025-12-01: 2,822,587', '2025-12-02: 2,103,528', '2025-12-03: 7,324,700']</t>
+          <t>['2025-11-28: 3,291,635', '2025-12-01: 6,359,088', '2025-12-02: 5,561,259', '2025-12-03: 7,141,444', '2025-12-04: 9,465,400']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MCK</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5339,44 +5167,44 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-26: 883.71', '2025-11-28: 881.12', '2025-12-01: 856.89', '2025-12-02: 829.7', '2025-12-03: 805.37']</t>
+          <t>['2025-11-28: 107.58', '2025-12-01: 109.13', '2025-12-02: 109.35', '2025-12-03: 103.96', '2025-12-04: 103.22']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-26: 617,072', '2025-11-28: 410,520', '2025-12-01: 832,087', '2025-12-02: 1,331,201', '2025-12-03: 1,477,300']</t>
+          <t>['2025-11-28: 15,021,609', '2025-12-01: 24,873,400', '2025-12-02: 25,763,000', '2025-12-03: 53,593,403', '2025-12-04: 51,722,100']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PSKY</t>
+          <t>WRB</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-26: 15.79', '2025-11-28: 16.02', '2025-12-01: 15.71', '2025-12-02: 15.82', '2025-12-03: 14.67']</t>
+          <t>['2025-11-28: 77.69', '2025-12-01: 72.98', '2025-12-02: 72.8', '2025-12-03: 71.65', '2025-12-04: 70.87']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-26: 6,666,200', '2025-11-28: 2,774,900', '2025-12-01: 4,571,600', '2025-12-02: 6,446,530', '2025-12-03: 9,593,100']</t>
+          <t>['2025-11-28: 629,906', '2025-12-01: 4,340,526', '2025-12-02: 4,044,507', '2025-12-03: 3,460,125', '2025-12-04: 5,683,951']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SNDK</t>
+          <t>ARE</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5384,24 +5212,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-26: 215.04', '2025-11-28: 223.28', '2025-12-01: 210.17', '2025-12-02: 205.35', '2025-12-03: 194.38']</t>
+          <t>['2025-11-28: 53.67', '2025-12-01: 53.1', '2025-12-02: 53.83', '2025-12-03: 48.42', '2025-12-04: 46.59']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-26: 43,000,900', '2025-11-28: 13,367,516', '2025-12-01: 10,280,917', '2025-12-02: 11,095,800', '2025-12-03: 9,830,800']</t>
+          <t>['2025-11-28: 1,046,532', '2025-12-01: 2,822,587', '2025-12-02: 2,103,528', '2025-12-03: 7,331,311', '2025-12-04: 4,963,387']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>REG</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5409,17 +5237,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-26: 16.01', '2025-11-28: 16.12', '2025-12-01: 15.84', '2025-12-02: 15.32', '2025-12-03: 15.23']</t>
+          <t>['2025-11-28: 71.16', '2025-12-01: 70.84', '2025-12-02: 70.03', '2025-12-03: 69.94', '2025-12-04: 69.07']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-26: 24,983,254', '2025-11-28: 6,710,700', '2025-12-01: 18,811,929', '2025-12-02: 25,697,300', '2025-12-03: 32,248,710']</t>
+          <t>['2025-11-28: 576,633', '2025-12-01: 882,621', '2025-12-02: 742,900', '2025-12-03: 762,910', '2025-12-04: 1,381,628']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4624,6 +4624,102 @@
         </is>
       </c>
       <c r="F131" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Barrington Research</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Market Perform</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Barrington Research</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -4703,34 +4799,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Arete Research</t>
+          <t>Redburn Partners</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>RBC Capital</t>
+          <t>Argus Research</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -4791,121 +4887,121 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-28: 3.55', '2025-12-01: 3.35', '2025-12-02: 3.56', '2025-12-03: 4.22', '2025-12-04: 4.59']</t>
+          <t>['2025-12-01: 3.35', '2025-12-02: 3.56', '2025-12-03: 4.22', '2025-12-04: 4.59', '2025-12-05: 4.46']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-28: 8,907,710', '2025-12-01: 10,671,000', '2025-12-02: 16,501,100', '2025-12-03: 87,911,300', '2025-12-04: 79,755,010']</t>
+          <t>['2025-12-01: 10,671,000', '2025-12-02: 16,501,100', '2025-12-03: 87,911,300', '2025-12-04: 79,755,010', '2025-12-05: 47,153,181']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>GUTS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-28: 2.73', '2025-12-01: 2.65', '2025-12-02: 2.7', '2025-12-03: 2.83', '2025-12-04: 3.04']</t>
+          <t>['2025-12-01: 1.56', '2025-12-02: 1.84', '2025-12-03: 1.92', '2025-12-04: 1.98', '2025-12-05: 2.04']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-28: 1,455,223', '2025-12-01: 1,530,000', '2025-12-02: 1,824,700', '2025-12-03: 2,266,900', '2025-12-04: 3,260,671']</t>
+          <t>['2025-12-01: 2,939,338', '2025-12-02: 11,879,113', '2025-12-03: 7,789,000', '2025-12-04: 3,811,814', '2025-12-05: 4,507,705']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>XCH</t>
+          <t>FKINX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-28: 1.07', '2025-12-01: 1.02', '2025-12-02: 1.09', '2025-12-03: 1.13', '2025-12-04: 1.38']</t>
+          <t>['2025-12-01: 2.47', '2025-12-02: 2.47', '2025-12-03: 2.49', '2025-12-04: 2.49', '2025-12-05: 2.49']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-28: 10,800', '2025-12-01: 20,500', '2025-12-02: 25,500', '2025-12-03: 19,200', '2025-12-04: 585,374']</t>
+          <t>['2025-12-01: 0', '2025-12-02: 0', '2025-12-03: 0', '2025-12-04: 0', '2025-12-05: 0']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CRMLW</t>
+          <t>FNCFX</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-28: 3.45', '2025-12-01: 3.14', '2025-12-02: 3.64', '2025-12-03: 3.9', '2025-12-04: 4.76']</t>
+          <t>['2025-12-01: 2.46', '2025-12-02: 2.46', '2025-12-03: 2.48', '2025-12-04: 2.47', '2025-12-05: 2.48']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-28: 42,664', '2025-12-01: 44,289', '2025-12-02: 84,089', '2025-12-03: 89,020', '2025-12-04: 246,598']</t>
+          <t>['2025-12-01: 0', '2025-12-02: 0', '2025-12-03: 0', '2025-12-04: 0', '2025-12-05: 0']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BGIN</t>
+          <t>FRIAX</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-28: 2.9', '2025-12-01: 2.78', '2025-12-02: 2.76', '2025-12-03: 2.69', '2025-12-04: 3.05']</t>
+          <t>['2025-12-01: 2.45', '2025-12-02: 2.45', '2025-12-03: 2.46', '2025-12-04: 2.46', '2025-12-05: 2.46']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-28: 14,300', '2025-12-01: 34,548', '2025-12-02: 15,110', '2025-12-03: 22,100', '2025-12-04: 47,126']</t>
+          <t>['2025-12-01: 0', '2025-12-02: 0', '2025-12-03: 0', '2025-12-04: 0', '2025-12-05: 0']</t>
         </is>
       </c>
     </row>
@@ -4958,7 +5054,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ODFL</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4966,24 +5062,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-28: 135.29', '2025-12-01: 139.67', '2025-12-02: 141.46', '2025-12-03: 150.95', '2025-12-04: 153.51']</t>
+          <t>['2025-12-01: 23.87', '2025-12-02: 24.53', '2025-12-03: 24.57', '2025-12-04: 24.54', '2025-12-05: 26.08']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-28: 587,600', '2025-12-01: 2,628,400', '2025-12-02: 2,293,968', '2025-12-03: 4,491,272', '2025-12-04: 4,582,750']</t>
+          <t>['2025-12-01: 36,016,923', '2025-12-02: 46,583,800', '2025-12-03: 22,786,511', '2025-12-04: 38,315,608', '2025-12-05: 198,872,335']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>MRNA</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4996,87 +5092,87 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-11-28: 109.49', '2025-12-01: 109.34', '2025-12-02: 110.03', '2025-12-03: 109.89', '2025-12-04: 125.29']</t>
+          <t>['2025-12-01: 24.16', '2025-12-02: 24.06', '2025-12-03: 25.18', '2025-12-04: 25.49', '2025-12-05: 27.7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-11-28: 1,380,407', '2025-12-01: 3,321,326', '2025-12-02: 3,563,100', '2025-12-03: 5,472,736', '2025-12-04: 14,137,619']</t>
+          <t>['2025-12-01: 9,609,000', '2025-12-02: 10,350,500', '2025-12-03: 7,780,025', '2025-12-04: 8,531,802', '2025-12-05: 16,532,117']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EME</t>
+          <t>CRM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-11-28: 615.07', '2025-12-01: 607.78', '2025-12-02: 606.37', '2025-12-03: 612.0', '2025-12-04: 635.36']</t>
+          <t>['2025-12-01: 232.83', '2025-12-02: 234.71', '2025-12-03: 238.72', '2025-12-04: 247.46', '2025-12-05: 260.57']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-11-28: 146,000', '2025-12-01: 273,811', '2025-12-02: 341,231', '2025-12-03: 355,175', '2025-12-04: 508,581']</t>
+          <t>['2025-12-01: 5,634,700', '2025-12-02: 7,626,200', '2025-12-03: 13,782,000', '2025-12-04: 20,912,133', '2025-12-05: 15,852,440']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>ADBE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-11-28: 128.49', '2025-12-01: 123.24', '2025-12-02: 125.95', '2025-12-03: 133.64', '2025-12-04: 137.08']</t>
+          <t>['2025-12-01: 322.85', '2025-12-02: 322.81', '2025-12-03: 326.78', '2025-12-04: 328.73', '2025-12-05: 346.26']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-11-28: 12,783,443', '2025-12-01: 31,467,300', '2025-12-02: 25,394,800', '2025-12-03: 25,004,525', '2025-12-04: 20,572,086']</t>
+          <t>['2025-12-01: 3,651,321', '2025-12-02: 3,959,502', '2025-12-03: 3,082,200', '2025-12-04: 3,592,313', '2025-12-05: 7,650,368']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EXE</t>
+          <t>LUV</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-11-28: 121.93', '2025-12-01: 121.58', '2025-12-02: 117.72', '2025-12-03: 122.89', '2025-12-04: 122.09']</t>
+          <t>['2025-12-01: 34.77', '2025-12-02: 35.43', '2025-12-03: 35.68', '2025-12-04: 35.81', '2025-12-05: 37.85']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-11-28: 1,378,700', '2025-12-01: 4,056,029', '2025-12-02: 3,405,900', '2025-12-03: 2,291,908', '2025-12-04: 3,180,778']</t>
+          <t>['2025-12-01: 6,694,216', '2025-12-02: 7,239,024', '2025-12-03: 6,539,674', '2025-12-04: 10,861,412', '2025-12-05: 15,212,320']</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5129,125 +5225,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LYB</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-11-28: 48.99', '2025-12-01: 47.92', '2025-12-02: 47.78', '2025-12-03: 46.03', '2025-12-04: 43.16']</t>
+          <t>['2025-12-01: 157.9', '2025-12-02: 156.48', '2025-12-03: 155.83', '2025-12-04: 153.0', '2025-12-05: 151.41']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-11-28: 3,291,635', '2025-12-01: 6,359,088', '2025-12-02: 5,561,259', '2025-12-03: 7,141,444', '2025-12-04: 9,465,400']</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>NFLX</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>['2025-11-28: 107.58', '2025-12-01: 109.13', '2025-12-02: 109.35', '2025-12-03: 103.96', '2025-12-04: 103.22']</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>['2025-11-28: 15,021,609', '2025-12-01: 24,873,400', '2025-12-02: 25,763,000', '2025-12-03: 53,593,403', '2025-12-04: 51,722,100']</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>WRB</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>['2025-11-28: 77.69', '2025-12-01: 72.98', '2025-12-02: 72.8', '2025-12-03: 71.65', '2025-12-04: 70.87']</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>['2025-11-28: 629,906', '2025-12-01: 4,340,526', '2025-12-02: 4,044,507', '2025-12-03: 3,460,125', '2025-12-04: 5,683,951']</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ARE</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>['2025-11-28: 53.67', '2025-12-01: 53.1', '2025-12-02: 53.83', '2025-12-03: 48.42', '2025-12-04: 46.59']</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>['2025-11-28: 1,046,532', '2025-12-01: 2,822,587', '2025-12-02: 2,103,528', '2025-12-03: 7,331,311', '2025-12-04: 4,963,387']</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>REG</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>['2025-11-28: 71.16', '2025-12-01: 70.84', '2025-12-02: 70.03', '2025-12-03: 69.94', '2025-12-04: 69.07']</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>['2025-11-28: 576,633', '2025-12-01: 882,621', '2025-12-02: 742,900', '2025-12-03: 762,910', '2025-12-04: 1,381,628']</t>
+          <t>['2025-12-01: 3,577,203', '2025-12-02: 5,757,700', '2025-12-03: 3,728,900', '2025-12-04: 3,657,934', '2025-12-05: 6,441,190']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4720,6 +4720,198 @@
         </is>
       </c>
       <c r="F134" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>GNRC</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>JP Morgan</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>GNRC</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Citigroup</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>GNRC</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Barclays</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Mizuho</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Stifel</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -4736,7 +4928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4799,38 +4991,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>GNRC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Barclays</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>197</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Redburn Partners</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>28</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-10-28</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Argus Research</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Raised</t>
+          <t>Lowered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-12-07</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Andrew Percoco</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>425</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Vijay Rakesh</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mizuho Securities</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>475</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Lowered</t>
         </is>
       </c>
     </row>
@@ -4883,125 +5123,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>GUTS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-01: 3.35', '2025-12-02: 3.56', '2025-12-03: 4.22', '2025-12-04: 4.59', '2025-12-05: 4.46']</t>
+          <t>['2025-12-02: 1.84', '2025-12-03: 1.92', '2025-12-04: 1.98', '2025-12-05: 2.04', '2025-12-08: 2.23']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-01: 10,671,000', '2025-12-02: 16,501,100', '2025-12-03: 87,911,300', '2025-12-04: 79,755,010', '2025-12-05: 47,153,181']</t>
+          <t>['2025-12-02: 11,879,113', '2025-12-03: 7,789,000', '2025-12-04: 3,811,814', '2025-12-05: 4,507,705', '2025-12-08: 9,639,273']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GUTS</t>
+          <t>HPAI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-01: 1.56', '2025-12-02: 1.84', '2025-12-03: 1.92', '2025-12-04: 1.98', '2025-12-05: 2.04']</t>
+          <t>['2025-12-02: 3.81', '2025-12-03: 3.79', '2025-12-04: 3.85', '2025-12-05: 3.64', '2025-12-08: 3.9']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-01: 2,939,338', '2025-12-02: 11,879,113', '2025-12-03: 7,789,000', '2025-12-04: 3,811,814', '2025-12-05: 4,507,705']</t>
+          <t>['2025-12-02: 10,200', '2025-12-03: 7,400', '2025-12-04: 6,500', '2025-12-05: 8,127', '2025-12-08: 15,224']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FKINX</t>
+          <t>CRMLW</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-01: 2.47', '2025-12-02: 2.47', '2025-12-03: 2.49', '2025-12-04: 2.49', '2025-12-05: 2.49']</t>
+          <t>['2025-12-02: 3.64', '2025-12-03: 3.9', '2025-12-04: 4.76', '2025-12-05: 5.15', '2025-12-08: 5.0']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-01: 0', '2025-12-02: 0', '2025-12-03: 0', '2025-12-04: 0', '2025-12-05: 0']</t>
+          <t>['2025-12-02: 84,089', '2025-12-03: 89,020', '2025-12-04: 246,598', '2025-12-05: 219,070', '2025-12-08: 92,290']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FNCFX</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-01: 2.46', '2025-12-02: 2.46', '2025-12-03: 2.48', '2025-12-04: 2.47', '2025-12-05: 2.48']</t>
+          <t>['2025-12-02: 4.18', '2025-12-03: 4.46', '2025-12-04: 4.54', '2025-12-05: 4.67', '2025-12-08: 4.77']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-01: 0', '2025-12-02: 0', '2025-12-03: 0', '2025-12-04: 0', '2025-12-05: 0']</t>
+          <t>['2025-12-02: 81,501', '2025-12-03: 104,637', '2025-12-04: 53,535', '2025-12-05: 81,100', '2025-12-08: 201,844']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FRIAX</t>
+          <t>MRNO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-01: 2.45', '2025-12-02: 2.45', '2025-12-03: 2.46', '2025-12-04: 2.46', '2025-12-05: 2.46']</t>
+          <t>['2025-12-02: 1.88', '2025-12-03: 1.8', '2025-12-04: 1.8', '2025-12-05: 1.66', '2025-12-08: 1.95']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-01: 0', '2025-12-02: 0', '2025-12-03: 0', '2025-12-04: 0', '2025-12-05: 0']</t>
+          <t>['2025-12-02: 18,717', '2025-12-03: 31,167', '2025-12-04: 4,500', '2025-12-05: 33,800', '2025-12-08: 876,405']</t>
         </is>
       </c>
     </row>
@@ -5062,117 +5302,117 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-01: 23.87', '2025-12-02: 24.53', '2025-12-03: 24.57', '2025-12-04: 24.54', '2025-12-05: 26.08']</t>
+          <t>['2025-12-02: 24.53', '2025-12-03: 24.57', '2025-12-04: 24.54', '2025-12-05: 26.08', '2025-12-08: 27.23']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-01: 36,016,923', '2025-12-02: 46,583,800', '2025-12-03: 22,786,511', '2025-12-04: 38,315,608', '2025-12-05: 198,872,335']</t>
+          <t>['2025-12-02: 46,583,800', '2025-12-03: 22,786,511', '2025-12-04: 38,315,608', '2025-12-05: 198,872,335', '2025-12-08: 167,058,181']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MRNA</t>
+          <t>DECK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-01: 24.16', '2025-12-02: 24.06', '2025-12-03: 25.18', '2025-12-04: 25.49', '2025-12-05: 27.7']</t>
+          <t>['2025-12-02: 91.77', '2025-12-03: 94.97', '2025-12-04: 96.25', '2025-12-05: 99.7', '2025-12-08: 101.21']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-01: 9,609,000', '2025-12-02: 10,350,500', '2025-12-03: 7,780,025', '2025-12-04: 8,531,802', '2025-12-05: 16,532,117']</t>
+          <t>['2025-12-02: 3,246,246', '2025-12-03: 3,760,541', '2025-12-04: 3,311,500', '2025-12-05: 4,560,830', '2025-12-08: 4,306,173']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>GEHC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-01: 232.83', '2025-12-02: 234.71', '2025-12-03: 238.72', '2025-12-04: 247.46', '2025-12-05: 260.57']</t>
+          <t>['2025-12-02: 80.22', '2025-12-03: 83.59', '2025-12-04: 82.52', '2025-12-05: 85.46', '2025-12-08: 83.09']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-01: 5,634,700', '2025-12-02: 7,626,200', '2025-12-03: 13,782,000', '2025-12-04: 20,912,133', '2025-12-05: 15,852,440']</t>
+          <t>['2025-12-02: 2,367,919', '2025-12-03: 5,253,942', '2025-12-04: 3,321,365', '2025-12-05: 4,439,631', '2025-12-08: 4,234,056']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>FDS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-01: 322.85', '2025-12-02: 322.81', '2025-12-03: 326.78', '2025-12-04: 328.73', '2025-12-05: 346.26']</t>
+          <t>['2025-12-02: 278.28', '2025-12-03: 279.15', '2025-12-04: 278.92', '2025-12-05: 290.63', '2025-12-08: 286.89']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-01: 3,651,321', '2025-12-02: 3,959,502', '2025-12-03: 3,082,200', '2025-12-04: 3,592,313', '2025-12-05: 7,650,368']</t>
+          <t>['2025-12-02: 615,800', '2025-12-03: 496,953', '2025-12-04: 352,232', '2025-12-05: 1,489,423', '2025-12-08: 870,339']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LUV</t>
+          <t>MRNA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-01: 34.77', '2025-12-02: 35.43', '2025-12-03: 35.68', '2025-12-04: 35.81', '2025-12-05: 37.85']</t>
+          <t>['2025-12-02: 24.06', '2025-12-03: 25.18', '2025-12-04: 25.49', '2025-12-05: 27.7', '2025-12-08: 27.97']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-01: 6,694,216', '2025-12-02: 7,239,024', '2025-12-03: 6,539,674', '2025-12-04: 10,861,412', '2025-12-05: 15,212,320']</t>
+          <t>['2025-12-02: 10,350,500', '2025-12-03: 7,780,025', '2025-12-04: 8,531,802', '2025-12-05: 16,532,117', '2025-12-08: 10,972,985']</t>
         </is>
       </c>
     </row>
@@ -5187,7 +5427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5225,25 +5465,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>INCY</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-01: 157.9', '2025-12-02: 156.48', '2025-12-03: 155.83', '2025-12-04: 153.0', '2025-12-05: 151.41']</t>
+          <t>['2025-12-02: 101.44', '2025-12-03: 101.5', '2025-12-04: 100.46', '2025-12-05: 102.52', '2025-12-08: 96.7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-01: 3,577,203', '2025-12-02: 5,757,700', '2025-12-03: 3,728,900', '2025-12-04: 3,657,934', '2025-12-05: 6,441,190']</t>
+          <t>['2025-12-02: 2,438,855', '2025-12-03: 1,874,701', '2025-12-04: 2,088,653', '2025-12-05: 2,357,052', '2025-12-08: 3,868,756']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>APD</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['2025-12-02: 256.77', '2025-12-03: 260.35', '2025-12-04: 261.62', '2025-12-05: 260.69', '2025-12-08: 236.05']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['2025-12-02: 1,044,506', '2025-12-03: 1,465,400', '2025-12-04: 1,354,139', '2025-12-05: 1,315,574', '2025-12-08: 4,138,237']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['2025-12-02: 117.72', '2025-12-03: 122.89', '2025-12-04: 122.09', '2025-12-05: 122.86', '2025-12-08: 119.07']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['2025-12-02: 3,405,900', '2025-12-03: 2,291,908', '2025-12-04: 3,180,800', '2025-12-05: 3,725,100', '2025-12-08: 5,403,537']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ERIE</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['2025-12-02: 295.95', '2025-12-03: 296.21', '2025-12-04: 299.78', '2025-12-05: 296.46', '2025-12-08: 280.81']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['2025-12-02: 134,608', '2025-12-03: 86,448', '2025-12-04: 101,010', '2025-12-05: 95,518', '2025-12-08: 172,286']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>VST</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['2025-12-02: 172.55', '2025-12-03: 171.65', '2025-12-04: 176.07', '2025-12-05: 167.17', '2025-12-08: 166.12']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['2025-12-02: 3,029,200', '2025-12-03: 2,492,646', '2025-12-04: 3,408,700', '2025-12-05: 4,524,300', '2025-12-08: 4,230,236']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4912,6 +4912,102 @@
         </is>
       </c>
       <c r="F140" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>JP Morgan</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Citigroup</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -4928,7 +5024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5071,6 +5167,49 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>Lowered</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>190</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Fadi Chamoun</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>BMO Capital</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>170</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Raised</t>
         </is>
       </c>
     </row>
@@ -5123,125 +5262,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GUTS</t>
+          <t>CAMP</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-02: 1.84', '2025-12-03: 1.92', '2025-12-04: 1.98', '2025-12-05: 2.04', '2025-12-08: 2.23']</t>
+          <t>['2025-12-03: 3.25', '2025-12-04: 3.39', '2025-12-05: 3.25', '2025-12-08: 3.65', '2025-12-09: 4.6']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-02: 11,879,113', '2025-12-03: 7,789,000', '2025-12-04: 3,811,814', '2025-12-05: 4,507,705', '2025-12-08: 9,639,273']</t>
+          <t>['2025-12-03: 56,836', '2025-12-04: 52,700', '2025-12-05: 67,500', '2025-12-08: 165,117', '2025-12-09: 212,598']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HPAI</t>
+          <t>GUTS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-02: 3.81', '2025-12-03: 3.79', '2025-12-04: 3.85', '2025-12-05: 3.64', '2025-12-08: 3.9']</t>
+          <t>['2025-12-03: 1.92', '2025-12-04: 1.98', '2025-12-05: 2.04', '2025-12-08: 2.23', '2025-12-09: 2.29']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-02: 10,200', '2025-12-03: 7,400', '2025-12-04: 6,500', '2025-12-05: 8,127', '2025-12-08: 15,224']</t>
+          <t>['2025-12-03: 7,789,000', '2025-12-04: 3,811,814', '2025-12-05: 4,507,705', '2025-12-08: 9,639,300', '2025-12-09: 4,534,540']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CRMLW</t>
+          <t>ABAT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-02: 3.64', '2025-12-03: 3.9', '2025-12-04: 4.76', '2025-12-05: 5.15', '2025-12-08: 5.0']</t>
+          <t>['2025-12-03: 3.75', '2025-12-04: 4.19', '2025-12-05: 4.15', '2025-12-08: 4.23', '2025-12-09: 4.25']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-02: 84,089', '2025-12-03: 89,020', '2025-12-04: 246,598', '2025-12-05: 219,070', '2025-12-08: 92,290']</t>
+          <t>['2025-12-03: 3,442,100', '2025-12-04: 5,953,700', '2025-12-05: 6,105,600', '2025-12-08: 5,707,500', '2025-12-09: 5,812,500']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>WAMVX</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-02: 4.18', '2025-12-03: 4.46', '2025-12-04: 4.54', '2025-12-05: 4.67', '2025-12-08: 4.77']</t>
+          <t>['2025-12-03: 4.52', '2025-12-04: 4.57', '2025-12-05: 4.57', '2025-12-08: 4.55', '2025-12-09: 4.57']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-02: 81,501', '2025-12-03: 104,637', '2025-12-04: 53,535', '2025-12-05: 81,100', '2025-12-08: 201,844']</t>
+          <t>['2025-12-03: 0', '2025-12-04: 0', '2025-12-05: 0', '2025-12-08: 0', '2025-12-09: 0']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MRNO</t>
+          <t>EGHT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-02: 1.88', '2025-12-03: 1.8', '2025-12-04: 1.8', '2025-12-05: 1.66', '2025-12-08: 1.95']</t>
+          <t>['2025-12-03: 2.04', '2025-12-04: 2.03', '2025-12-05: 2.03', '2025-12-08: 2.04', '2025-12-09: 2.12']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-02: 18,717', '2025-12-03: 31,167', '2025-12-04: 4,500', '2025-12-05: 33,800', '2025-12-08: 876,405']</t>
+          <t>['2025-12-03: 564,800', '2025-12-04: 413,200', '2025-12-05: 368,310', '2025-12-08: 371,107', '2025-12-09: 479,623']</t>
         </is>
       </c>
     </row>
@@ -5294,32 +5433,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-02: 24.53', '2025-12-03: 24.57', '2025-12-04: 24.54', '2025-12-05: 26.08', '2025-12-08: 27.23']</t>
+          <t>['2025-12-03: 662.21', '2025-12-04: 683.78', '2025-12-05: 691.94', '2025-12-08: 689.76', '2025-12-09: 724.62']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-02: 46,583,800', '2025-12-03: 22,786,511', '2025-12-04: 38,315,608', '2025-12-05: 198,872,335', '2025-12-08: 167,058,181']</t>
+          <t>['2025-12-03: 3,000,700', '2025-12-04: 4,972,000', '2025-12-05: 3,520,410', '2025-12-08: 3,008,400', '2025-12-09: 3,938,639']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DECK</t>
+          <t>HOOD</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5332,19 +5471,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-02: 91.77', '2025-12-03: 94.97', '2025-12-04: 96.25', '2025-12-05: 99.7', '2025-12-08: 101.21']</t>
+          <t>['2025-12-03: 133.64', '2025-12-04: 137.08', '2025-12-05: 131.95', '2025-12-08: 136.43', '2025-12-09: 135.71']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-02: 3,246,246', '2025-12-03: 3,760,541', '2025-12-04: 3,311,500', '2025-12-05: 4,560,830', '2025-12-08: 4,306,173']</t>
+          <t>['2025-12-03: 25,004,525', '2025-12-04: 20,572,100', '2025-12-05: 23,123,000', '2025-12-08: 22,593,100', '2025-12-09: 18,948,210']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>KKR</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5352,24 +5491,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-02: 80.22', '2025-12-03: 83.59', '2025-12-04: 82.52', '2025-12-05: 85.46', '2025-12-08: 83.09']</t>
+          <t>['2025-12-03: 126.48', '2025-12-04: 128.43', '2025-12-05: 129.42', '2025-12-08: 130.24', '2025-12-09: 135.78']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-02: 2,367,919', '2025-12-03: 5,253,942', '2025-12-04: 3,321,365', '2025-12-05: 4,439,631', '2025-12-08: 4,234,056']</t>
+          <t>['2025-12-03: 3,084,181', '2025-12-04: 2,872,826', '2025-12-05: 2,839,933', '2025-12-08: 4,116,441', '2025-12-09: 5,774,992']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5377,24 +5516,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-02: 278.28', '2025-12-03: 279.15', '2025-12-04: 278.92', '2025-12-05: 290.63', '2025-12-08: 286.89']</t>
+          <t>['2025-12-03: 151.52', '2025-12-04: 151.39', '2025-12-05: 152.15', '2025-12-08: 151.37', '2025-12-09: 156.02']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-02: 615,800', '2025-12-03: 496,953', '2025-12-04: 352,232', '2025-12-05: 1,489,423', '2025-12-08: 870,339']</t>
+          <t>['2025-12-03: 3,678,230', '2025-12-04: 3,572,144', '2025-12-05: 2,903,400', '2025-12-08: 2,996,432', '2025-12-09: 6,539,976']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MRNA</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5407,12 +5546,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-02: 24.06', '2025-12-03: 25.18', '2025-12-04: 25.49', '2025-12-05: 27.7', '2025-12-08: 27.97']</t>
+          <t>['2025-12-03: 24.57', '2025-12-04: 24.54', '2025-12-05: 26.08', '2025-12-08: 27.23', '2025-12-09: 28.26']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-02: 10,350,500', '2025-12-03: 7,780,025', '2025-12-04: 8,531,802', '2025-12-05: 16,532,117', '2025-12-08: 10,972,985']</t>
+          <t>['2025-12-03: 22,786,511', '2025-12-04: 38,315,608', '2025-12-05: 198,872,335', '2025-12-08: 167,058,200', '2025-12-09: 106,789,445']</t>
         </is>
       </c>
     </row>
@@ -5465,7 +5604,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>AZO</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5478,19 +5617,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-02: 101.44', '2025-12-03: 101.5', '2025-12-04: 100.46', '2025-12-05: 102.52', '2025-12-08: 96.7']</t>
+          <t>['2025-12-03: 3822.92', '2025-12-04: 3840.5', '2025-12-05: 3822.66', '2025-12-08: 3766.96', '2025-12-09: 3496.77']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-02: 2,438,855', '2025-12-03: 1,874,701', '2025-12-04: 2,088,653', '2025-12-05: 2,357,052', '2025-12-08: 3,868,756']</t>
+          <t>['2025-12-03: 115,028', '2025-12-04: 110,016', '2025-12-05: 116,124', '2025-12-08: 229,316', '2025-12-09: 380,104']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>APD</t>
+          <t>CPB</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5503,12 +5642,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-02: 256.77', '2025-12-03: 260.35', '2025-12-04: 261.62', '2025-12-05: 260.69', '2025-12-08: 236.05']</t>
+          <t>['2025-12-03: 29.84', '2025-12-04: 29.36', '2025-12-05: 29.6', '2025-12-08: 30.04', '2025-12-09: 28.47']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-02: 1,044,506', '2025-12-03: 1,465,400', '2025-12-04: 1,354,139', '2025-12-05: 1,315,574', '2025-12-08: 4,138,237']</t>
+          <t>['2025-12-03: 4,325,448', '2025-12-04: 7,754,244', '2025-12-05: 7,590,500', '2025-12-08: 13,030,100', '2025-12-09: 18,639,317']</t>
         </is>
       </c>
     </row>
@@ -5523,17 +5662,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-02: 117.72', '2025-12-03: 122.89', '2025-12-04: 122.09', '2025-12-05: 122.86', '2025-12-08: 119.07']</t>
+          <t>['2025-12-03: 122.89', '2025-12-04: 122.09', '2025-12-05: 122.86', '2025-12-08: 119.07', '2025-12-09: 117.46']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-02: 3,405,900', '2025-12-03: 2,291,908', '2025-12-04: 3,180,800', '2025-12-05: 3,725,100', '2025-12-08: 5,403,537']</t>
+          <t>['2025-12-03: 2,291,908', '2025-12-04: 3,180,800', '2025-12-05: 3,725,100', '2025-12-08: 5,403,537', '2025-12-09: 3,297,337']</t>
         </is>
       </c>
     </row>
@@ -5548,24 +5687,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-02: 295.95', '2025-12-03: 296.21', '2025-12-04: 299.78', '2025-12-05: 296.46', '2025-12-08: 280.81']</t>
+          <t>['2025-12-03: 296.21', '2025-12-04: 299.78', '2025-12-05: 296.46', '2025-12-08: 280.81', '2025-12-09: 277.4']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-02: 134,608', '2025-12-03: 86,448', '2025-12-04: 101,010', '2025-12-05: 95,518', '2025-12-08: 172,286']</t>
+          <t>['2025-12-03: 86,448', '2025-12-04: 101,010', '2025-12-05: 95,518', '2025-12-08: 172,300', '2025-12-09: 147,300']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5578,12 +5717,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-02: 172.55', '2025-12-03: 171.65', '2025-12-04: 176.07', '2025-12-05: 167.17', '2025-12-08: 166.12']</t>
+          <t>['2025-12-03: 61.17', '2025-12-04: 60.07', '2025-12-05: 60.68', '2025-12-08: 58.66', '2025-12-09: 58.52']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-02: 3,029,200', '2025-12-03: 2,492,646', '2025-12-04: 3,408,700', '2025-12-05: 4,524,300', '2025-12-08: 4,230,236']</t>
+          <t>['2025-12-03: 9,413,909', '2025-12-04: 11,361,800', '2025-12-05: 9,006,800', '2025-12-08: 9,770,215', '2025-12-09: 6,050,836']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5008,6 +5008,198 @@
         </is>
       </c>
       <c r="F143" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Freedom Capital Markets</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Goldman Sachs</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Citigroup</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>VLTO</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Jefferies</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>VLTO</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>BMO Capital</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>VLTO</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -5024,7 +5216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5087,34 +5279,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GNRC</t>
+          <t>CRWD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Almas Almaganbetov</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Barclays</t>
+          <t>Loop Capital Markets</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>197</v>
+        <v>550</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Gabriela Borges</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>Goldman Sachs</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>215</v>
+        <v>564</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -5125,91 +5327,38 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>VLTO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Andrew Percoco</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Morgan Stanley</t>
+          <t>Jefferies</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>425</v>
+        <v>105</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>2025-11-25</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Vijay Rakesh</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Mizuho Securities</t>
+          <t>BMO Capital</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>475</v>
+        <v>114</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Lowered</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ODFL</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-08</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Morgan Stanley</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>190</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Fadi Chamoun</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>BMO Capital</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>170</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Raised</t>
         </is>
       </c>
     </row>
@@ -5262,7 +5411,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CAMP</t>
+          <t>ABVE</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5275,19 +5424,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-03: 3.25', '2025-12-04: 3.39', '2025-12-05: 3.25', '2025-12-08: 3.65', '2025-12-09: 4.6']</t>
+          <t>['2025-12-05: 2.76', '2025-12-08: 2.61', '2025-12-09: 2.58', '2025-12-10: 2.9', '2025-12-11: 3.09']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-03: 56,836', '2025-12-04: 52,700', '2025-12-05: 67,500', '2025-12-08: 165,117', '2025-12-09: 212,598']</t>
+          <t>['2025-12-05: 1,100,200', '2025-12-08: 1,101,800', '2025-12-09: 625,900', '2025-12-10: 1,434,900', '2025-12-11: 2,701,900']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GUTS</t>
+          <t>RR</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5295,17 +5444,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-03: 1.92', '2025-12-04: 1.98', '2025-12-05: 2.04', '2025-12-08: 2.23', '2025-12-09: 2.29']</t>
+          <t>['2025-12-05: 4.46', '2025-12-08: 4.38', '2025-12-09: 4.34', '2025-12-10: 4.15', '2025-12-11: 4.68']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-03: 7,789,000', '2025-12-04: 3,811,814', '2025-12-05: 4,507,705', '2025-12-08: 9,639,300', '2025-12-09: 4,534,540']</t>
+          <t>['2025-12-05: 47,153,200', '2025-12-08: 34,746,142', '2025-12-09: 24,467,745', '2025-12-10: 26,310,238', '2025-12-11: 41,434,674']</t>
         </is>
       </c>
     </row>
@@ -5316,71 +5465,71 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-03: 3.75', '2025-12-04: 4.19', '2025-12-05: 4.15', '2025-12-08: 4.23', '2025-12-09: 4.25']</t>
+          <t>['2025-12-05: 4.15', '2025-12-08: 4.23', '2025-12-09: 4.25', '2025-12-10: 4.01', '2025-12-11: 4.27']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-03: 3,442,100', '2025-12-04: 5,953,700', '2025-12-05: 6,105,600', '2025-12-08: 5,707,500', '2025-12-09: 5,812,500']</t>
+          <t>['2025-12-05: 6,105,600', '2025-12-08: 5,707,500', '2025-12-09: 5,822,400', '2025-12-10: 5,547,900', '2025-12-11: 5,087,200']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WAMVX</t>
+          <t>EGHT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-03: 4.52', '2025-12-04: 4.57', '2025-12-05: 4.57', '2025-12-08: 4.55', '2025-12-09: 4.57']</t>
+          <t>['2025-12-05: 2.03', '2025-12-08: 2.04', '2025-12-09: 2.12', '2025-12-10: 2.16', '2025-12-11: 2.16']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-03: 0', '2025-12-04: 0', '2025-12-05: 0', '2025-12-08: 0', '2025-12-09: 0']</t>
+          <t>['2025-12-05: 368,310', '2025-12-08: 371,107', '2025-12-09: 479,623', '2025-12-10: 791,101', '2025-12-11: 1,384,032']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EGHT</t>
+          <t>SVCO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-03: 2.04', '2025-12-04: 2.03', '2025-12-05: 2.03', '2025-12-08: 2.04', '2025-12-09: 2.12']</t>
+          <t>['2025-12-05: 4.02', '2025-12-08: 3.83', '2025-12-09: 4.04', '2025-12-10: 4.2', '2025-12-11: 4.4']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-03: 564,800', '2025-12-04: 413,200', '2025-12-05: 368,310', '2025-12-08: 371,107', '2025-12-09: 479,623']</t>
+          <t>['2025-12-05: 272,800', '2025-12-08: 437,700', '2025-12-09: 365,500', '2025-12-10: 357,100', '2025-12-11: 161,600']</t>
         </is>
       </c>
     </row>
@@ -5433,125 +5582,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-03: 662.21', '2025-12-04: 683.78', '2025-12-05: 691.94', '2025-12-08: 689.76', '2025-12-09: 724.62']</t>
+          <t>['2025-12-05: 257.66', '2025-12-08: 252.41', '2025-12-09: 248.32', '2025-12-10: 260.38', '2025-12-11: 279.7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-03: 3,000,700', '2025-12-04: 4,972,000', '2025-12-05: 3,520,410', '2025-12-08: 3,008,400', '2025-12-09: 3,938,639']</t>
+          <t>['2025-12-05: 2,389,916', '2025-12-08: 2,840,139', '2025-12-09: 2,055,404', '2025-12-10: 2,952,822', '2025-12-11: 4,466,525']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>ELV</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-03: 133.64', '2025-12-04: 137.08', '2025-12-05: 131.95', '2025-12-08: 136.43', '2025-12-09: 135.71']</t>
+          <t>['2025-12-05: 330.75', '2025-12-08: 330.61', '2025-12-09: 329.81', '2025-12-10: 341.04', '2025-12-11: 360.22']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-03: 25,004,525', '2025-12-04: 20,572,100', '2025-12-05: 23,123,000', '2025-12-08: 22,593,100', '2025-12-09: 18,948,210']</t>
+          <t>['2025-12-05: 1,324,214', '2025-12-08: 1,765,500', '2025-12-09: 1,296,200', '2025-12-10: 1,318,184', '2025-12-11: 2,990,681']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>MOS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-03: 126.48', '2025-12-04: 128.43', '2025-12-05: 129.42', '2025-12-08: 130.24', '2025-12-09: 135.78']</t>
+          <t>['2025-12-05: 23.61', '2025-12-08: 23.64', '2025-12-09: 23.81', '2025-12-10: 23.75', '2025-12-11: 25.19']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-03: 3,084,181', '2025-12-04: 2,872,826', '2025-12-05: 2,839,933', '2025-12-08: 4,116,441', '2025-12-09: 5,774,992']</t>
+          <t>['2025-12-05: 7,299,407', '2025-12-08: 9,176,824', '2025-12-09: 6,688,800', '2025-12-10: 7,369,309', '2025-12-11: 14,195,777']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-03: 151.52', '2025-12-04: 151.39', '2025-12-05: 152.15', '2025-12-08: 151.37', '2025-12-09: 156.02']</t>
+          <t>['2025-12-05: 331.24', '2025-12-08: 326.84', '2025-12-09: 326.5', '2025-12-10: 325.73', '2025-12-11: 345.63']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-03: 3,678,230', '2025-12-04: 3,572,144', '2025-12-05: 2,903,400', '2025-12-08: 2,996,432', '2025-12-09: 6,539,976']</t>
+          <t>['2025-12-05: 5,266,948', '2025-12-08: 6,059,427', '2025-12-09: 4,325,416', '2025-12-10: 5,467,541', '2025-12-11: 12,953,584']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>AMP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-03: 24.57', '2025-12-04: 24.54', '2025-12-05: 26.08', '2025-12-08: 27.23', '2025-12-09: 28.26']</t>
+          <t>['2025-12-05: 477.06', '2025-12-08: 476.73', '2025-12-09: 478.21', '2025-12-10: 497.26', '2025-12-11: 498.61']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-03: 22,786,511', '2025-12-04: 38,315,608', '2025-12-05: 198,872,335', '2025-12-08: 167,058,200', '2025-12-09: 106,789,445']</t>
+          <t>['2025-12-05: 451,200', '2025-12-08: 550,600', '2025-12-09: 404,730', '2025-12-10: 978,681', '2025-12-11: 1,313,737']</t>
         </is>
       </c>
     </row>
@@ -5604,7 +5753,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AZO</t>
+          <t>TTD</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5617,19 +5766,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-03: 3822.92', '2025-12-04: 3840.5', '2025-12-05: 3822.66', '2025-12-08: 3766.96', '2025-12-09: 3496.77']</t>
+          <t>['2025-12-05: 40.05', '2025-12-08: 39.35', '2025-12-09: 39.4', '2025-12-10: 39.22', '2025-12-11: 37.02']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-03: 115,028', '2025-12-04: 110,016', '2025-12-05: 116,124', '2025-12-08: 229,316', '2025-12-09: 380,104']</t>
+          <t>['2025-12-05: 11,322,800', '2025-12-08: 10,925,343', '2025-12-09: 8,764,800', '2025-12-10: 9,120,600', '2025-12-11: 21,472,799']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CPB</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5642,19 +5791,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-03: 29.84', '2025-12-04: 29.36', '2025-12-05: 29.6', '2025-12-08: 30.04', '2025-12-09: 28.47']</t>
+          <t>['2025-12-05: 217.58', '2025-12-08: 220.54', '2025-12-09: 221.53', '2025-12-10: 223.01', '2025-12-11: 198.85']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-03: 4,325,448', '2025-12-04: 7,754,244', '2025-12-05: 7,590,500', '2025-12-08: 13,030,100', '2025-12-09: 18,639,317']</t>
+          <t>['2025-12-05: 24,208,700', '2025-12-08: 24,711,200', '2025-12-09: 17,643,643', '2025-12-10: 47,928,000', '2025-12-11: 100,612,691']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EXE</t>
+          <t>HOOD</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5662,24 +5811,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-03: 122.89', '2025-12-04: 122.09', '2025-12-05: 122.86', '2025-12-08: 119.07', '2025-12-09: 117.46']</t>
+          <t>['2025-12-05: 131.95', '2025-12-08: 136.43', '2025-12-09: 135.71', '2025-12-10: 135.66', '2025-12-11: 123.38']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-03: 2,291,908', '2025-12-04: 3,180,800', '2025-12-05: 3,725,100', '2025-12-08: 5,403,537', '2025-12-09: 3,297,337']</t>
+          <t>['2025-12-05: 23,123,000', '2025-12-08: 22,593,100', '2025-12-09: 18,948,210', '2025-12-10: 18,232,100', '2025-12-11: 44,624,831']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ERIE</t>
+          <t>UBER</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5692,19 +5841,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-03: 296.21', '2025-12-04: 299.78', '2025-12-05: 296.46', '2025-12-08: 280.81', '2025-12-09: 277.4']</t>
+          <t>['2025-12-05: 91.32', '2025-12-08: 92.57', '2025-12-09: 89.07', '2025-12-10: 84.16', '2025-12-11: 85.44']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-03: 86,448', '2025-12-04: 101,010', '2025-12-05: 95,518', '2025-12-08: 172,300', '2025-12-09: 147,300']</t>
+          <t>['2025-12-05: 11,154,600', '2025-12-08: 12,646,900', '2025-12-09: 17,117,532', '2025-12-10: 51,202,039', '2025-12-11: 23,346,312']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>NDSN</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5712,17 +5861,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-03: 61.17', '2025-12-04: 60.07', '2025-12-05: 60.68', '2025-12-08: 58.66', '2025-12-09: 58.52']</t>
+          <t>['2025-12-05: 238.93', '2025-12-08: 234.45', '2025-12-09: 233.44', '2025-12-10: 236.32', '2025-12-11: 234.43']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-03: 9,413,909', '2025-12-04: 11,361,800', '2025-12-05: 9,006,800', '2025-12-08: 9,770,215', '2025-12-09: 6,050,836']</t>
+          <t>['2025-12-05: 360,400', '2025-12-08: 503,600', '2025-12-09: 451,747', '2025-12-10: 1,006,900', '2025-12-11: 1,518,400']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5200,6 +5200,102 @@
         </is>
       </c>
       <c r="F149" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>GEV</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Seaport Global</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>GEV</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Oppenheimer</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Perform</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>GEV</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -5327,34 +5423,44 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>GEV</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Tom Curran</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Seaport Global</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>723</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>2025-12-10</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Jefferies</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>105</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Amit Mehrotra</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>BMO Capital</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>114</v>
+        <v>835</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -5411,32 +5517,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABVE</t>
+          <t>BGIN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-05: 2.76', '2025-12-08: 2.61', '2025-12-09: 2.58', '2025-12-10: 2.9', '2025-12-11: 3.09']</t>
+          <t>['2025-12-08: 2.93', '2025-12-09: 2.99', '2025-12-10: 3.02', '2025-12-11: 3.17', '2025-12-12: 3.13']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-05: 1,100,200', '2025-12-08: 1,101,800', '2025-12-09: 625,900', '2025-12-10: 1,434,900', '2025-12-11: 2,701,900']</t>
+          <t>['2025-12-08: 45,095', '2025-12-09: 17,631', '2025-12-10: 14,700', '2025-12-11: 26,467', '2025-12-12: 48,214']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>HPAI</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5444,24 +5550,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-05: 4.46', '2025-12-08: 4.38', '2025-12-09: 4.34', '2025-12-10: 4.15', '2025-12-11: 4.68']</t>
+          <t>['2025-12-08: 3.9', '2025-12-09: 3.75', '2025-12-10: 3.85', '2025-12-11: 3.91', '2025-12-12: 4.1']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-05: 47,153,200', '2025-12-08: 34,746,142', '2025-12-09: 24,467,745', '2025-12-10: 26,310,238', '2025-12-11: 41,434,674']</t>
+          <t>['2025-12-08: 15,224', '2025-12-09: 13,000', '2025-12-10: 15,700', '2025-12-11: 2,122', '2025-12-12: 32,572']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ABAT</t>
+          <t>KGEI</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5469,24 +5575,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-05: 4.15', '2025-12-08: 4.23', '2025-12-09: 4.25', '2025-12-10: 4.01', '2025-12-11: 4.27']</t>
+          <t>['2025-12-08: 3.95', '2025-12-09: 4.01', '2025-12-10: 4.06', '2025-12-11: 4.05', '2025-12-12: 4.07']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-05: 6,105,600', '2025-12-08: 5,707,500', '2025-12-09: 5,822,400', '2025-12-10: 5,547,900', '2025-12-11: 5,087,200']</t>
+          <t>['2025-12-08: 47,330', '2025-12-09: 43,553', '2025-12-10: 66,200', '2025-12-11: 74,413', '2025-12-12: 144,887']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EGHT</t>
+          <t>SVCO</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5494,42 +5600,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-05: 2.03', '2025-12-08: 2.04', '2025-12-09: 2.12', '2025-12-10: 2.16', '2025-12-11: 2.16']</t>
+          <t>['2025-12-08: 3.83', '2025-12-09: 4.04', '2025-12-10: 4.2', '2025-12-11: 4.4', '2025-12-12: 4.38']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-05: 368,310', '2025-12-08: 371,107', '2025-12-09: 479,623', '2025-12-10: 791,101', '2025-12-11: 1,384,032']</t>
+          <t>['2025-12-08: 437,700', '2025-12-09: 365,500', '2025-12-10: 357,100', '2025-12-11: 161,600', '2025-12-12: 110,250']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SVCO</t>
+          <t>FKINX</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-05: 4.02', '2025-12-08: 3.83', '2025-12-09: 4.04', '2025-12-10: 4.2', '2025-12-11: 4.4']</t>
+          <t>['2025-12-08: 2.48', '2025-12-09: 2.47', '2025-12-10: 2.49', '2025-12-11: 2.49', '2025-12-12: 2.49']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-05: 272,800', '2025-12-08: 437,700', '2025-12-09: 365,500', '2025-12-10: 357,100', '2025-12-11: 161,600']</t>
+          <t>['2025-12-08: 0', '2025-12-09: 0', '2025-12-10: 0', '2025-12-11: 0', '2025-12-12: 0']</t>
         </is>
       </c>
     </row>
@@ -5582,125 +5688,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>HUBB</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-05: 257.66', '2025-12-08: 252.41', '2025-12-09: 248.32', '2025-12-10: 260.38', '2025-12-11: 279.7']</t>
+          <t>['2025-12-08: 441.51', '2025-12-09: 438.7', '2025-12-10: 448.18', '2025-12-11: 462.82', '2025-12-12: 448.0']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-05: 2,389,916', '2025-12-08: 2,840,139', '2025-12-09: 2,055,404', '2025-12-10: 2,952,822', '2025-12-11: 4,466,525']</t>
+          <t>['2025-12-08: 353,026', '2025-12-09: 357,359', '2025-12-10: 467,933', '2025-12-11: 572,950', '2025-12-12: 1,177,643']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>LULU</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-05: 330.75', '2025-12-08: 330.61', '2025-12-09: 329.81', '2025-12-10: 341.04', '2025-12-11: 360.22']</t>
+          <t>['2025-12-08: 183.04', '2025-12-09: 182.28', '2025-12-10: 187.62', '2025-12-11: 187.01', '2025-12-12: 204.97']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-05: 1,324,214', '2025-12-08: 1,765,500', '2025-12-09: 1,296,200', '2025-12-10: 1,318,184', '2025-12-11: 2,990,681']</t>
+          <t>['2025-12-08: 5,226,445', '2025-12-09: 3,274,315', '2025-12-10: 3,233,500', '2025-12-11: 9,925,735', '2025-12-12: 20,263,800']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MOS</t>
+          <t>TKO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-05: 23.61', '2025-12-08: 23.64', '2025-12-09: 23.81', '2025-12-10: 23.75', '2025-12-11: 25.19']</t>
+          <t>['2025-12-08: 203.82', '2025-12-09: 197.11', '2025-12-10: 196.94', '2025-12-11: 204.3', '2025-12-12: 208.42']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-05: 7,299,407', '2025-12-08: 9,176,824', '2025-12-09: 6,688,800', '2025-12-10: 7,369,309', '2025-12-11: 14,195,777']</t>
+          <t>['2025-12-08: 1,101,800', '2025-12-09: 1,217,600', '2025-12-10: 2,333,786', '2025-12-11: 1,112,100', '2025-12-12: 1,143,387']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>FICO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-05: 331.24', '2025-12-08: 326.84', '2025-12-09: 326.5', '2025-12-10: 325.73', '2025-12-11: 345.63']</t>
+          <t>['2025-12-08: 1760.45', '2025-12-09: 1751.69', '2025-12-10: 1752.24', '2025-12-11: 1825.83', '2025-12-12: 1844.98']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-05: 5,266,948', '2025-12-08: 6,059,427', '2025-12-09: 4,325,416', '2025-12-10: 5,467,541', '2025-12-11: 12,953,584']</t>
+          <t>['2025-12-08: 226,500', '2025-12-09: 183,050', '2025-12-10: 161,822', '2025-12-11: 280,552', '2025-12-12: 242,121']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>MOH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-05: 477.06', '2025-12-08: 476.73', '2025-12-09: 478.21', '2025-12-10: 497.26', '2025-12-11: 498.61']</t>
+          <t>['2025-12-08: 155.51', '2025-12-09: 156.88', '2025-12-10: 160.52', '2025-12-11: 166.9', '2025-12-12: 168.5']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-05: 451,200', '2025-12-08: 550,600', '2025-12-09: 404,730', '2025-12-10: 978,681', '2025-12-11: 1,313,737']</t>
+          <t>['2025-12-08: 1,898,700', '2025-12-09: 1,374,000', '2025-12-10: 1,174,400', '2025-12-11: 1,533,331', '2025-12-12: 1,780,596']</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5859,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>CEG</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5766,19 +5872,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-05: 40.05', '2025-12-08: 39.35', '2025-12-09: 39.4', '2025-12-10: 39.22', '2025-12-11: 37.02']</t>
+          <t>['2025-12-08: 357.67', '2025-12-09: 359.15', '2025-12-10: 362.07', '2025-12-11: 378.6', '2025-12-12: 351.98']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-05: 11,322,800', '2025-12-08: 10,925,343', '2025-12-09: 8,764,800', '2025-12-10: 9,120,600', '2025-12-11: 21,472,799']</t>
+          <t>['2025-12-08: 1,637,900', '2025-12-09: 1,360,279', '2025-12-10: 2,382,200', '2025-12-11: 2,530,300', '2025-12-12: 3,778,565']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>PWR</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5791,69 +5897,69 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-05: 217.58', '2025-12-08: 220.54', '2025-12-09: 221.53', '2025-12-10: 223.01', '2025-12-11: 198.85']</t>
+          <t>['2025-12-08: 463.09', '2025-12-09: 457.96', '2025-12-10: 462.21', '2025-12-11: 466.91', '2025-12-12: 438.11']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-05: 24,208,700', '2025-12-08: 24,711,200', '2025-12-09: 17,643,643', '2025-12-10: 47,928,000', '2025-12-11: 100,612,691']</t>
+          <t>['2025-12-08: 836,000', '2025-12-09: 744,900', '2025-12-10: 1,057,797', '2025-12-11: 716,719', '2025-12-12: 1,497,126']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>IRM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-05: 131.95', '2025-12-08: 136.43', '2025-12-09: 135.71', '2025-12-10: 135.66', '2025-12-11: 123.38']</t>
+          <t>['2025-12-08: 84.43', '2025-12-09: 85.1', '2025-12-10: 85.5', '2025-12-11: 88.03', '2025-12-12: 83.35']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-05: 23,123,000', '2025-12-08: 22,593,100', '2025-12-09: 18,948,210', '2025-12-10: 18,232,100', '2025-12-11: 44,624,831']</t>
+          <t>['2025-12-08: 1,965,300', '2025-12-09: 1,446,984', '2025-12-10: 1,762,850', '2025-12-11: 2,311,254', '2025-12-12: 3,224,935']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>APH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-05: 91.32', '2025-12-08: 92.57', '2025-12-09: 89.07', '2025-12-10: 84.16', '2025-12-11: 85.44']</t>
+          <t>['2025-12-08: 140.06', '2025-12-09: 138.58', '2025-12-10: 138.68', '2025-12-11: 139.09', '2025-12-12: 129.24']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-05: 11,154,600', '2025-12-08: 12,646,900', '2025-12-09: 17,117,532', '2025-12-10: 51,202,039', '2025-12-11: 23,346,312']</t>
+          <t>['2025-12-08: 3,882,800', '2025-12-09: 5,597,638', '2025-12-10: 6,758,800', '2025-12-11: 7,248,000', '2025-12-12: 13,261,008']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NDSN</t>
+          <t>TTD</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5861,17 +5967,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-05: 238.93', '2025-12-08: 234.45', '2025-12-09: 233.44', '2025-12-10: 236.32', '2025-12-11: 234.43']</t>
+          <t>['2025-12-08: 39.35', '2025-12-09: 39.4', '2025-12-10: 39.22', '2025-12-11: 37.02', '2025-12-12: 36.65']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-05: 360,400', '2025-12-08: 503,600', '2025-12-09: 451,747', '2025-12-10: 1,006,900', '2025-12-11: 1,518,400']</t>
+          <t>['2025-12-08: 10,925,343', '2025-12-09: 8,764,800', '2025-12-10: 9,120,600', '2025-12-11: 21,472,800', '2025-12-12: 13,651,046']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5296,6 +5296,294 @@
         </is>
       </c>
       <c r="F152" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>BLDR</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Jefferies</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>BLDR</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Barclays</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>BLDR</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>DA Davidson</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Keybanc</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Sector Weight</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Underweight</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Canaccord Genuity</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Barclays</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Goldman Sachs</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Argus Research</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -5312,7 +5600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5375,44 +5663,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Almas Almaganbetov</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Loop Capital Markets</t>
+          <t>Jefferies</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>550</v>
+        <v>110</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Gabriela Borges</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Goldman Sachs</t>
+          <t>Barclays</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>564</v>
+        <v>123</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -5423,48 +5701,81 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GEV</t>
+          <t>NOW</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tom Curran</t>
+          <t>Jackson Ader</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Seaport Global</t>
+          <t>KeyBanc</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>723</v>
+        <v>775</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Amit Mehrotra</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>Macquarie</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>860</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Lowered</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Goldman Sachs</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>UBS</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>835</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Lowered</t>
+      <c r="I4" t="n">
+        <v>68</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Raised</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5828,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BGIN</t>
+          <t>HPAI</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5525,99 +5836,99 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-08: 2.93', '2025-12-09: 2.99', '2025-12-10: 3.02', '2025-12-11: 3.17', '2025-12-12: 3.13']</t>
+          <t>['2025-12-09: 3.75', '2025-12-10: 3.85', '2025-12-11: 3.91', '2025-12-12: 4.1', '2025-12-15: 4.38']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-08: 45,095', '2025-12-09: 17,631', '2025-12-10: 14,700', '2025-12-11: 26,467', '2025-12-12: 48,214']</t>
+          <t>['2025-12-09: 13,000', '2025-12-10: 15,700', '2025-12-11: 2,122', '2025-12-12: 32,600', '2025-12-15: 2,400']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HPAI</t>
+          <t>FKINX</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-08: 3.9', '2025-12-09: 3.75', '2025-12-10: 3.85', '2025-12-11: 3.91', '2025-12-12: 4.1']</t>
+          <t>['2025-12-09: 2.47', '2025-12-10: 2.49', '2025-12-11: 2.49', '2025-12-12: 2.49', '2025-12-15: 2.49']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-08: 15,224', '2025-12-09: 13,000', '2025-12-10: 15,700', '2025-12-11: 2,122', '2025-12-12: 32,572']</t>
+          <t>['2025-12-09: 0', '2025-12-10: 0', '2025-12-11: 0', '2025-12-12: 0', '2025-12-15: 0']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KGEI</t>
+          <t>FNCFX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-08: 3.95', '2025-12-09: 4.01', '2025-12-10: 4.06', '2025-12-11: 4.05', '2025-12-12: 4.07']</t>
+          <t>['2025-12-09: 2.46', '2025-12-10: 2.48', '2025-12-11: 2.48', '2025-12-12: 2.48', '2025-12-15: 2.48']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-08: 47,330', '2025-12-09: 43,553', '2025-12-10: 66,200', '2025-12-11: 74,413', '2025-12-12: 144,887']</t>
+          <t>['2025-12-09: 0', '2025-12-10: 0', '2025-12-11: 0', '2025-12-12: 0', '2025-12-15: 0']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SVCO</t>
+          <t>FRIAX</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-08: 3.83', '2025-12-09: 4.04', '2025-12-10: 4.2', '2025-12-11: 4.4', '2025-12-12: 4.38']</t>
+          <t>['2025-12-09: 2.45', '2025-12-10: 2.46', '2025-12-11: 2.47', '2025-12-12: 2.46', '2025-12-15: 2.47']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-08: 437,700', '2025-12-09: 365,500', '2025-12-10: 357,100', '2025-12-11: 161,600', '2025-12-12: 110,250']</t>
+          <t>['2025-12-09: 0', '2025-12-10: 0', '2025-12-11: 0', '2025-12-12: 0', '2025-12-15: 0']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FKINX</t>
+          <t>LOLDX</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5630,12 +5941,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-08: 2.48', '2025-12-09: 2.47', '2025-12-10: 2.49', '2025-12-11: 2.49', '2025-12-12: 2.49']</t>
+          <t>['2025-12-09: 3.89', '2025-12-10: 3.89', '2025-12-11: 3.9', '2025-12-12: 3.89', '2025-12-15: 3.9']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-08: 0', '2025-12-09: 0', '2025-12-10: 0', '2025-12-11: 0', '2025-12-12: 0']</t>
+          <t>['2025-12-09: 0', '2025-12-10: 0', '2025-12-11: 0', '2025-12-12: 0', '2025-12-15: 0']</t>
         </is>
       </c>
     </row>
@@ -5688,7 +5999,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HUBB</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5696,17 +6007,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-08: 441.51', '2025-12-09: 438.7', '2025-12-10: 448.18', '2025-12-11: 462.82', '2025-12-12: 448.0']</t>
+          <t>['2025-12-09: 229.38', '2025-12-10: 230.88', '2025-12-11: 232.66', '2025-12-12: 233.89', '2025-12-15: 246.35']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-08: 353,026', '2025-12-09: 357,359', '2025-12-10: 467,933', '2025-12-11: 572,950', '2025-12-12: 1,177,643']</t>
+          <t>['2025-12-09: 740,400', '2025-12-10: 862,645', '2025-12-11: 654,700', '2025-12-12: 906,843', '2025-12-15: 1,510,181']</t>
         </is>
       </c>
     </row>
@@ -5717,28 +6028,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-08: 183.04', '2025-12-09: 182.28', '2025-12-10: 187.62', '2025-12-11: 187.01', '2025-12-12: 204.97']</t>
+          <t>['2025-12-09: 182.28', '2025-12-10: 187.62', '2025-12-11: 187.01', '2025-12-12: 204.97', '2025-12-15: 206.29']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-08: 5,226,445', '2025-12-09: 3,274,315', '2025-12-10: 3,233,500', '2025-12-11: 9,925,735', '2025-12-12: 20,263,800']</t>
+          <t>['2025-12-09: 3,274,315', '2025-12-10: 3,233,500', '2025-12-11: 9,925,735', '2025-12-12: 20,263,800', '2025-12-15: 7,686,805']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>CPT</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5746,24 +6057,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-08: 203.82', '2025-12-09: 197.11', '2025-12-10: 196.94', '2025-12-11: 204.3', '2025-12-12: 208.42']</t>
+          <t>['2025-12-09: 101.69', '2025-12-10: 103.13', '2025-12-11: 104.17', '2025-12-12: 104.23', '2025-12-15: 104.65']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-08: 1,101,800', '2025-12-09: 1,217,600', '2025-12-10: 2,333,786', '2025-12-11: 1,112,100', '2025-12-12: 1,143,387']</t>
+          <t>['2025-12-09: 1,031,700', '2025-12-10: 1,050,000', '2025-12-11: 867,200', '2025-12-12: 979,900', '2025-12-15: 2,086,734']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>ATO</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5771,24 +6082,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-08: 1760.45', '2025-12-09: 1751.69', '2025-12-10: 1752.24', '2025-12-11: 1825.83', '2025-12-12: 1844.98']</t>
+          <t>['2025-12-09: 166.28', '2025-12-10: 166.8', '2025-12-11: 167.09', '2025-12-12: 168.37', '2025-12-15: 170.75']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-08: 226,500', '2025-12-09: 183,050', '2025-12-10: 161,822', '2025-12-11: 280,552', '2025-12-12: 242,121']</t>
+          <t>['2025-12-09: 972,536', '2025-12-10: 1,051,300', '2025-12-11: 916,804', '2025-12-12: 983,945', '2025-12-15: 1,819,145']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>AJG</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5801,12 +6112,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-08: 155.51', '2025-12-09: 156.88', '2025-12-10: 160.52', '2025-12-11: 166.9', '2025-12-12: 168.5']</t>
+          <t>['2025-12-09: 239.91', '2025-12-10: 240.45', '2025-12-11: 247.62', '2025-12-12: 255.38', '2025-12-15: 256.19']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-08: 1,898,700', '2025-12-09: 1,374,000', '2025-12-10: 1,174,400', '2025-12-11: 1,533,331', '2025-12-12: 1,780,596']</t>
+          <t>['2025-12-09: 1,067,000', '2025-12-10: 1,745,100', '2025-12-11: 2,426,100', '2025-12-12: 2,238,640', '2025-12-15: 2,328,000']</t>
         </is>
       </c>
     </row>
@@ -5859,7 +6170,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>CSGP</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5872,19 +6183,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-08: 357.67', '2025-12-09: 359.15', '2025-12-10: 362.07', '2025-12-11: 378.6', '2025-12-12: 351.98']</t>
+          <t>['2025-12-09: 67.93', '2025-12-10: 67.87', '2025-12-11: 67.47', '2025-12-12: 68.23', '2025-12-15: 63.75']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-08: 1,637,900', '2025-12-09: 1,360,279', '2025-12-10: 2,382,200', '2025-12-11: 2,530,300', '2025-12-12: 3,778,565']</t>
+          <t>['2025-12-09: 2,774,458', '2025-12-10: 2,744,006', '2025-12-11: 3,408,400', '2025-12-12: 3,147,300', '2025-12-15: 8,312,661']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PWR</t>
+          <t>NOW</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5897,19 +6208,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-08: 463.09', '2025-12-09: 457.96', '2025-12-10: 462.21', '2025-12-11: 466.91', '2025-12-12: 438.11']</t>
+          <t>['2025-12-09: 854.91', '2025-12-10: 853.56', '2025-12-11: 867.49', '2025-12-12: 865.06', '2025-12-15: 765.2']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-08: 836,000', '2025-12-09: 744,900', '2025-12-10: 1,057,797', '2025-12-11: 716,719', '2025-12-12: 1,497,126']</t>
+          <t>['2025-12-09: 979,224', '2025-12-10: 1,692,100', '2025-12-11: 1,407,748', '2025-12-12: 1,499,031', '2025-12-15: 5,925,825']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IRM</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5917,49 +6228,49 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-08: 84.43', '2025-12-09: 85.1', '2025-12-10: 85.5', '2025-12-11: 88.03', '2025-12-12: 83.35']</t>
+          <t>['2025-12-09: 406.29', '2025-12-10: 412.97', '2025-12-11: 406.37', '2025-12-12: 359.93', '2025-12-15: 339.81']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-08: 1,965,300', '2025-12-09: 1,446,984', '2025-12-10: 1,762,850', '2025-12-11: 2,311,254', '2025-12-12: 3,224,935']</t>
+          <t>['2025-12-09: 24,546,000', '2025-12-10: 31,531,000', '2025-12-11: 45,681,617', '2025-12-12: 95,588,500', '2025-12-15: 65,894,902']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>SNDK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-08: 140.06', '2025-12-09: 138.58', '2025-12-10: 138.68', '2025-12-11: 139.09', '2025-12-12: 129.24']</t>
+          <t>['2025-12-09: 219.46', '2025-12-10: 232.86', '2025-12-11: 241.61', '2025-12-12: 206.18', '2025-12-15: 201.87']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-08: 3,882,800', '2025-12-09: 5,597,638', '2025-12-10: 6,758,800', '2025-12-11: 7,248,000', '2025-12-12: 13,261,008']</t>
+          <t>['2025-12-09: 6,299,028', '2025-12-10: 6,090,435', '2025-12-11: 7,622,500', '2025-12-12: 12,083,200', '2025-12-15: 6,264,976']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5972,12 +6283,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-08: 39.35', '2025-12-09: 39.4', '2025-12-10: 39.22', '2025-12-11: 37.02', '2025-12-12: 36.65']</t>
+          <t>['2025-12-09: 85.09', '2025-12-10: 86.2', '2025-12-11: 84.8', '2025-12-12: 78.94', '2025-12-15: 76.63']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-08: 10,925,343', '2025-12-09: 8,764,800', '2025-12-10: 9,120,600', '2025-12-11: 21,472,800', '2025-12-12: 13,651,046']</t>
+          <t>['2025-12-09: 1,405,026', '2025-12-10: 2,396,827', '2025-12-11: 2,563,539', '2025-12-12: 2,778,583', '2025-12-15: 2,338,487']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5584,6 +5584,326 @@
         </is>
       </c>
       <c r="F161" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>B of A Securities</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>FDS</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Underweight</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>FDS</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Underweight</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Underweight</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>FDS</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>TRMB</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Keybanc</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Sector Weight</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>TRMB</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Piper Sandler</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>TRMB</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>JP Morgan</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Guggenheim</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>DA Davidson</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -5600,7 +5920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5701,39 +6021,39 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Jackson Ader</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>KeyBanc</t>
+          <t>Morgan Stanley</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>775</v>
+        <v>95</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Benjamin Theurer</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Macquarie</t>
+          <t>Barclays</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>860</v>
+        <v>105</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -5744,36 +6064,160 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>FDS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Toni Kaplan</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>307</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Scott Wurtzel</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Wolfe Research</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>290</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Raised</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TRMB</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>KeyBanc</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>99</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>94</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Raised</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BTIG</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D.A. Davidson</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Lowered</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>LVS</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Goldman Sachs</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E7" t="n">
         <v>80</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2025-12-08</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>UBS</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I7" t="n">
         <v>68</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Raised</t>
         </is>
@@ -5828,7 +6272,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HPAI</t>
+          <t>SHIM</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5836,74 +6280,74 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-09: 3.75', '2025-12-10: 3.85', '2025-12-11: 3.91', '2025-12-12: 4.1', '2025-12-15: 4.38']</t>
+          <t>['2025-12-10: 2.64', '2025-12-11: 2.69', '2025-12-12: 2.62', '2025-12-15: 2.6', '2025-12-16: 2.93']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-09: 13,000', '2025-12-10: 15,700', '2025-12-11: 2,122', '2025-12-12: 32,600', '2025-12-15: 2,400']</t>
+          <t>['2025-12-10: 24,700', '2025-12-11: 10,815', '2025-12-12: 17,300', '2025-12-15: 14,100', '2025-12-16: 116,400']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FKINX</t>
+          <t>RZLV</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-09: 2.47', '2025-12-10: 2.49', '2025-12-11: 2.49', '2025-12-12: 2.49', '2025-12-15: 2.49']</t>
+          <t>['2025-12-10: 2.79', '2025-12-11: 2.66', '2025-12-12: 2.57', '2025-12-15: 2.32', '2025-12-16: 2.97']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-09: 0', '2025-12-10: 0', '2025-12-11: 0', '2025-12-12: 0', '2025-12-15: 0']</t>
+          <t>['2025-12-10: 10,532,010', '2025-12-11: 10,400,500', '2025-12-12: 11,590,400', '2025-12-15: 11,796,640', '2025-12-16: 75,862,553']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FNCFX</t>
+          <t>BGIN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-09: 2.46', '2025-12-10: 2.48', '2025-12-11: 2.48', '2025-12-12: 2.48', '2025-12-15: 2.48']</t>
+          <t>['2025-12-10: 3.02', '2025-12-11: 3.17', '2025-12-12: 3.13', '2025-12-15: 3.08', '2025-12-16: 3.41']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-09: 0', '2025-12-10: 0', '2025-12-11: 0', '2025-12-12: 0', '2025-12-15: 0']</t>
+          <t>['2025-12-10: 14,700', '2025-12-11: 26,467', '2025-12-12: 48,214', '2025-12-15: 31,265', '2025-12-16: 35,400']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FRIAX</t>
+          <t>LOLDX</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5916,19 +6360,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-09: 2.45', '2025-12-10: 2.46', '2025-12-11: 2.47', '2025-12-12: 2.46', '2025-12-15: 2.47']</t>
+          <t>['2025-12-10: 3.89', '2025-12-11: 3.9', '2025-12-12: 3.89', '2025-12-15: 3.9', '2025-12-16: 3.9']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-09: 0', '2025-12-10: 0', '2025-12-11: 0', '2025-12-12: 0', '2025-12-15: 0']</t>
+          <t>['2025-12-10: 0', '2025-12-11: 0', '2025-12-12: 0', '2025-12-15: 0', '2025-12-16: 0']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LOLDX</t>
+          <t>EEIIX</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5941,12 +6385,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-09: 3.89', '2025-12-10: 3.89', '2025-12-11: 3.9', '2025-12-12: 3.89', '2025-12-15: 3.9']</t>
+          <t>['2025-12-10: 3.53', '2025-12-11: 3.54', '2025-12-12: 3.55', '2025-12-15: 3.56', '2025-12-16: 3.56']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-09: 0', '2025-12-10: 0', '2025-12-11: 0', '2025-12-12: 0', '2025-12-15: 0']</t>
+          <t>['2025-12-10: 0', '2025-12-11: 0', '2025-12-12: 0', '2025-12-15: 0', '2025-12-16: 0']</t>
         </is>
       </c>
     </row>
@@ -5999,32 +6443,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-09: 229.38', '2025-12-10: 230.88', '2025-12-11: 232.66', '2025-12-12: 233.89', '2025-12-15: 246.35']</t>
+          <t>['2025-12-10: 451.45', '2025-12-11: 446.89', '2025-12-12: 458.96', '2025-12-15: 475.31', '2025-12-16: 489.88']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-09: 740,400', '2025-12-10: 862,645', '2025-12-11: 654,700', '2025-12-12: 906,843', '2025-12-15: 1,510,181']</t>
+          <t>['2025-12-10: 63,257,500', '2025-12-11: 55,979,500', '2025-12-12: 95,656,749', '2025-12-15: 114,542,204', '2025-12-16: 107,608,075']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>NCLH</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6037,19 +6481,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-09: 182.28', '2025-12-10: 187.62', '2025-12-11: 187.01', '2025-12-12: 204.97', '2025-12-15: 206.29']</t>
+          <t>['2025-12-10: 19.24', '2025-12-11: 20.55', '2025-12-12: 20.86', '2025-12-15: 21.65', '2025-12-16: 21.54']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-09: 3,274,315', '2025-12-10: 3,233,500', '2025-12-11: 9,925,735', '2025-12-12: 20,263,800', '2025-12-15: 7,686,805']</t>
+          <t>['2025-12-10: 24,865,000', '2025-12-11: 27,382,702', '2025-12-12: 22,198,100', '2025-12-15: 22,292,700', '2025-12-16: 19,447,488']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CPT</t>
+          <t>BMY</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6057,24 +6501,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-09: 101.69', '2025-12-10: 103.13', '2025-12-11: 104.17', '2025-12-12: 104.23', '2025-12-15: 104.65']</t>
+          <t>['2025-12-10: 51.21', '2025-12-11: 51.2', '2025-12-12: 52.41', '2025-12-15: 54.29', '2025-12-16: 54.23']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-09: 1,031,700', '2025-12-10: 1,050,000', '2025-12-11: 867,200', '2025-12-12: 979,900', '2025-12-15: 2,086,734']</t>
+          <t>['2025-12-10: 12,132,410', '2025-12-11: 9,684,307', '2025-12-12: 19,046,726', '2025-12-15: 21,936,600', '2025-12-16: 18,038,372']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>HSY</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -6082,42 +6526,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-09: 166.28', '2025-12-10: 166.8', '2025-12-11: 167.09', '2025-12-12: 168.37', '2025-12-15: 170.75']</t>
+          <t>['2025-12-10: 180.06', '2025-12-11: 181.58', '2025-12-12: 181.83', '2025-12-15: 188.11', '2025-12-16: 188.15']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-09: 972,536', '2025-12-10: 1,051,300', '2025-12-11: 916,804', '2025-12-12: 983,945', '2025-12-15: 1,819,145']</t>
+          <t>['2025-12-10: 2,083,607', '2025-12-11: 1,058,309', '2025-12-12: 1,020,121', '2025-12-15: 2,213,258', '2025-12-16: 1,475,900']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>XYZ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-09: 239.91', '2025-12-10: 240.45', '2025-12-11: 247.62', '2025-12-12: 255.38', '2025-12-15: 256.19']</t>
+          <t>['2025-12-10: 63.29', '2025-12-11: 63.61', '2025-12-12: 64.75', '2025-12-15: 64.02', '2025-12-16: 64.55']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-09: 1,067,000', '2025-12-10: 1,745,100', '2025-12-11: 2,426,100', '2025-12-12: 2,238,640', '2025-12-15: 2,328,000']</t>
+          <t>['2025-12-10: 5,491,000', '2025-12-11: 5,945,400', '2025-12-12: 6,642,301', '2025-12-15: 6,711,926', '2025-12-16: 6,213,156']</t>
         </is>
       </c>
     </row>
@@ -6170,82 +6614,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>WDAY</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-09: 67.93', '2025-12-10: 67.87', '2025-12-11: 67.47', '2025-12-12: 68.23', '2025-12-15: 63.75']</t>
+          <t>['2025-12-10: 222.75', '2025-12-11: 224.04', '2025-12-12: 224.49', '2025-12-15: 214.9', '2025-12-16: 216.11']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-09: 2,774,458', '2025-12-10: 2,744,006', '2025-12-11: 3,408,400', '2025-12-12: 3,147,300', '2025-12-15: 8,312,661']</t>
+          <t>['2025-12-10: 2,204,373', '2025-12-11: 2,271,703', '2025-12-12: 2,965,607', '2025-12-15: 4,167,475', '2025-12-16: 2,899,174']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>CRWD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-09: 854.91', '2025-12-10: 853.56', '2025-12-11: 867.49', '2025-12-12: 865.06', '2025-12-15: 765.2']</t>
+          <t>['2025-12-10: 519.54', '2025-12-11: 517.65', '2025-12-12: 504.78', '2025-12-15: 487.47', '2025-12-16: 488.53']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-09: 979,224', '2025-12-10: 1,692,100', '2025-12-11: 1,407,748', '2025-12-12: 1,499,031', '2025-12-15: 5,925,825']</t>
+          <t>['2025-12-10: 2,359,300', '2025-12-11: 2,001,500', '2025-12-12: 2,677,700', '2025-12-15: 2,184,930', '2025-12-16: 1,758,737']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>UBER</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-09: 406.29', '2025-12-10: 412.97', '2025-12-11: 406.37', '2025-12-12: 359.93', '2025-12-15: 339.81']</t>
+          <t>['2025-12-10: 84.16', '2025-12-11: 85.44', '2025-12-12: 85.11', '2025-12-15: 81.86', '2025-12-16: 80.92']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-09: 24,546,000', '2025-12-10: 31,531,000', '2025-12-11: 45,681,617', '2025-12-12: 95,588,500', '2025-12-15: 65,894,902']</t>
+          <t>['2025-12-10: 51,202,039', '2025-12-11: 23,346,312', '2025-12-12: 16,211,632', '2025-12-15: 32,070,900', '2025-12-16: 24,465,079']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SNDK</t>
+          <t>PANW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -6258,19 +6702,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-09: 219.46', '2025-12-10: 232.86', '2025-12-11: 241.61', '2025-12-12: 206.18', '2025-12-15: 201.87']</t>
+          <t>['2025-12-10: 192.96', '2025-12-11: 190.36', '2025-12-12: 191.69', '2025-12-15: 185.88', '2025-12-16: 187.09']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-09: 6,299,028', '2025-12-10: 6,090,435', '2025-12-11: 7,622,500', '2025-12-12: 12,083,200', '2025-12-15: 6,264,976']</t>
+          <t>['2025-12-10: 4,715,844', '2025-12-11: 5,776,100', '2025-12-12: 5,352,724', '2025-12-15: 6,660,313', '2025-12-16: 5,757,246']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>CSGP</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6283,12 +6727,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-09: 85.09', '2025-12-10: 86.2', '2025-12-11: 84.8', '2025-12-12: 78.94', '2025-12-15: 76.63']</t>
+          <t>['2025-12-10: 67.87', '2025-12-11: 67.47', '2025-12-12: 68.23', '2025-12-15: 63.75', '2025-12-16: 63.62']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-09: 1,405,026', '2025-12-10: 2,396,827', '2025-12-11: 2,563,539', '2025-12-12: 2,778,583', '2025-12-15: 2,338,487']</t>
+          <t>['2025-12-10: 2,744,006', '2025-12-11: 3,408,400', '2025-12-12: 3,147,300', '2025-12-15: 8,312,700', '2025-12-16: 4,762,047']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5906,6 +5906,230 @@
       <c r="F171" t="inlineStr">
         <is>
           <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ABNB</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>RBC Capital</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Sector Perform</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ABNB</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>DA Davidson</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ABNB</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Jefferies</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Jefferies</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Piper Sandler</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Goldman Sachs</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>upgrade</t>
         </is>
       </c>
     </row>
@@ -5920,7 +6144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5983,38 +6207,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>ABNB</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Brad Erickson</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>RBC Capital</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>170</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Jefferies</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>110</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-12-08</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Barclays</t>
-        </is>
-      </c>
       <c r="I2" t="n">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Lowered</t>
+          <t>Raised</t>
         </is>
       </c>
     </row>
@@ -6064,82 +6293,92 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>KDP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Toni Kaplan</t>
+          <t>Kaumil Gajrawala</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Morgan Stanley</t>
+          <t>Jefferies</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>307</v>
+        <v>32</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Scott Wurtzel</t>
+          <t>Michael Lavery</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Wolfe Research</t>
+          <t>Piper Sandler</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Raised</t>
+          <t>Lowered</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>FDS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Toni Kaplan</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>KeyBanc</t>
+          <t>Morgan Stanley</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>99</v>
+        <v>307</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Scott Wurtzel</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Wells Fargo</t>
+          <t>Wolfe Research</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>94</v>
+        <v>290</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -6150,76 +6389,119 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>TRMB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BTIG</t>
+          <t>KeyBanc</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1000</v>
+        <v>99</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>D.A. Davidson</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1100</v>
+        <v>94</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Lowered</t>
+          <t>Raised</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Cantor Fitzgerald</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>240</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>James Schneider</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Goldman Sachs</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-12-08</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>UBS</t>
-        </is>
-      </c>
       <c r="I7" t="n">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Raised</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BTIG</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>D.A. Davidson</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1100</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Lowered</t>
         </is>
       </c>
     </row>
@@ -6272,32 +6554,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SHIM</t>
+          <t>RITR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-10: 2.64', '2025-12-11: 2.69', '2025-12-12: 2.62', '2025-12-15: 2.6', '2025-12-16: 2.93']</t>
+          <t>['2025-12-11: 1.06', '2025-12-12: 1.1', '2025-12-15: 1.11', '2025-12-16: 1.21', '2025-12-17: 1.44']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-10: 24,700', '2025-12-11: 10,815', '2025-12-12: 17,300', '2025-12-15: 14,100', '2025-12-16: 116,400']</t>
+          <t>['2025-12-11: 43,616', '2025-12-12: 55,120', '2025-12-15: 32,451', '2025-12-16: 102,208', '2025-12-17: 444,427']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RZLV</t>
+          <t>EGHT</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6305,24 +6587,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-10: 2.79', '2025-12-11: 2.66', '2025-12-12: 2.57', '2025-12-15: 2.32', '2025-12-16: 2.97']</t>
+          <t>['2025-12-11: 2.16', '2025-12-12: 2.19', '2025-12-15: 2.06', '2025-12-16: 2.14', '2025-12-17: 2.15']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-10: 10,532,010', '2025-12-11: 10,400,500', '2025-12-12: 11,590,400', '2025-12-15: 11,796,640', '2025-12-16: 75,862,553']</t>
+          <t>['2025-12-11: 1,384,032', '2025-12-12: 824,229', '2025-12-15: 1,044,954', '2025-12-16: 902,900', '2025-12-17: 564,203']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BGIN</t>
+          <t>SVCO</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6330,24 +6612,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-10: 3.02', '2025-12-11: 3.17', '2025-12-12: 3.13', '2025-12-15: 3.08', '2025-12-16: 3.41']</t>
+          <t>['2025-12-11: 4.4', '2025-12-12: 4.38', '2025-12-15: 4.09', '2025-12-16: 4.3', '2025-12-17: 4.38']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-10: 14,700', '2025-12-11: 26,467', '2025-12-12: 48,214', '2025-12-15: 31,265', '2025-12-16: 35,400']</t>
+          <t>['2025-12-11: 161,600', '2025-12-12: 110,250', '2025-12-15: 106,185', '2025-12-16: 73,145', '2025-12-17: 176,343']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LOLDX</t>
+          <t>FKINX</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -6360,19 +6642,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-10: 3.89', '2025-12-11: 3.9', '2025-12-12: 3.89', '2025-12-15: 3.9', '2025-12-16: 3.9']</t>
+          <t>['2025-12-11: 2.49', '2025-12-12: 2.49', '2025-12-15: 2.49', '2025-12-16: 2.48', '2025-12-17: 2.49']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-10: 0', '2025-12-11: 0', '2025-12-12: 0', '2025-12-15: 0', '2025-12-16: 0']</t>
+          <t>['2025-12-11: 0', '2025-12-12: 0', '2025-12-15: 0', '2025-12-16: 0', '2025-12-17: 0']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EEIIX</t>
+          <t>FNCFX</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6385,12 +6667,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-10: 3.53', '2025-12-11: 3.54', '2025-12-12: 3.55', '2025-12-15: 3.56', '2025-12-16: 3.56']</t>
+          <t>['2025-12-11: 2.48', '2025-12-12: 2.48', '2025-12-15: 2.48', '2025-12-16: 2.47', '2025-12-17: 2.48']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-10: 0', '2025-12-11: 0', '2025-12-12: 0', '2025-12-15: 0', '2025-12-16: 0']</t>
+          <t>['2025-12-11: 0', '2025-12-12: 0', '2025-12-15: 0', '2025-12-16: 0', '2025-12-17: 0']</t>
         </is>
       </c>
     </row>
@@ -6443,7 +6725,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>TPL</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6451,24 +6733,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-10: 451.45', '2025-12-11: 446.89', '2025-12-12: 458.96', '2025-12-15: 475.31', '2025-12-16: 489.88']</t>
+          <t>['2025-12-11: 890.3', '2025-12-12: 838.64', '2025-12-15: 839.63', '2025-12-16: 820.69', '2025-12-17: 883.0']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-10: 63,257,500', '2025-12-11: 55,979,500', '2025-12-12: 95,656,749', '2025-12-15: 114,542,204', '2025-12-16: 107,608,075']</t>
+          <t>['2025-12-11: 107,343', '2025-12-12: 175,956', '2025-12-15: 210,036', '2025-12-16: 219,120', '2025-12-17: 261,340']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NCLH</t>
+          <t>ROL</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6476,24 +6758,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-10: 19.24', '2025-12-11: 20.55', '2025-12-12: 20.86', '2025-12-15: 21.65', '2025-12-16: 21.54']</t>
+          <t>['2025-12-11: 59.49', '2025-12-12: 60.05', '2025-12-15: 60.02', '2025-12-16: 59.46', '2025-12-17: 60.24']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-10: 24,865,000', '2025-12-11: 27,382,702', '2025-12-12: 22,198,100', '2025-12-15: 22,292,700', '2025-12-16: 19,447,488']</t>
+          <t>['2025-12-11: 2,018,613', '2025-12-12: 2,132,569', '2025-12-15: 2,082,400', '2025-12-16: 2,564,349', '2025-12-17: 3,913,663']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>HLT</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6501,24 +6783,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-10: 51.21', '2025-12-11: 51.2', '2025-12-12: 52.41', '2025-12-15: 54.29', '2025-12-16: 54.23']</t>
+          <t>['2025-12-11: 278.18', '2025-12-12: 280.24', '2025-12-15: 285.85', '2025-12-16: 285.83', '2025-12-17: 293.0']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-10: 12,132,410', '2025-12-11: 9,684,307', '2025-12-12: 19,046,726', '2025-12-15: 21,936,600', '2025-12-16: 18,038,372']</t>
+          <t>['2025-12-11: 1,563,000', '2025-12-12: 1,235,334', '2025-12-15: 1,998,380', '2025-12-16: 1,893,800', '2025-12-17: 3,696,141']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HSY</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -6526,42 +6808,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-10: 180.06', '2025-12-11: 181.58', '2025-12-12: 181.83', '2025-12-15: 188.11', '2025-12-16: 188.15']</t>
+          <t>['2025-12-11: 35.62', '2025-12-12: 35.53', '2025-12-15: 35.79', '2025-12-16: 35.46', '2025-12-17: 36.41']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-10: 2,083,607', '2025-12-11: 1,058,309', '2025-12-12: 1,020,121', '2025-12-15: 2,213,258', '2025-12-16: 1,475,900']</t>
+          <t>['2025-12-11: 2,124,600', '2025-12-12: 1,823,993', '2025-12-15: 1,650,603', '2025-12-16: 2,423,200', '2025-12-17: 3,638,147']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>VRSK</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-10: 63.29', '2025-12-11: 63.61', '2025-12-12: 64.75', '2025-12-15: 64.02', '2025-12-16: 64.55']</t>
+          <t>['2025-12-11: 216.29', '2025-12-12: 217.14', '2025-12-15: 218.23', '2025-12-16: 217.64', '2025-12-17: 219.17']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-10: 5,491,000', '2025-12-11: 5,945,400', '2025-12-12: 6,642,301', '2025-12-15: 6,711,926', '2025-12-16: 6,213,156']</t>
+          <t>['2025-12-11: 850,500', '2025-12-12: 1,113,902', '2025-12-15: 1,402,389', '2025-12-16: 1,346,738', '2025-12-17: 2,027,303']</t>
         </is>
       </c>
     </row>
@@ -6614,57 +6896,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>GNRC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-10: 222.75', '2025-12-11: 224.04', '2025-12-12: 224.49', '2025-12-15: 214.9', '2025-12-16: 216.11']</t>
+          <t>['2025-12-11: 167.65', '2025-12-12: 160.75', '2025-12-15: 158.43', '2025-12-16: 155.36', '2025-12-17: 144.82']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-10: 2,204,373', '2025-12-11: 2,271,703', '2025-12-12: 2,965,607', '2025-12-15: 4,167,475', '2025-12-16: 2,899,174']</t>
+          <t>['2025-12-11: 474,917', '2025-12-12: 911,237', '2025-12-15: 710,207', '2025-12-16: 534,435', '2025-12-17: 1,736,192']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-10: 519.54', '2025-12-11: 517.65', '2025-12-12: 504.78', '2025-12-15: 487.47', '2025-12-16: 488.53']</t>
+          <t>['2025-12-11: 170.64', '2025-12-12: 161.44', '2025-12-15: 159.99', '2025-12-16: 160.15', '2025-12-17: 149.48']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-10: 2,359,300', '2025-12-11: 2,001,500', '2025-12-12: 2,677,700', '2025-12-15: 2,184,930', '2025-12-16: 1,758,737']</t>
+          <t>['2025-12-11: 1,558,983', '2025-12-12: 2,018,205', '2025-12-15: 1,674,700', '2025-12-16: 1,535,226', '2025-12-17: 4,748,365']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>EXE</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6677,19 +6959,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-10: 84.16', '2025-12-11: 85.44', '2025-12-12: 85.11', '2025-12-15: 81.86', '2025-12-16: 80.92']</t>
+          <t>['2025-12-11: 114.33', '2025-12-12: 112.79', '2025-12-15: 110.54', '2025-12-16: 106.58', '2025-12-17: 109.54']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-10: 51,202,039', '2025-12-11: 23,346,312', '2025-12-12: 16,211,632', '2025-12-15: 32,070,900', '2025-12-16: 24,465,079']</t>
+          <t>['2025-12-11: 3,187,856', '2025-12-12: 2,274,900', '2025-12-15: 3,324,668', '2025-12-16: 4,125,204', '2025-12-17: 3,659,353']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>VST</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -6697,24 +6979,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-10: 192.96', '2025-12-11: 190.36', '2025-12-12: 191.69', '2025-12-15: 185.88', '2025-12-16: 187.09']</t>
+          <t>['2025-12-11: 174.6', '2025-12-12: 170.1', '2025-12-15: 168.25', '2025-12-16: 173.45', '2025-12-17: 159.97']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-10: 4,715,844', '2025-12-11: 5,776,100', '2025-12-12: 5,352,724', '2025-12-15: 6,660,313', '2025-12-16: 5,757,246']</t>
+          <t>['2025-12-11: 6,197,100', '2025-12-12: 5,870,200', '2025-12-15: 4,287,400', '2025-12-16: 4,190,100', '2025-12-17: 6,902,940']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>SMCI</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6722,17 +7004,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-10: 67.87', '2025-12-11: 67.47', '2025-12-12: 68.23', '2025-12-15: 63.75', '2025-12-16: 63.62']</t>
+          <t>['2025-12-11: 34.02', '2025-12-12: 32.33', '2025-12-15: 31.37', '2025-12-16: 31.66', '2025-12-17: 29.84']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-10: 2,744,006', '2025-12-11: 3,408,400', '2025-12-12: 3,147,300', '2025-12-15: 8,312,700', '2025-12-16: 4,762,047']</t>
+          <t>['2025-12-11: 23,178,900', '2025-12-12: 22,435,100', '2025-12-15: 18,470,601', '2025-12-16: 20,835,800', '2025-12-17: 24,797,175']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:F184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6128,6 +6128,198 @@
         </is>
       </c>
       <c r="F178" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>GEV</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Jefferies</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>GEV</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Goldman Sachs</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>GEV</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>CPT</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>JP Morgan</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Underweight</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>CPT</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Truist Securities</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>GNRC</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
         <is>
           <t>upgrade</t>
         </is>
@@ -6144,7 +6336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6207,39 +6399,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>GEV</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Brad Erickson</t>
+          <t>Julien Dumoulin-Smith</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RBC Capital</t>
+          <t>Jefferies</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>170</v>
+        <v>830</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Jefferies</t>
+          <t>Robert W. Baird</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>165</v>
+        <v>816</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -6250,256 +6442,74 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>CPT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Morgan Stanley</t>
+          <t>Truist Financial</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Benjamin Theurer</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Barclays</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Lowered</t>
+          <t>Raised</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>GNRC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Kaumil Gajrawala</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jefferies</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Michael Lavery</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Piper Sandler</t>
+          <t>Barclays</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>Lowered</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>FDS</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Toni Kaplan</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Morgan Stanley</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>307</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-11-14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Scott Wurtzel</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Wolfe Research</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>290</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Raised</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TRMB</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>KeyBanc</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>99</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-11-13</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Wells Fargo</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Raised</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TER</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Cantor Fitzgerald</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>240</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>James Schneider</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Goldman Sachs</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>230</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Raised</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NOW</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>BTIG</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>D.A. Davidson</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1100</v>
-      </c>
-      <c r="J8" t="inlineStr">
         <is>
           <t>Lowered</t>
         </is>
@@ -6554,32 +6564,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RITR</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-11: 1.06', '2025-12-12: 1.1', '2025-12-15: 1.11', '2025-12-16: 1.21', '2025-12-17: 1.44']</t>
+          <t>['2025-12-15: 2.41', '2025-12-16: 2.38', '2025-12-17: 2.29', '2025-12-18: 2.35', '2025-12-19: 2.68']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-11: 43,616', '2025-12-12: 55,120', '2025-12-15: 32,451', '2025-12-16: 102,208', '2025-12-17: 444,427']</t>
+          <t>['2025-12-15: 7,528,619', '2025-12-16: 2,297,500', '2025-12-17: 2,933,650', '2025-12-18: 2,576,002', '2025-12-19: 13,380,376']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EGHT</t>
+          <t>ABAT</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6587,24 +6597,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Recent price surge &gt;5%; Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-11: 2.16', '2025-12-12: 2.19', '2025-12-15: 2.06', '2025-12-16: 2.14', '2025-12-17: 2.15']</t>
+          <t>['2025-12-15: 3.93', '2025-12-16: 4.01', '2025-12-17: 3.64', '2025-12-18: 3.77', '2025-12-19: 3.97']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-11: 1,384,032', '2025-12-12: 824,229', '2025-12-15: 1,044,954', '2025-12-16: 902,900', '2025-12-17: 564,203']</t>
+          <t>['2025-12-15: 5,826,900', '2025-12-16: 4,610,900', '2025-12-17: 5,709,700', '2025-12-18: 4,284,900', '2025-12-19: 16,995,300']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SVCO</t>
+          <t>RZLVW</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6612,49 +6622,49 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-11: 4.4', '2025-12-12: 4.38', '2025-12-15: 4.09', '2025-12-16: 4.3', '2025-12-17: 4.38']</t>
+          <t>['2025-12-15: 0.6572', '2025-12-16: 0.9', '2025-12-17: 0.6829', '2025-12-18: 0.7141', '2025-12-19: 0.84']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-11: 161,600', '2025-12-12: 110,250', '2025-12-15: 106,185', '2025-12-16: 73,145', '2025-12-17: 176,343']</t>
+          <t>['2025-12-15: 46,659', '2025-12-16: 204,732', '2025-12-17: 244,404', '2025-12-18: 60,880', '2025-12-19: 58,529']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FKINX</t>
+          <t>RITR</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-11: 2.49', '2025-12-12: 2.49', '2025-12-15: 2.49', '2025-12-16: 2.48', '2025-12-17: 2.49']</t>
+          <t>['2025-12-15: 1.11', '2025-12-16: 1.21', '2025-12-17: 1.44', '2025-12-18: 1.27', '2025-12-19: 1.39']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-11: 0', '2025-12-12: 0', '2025-12-15: 0', '2025-12-16: 0', '2025-12-17: 0']</t>
+          <t>['2025-12-15: 32,451', '2025-12-16: 102,208', '2025-12-17: 444,427', '2025-12-18: 91,700', '2025-12-19: 128,015']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FNCFX</t>
+          <t>FKINX</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6667,12 +6677,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-11: 2.48', '2025-12-12: 2.48', '2025-12-15: 2.48', '2025-12-16: 2.47', '2025-12-17: 2.48']</t>
+          <t>['2025-12-16: 2.48', '2025-12-17: 2.49', '2025-12-18: 2.49', '2025-12-19: 2.49', '2025-12-22: 2.49']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-11: 0', '2025-12-12: 0', '2025-12-15: 0', '2025-12-16: 0', '2025-12-17: 0']</t>
+          <t>['2025-12-16: 0', '2025-12-17: 0', '2025-12-18: 0', '2025-12-19: 0', '2025-12-22: 0']</t>
         </is>
       </c>
     </row>
@@ -6725,125 +6735,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TPL</t>
+          <t>SNDK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-11: 890.3', '2025-12-12: 838.64', '2025-12-15: 839.63', '2025-12-16: 820.69', '2025-12-17: 883.0']</t>
+          <t>['2025-12-15: 201.87', '2025-12-16: 209.31', '2025-12-17: 206.83', '2025-12-18: 219.46', '2025-12-19: 237.61']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-11: 107,343', '2025-12-12: 175,956', '2025-12-15: 210,036', '2025-12-16: 219,120', '2025-12-17: 261,340']</t>
+          <t>['2025-12-15: 6,265,000', '2025-12-16: 6,638,425', '2025-12-17: 8,232,320', '2025-12-18: 9,924,101', '2025-12-19: 10,924,971']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-11: 59.49', '2025-12-12: 60.05', '2025-12-15: 60.02', '2025-12-16: 59.46', '2025-12-17: 60.24']</t>
+          <t>['2025-12-15: 675.17', '2025-12-16: 677.3', '2025-12-17: 657.13', '2025-12-18: 694.37', '2025-12-19: 721.37']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-11: 2,018,613', '2025-12-12: 2,132,569', '2025-12-15: 2,082,400', '2025-12-16: 2,564,349', '2025-12-17: 3,913,663']</t>
+          <t>['2025-12-15: 3,776,116', '2025-12-16: 3,233,200', '2025-12-17: 2,997,200', '2025-12-18: 3,596,900', '2025-12-19: 7,834,000']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HLT</t>
+          <t>DASH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-11: 278.18', '2025-12-12: 280.24', '2025-12-15: 285.85', '2025-12-16: 285.83', '2025-12-17: 293.0']</t>
+          <t>['2025-12-15: 226.98', '2025-12-16: 227.94', '2025-12-17: 221.3', '2025-12-18: 230.94', '2025-12-19: 234.25']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-11: 1,563,000', '2025-12-12: 1,235,334', '2025-12-15: 1,998,380', '2025-12-16: 1,893,800', '2025-12-17: 3,696,141']</t>
+          <t>['2025-12-15: 5,021,540', '2025-12-16: 4,154,300', '2025-12-17: 4,010,404', '2025-12-18: 3,326,900', '2025-12-19: 8,727,743']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-11: 35.62', '2025-12-12: 35.53', '2025-12-15: 35.79', '2025-12-16: 35.46', '2025-12-17: 36.41']</t>
+          <t>['2025-12-15: 183.25', '2025-12-16: 187.75', '2025-12-17: 177.29', '2025-12-18: 185.69', '2025-12-19: 193.38']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-11: 2,124,600', '2025-12-12: 1,823,993', '2025-12-15: 1,650,603', '2025-12-16: 2,423,200', '2025-12-17: 3,638,147']</t>
+          <t>['2025-12-15: 32,796,100', '2025-12-16: 42,070,300', '2025-12-17: 50,424,700', '2025-12-18: 40,221,500', '2025-12-19: 76,929,380']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>LULU</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-11: 216.29', '2025-12-12: 217.14', '2025-12-15: 218.23', '2025-12-16: 217.64', '2025-12-17: 219.17']</t>
+          <t>['2025-12-15: 206.29', '2025-12-16: 206.74', '2025-12-17: 207.87', '2025-12-18: 215.11', '2025-12-19: 209.45']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-11: 850,500', '2025-12-12: 1,113,902', '2025-12-15: 1,402,389', '2025-12-16: 1,346,738', '2025-12-17: 2,027,303']</t>
+          <t>['2025-12-15: 7,686,805', '2025-12-16: 5,156,047', '2025-12-17: 5,254,415', '2025-12-18: 12,120,600', '2025-12-19: 15,983,297']</t>
         </is>
       </c>
     </row>
@@ -6904,24 +6914,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-11: 167.65', '2025-12-12: 160.75', '2025-12-15: 158.43', '2025-12-16: 155.36', '2025-12-17: 144.82']</t>
+          <t>['2025-12-15: 158.43', '2025-12-16: 155.36', '2025-12-17: 144.82', '2025-12-18: 136.99', '2025-12-19: 138.94']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-11: 474,917', '2025-12-12: 911,237', '2025-12-15: 710,207', '2025-12-16: 534,435', '2025-12-17: 1,736,192']</t>
+          <t>['2025-12-15: 710,207', '2025-12-16: 534,435', '2025-12-17: 1,736,192', '2025-12-18: 2,753,300', '2025-12-19: 3,572,190']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>LW</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6934,87 +6944,87 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-11: 170.64', '2025-12-12: 161.44', '2025-12-15: 159.99', '2025-12-16: 160.15', '2025-12-17: 149.48']</t>
+          <t>['2025-12-15: 59.46', '2025-12-16: 59.8', '2025-12-17: 59.46', '2025-12-18: 59.33', '2025-12-19: 43.94']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-11: 1,558,983', '2025-12-12: 2,018,205', '2025-12-15: 1,674,700', '2025-12-16: 1,535,226', '2025-12-17: 4,748,365']</t>
+          <t>['2025-12-15: 1,126,200', '2025-12-16: 996,400', '2025-12-17: 1,040,347', '2025-12-18: 2,691,532', '2025-12-19: 23,430,274']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EXE</t>
+          <t>MPC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-11: 114.33', '2025-12-12: 112.79', '2025-12-15: 110.54', '2025-12-16: 106.58', '2025-12-17: 109.54']</t>
+          <t>['2025-12-15: 185.51', '2025-12-16: 176.79', '2025-12-17: 174.5', '2025-12-18: 168.11', '2025-12-19: 168.32']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-11: 3,187,856', '2025-12-12: 2,274,900', '2025-12-15: 3,324,668', '2025-12-16: 4,125,204', '2025-12-17: 3,659,353']</t>
+          <t>['2025-12-15: 2,402,800', '2025-12-16: 2,889,200', '2025-12-17: 3,050,900', '2025-12-18: 2,888,624', '2025-12-19: 6,618,083']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>DVN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-11: 174.6', '2025-12-12: 170.1', '2025-12-15: 168.25', '2025-12-16: 173.45', '2025-12-17: 159.97']</t>
+          <t>['2025-12-15: 36.17', '2025-12-16: 35.09', '2025-12-17: 36.95', '2025-12-18: 35.72', '2025-12-19: 35.84']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-11: 6,197,100', '2025-12-12: 5,870,200', '2025-12-15: 4,287,400', '2025-12-16: 4,190,100', '2025-12-17: 6,902,940']</t>
+          <t>['2025-12-15: 10,818,945', '2025-12-16: 10,308,300', '2025-12-17: 10,536,900', '2025-12-18: 8,142,400', '2025-12-19: 17,503,628']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-11: 34.02', '2025-12-12: 32.33', '2025-12-15: 31.37', '2025-12-16: 31.66', '2025-12-17: 29.84']</t>
+          <t>['2025-12-15: 67.78', '2025-12-16: 67.12', '2025-12-17: 65.69', '2025-12-18: 65.63', '2025-12-19: 58.71']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-11: 23,178,900', '2025-12-12: 22,435,100', '2025-12-15: 18,470,601', '2025-12-16: 20,835,800', '2025-12-17: 24,797,175']</t>
+          <t>['2025-12-15: 15,287,500', '2025-12-16: 16,376,700', '2025-12-17: 13,205,500', '2025-12-18: 35,650,016', '2025-12-19: 108,652,694']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -6336,7 +6336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6399,117 +6399,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GEV</t>
+          <t>GNRC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Julien Dumoulin-Smith</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jefferies</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>830</v>
+        <v>195</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Robert W. Baird</t>
+          <t>Barclays</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>816</v>
+        <v>197</v>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>Raised</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CPT</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Truist Financial</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>116</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Wells Fargo</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>110</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Raised</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GNRC</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Wells Fargo</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>195</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Barclays</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>197</v>
-      </c>
-      <c r="J4" t="inlineStr">
         <is>
           <t>Lowered</t>
         </is>
@@ -6564,7 +6483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>RZLV</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6572,17 +6491,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-15: 2.41', '2025-12-16: 2.38', '2025-12-17: 2.29', '2025-12-18: 2.35', '2025-12-19: 2.68']</t>
+          <t>['2025-12-16: 2.97', '2025-12-17: 2.4', '2025-12-18: 2.2', '2025-12-19: 2.55', '2025-12-22: 2.89']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-15: 7,528,619', '2025-12-16: 2,297,500', '2025-12-17: 2,933,650', '2025-12-18: 2,576,002', '2025-12-19: 13,380,376']</t>
+          <t>['2025-12-16: 75,862,600', '2025-12-17: 61,504,000', '2025-12-18: 50,535,617', '2025-12-19: 43,556,700', '2025-12-22: 34,093,210']</t>
         </is>
       </c>
     </row>
@@ -6597,17 +6516,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recent price surge &gt;5%; Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-15: 3.93', '2025-12-16: 4.01', '2025-12-17: 3.64', '2025-12-18: 3.77', '2025-12-19: 3.97']</t>
+          <t>['2025-12-16: 4.01', '2025-12-17: 3.64', '2025-12-18: 3.77', '2025-12-19: 3.97', '2025-12-22: 4.16']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-15: 5,826,900', '2025-12-16: 4,610,900', '2025-12-17: 5,709,700', '2025-12-18: 4,284,900', '2025-12-19: 16,995,300']</t>
+          <t>['2025-12-16: 4,610,900', '2025-12-17: 5,709,700', '2025-12-18: 4,284,900', '2025-12-19: 17,018,100', '2025-12-22: 5,871,300']</t>
         </is>
       </c>
     </row>
@@ -6627,19 +6546,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-15: 0.6572', '2025-12-16: 0.9', '2025-12-17: 0.6829', '2025-12-18: 0.7141', '2025-12-19: 0.84']</t>
+          <t>['2025-12-16: 0.9', '2025-12-17: 0.6829', '2025-12-18: 0.7141', '2025-12-19: 0.84', '2025-12-22: 0.919']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-15: 46,659', '2025-12-16: 204,732', '2025-12-17: 244,404', '2025-12-18: 60,880', '2025-12-19: 58,529']</t>
+          <t>['2025-12-16: 204,732', '2025-12-17: 244,404', '2025-12-18: 60,880', '2025-12-19: 58,529', '2025-12-22: 48,489']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RITR</t>
+          <t>HPAI</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -6647,42 +6566,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-15: 1.11', '2025-12-16: 1.21', '2025-12-17: 1.44', '2025-12-18: 1.27', '2025-12-19: 1.39']</t>
+          <t>['2025-12-16: 4.08', '2025-12-17: 4.14', '2025-12-18: 4.27', '2025-12-19: 4.15', '2025-12-22: 4.18']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-15: 32,451', '2025-12-16: 102,208', '2025-12-17: 444,427', '2025-12-18: 91,700', '2025-12-19: 128,015']</t>
+          <t>['2025-12-16: 14,700', '2025-12-17: 3,249', '2025-12-18: 2,648', '2025-12-19: 4,328', '2025-12-22: 15,525']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FKINX</t>
+          <t>RITR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-16: 2.48', '2025-12-17: 2.49', '2025-12-18: 2.49', '2025-12-19: 2.49', '2025-12-22: 2.49']</t>
+          <t>['2025-12-16: 1.21', '2025-12-17: 1.44', '2025-12-18: 1.27', '2025-12-19: 1.39', '2025-12-22: 1.4']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-16: 0', '2025-12-17: 0', '2025-12-18: 0', '2025-12-19: 0', '2025-12-22: 0']</t>
+          <t>['2025-12-16: 102,208', '2025-12-17: 444,427', '2025-12-18: 91,700', '2025-12-19: 128,015', '2025-12-22: 194,180']</t>
         </is>
       </c>
     </row>
@@ -6735,7 +6654,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SNDK</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6743,24 +6662,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-15: 201.87', '2025-12-16: 209.31', '2025-12-17: 206.83', '2025-12-18: 219.46', '2025-12-19: 237.61']</t>
+          <t>['2025-12-16: 258.51', '2025-12-17: 254.03', '2025-12-18: 261.79', '2025-12-19: 266.98', '2025-12-22: 284.59']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-15: 6,265,000', '2025-12-16: 6,638,425', '2025-12-17: 8,232,320', '2025-12-18: 9,924,101', '2025-12-19: 10,924,971']</t>
+          <t>['2025-12-16: 1,489,382', '2025-12-17: 1,750,928', '2025-12-18: 1,873,889', '2025-12-19: 2,708,101', '2025-12-22: 3,478,951']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>HII</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6768,24 +6687,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-15: 675.17', '2025-12-16: 677.3', '2025-12-17: 657.13', '2025-12-18: 694.37', '2025-12-19: 721.37']</t>
+          <t>['2025-12-16: 326.8', '2025-12-17: 321.29', '2025-12-18: 322.63', '2025-12-19: 336.64', '2025-12-22: 353.52']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-15: 3,776,116', '2025-12-16: 3,233,200', '2025-12-17: 2,997,200', '2025-12-18: 3,596,900', '2025-12-19: 7,834,000']</t>
+          <t>['2025-12-16: 377,916', '2025-12-17: 475,100', '2025-12-18: 399,204', '2025-12-19: 1,438,540', '2025-12-22: 866,816']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>NCLH</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6793,67 +6712,67 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-15: 226.98', '2025-12-16: 227.94', '2025-12-17: 221.3', '2025-12-18: 230.94', '2025-12-19: 234.25']</t>
+          <t>['2025-12-16: 21.54', '2025-12-17: 21.54', '2025-12-18: 21.63', '2025-12-19: 23.04', '2025-12-22: 24.27']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-15: 5,021,540', '2025-12-16: 4,154,300', '2025-12-17: 4,010,404', '2025-12-18: 3,326,900', '2025-12-19: 8,727,743']</t>
+          <t>['2025-12-16: 19,447,500', '2025-12-17: 19,993,700', '2025-12-18: 18,262,310', '2025-12-19: 29,116,700', '2025-12-22: 20,066,360']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>SNDK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-15: 183.25', '2025-12-16: 187.75', '2025-12-17: 177.29', '2025-12-18: 185.69', '2025-12-19: 193.38']</t>
+          <t>['2025-12-16: 209.31', '2025-12-17: 206.83', '2025-12-18: 219.46', '2025-12-19: 237.61', '2025-12-22: 241.05']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-15: 32,796,100', '2025-12-16: 42,070,300', '2025-12-17: 50,424,700', '2025-12-18: 40,221,500', '2025-12-19: 76,929,380']</t>
+          <t>['2025-12-16: 6,638,425', '2025-12-17: 8,232,320', '2025-12-18: 9,924,101', '2025-12-19: 10,925,000', '2025-12-22: 8,663,399']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-15: 206.29', '2025-12-16: 206.74', '2025-12-17: 207.87', '2025-12-18: 215.11', '2025-12-19: 209.45']</t>
+          <t>['2025-12-16: 677.3', '2025-12-17: 657.13', '2025-12-18: 694.37', '2025-12-19: 721.37', '2025-12-22: 733.6']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-15: 7,686,805', '2025-12-16: 5,156,047', '2025-12-17: 5,254,415', '2025-12-18: 12,120,600', '2025-12-19: 15,983,297']</t>
+          <t>['2025-12-16: 3,233,200', '2025-12-17: 2,997,200', '2025-12-18: 3,596,900', '2025-12-19: 7,834,000', '2025-12-22: 3,192,627']</t>
         </is>
       </c>
     </row>
@@ -6906,125 +6825,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GNRC</t>
+          <t>LW</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-15: 158.43', '2025-12-16: 155.36', '2025-12-17: 144.82', '2025-12-18: 136.99', '2025-12-19: 138.94']</t>
+          <t>['2025-12-16: 59.8', '2025-12-17: 59.46', '2025-12-18: 59.33', '2025-12-19: 43.94', '2025-12-22: 42.8']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-15: 710,207', '2025-12-16: 534,435', '2025-12-17: 1,736,192', '2025-12-18: 2,753,300', '2025-12-19: 3,572,190']</t>
+          <t>['2025-12-16: 996,400', '2025-12-17: 1,040,347', '2025-12-18: 2,691,532', '2025-12-19: 23,430,300', '2025-12-22: 8,135,004']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LW</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-15: 59.46', '2025-12-16: 59.8', '2025-12-17: 59.46', '2025-12-18: 59.33', '2025-12-19: 43.94']</t>
+          <t>['2025-12-16: 59.34', '2025-12-17: 60.11', '2025-12-18: 60.1', '2025-12-19: 59.43', '2025-12-22: 57.22']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-15: 1,126,200', '2025-12-16: 996,400', '2025-12-17: 1,040,347', '2025-12-18: 2,691,532', '2025-12-19: 23,430,274']</t>
+          <t>['2025-12-16: 7,027,254', '2025-12-17: 9,188,248', '2025-12-18: 11,093,103', '2025-12-19: 10,159,846', '2025-12-22: 18,834,503']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-15: 185.51', '2025-12-16: 176.79', '2025-12-17: 174.5', '2025-12-18: 168.11', '2025-12-19: 168.32']</t>
+          <t>['2025-12-16: 67.12', '2025-12-17: 65.69', '2025-12-18: 65.63', '2025-12-19: 58.71', '2025-12-22: 57.22']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-15: 2,402,800', '2025-12-16: 2,889,200', '2025-12-17: 3,050,900', '2025-12-18: 2,888,624', '2025-12-19: 6,618,083']</t>
+          <t>['2025-12-16: 16,376,700', '2025-12-17: 13,205,500', '2025-12-18: 35,650,016', '2025-12-19: 108,652,700', '2025-12-22: 38,695,933']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DVN</t>
+          <t>CVNA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-15: 36.17', '2025-12-16: 35.09', '2025-12-17: 36.95', '2025-12-18: 35.72', '2025-12-19: 35.84']</t>
+          <t>['2025-12-16: 455.18', '2025-12-17: 446.23', '2025-12-18: 465.74', '2025-12-19: 450.22', '2025-12-22: 433.59']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-15: 10,818,945', '2025-12-16: 10,308,300', '2025-12-17: 10,536,900', '2025-12-18: 8,142,400', '2025-12-19: 17,503,628']</t>
+          <t>['2025-12-16: 3,466,733', '2025-12-17: 3,476,417', '2025-12-18: 4,569,500', '2025-12-19: 34,651,000', '2025-12-22: 5,667,633']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>EXE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-15: 67.78', '2025-12-16: 67.12', '2025-12-17: 65.69', '2025-12-18: 65.63', '2025-12-19: 58.71']</t>
+          <t>['2025-12-16: 106.58', '2025-12-17: 109.54', '2025-12-18: 107.74', '2025-12-19: 108.74', '2025-12-22: 107.84']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-15: 15,287,500', '2025-12-16: 16,376,700', '2025-12-17: 13,205,500', '2025-12-18: 35,650,016', '2025-12-19: 108,652,694']</t>
+          <t>['2025-12-16: 4,125,204', '2025-12-17: 3,659,400', '2025-12-18: 3,840,800', '2025-12-19: 5,569,716', '2025-12-22: 2,944,695']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F184"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6322,6 +6322,102 @@
       <c r="F184" t="inlineStr">
         <is>
           <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>POOL</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>CFRA</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>POOL</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Stifel</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>POOL</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>maintain</t>
         </is>
       </c>
     </row>
@@ -6399,38 +6495,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GNRC</t>
+          <t>POOL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>CFRA</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>304</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Sam Reid</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Wells Fargo</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>195</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Barclays</t>
-        </is>
-      </c>
       <c r="I2" t="n">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Lowered</t>
+          <t>Raised</t>
         </is>
       </c>
     </row>
@@ -6483,7 +6584,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RZLV</t>
+          <t>ABAT</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6491,24 +6592,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-16: 2.97', '2025-12-17: 2.4', '2025-12-18: 2.2', '2025-12-19: 2.55', '2025-12-22: 2.89']</t>
+          <t>['2025-12-17: 3.64', '2025-12-18: 3.77', '2025-12-19: 3.97', '2025-12-22: 4.16', '2025-12-23: 4.09']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-16: 75,862,600', '2025-12-17: 61,504,000', '2025-12-18: 50,535,617', '2025-12-19: 43,556,700', '2025-12-22: 34,093,210']</t>
+          <t>['2025-12-17: 5,709,700', '2025-12-18: 4,284,900', '2025-12-19: 17,018,100', '2025-12-22: 5,879,100', '2025-12-23: 4,345,100']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ABAT</t>
+          <t>GUTS</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6521,19 +6622,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-16: 4.01', '2025-12-17: 3.64', '2025-12-18: 3.77', '2025-12-19: 3.97', '2025-12-22: 4.16']</t>
+          <t>['2025-12-17: 2.12', '2025-12-18: 2.26', '2025-12-19: 2.2', '2025-12-22: 2.28', '2025-12-23: 2.26']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-16: 4,610,900', '2025-12-17: 5,709,700', '2025-12-18: 4,284,900', '2025-12-19: 17,018,100', '2025-12-22: 5,871,300']</t>
+          <t>['2025-12-17: 2,865,200', '2025-12-18: 9,389,241', '2025-12-19: 8,185,967', '2025-12-22: 2,441,049', '2025-12-23: 1,300,440']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RZLVW</t>
+          <t>KGEI</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6541,24 +6642,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-16: 0.9', '2025-12-17: 0.6829', '2025-12-18: 0.7141', '2025-12-19: 0.84', '2025-12-22: 0.919']</t>
+          <t>['2025-12-17: 3.93', '2025-12-18: 3.79', '2025-12-19: 3.8', '2025-12-22: 3.7', '2025-12-23: 3.96']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-16: 204,732', '2025-12-17: 244,404', '2025-12-18: 60,880', '2025-12-19: 58,529', '2025-12-22: 48,489']</t>
+          <t>['2025-12-17: 163,352', '2025-12-18: 143,131', '2025-12-19: 133,800', '2025-12-22: 125,300', '2025-12-23: 62,022']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HPAI</t>
+          <t>SVCO</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -6566,42 +6667,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-16: 4.08', '2025-12-17: 4.14', '2025-12-18: 4.27', '2025-12-19: 4.15', '2025-12-22: 4.18']</t>
+          <t>['2025-12-17: 4.38', '2025-12-18: 4.35', '2025-12-19: 4.25', '2025-12-22: 4.4', '2025-12-23: 4.38']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-16: 14,700', '2025-12-17: 3,249', '2025-12-18: 2,648', '2025-12-19: 4,328', '2025-12-22: 15,525']</t>
+          <t>['2025-12-17: 176,343', '2025-12-18: 136,707', '2025-12-19: 245,516', '2025-12-22: 214,000', '2025-12-23: 148,000']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RITR</t>
+          <t>FKINX</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-16: 1.21', '2025-12-17: 1.44', '2025-12-18: 1.27', '2025-12-19: 1.39', '2025-12-22: 1.4']</t>
+          <t>['2025-12-17: 2.49', '2025-12-18: 2.49', '2025-12-19: 2.49', '2025-12-22: 2.5', '2025-12-23: 2.5']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-16: 102,208', '2025-12-17: 444,427', '2025-12-18: 91,700', '2025-12-19: 128,015', '2025-12-22: 194,180']</t>
+          <t>['2025-12-17: 0', '2025-12-18: 0', '2025-12-19: 0', '2025-12-22: 0', '2025-12-23: 0']</t>
         </is>
       </c>
     </row>
@@ -6654,82 +6755,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-16: 258.51', '2025-12-17: 254.03', '2025-12-18: 261.79', '2025-12-19: 266.98', '2025-12-22: 284.59']</t>
+          <t>['2025-12-17: 28.21', '2025-12-18: 27.61', '2025-12-19: 27.77', '2025-12-22: 28.75', '2025-12-23: 29.15']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-16: 1,489,382', '2025-12-17: 1,750,928', '2025-12-18: 1,873,889', '2025-12-19: 2,708,101', '2025-12-22: 3,478,951']</t>
+          <t>['2025-12-17: 70,350,809', '2025-12-18: 67,719,600', '2025-12-19: 136,466,113', '2025-12-22: 45,999,500', '2025-12-23: 49,960,459']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HII</t>
+          <t>CRL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-16: 326.8', '2025-12-17: 321.29', '2025-12-18: 322.63', '2025-12-19: 336.64', '2025-12-22: 353.52']</t>
+          <t>['2025-12-17: 195.98', '2025-12-18: 193.85', '2025-12-19: 197.06', '2025-12-22: 203.02', '2025-12-23: 202.87']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-16: 377,916', '2025-12-17: 475,100', '2025-12-18: 399,204', '2025-12-19: 1,438,540', '2025-12-22: 866,816']</t>
+          <t>['2025-12-17: 586,926', '2025-12-18: 670,804', '2025-12-19: 1,174,534', '2025-12-22: 631,702', '2025-12-23: 462,230']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NCLH</t>
+          <t>HII</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-16: 21.54', '2025-12-17: 21.54', '2025-12-18: 21.63', '2025-12-19: 23.04', '2025-12-22: 24.27']</t>
+          <t>['2025-12-17: 321.29', '2025-12-18: 322.63', '2025-12-19: 336.64', '2025-12-22: 353.52', '2025-12-23: 354.52']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-16: 19,447,500', '2025-12-17: 19,993,700', '2025-12-18: 18,262,310', '2025-12-19: 29,116,700', '2025-12-22: 20,066,360']</t>
+          <t>['2025-12-17: 475,100', '2025-12-18: 399,204', '2025-12-19: 1,438,540', '2025-12-22: 866,816', '2025-12-23: 645,024']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SNDK</t>
+          <t>NCLH</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -6742,19 +6843,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-16: 209.31', '2025-12-17: 206.83', '2025-12-18: 219.46', '2025-12-19: 237.61', '2025-12-22: 241.05']</t>
+          <t>['2025-12-17: 21.54', '2025-12-18: 21.63', '2025-12-19: 23.04', '2025-12-22: 24.27', '2025-12-23: 23.11']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-16: 6,638,425', '2025-12-17: 8,232,320', '2025-12-18: 9,924,101', '2025-12-19: 10,925,000', '2025-12-22: 8,663,399']</t>
+          <t>['2025-12-17: 19,993,700', '2025-12-18: 18,262,310', '2025-12-19: 29,116,700', '2025-12-22: 20,066,400', '2025-12-23: 13,677,212']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>SNPS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6767,12 +6868,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-16: 677.3', '2025-12-17: 657.13', '2025-12-18: 694.37', '2025-12-19: 721.37', '2025-12-22: 733.6']</t>
+          <t>['2025-12-17: 453.07', '2025-12-18: 458.13', '2025-12-19: 463.73', '2025-12-22: 481.24', '2025-12-23: 475.47']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-16: 3,233,200', '2025-12-17: 2,997,200', '2025-12-18: 3,596,900', '2025-12-19: 7,834,000', '2025-12-22: 3,192,627']</t>
+          <t>['2025-12-17: 2,526,108', '2025-12-18: 1,694,339', '2025-12-19: 3,952,032', '2025-12-22: 2,065,843', '2025-12-23: 1,318,945']</t>
         </is>
       </c>
     </row>
@@ -6825,7 +6926,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LW</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6838,19 +6939,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-16: 59.8', '2025-12-17: 59.46', '2025-12-18: 59.33', '2025-12-19: 43.94', '2025-12-22: 42.8']</t>
+          <t>['2025-12-17: 60.11', '2025-12-18: 60.1', '2025-12-19: 59.43', '2025-12-22: 57.22', '2025-12-23: 58.14']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-16: 996,400', '2025-12-17: 1,040,347', '2025-12-18: 2,691,532', '2025-12-19: 23,430,300', '2025-12-22: 8,135,004']</t>
+          <t>['2025-12-17: 9,188,248', '2025-12-18: 11,093,103', '2025-12-19: 10,159,846', '2025-12-22: 18,834,503', '2025-12-23: 8,862,867']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>BF-B</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6858,49 +6959,49 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-16: 59.34', '2025-12-17: 60.11', '2025-12-18: 60.1', '2025-12-19: 59.43', '2025-12-22: 57.22']</t>
+          <t>['2025-12-17: 28.84', '2025-12-18: 28.86', '2025-12-19: 28.5', '2025-12-22: 28.1', '2025-12-23: 26.64']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-16: 7,027,254', '2025-12-17: 9,188,248', '2025-12-18: 11,093,103', '2025-12-19: 10,159,846', '2025-12-22: 18,834,503']</t>
+          <t>['2025-12-17: 6,279,671', '2025-12-18: 4,254,800', '2025-12-19: 12,700,947', '2025-12-22: 4,606,847', '2025-12-23: 5,424,486']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>CVNA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-16: 67.12', '2025-12-17: 65.69', '2025-12-18: 65.63', '2025-12-19: 58.71', '2025-12-22: 57.22']</t>
+          <t>['2025-12-17: 446.23', '2025-12-18: 465.74', '2025-12-19: 450.22', '2025-12-22: 433.59', '2025-12-23: 437.35']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-16: 16,376,700', '2025-12-17: 13,205,500', '2025-12-18: 35,650,016', '2025-12-19: 108,652,700', '2025-12-22: 38,695,933']</t>
+          <t>['2025-12-17: 3,476,417', '2025-12-18: 4,569,500', '2025-12-19: 34,651,000', '2025-12-22: 5,667,633', '2025-12-23: 2,340,393']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>COIN</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -6908,24 +7009,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-16: 455.18', '2025-12-17: 446.23', '2025-12-18: 465.74', '2025-12-19: 450.22', '2025-12-22: 433.59']</t>
+          <t>['2025-12-17: 244.19', '2025-12-18: 239.2', '2025-12-19: 245.12', '2025-12-22: 247.9', '2025-12-23: 242.3']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-16: 3,466,733', '2025-12-17: 3,476,417', '2025-12-18: 4,569,500', '2025-12-19: 34,651,000', '2025-12-22: 5,667,633']</t>
+          <t>['2025-12-17: 8,429,505', '2025-12-18: 9,291,500', '2025-12-19: 10,613,048', '2025-12-22: 6,233,100', '2025-12-23: 7,004,229']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EXE</t>
+          <t>WDAY</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6938,12 +7039,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-16: 106.58', '2025-12-17: 109.54', '2025-12-18: 107.74', '2025-12-19: 108.74', '2025-12-22: 107.84']</t>
+          <t>['2025-12-17: 216.0', '2025-12-18: 218.08', '2025-12-19: 218.63', '2025-12-22: 217.99', '2025-12-23: 215.44']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-16: 4,125,204', '2025-12-17: 3,659,400', '2025-12-18: 3,840,800', '2025-12-19: 5,569,716', '2025-12-22: 2,944,695']</t>
+          <t>['2025-12-17: 3,778,013', '2025-12-18: 3,234,800', '2025-12-19: 5,534,527', '2025-12-22: 2,233,604', '2025-12-23: 2,150,450']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6416,6 +6416,102 @@
         </is>
       </c>
       <c r="F187" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>BRO</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>BMO Capital</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Outperform</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Market Perform</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>downgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>BRO</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Barclays</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>BRO</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Equal Weight</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -6432,7 +6528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6495,41 +6591,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>BRO</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BMO Capital</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Mizuho Securities</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>89</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Lowered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>POOL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>CFRA</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" t="n">
         <v>304</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Sam Reid</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Wells Fargo</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="I3" t="n">
         <v>250</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Raised</t>
         </is>
@@ -6584,7 +6718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABAT</t>
+          <t>KGEI</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6597,19 +6731,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-17: 3.64', '2025-12-18: 3.77', '2025-12-19: 3.97', '2025-12-22: 4.16', '2025-12-23: 4.09']</t>
+          <t>['2025-12-18: 3.79', '2025-12-19: 3.8', '2025-12-22: 3.7', '2025-12-23: 3.96', '2025-12-24: 4.11']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-17: 5,709,700', '2025-12-18: 4,284,900', '2025-12-19: 17,018,100', '2025-12-22: 5,879,100', '2025-12-23: 4,345,100']</t>
+          <t>['2025-12-18: 143,131', '2025-12-19: 133,800', '2025-12-22: 125,300', '2025-12-23: 62,022', '2025-12-24: 101,748']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GUTS</t>
+          <t>SHIM</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6617,74 +6751,74 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-17: 2.12', '2025-12-18: 2.26', '2025-12-19: 2.2', '2025-12-22: 2.28', '2025-12-23: 2.26']</t>
+          <t>['2025-12-18: 2.82', '2025-12-19: 2.75', '2025-12-22: 2.66', '2025-12-23: 2.7', '2025-12-24: 2.85']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-17: 2,865,200', '2025-12-18: 9,389,241', '2025-12-19: 8,185,967', '2025-12-22: 2,441,049', '2025-12-23: 1,300,440']</t>
+          <t>['2025-12-18: 36,443', '2025-12-19: 7,411', '2025-12-22: 8,300', '2025-12-23: 12,500', '2025-12-24: 21,300']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KGEI</t>
+          <t>FKINX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-17: 3.93', '2025-12-18: 3.79', '2025-12-19: 3.8', '2025-12-22: 3.7', '2025-12-23: 3.96']</t>
+          <t>['2025-12-18: 2.49', '2025-12-19: 2.49', '2025-12-22: 2.5', '2025-12-23: 2.5', '2025-12-24: 2.5']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-17: 163,352', '2025-12-18: 143,131', '2025-12-19: 133,800', '2025-12-22: 125,300', '2025-12-23: 62,022']</t>
+          <t>['2025-12-18: 0', '2025-12-19: 0', '2025-12-22: 0', '2025-12-23: 0', '2025-12-24: 0']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SVCO</t>
+          <t>FNCFX</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-17: 4.38', '2025-12-18: 4.35', '2025-12-19: 4.25', '2025-12-22: 4.4', '2025-12-23: 4.38']</t>
+          <t>['2025-12-18: 2.48', '2025-12-19: 2.48', '2025-12-22: 2.48', '2025-12-23: 2.48', '2025-12-24: 2.49']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-17: 176,343', '2025-12-18: 136,707', '2025-12-19: 245,516', '2025-12-22: 214,000', '2025-12-23: 148,000']</t>
+          <t>['2025-12-18: 0', '2025-12-19: 0', '2025-12-22: 0', '2025-12-23: 0', '2025-12-24: 0']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FKINX</t>
+          <t>FRIAX</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6697,12 +6831,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-17: 2.49', '2025-12-18: 2.49', '2025-12-19: 2.49', '2025-12-22: 2.5', '2025-12-23: 2.5']</t>
+          <t>['2025-12-18: 2.47', '2025-12-19: 2.46', '2025-12-22: 2.47', '2025-12-23: 2.47', '2025-12-24: 2.48']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-17: 0', '2025-12-18: 0', '2025-12-19: 0', '2025-12-22: 0', '2025-12-23: 0']</t>
+          <t>['2025-12-18: 0', '2025-12-19: 0', '2025-12-22: 0', '2025-12-23: 0', '2025-12-24: 0']</t>
         </is>
       </c>
     </row>
@@ -6755,7 +6889,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6768,112 +6902,112 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-17: 28.21', '2025-12-18: 27.61', '2025-12-19: 27.77', '2025-12-22: 28.75', '2025-12-23: 29.15']</t>
+          <t>['2025-12-18: 174.14', '2025-12-19: 180.99', '2025-12-22: 183.69', '2025-12-23: 189.21', '2025-12-24: 188.61']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-17: 70,350,809', '2025-12-18: 67,719,600', '2025-12-19: 136,466,113', '2025-12-22: 45,999,500', '2025-12-23: 49,960,459']</t>
+          <t>['2025-12-18: 176,096,001', '2025-12-19: 324,925,927', '2025-12-22: 129,064,400', '2025-12-23: 174,873,621', '2025-12-24: 65,528,545']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>CRH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-17: 195.98', '2025-12-18: 193.85', '2025-12-19: 197.06', '2025-12-22: 203.02', '2025-12-23: 202.87']</t>
+          <t>['2025-12-18: 127.17', '2025-12-19: 124.42', '2025-12-22: 126.22', '2025-12-23: 126.6', '2025-12-24: 127.54']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-17: 586,926', '2025-12-18: 670,804', '2025-12-19: 1,174,534', '2025-12-22: 631,702', '2025-12-23: 462,230']</t>
+          <t>['2025-12-18: 9,489,638', '2025-12-19: 140,096,313', '2025-12-22: 7,926,630', '2025-12-23: 5,108,236', '2025-12-24: 1,653,048']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HII</t>
+          <t>SNDK</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-17: 321.29', '2025-12-18: 322.63', '2025-12-19: 336.64', '2025-12-22: 353.52', '2025-12-23: 354.52']</t>
+          <t>['2025-12-18: 219.46', '2025-12-19: 237.61', '2025-12-22: 241.05', '2025-12-23: 244.9', '2025-12-24: 250.08']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-17: 475,100', '2025-12-18: 399,204', '2025-12-19: 1,438,540', '2025-12-22: 866,816', '2025-12-23: 645,024']</t>
+          <t>['2025-12-18: 9,924,101', '2025-12-19: 10,925,000', '2025-12-22: 8,663,400', '2025-12-23: 5,305,700', '2025-12-24: 5,642,600']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NCLH</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-17: 21.54', '2025-12-18: 21.63', '2025-12-19: 23.04', '2025-12-22: 24.27', '2025-12-23: 23.11']</t>
+          <t>['2025-12-18: 79.03', '2025-12-19: 79.7', '2025-12-22: 81.89', '2025-12-23: 83.17', '2025-12-24: 83.37']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-17: 19,993,700', '2025-12-18: 18,262,310', '2025-12-19: 29,116,700', '2025-12-22: 20,066,400', '2025-12-23: 13,677,212']</t>
+          <t>['2025-12-18: 2,565,737', '2025-12-19: 6,553,346', '2025-12-22: 1,723,531', '2025-12-23: 1,244,138', '2025-12-24: 637,046']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-17: 453.07', '2025-12-18: 458.13', '2025-12-19: 463.73', '2025-12-22: 481.24', '2025-12-23: 475.47']</t>
+          <t>['2025-12-18: 694.37', '2025-12-19: 721.37', '2025-12-22: 733.6', '2025-12-23: 728.45', '2025-12-24: 727.5']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-17: 2,526,108', '2025-12-18: 1,694,339', '2025-12-19: 3,952,032', '2025-12-22: 2,065,843', '2025-12-23: 1,318,945']</t>
+          <t>['2025-12-18: 3,596,900', '2025-12-19: 7,834,000', '2025-12-22: 3,192,627', '2025-12-23: 2,229,400', '2025-12-24: 947,400']</t>
         </is>
       </c>
     </row>
@@ -6926,7 +7060,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>PAYC</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6939,19 +7073,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-17: 60.11', '2025-12-18: 60.1', '2025-12-19: 59.43', '2025-12-22: 57.22', '2025-12-23: 58.14']</t>
+          <t>['2025-12-18: 164.31', '2025-12-19: 162.72', '2025-12-22: 165.42', '2025-12-23: 159.63', '2025-12-24: 160.4']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-17: 9,188,248', '2025-12-18: 11,093,103', '2025-12-19: 10,159,846', '2025-12-22: 18,834,503', '2025-12-23: 8,862,867']</t>
+          <t>['2025-12-18: 1,107,500', '2025-12-19: 2,246,200', '2025-12-22: 624,300', '2025-12-23: 708,200', '2025-12-24: 255,010']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BF-B</t>
+          <t>HOLX</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6959,74 +7093,74 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-17: 28.84', '2025-12-18: 28.86', '2025-12-19: 28.5', '2025-12-22: 28.1', '2025-12-23: 26.64']</t>
+          <t>['2025-12-18: 74.94', '2025-12-19: 74.95', '2025-12-22: 74.91', '2025-12-23: 74.87', '2025-12-24: 74.5']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-17: 6,279,671', '2025-12-18: 4,254,800', '2025-12-19: 12,700,947', '2025-12-22: 4,606,847', '2025-12-23: 5,424,486']</t>
+          <t>['2025-12-18: 3,068,832', '2025-12-19: 5,743,500', '2025-12-22: 1,450,015', '2025-12-23: 1,233,274', '2025-12-24: 5,893,700']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>BF-B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-17: 446.23', '2025-12-18: 465.74', '2025-12-19: 450.22', '2025-12-22: 433.59', '2025-12-23: 437.35']</t>
+          <t>['2025-12-18: 28.86', '2025-12-19: 28.5', '2025-12-22: 28.1', '2025-12-23: 26.64', '2025-12-24: 26.89']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-17: 3,476,417', '2025-12-18: 4,569,500', '2025-12-19: 34,651,000', '2025-12-22: 5,667,633', '2025-12-23: 2,340,393']</t>
+          <t>['2025-12-18: 4,254,800', '2025-12-19: 12,700,947', '2025-12-22: 4,606,847', '2025-12-23: 5,424,500', '2025-12-24: 2,627,500']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>CPB</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-17: 244.19', '2025-12-18: 239.2', '2025-12-19: 245.12', '2025-12-22: 247.9', '2025-12-23: 242.3']</t>
+          <t>['2025-12-18: 28.69', '2025-12-19: 28.58', '2025-12-22: 28.55', '2025-12-23: 27.68', '2025-12-24: 28.02']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-17: 8,429,505', '2025-12-18: 9,291,500', '2025-12-19: 10,613,048', '2025-12-22: 6,233,100', '2025-12-23: 7,004,229']</t>
+          <t>['2025-12-18: 4,508,800', '2025-12-19: 12,285,588', '2025-12-22: 4,675,700', '2025-12-23: 5,307,835', '2025-12-24: 2,658,918']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -7039,12 +7173,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-17: 216.0', '2025-12-18: 218.08', '2025-12-19: 218.63', '2025-12-22: 217.99', '2025-12-23: 215.44']</t>
+          <t>['2025-12-18: 138.29', '2025-12-19: 140.39', '2025-12-22: 141.84', '2025-12-23: 141.23', '2025-12-24: 138.04']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-17: 3,778,013', '2025-12-18: 3,234,800', '2025-12-19: 5,534,527', '2025-12-22: 2,233,604', '2025-12-23: 2,150,450']</t>
+          <t>['2025-12-18: 4,380,209', '2025-12-19: 6,302,943', '2025-12-22: 3,049,000', '2025-12-23: 3,084,826', '2025-12-24: 2,005,435']</t>
         </is>
       </c>
     </row>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -6680,7 +6680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6837,6 +6837,131 @@
       <c r="E6" t="inlineStr">
         <is>
           <t>['2025-12-18: 0', '2025-12-19: 0', '2025-12-22: 0', '2025-12-23: 0', '2025-12-24: 0']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 2.45', '2025-12-29: 2.42', '2025-12-30: 2.38', '2025-12-31: 2.48', '2026-01-02: 2.72']</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 931,642', '2025-12-29: 1,820,202', '2025-12-30: 2,330,247', '2025-12-31: 3,540,200', '2026-01-02: 4,570,159']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RZLV</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 2.85', '2025-12-29: 2.67', '2025-12-30: 2.58', '2025-12-31: 2.57', '2026-01-02: 2.87']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 13,780,200', '2025-12-29: 21,654,118', '2025-12-30: 12,843,435', '2025-12-31: 11,259,500', '2026-01-02: 18,766,623']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 3.36', '2025-12-29: 3.18', '2025-12-30: 3.09', '2025-12-31: 3.23', '2026-01-02: 3.48']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 16,416,702', '2025-12-29: 13,709,042', '2025-12-30: 16,785,700', '2025-12-31: 33,694,900', '2026-01-02: 23,235,886']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CURR</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 1.91', '2025-12-29: 1.86', '2025-12-30: 1.9', '2025-12-31: 1.79', '2026-01-02: 1.9']</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 168,417', '2025-12-29: 228,248', '2025-12-30: 81,235', '2025-12-31: 113,100', '2026-01-02: 1,945,022']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ATLN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 1.28', '2025-12-29: 1.29', '2025-12-30: 1.33', '2025-12-31: 1.33', '2026-01-02: 2.04']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 44,112', '2025-12-29: 123,122', '2025-12-30: 26,847', '2025-12-31: 17,036', '2026-01-02: 5,220,460']</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7008,6 +7133,106 @@
       <c r="E6" t="inlineStr">
         <is>
           <t>['2025-12-18: 3,596,900', '2025-12-19: 7,834,000', '2025-12-22: 3,192,627', '2025-12-23: 2,229,400', '2025-12-24: 947,400']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FIX</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 963.83', '2025-12-29: 950.67', '2025-12-30: 946.93', '2025-12-31: 933.29', '2026-01-02: 1003.64']</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 170,536', '2025-12-29: 259,472', '2025-12-30: 216,200', '2025-12-31: 192,800', '2026-01-02: 392,930']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>WSM</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 188.59', '2025-12-29: 187.14', '2025-12-30: 181.4', '2025-12-31: 178.59', '2026-01-02: 187.85']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 498,929', '2025-12-29: 703,200', '2025-12-30: 711,349', '2025-12-31: 867,258', '2026-01-02: 1,687,635']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 198.9', '2025-12-29: 197.36', '2025-12-30: 196.67', '2025-12-31: 193.56', '2026-01-02: 207.56']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 1,247,800', '2025-12-29: 1,717,971', '2025-12-30: 1,989,405', '2025-12-31: 1,193,949', '2026-01-02: 3,213,242']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 178.07', '2025-12-29: 175.87', '2025-12-30: 173.78', '2025-12-31: 171.18', '2026-01-02: 185.06']</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 5,238,945', '2025-12-29: 6,663,341', '2025-12-30: 5,670,823', '2025-12-31: 4,935,800', '2026-01-02: 11,846,648']</t>
         </is>
       </c>
     </row>
@@ -7022,7 +7247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7182,6 +7407,131 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CVNA</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 438.47', '2025-12-29: 433.55', '2025-12-30: 429.55', '2025-12-31: 422.02', '2026-01-02: 400.25']</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 1,257,100', '2025-12-29: 1,682,000', '2025-12-30: 1,345,200', '2025-12-31: 1,599,300', '2026-01-02: 4,675,245']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 714.23', '2025-12-29: 698.82', '2025-12-30: 693.71', '2025-12-31: 673.82', '2026-01-02: 618.32']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 1,766,931', '2025-12-29: 3,222,400', '2025-12-30: 2,249,106', '2025-12-31: 1,930,019', '2026-01-02: 5,580,262']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 188.71', '2025-12-29: 184.18', '2025-12-30: 180.84', '2025-12-31: 177.75', '2026-01-02: 167.86']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 26,262,000', '2025-12-29: 28,242,003', '2025-12-30: 23,336,307', '2025-12-31: 22,997,438', '2026-01-02: 60,064,062']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>WDAY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 220.7', '2025-12-29: 218.99', '2025-12-30: 216.93', '2025-12-31: 214.78', '2026-01-02: 205.79']</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 1,648,600', '2025-12-29: 1,612,401', '2025-12-30: 1,890,139', '2025-12-31: 2,231,900', '2026-01-02: 6,041,938']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 481.19', '2025-12-29: 475.91', '2025-12-30: 475.63', '2025-12-31: 468.76', '2026-01-02: 453.58']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['2025-12-26: 1,150,700', '2025-12-29: 1,314,644', '2025-12-30: 1,168,100', '2025-12-31: 1,661,043', '2026-01-02: 3,276,362']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/grades_updates.xlsx
+++ b/data/grades_updates.xlsx
@@ -9,9 +9,8 @@
   <sheets>
     <sheet name="Grades Updates" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Price Target Trend" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Top Penny Stocks" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Top SP500 Stocks" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Bottom SP500 Stocks" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Top SP500 Stocks" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Bottom SP500 Stocks" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6512,6 +6511,102 @@
         </is>
       </c>
       <c r="F190" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Guggenheim</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Piper Sandler</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
@@ -6528,7 +6623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6591,79 +6686,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>PANW</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BMO Capital</t>
+          <t>Piper Sandler</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>88</v>
+        <v>265</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Rudy Kessinger</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Mizuho Securities</t>
+          <t>D.A. Davidson</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>Lowered</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>POOL</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CFRA</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>304</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Sam Reid</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Wells Fargo</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>250</v>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t>Raised</t>
         </is>
@@ -6680,7 +6737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6718,250 +6775,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KGEI</t>
+          <t>IBKR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-18: 3.79', '2025-12-19: 3.8', '2025-12-22: 3.7', '2025-12-23: 3.96', '2025-12-24: 4.11']</t>
+          <t>['2025-12-29: 65.35', '2025-12-30: 65.0', '2025-12-31: 64.31', '2026-01-02: 67.23', '2026-01-05: 71.57']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-18: 143,131', '2025-12-19: 133,800', '2025-12-22: 125,300', '2025-12-23: 62,022', '2025-12-24: 101,748']</t>
+          <t>['2025-12-29: 2,442,200', '2025-12-30: 2,106,700', '2025-12-31: 2,300,802', '2026-01-02: 4,881,971', '2026-01-05: 5,283,121']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SHIM</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-18: 2.82', '2025-12-19: 2.75', '2025-12-22: 2.66', '2025-12-23: 2.7', '2025-12-24: 2.85']</t>
+          <t>['2025-12-29: 197.36', '2025-12-30: 196.67', '2025-12-31: 193.56', '2026-01-02: 207.56', '2026-01-05: 219.5']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-18: 36,443', '2025-12-19: 7,411', '2025-12-22: 8,300', '2025-12-23: 12,500', '2025-12-24: 21,300']</t>
+          <t>['2025-12-29: 1,717,971', '2025-12-30: 1,989,405', '2025-12-31: 1,193,949', '2026-01-02: 3,224,130', '2026-01-05: 4,271,645']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FKINX</t>
+          <t>LRCX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-18: 2.49', '2025-12-19: 2.49', '2025-12-22: 2.5', '2025-12-23: 2.5', '2025-12-24: 2.5']</t>
+          <t>['2025-12-29: 175.87', '2025-12-30: 173.78', '2025-12-31: 171.18', '2026-01-02: 185.06', '2026-01-05: 194.76']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-18: 0', '2025-12-19: 0', '2025-12-22: 0', '2025-12-23: 0', '2025-12-24: 0']</t>
+          <t>['2025-12-29: 6,663,341', '2025-12-30: 5,670,823', '2025-12-31: 4,935,800', '2026-01-02: 11,957,400', '2026-01-05: 16,268,153']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FNCFX</t>
+          <t>KLAC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-18: 2.48', '2025-12-19: 2.48', '2025-12-22: 2.48', '2025-12-23: 2.48', '2025-12-24: 2.49']</t>
+          <t>['2025-12-29: 1260.39', '2025-12-30: 1243.65', '2025-12-31: 1215.08', '2026-01-02: 1274.47', '2026-01-05: 1352.45']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-18: 0', '2025-12-19: 0', '2025-12-22: 0', '2025-12-23: 0', '2025-12-24: 0']</t>
+          <t>['2025-12-29: 641,771', '2025-12-30: 384,300', '2025-12-31: 608,043', '2026-01-02: 832,190', '2026-01-05: 1,319,862']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FRIAX</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-18: 2.47', '2025-12-19: 2.46', '2025-12-22: 2.47', '2025-12-23: 2.47', '2025-12-24: 2.48']</t>
+          <t>['2025-12-29: 263.05', '2025-12-30: 259.97', '2025-12-31: 256.99', '2026-01-02: 268.87', '2026-01-05: 284.32']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-18: 0', '2025-12-19: 0', '2025-12-22: 0', '2025-12-23: 0', '2025-12-24: 0']</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%; Volume surge &gt;1.5 * 5-day avg</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 2.45', '2025-12-29: 2.42', '2025-12-30: 2.38', '2025-12-31: 2.48', '2026-01-02: 2.72']</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 931,642', '2025-12-29: 1,820,202', '2025-12-30: 2,330,247', '2025-12-31: 3,540,200', '2026-01-02: 4,570,159']</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>RZLV</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 2.85', '2025-12-29: 2.67', '2025-12-30: 2.58', '2025-12-31: 2.57', '2026-01-02: 2.87']</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 13,780,200', '2025-12-29: 21,654,118', '2025-12-30: 12,843,435', '2025-12-31: 11,259,500', '2026-01-02: 18,766,623']</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Previous day surge &gt;3%</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 3.36', '2025-12-29: 3.18', '2025-12-30: 3.09', '2025-12-31: 3.23', '2026-01-02: 3.48']</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 16,416,702', '2025-12-29: 13,709,042', '2025-12-30: 16,785,700', '2025-12-31: 33,694,900', '2026-01-02: 23,235,886']</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CURR</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 1.91', '2025-12-29: 1.86', '2025-12-30: 1.9', '2025-12-31: 1.79', '2026-01-02: 1.9']</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 168,417', '2025-12-29: 228,248', '2025-12-30: 81,235', '2025-12-31: 113,100', '2026-01-02: 1,945,022']</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ATLN</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Volume surge &gt;1.5 * 5-day avg</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 1.28', '2025-12-29: 1.29', '2025-12-30: 1.33', '2025-12-31: 1.33', '2026-01-02: 2.04']</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 44,112', '2025-12-29: 123,122', '2025-12-30: 26,847', '2025-12-31: 17,036', '2026-01-02: 5,220,460']</t>
+          <t>['2025-12-29: 2,601,600', '2025-12-30: 2,185,127', '2025-12-31: 3,025,800', '2026-01-02: 7,553,217', '2026-01-05: 10,398,711']</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7014,521 +6946,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>GDDY</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Previous day surge &gt;3%; Near 20-day high breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['2025-12-18: 174.14', '2025-12-19: 180.99', '2025-12-22: 183.69', '2025-12-23: 189.21', '2025-12-24: 188.61']</t>
+          <t>['2025-12-29: 126.51', '2025-12-30: 126.08', '2025-12-31: 124.08', '2026-01-02: 118.52', '2026-01-05: 118.59']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2025-12-18: 176,096,001', '2025-12-19: 324,925,927', '2025-12-22: 129,064,400', '2025-12-23: 174,873,621', '2025-12-24: 65,528,545']</t>
+          <t>['2025-12-29: 887,221', '2025-12-30: 853,119', '2025-12-31: 951,400', '2026-01-02: 1,469,835', '2026-01-05: 1,937,240']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>ADSK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['2025-12-18: 127.17', '2025-12-19: 124.42', '2025-12-22: 126.22', '2025-12-23: 126.6', '2025-12-24: 127.54']</t>
+          <t>['2025-12-29: 301.23', '2025-12-30: 299.54', '2025-12-31: 296.01', '2026-01-02: 286.73', '2026-01-05: 288.66']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['2025-12-18: 9,489,638', '2025-12-19: 140,096,313', '2025-12-22: 7,926,630', '2025-12-23: 5,108,236', '2025-12-24: 1,653,048']</t>
+          <t>['2025-12-29: 657,024', '2025-12-30: 627,770', '2025-12-31: 749,200', '2026-01-02: 1,317,734', '2026-01-05: 1,463,866']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SNDK</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['2025-12-18: 219.46', '2025-12-19: 237.61', '2025-12-22: 241.05', '2025-12-23: 244.9', '2025-12-24: 250.08']</t>
+          <t>['2025-12-29: 698.82', '2025-12-30: 693.71', '2025-12-31: 673.82', '2026-01-02: 618.32', '2026-01-05: 632.91']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2025-12-18: 9,924,101', '2025-12-19: 10,925,000', '2025-12-22: 8,663,400', '2025-12-23: 5,305,700', '2025-12-24: 5,642,600']</t>
+          <t>['2025-12-29: 3,222,400', '2025-12-30: 2,249,106', '2025-12-31: 1,930,019', '2026-01-02: 5,611,203', '2026-01-05: 3,846,910']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2025-12-18: 79.03', '2025-12-19: 79.7', '2025-12-22: 81.89', '2025-12-23: 83.17', '2025-12-24: 83.37']</t>
+          <t>['2025-12-29: 137.94', '2025-12-30: 137.48', '2025-12-31: 135.99', '2026-01-02: 133.77', '2026-01-05: 133.64']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2025-12-18: 2,565,737', '2025-12-19: 6,553,346', '2025-12-22: 1,723,531', '2025-12-23: 1,244,138', '2025-12-24: 637,046']</t>
+          <t>['2025-12-29: 2,095,981', '2025-12-30: 1,615,000', '2025-12-31: 1,603,928', '2026-01-02: 2,566,127', '2026-01-05: 3,828,397']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>EXE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Price above MA5 &amp; MA10; Near 20-day high breakout</t>
+          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['2025-12-18: 694.37', '2025-12-19: 721.37', '2025-12-22: 733.6', '2025-12-23: 728.45', '2025-12-24: 727.5']</t>
+          <t>['2025-12-29: 111.78', '2025-12-30: 112.02', '2025-12-31: 110.36', '2026-01-02: 109.77', '2026-01-05: 106.82']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['2025-12-18: 3,596,900', '2025-12-19: 7,834,000', '2025-12-22: 3,192,627', '2025-12-23: 2,229,400', '2025-12-24: 947,400']</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>FIX</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 963.83', '2025-12-29: 950.67', '2025-12-30: 946.93', '2025-12-31: 933.29', '2026-01-02: 1003.64']</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 170,536', '2025-12-29: 259,472', '2025-12-30: 216,200', '2025-12-31: 192,800', '2026-01-02: 392,930']</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>WSM</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 188.59', '2025-12-29: 187.14', '2025-12-30: 181.4', '2025-12-31: 178.59', '2026-01-02: 187.85']</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 498,929', '2025-12-29: 703,200', '2025-12-30: 711,349', '2025-12-31: 867,258', '2026-01-02: 1,687,635']</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TER</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 198.9', '2025-12-29: 197.36', '2025-12-30: 196.67', '2025-12-31: 193.56', '2026-01-02: 207.56']</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 1,247,800', '2025-12-29: 1,717,971', '2025-12-30: 1,989,405', '2025-12-31: 1,193,949', '2026-01-02: 3,213,242']</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LRCX</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Price above MA5 &amp; MA10; Recent price surge &gt;5%; Near 20-day high breakout; Volume surge &gt;1.5 * 5-day avg</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 178.07', '2025-12-29: 175.87', '2025-12-30: 173.78', '2025-12-31: 171.18', '2026-01-02: 185.06']</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 5,238,945', '2025-12-29: 6,663,341', '2025-12-30: 5,670,823', '2025-12-31: 4,935,800', '2026-01-02: 11,846,648']</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>symbol</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>breakdown</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>last_5_close</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>last_5_volume</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PAYC</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>['2025-12-18: 164.31', '2025-12-19: 162.72', '2025-12-22: 165.42', '2025-12-23: 159.63', '2025-12-24: 160.4']</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>['2025-12-18: 1,107,500', '2025-12-19: 2,246,200', '2025-12-22: 624,300', '2025-12-23: 708,200', '2025-12-24: 255,010']</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HOLX</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>['2025-12-18: 74.94', '2025-12-19: 74.95', '2025-12-22: 74.91', '2025-12-23: 74.87', '2025-12-24: 74.5']</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>['2025-12-18: 3,068,832', '2025-12-19: 5,743,500', '2025-12-22: 1,450,015', '2025-12-23: 1,233,274', '2025-12-24: 5,893,700']</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BF-B</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>['2025-12-18: 28.86', '2025-12-19: 28.5', '2025-12-22: 28.1', '2025-12-23: 26.64', '2025-12-24: 26.89']</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>['2025-12-18: 4,254,800', '2025-12-19: 12,700,947', '2025-12-22: 4,606,847', '2025-12-23: 5,424,500', '2025-12-24: 2,627,500']</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CPB</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Price below MA5 &amp; MA10; Previous day drop &gt;3%; Near 20-day low breakout</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>['2025-12-18: 28.69', '2025-12-19: 28.58', '2025-12-22: 28.55', '2025-12-23: 27.68', '2025-12-24: 28.02']</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>['2025-12-18: 4,508,800', '2025-12-19: 12,285,588', '2025-12-22: 4,675,700', '2025-12-23: 5,307,835', '2025-12-24: 2,658,918']</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DDOG</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>['2025-12-18: 138.29', '2025-12-19: 140.39', '2025-12-22: 141.84', '2025-12-23: 141.23', '2025-12-24: 138.04']</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>['2025-12-18: 4,380,209', '2025-12-19: 6,302,943', '2025-12-22: 3,049,000', '2025-12-23: 3,084,826', '2025-12-24: 2,005,435']</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CVNA</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 438.47', '2025-12-29: 433.55', '2025-12-30: 429.55', '2025-12-31: 422.02', '2026-01-02: 400.25']</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 1,257,100', '2025-12-29: 1,682,000', '2025-12-30: 1,345,200', '2025-12-31: 1,599,300', '2026-01-02: 4,675,245']</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>APP</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 714.23', '2025-12-29: 698.82', '2025-12-30: 693.71', '2025-12-31: 673.82', '2026-01-02: 618.32']</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 1,766,931', '2025-12-29: 3,222,400', '2025-12-30: 2,249,106', '2025-12-31: 1,930,019', '2026-01-02: 5,580,262']</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PLTR</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Price below MA5 &amp; MA10; Recent price drop &gt;5%; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 188.71', '2025-12-29: 184.18', '2025-12-30: 180.84', '2025-12-31: 177.75', '2026-01-02: 167.86']</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 26,262,000', '2025-12-29: 28,242,003', '2025-12-30: 23,336,307', '2025-12-31: 22,997,438', '2026-01-02: 60,064,062']</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>WDAY</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 220.7', '2025-12-29: 218.99', '2025-12-30: 216.93', '2025-12-31: 214.78', '2026-01-02: 205.79']</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 1,648,600', '2025-12-29: 1,612,401', '2025-12-30: 1,890,139', '2025-12-31: 2,231,900', '2026-01-02: 6,041,938']</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CRWD</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Price below MA5 &amp; MA10; Near 20-day low breakout; Volume surge &gt;1.5 * 5-day avg</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 481.19', '2025-12-29: 475.91', '2025-12-30: 475.63', '2025-12-31: 468.76', '2026-01-02: 453.58']</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>['2025-12-26: 1,150,700', '2025-12-29: 1,314,644', '2025-12-30: 1,168,100', '2025-12-31: 1,661,043', '2026-01-02: 3,276,362']</t>
+          <t>['2025-12-29: 1,866,503', '2025-12-30: 1,692,355', '2025-12-31: 1,689,412', '2026-01-02: 2,541,900', '2026-01-05: 4,490,161']</t>
         </is>
       </c>
     </row>
